--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,26 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58,4826 +70,4826 @@
   <dimension ref="A1:D344"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.28475823619741658</v>
+        <v>0.21697065542171046</v>
       </c>
       <c r="B1">
-        <v>0.50588797599374102</v>
+        <v>0.50940172540457029</v>
       </c>
       <c r="C1">
-        <v>0.44957440379131769</v>
+        <v>0.4456903283334186</v>
       </c>
       <c r="D1">
-        <v>0.019303167517597579</v>
+        <v>1.706963657424073</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.31958347074929716</v>
+        <v>0.26906148779853162</v>
       </c>
       <c r="B2">
-        <v>0.50828490341621346</v>
+        <v>0.51169064706394141</v>
       </c>
       <c r="C2">
-        <v>0.44569359208918868</v>
+        <v>0.44185381178570116</v>
       </c>
       <c r="D2">
-        <v>0.018525850137270265</v>
+        <v>1.3344504556584071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.29980566208478676</v>
+        <v>0.24692080976220276</v>
       </c>
       <c r="B3">
-        <v>0.50331388549682743</v>
+        <v>0.50650942768877394</v>
       </c>
       <c r="C3">
-        <v>0.45153761626232325</v>
+        <v>0.44793088599669617</v>
       </c>
       <c r="D3">
-        <v>0.019500535759777126</v>
+        <v>1.386446842001515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.30013622348784391</v>
+        <v>0.24886757689007569</v>
       </c>
       <c r="B4">
-        <v>0.50404353648099554</v>
+        <v>0.5067632960606413</v>
       </c>
       <c r="C4">
-        <v>0.45078186700380141</v>
+        <v>0.44777939842150527</v>
       </c>
       <c r="D4">
-        <v>0.02046802071160371</v>
+        <v>1.2748734179343815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.28977089880734225</v>
+        <v>0.24238593520228449</v>
       </c>
       <c r="B5">
-        <v>0.50350440950593445</v>
+        <v>0.50617946605741038</v>
       </c>
       <c r="C5">
-        <v>0.45170023754894273</v>
+        <v>0.44875662593430771</v>
       </c>
       <c r="D5">
-        <v>0.020983572464384287</v>
+        <v>1.1719336923274348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.3225346544444388</v>
+        <v>0.27842989005832536</v>
       </c>
       <c r="B6">
-        <v>0.50503727392186359</v>
+        <v>0.50703742054983514</v>
       </c>
       <c r="C6">
-        <v>0.44895010431014465</v>
+        <v>0.44675435529800878</v>
       </c>
       <c r="D6">
-        <v>0.020199857791178544</v>
+        <v>1.079614451681373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.32683001214697383</v>
+        <v>0.28358817365846922</v>
       </c>
       <c r="B7">
-        <v>0.50676335384711235</v>
+        <v>0.50887117886819466</v>
       </c>
       <c r="C7">
-        <v>0.44703869533130652</v>
+        <v>0.44471956006305219</v>
       </c>
       <c r="D7">
-        <v>0.020607418873775176</v>
+        <v>1.0678361119383408</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.31409814272097281</v>
+        <v>0.26725439226494291</v>
       </c>
       <c r="B8">
-        <v>0.50377281916673911</v>
+        <v>0.50605102614047814</v>
       </c>
       <c r="C8">
-        <v>0.45042636375308215</v>
+        <v>0.4479147591535767</v>
       </c>
       <c r="D8">
-        <v>0.020638593710143049</v>
+        <v>1.1640759828461225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.31467945476512132</v>
+        <v>0.26842620122833799</v>
       </c>
       <c r="B9">
-        <v>0.50441329090857756</v>
+        <v>0.50671845083859135</v>
       </c>
       <c r="C9">
-        <v>0.44974897584094703</v>
+        <v>0.44719936818606604</v>
       </c>
       <c r="D9">
-        <v>0.021831453774108188</v>
+        <v>1.1620042429533992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.30205475678290827</v>
+        <v>0.25367181311594933</v>
       </c>
       <c r="B10">
-        <v>0.50362929216779617</v>
+        <v>0.50580536843184043</v>
       </c>
       <c r="C10">
-        <v>0.45081641018380536</v>
+        <v>0.4484077424086636</v>
       </c>
       <c r="D10">
-        <v>0.02098148919627519</v>
+        <v>1.211392597055694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.32689164009141947</v>
+        <v>0.23658389403320648</v>
       </c>
       <c r="B11">
-        <v>0.50122076842169072</v>
+        <v>0.50641838877889056</v>
       </c>
       <c r="C11">
-        <v>0.45272749097272619</v>
+        <v>0.4470560589215557</v>
       </c>
       <c r="D11">
-        <v>0.020605802182624249</v>
+        <v>2.2175267118099997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.32549006372648986</v>
+        <v>0.23547574747100852</v>
       </c>
       <c r="B12">
-        <v>0.50109370310002044</v>
+        <v>0.50578204196145948</v>
       </c>
       <c r="C12">
-        <v>0.45289419122302182</v>
+        <v>0.44778742827156381</v>
       </c>
       <c r="D12">
-        <v>0.021539322021006495</v>
+        <v>2.1734996046993955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.33602249272807533</v>
+        <v>0.24501646370230837</v>
       </c>
       <c r="B13">
-        <v>0.50391178663276204</v>
+        <v>0.50829681672261573</v>
       </c>
       <c r="C13">
-        <v>0.44981136136217437</v>
+        <v>0.44504885230373542</v>
       </c>
       <c r="D13">
-        <v>0.020827401021247589</v>
+        <v>2.1858395935847286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.32018479680817569</v>
+        <v>0.23224653307244356</v>
       </c>
       <c r="B14">
-        <v>0.49914905506796631</v>
+        <v>0.50341009637829259</v>
       </c>
       <c r="C14">
-        <v>0.45489785521436737</v>
+        <v>0.45026866042754643</v>
       </c>
       <c r="D14">
-        <v>0.021586556726431574</v>
+        <v>2.1044529045956923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.32213397234991331</v>
+        <v>0.2346757855667109</v>
       </c>
       <c r="B15">
-        <v>0.4995082296692846</v>
+        <v>0.5036834334084298</v>
       </c>
       <c r="C15">
-        <v>0.4545222309013851</v>
+        <v>0.44998982846148211</v>
       </c>
       <c r="D15">
-        <v>0.02209436713780763</v>
+        <v>2.0963835094727137</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.31406203980957709</v>
+        <v>0.22382211186341383</v>
       </c>
       <c r="B16">
-        <v>0.49920849523746658</v>
+        <v>0.50354844255572506</v>
       </c>
       <c r="C16">
-        <v>0.45487380329127586</v>
+        <v>0.45014659144913199</v>
       </c>
       <c r="D16">
-        <v>0.022712687138062262</v>
+        <v>2.1785562410950732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.30582365684675344</v>
+        <v>0.21102521267447663</v>
       </c>
       <c r="B17">
-        <v>0.50088922693053106</v>
+        <v>0.50528446263213778</v>
       </c>
       <c r="C17">
-        <v>0.45317432172089916</v>
+        <v>0.44836161028964538</v>
       </c>
       <c r="D17">
-        <v>0.024467567845728032</v>
+        <v>2.3060762527682832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.31099153008148289</v>
+        <v>0.20998801597310873</v>
       </c>
       <c r="B18">
-        <v>0.50028506265523298</v>
+        <v>0.50577160104542795</v>
       </c>
       <c r="C18">
-        <v>0.45370093802197681</v>
+        <v>0.44780109808606861</v>
       </c>
       <c r="D18">
-        <v>0.0249227747421027</v>
+        <v>2.379578857722874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.3066948253179041</v>
+        <v>0.2114612473887835</v>
       </c>
       <c r="B19">
-        <v>0.50030028698735562</v>
+        <v>0.50552189546969306</v>
       </c>
       <c r="C19">
-        <v>0.4538074811154153</v>
+        <v>0.44823160582875532</v>
       </c>
       <c r="D19">
-        <v>0.024858076078536656</v>
+        <v>2.19762583638787</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.30398906764470662</v>
+        <v>0.21032996927569989</v>
       </c>
       <c r="B20">
-        <v>0.50064742625152558</v>
+        <v>0.5059833957047104</v>
       </c>
       <c r="C20">
-        <v>0.45352861377206338</v>
+        <v>0.44783579940425638</v>
       </c>
       <c r="D20">
-        <v>0.025411435934727732</v>
+        <v>2.1483438704974382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.30884421068376405</v>
+        <v>0.21535640509840645</v>
       </c>
       <c r="B21">
-        <v>0.50148012839051403</v>
+        <v>0.50663008007718346</v>
       </c>
       <c r="C21">
-        <v>0.45252157092009543</v>
+        <v>0.44703434783507179</v>
       </c>
       <c r="D21">
-        <v>0.025475774573725681</v>
+        <v>2.1431421536125663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.32445521012945394</v>
+        <v>0.23587404035312554</v>
       </c>
       <c r="B22">
-        <v>0.50456177937508517</v>
+        <v>0.50959424348279792</v>
       </c>
       <c r="C22">
-        <v>0.44886321504808513</v>
+        <v>0.44349588978611443</v>
       </c>
       <c r="D22">
-        <v>0.025353979186268218</v>
+        <v>2.0447248345224822</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.30563499427756341</v>
+        <v>0.21188565016683897</v>
       </c>
       <c r="B23">
-        <v>0.49893851917483295</v>
+        <v>0.50403388663539617</v>
       </c>
       <c r="C23">
-        <v>0.45515375713493311</v>
+        <v>0.44971526629451514</v>
       </c>
       <c r="D23">
-        <v>0.02625165836157093</v>
+        <v>2.1711953590968345</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.31312164739370579</v>
+        <v>0.22449390563951704</v>
       </c>
       <c r="B24">
-        <v>0.49878862250666572</v>
+        <v>0.50373349281341473</v>
       </c>
       <c r="C24">
-        <v>0.45517385328161747</v>
+        <v>0.44988279781266372</v>
       </c>
       <c r="D24">
-        <v>0.026229939998898374</v>
+        <v>2.0713166708718047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.33419598641549625</v>
+        <v>0.2172290735696768</v>
       </c>
       <c r="B25">
-        <v>0.50323772866230909</v>
+        <v>0.50887554965145743</v>
       </c>
       <c r="C25">
-        <v>0.45007985239002163</v>
+        <v>0.44403219156729351</v>
       </c>
       <c r="D25">
-        <v>0.025582080395022817</v>
+        <v>2.6655570153437695</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.30631893733101173</v>
+        <v>0.21082952011878919</v>
       </c>
       <c r="B26">
-        <v>0.49226962172387034</v>
+        <v>0.49742782611654274</v>
       </c>
       <c r="C26">
-        <v>0.46192129714077867</v>
+        <v>0.45640057949589957</v>
       </c>
       <c r="D26">
-        <v>0.028520573941419287</v>
+        <v>2.1471816508219184</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.31392871730602018</v>
+        <v>0.21101069698410987</v>
       </c>
       <c r="B27">
-        <v>0.48930972983688253</v>
+        <v>0.49400962201033638</v>
       </c>
       <c r="C27">
-        <v>0.46504160847117415</v>
+        <v>0.4600827775183593</v>
       </c>
       <c r="D27">
-        <v>0.029209686525709849</v>
+        <v>2.2732110339341651</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.32406053483280983</v>
+        <v>0.22129216986840228</v>
       </c>
       <c r="B28">
-        <v>0.49171522243848953</v>
+        <v>0.49609852240326152</v>
       </c>
       <c r="C28">
-        <v>0.46238864232551546</v>
+        <v>0.45779575035120562</v>
       </c>
       <c r="D28">
-        <v>0.028602962030842016</v>
+        <v>2.2616373681107342</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.31961724055091895</v>
+        <v>0.21626071072326614</v>
       </c>
       <c r="B29">
-        <v>0.49048701273709555</v>
+        <v>0.49507163729512926</v>
       </c>
       <c r="C29">
-        <v>0.46370449300553535</v>
+        <v>0.45889014959687102</v>
       </c>
       <c r="D29">
-        <v>0.029306215301977308</v>
+        <v>2.2869331594256037</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.31093343988018318</v>
+        <v>0.2036944288736787</v>
       </c>
       <c r="B30">
-        <v>0.48941611608549107</v>
+        <v>0.49416341255358309</v>
       </c>
       <c r="C30">
-        <v>0.4647760607930469</v>
+        <v>0.45977665834763748</v>
       </c>
       <c r="D30">
-        <v>0.031335085104461147</v>
+        <v>2.3883066179268901</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.31030035424147739</v>
+        <v>0.20317162358919696</v>
       </c>
       <c r="B31">
-        <v>0.49010727054365183</v>
+        <v>0.49474261792864144</v>
       </c>
       <c r="C31">
-        <v>0.46403551834521306</v>
+        <v>0.45915491225148558</v>
       </c>
       <c r="D31">
-        <v>0.031415772080458232</v>
+        <v>2.4002085593974307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.3056737899861805</v>
+        <v>0.21482685596685053</v>
       </c>
       <c r="B32">
-        <v>0.4906924131116317</v>
+        <v>0.49425738548276038</v>
       </c>
       <c r="C32">
-        <v>0.46345669930983707</v>
+        <v>0.45977877407295492</v>
       </c>
       <c r="D32">
-        <v>0.032441341027426782</v>
+        <v>1.9595864806338721</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.30282931340971064</v>
+        <v>0.21577162012716244</v>
       </c>
       <c r="B33">
-        <v>0.49144896196157756</v>
+        <v>0.49523106507976361</v>
       </c>
       <c r="C33">
-        <v>0.4627117339556856</v>
+        <v>0.45879093323219783</v>
       </c>
       <c r="D33">
-        <v>0.033208077004529768</v>
+        <v>1.8668562579784032</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.32636253675908505</v>
+        <v>0.23380420821747033</v>
       </c>
       <c r="B34">
-        <v>0.49100454199163762</v>
+        <v>0.49349371171840617</v>
       </c>
       <c r="C34">
-        <v>0.46259617238454076</v>
+        <v>0.46018113122101151</v>
       </c>
       <c r="D34">
-        <v>0.033221170880699667</v>
+        <v>1.93384772137871</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.30070530396488276</v>
+        <v>0.20497635502418232</v>
       </c>
       <c r="B35">
-        <v>0.48129638101568717</v>
+        <v>0.48413949614775392</v>
       </c>
       <c r="C35">
-        <v>0.47324171498918982</v>
+        <v>0.47042646691190615</v>
       </c>
       <c r="D35">
-        <v>0.03493210297160277</v>
+        <v>2.015596135823901</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.30283255459408776</v>
+        <v>0.20920733654238852</v>
       </c>
       <c r="B36">
-        <v>0.48120087240900394</v>
+        <v>0.48378554354224873</v>
       </c>
       <c r="C36">
-        <v>0.47331784511353048</v>
+        <v>0.47077370072688979</v>
       </c>
       <c r="D36">
-        <v>0.036081641884263216</v>
+        <v>1.9794267159433845</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.28930319538557536</v>
+        <v>0.1881671227337525</v>
       </c>
       <c r="B37">
-        <v>0.48093292630664369</v>
+        <v>0.48347238160143546</v>
       </c>
       <c r="C37">
-        <v>0.47390090421612641</v>
+        <v>0.47140381346705318</v>
       </c>
       <c r="D37">
-        <v>0.037486040661964509</v>
+        <v>2.1519354150276171</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.29184466595451736</v>
+        <v>0.1945011499804685</v>
       </c>
       <c r="B38">
-        <v>0.48074106283675916</v>
+        <v>0.48298115070272352</v>
       </c>
       <c r="C38">
-        <v>0.47402442284590307</v>
+        <v>0.4717964051727444</v>
       </c>
       <c r="D38">
-        <v>0.039517909961998235</v>
+        <v>2.0939106220699601</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.31265418443687887</v>
+        <v>0.1786387221690903</v>
       </c>
       <c r="B39">
-        <v>0.48185961619533607</v>
+        <v>0.48484534323006756</v>
       </c>
       <c r="C39">
-        <v>0.47206441542400784</v>
+        <v>0.46938148913816885</v>
       </c>
       <c r="D39">
-        <v>0.038834354514459796</v>
+        <v>2.7230845825384238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.29095713771646253</v>
+        <v>0.17341736275861719</v>
       </c>
       <c r="B40">
-        <v>0.47531121164415963</v>
+        <v>0.47917742402268643</v>
       </c>
       <c r="C40">
-        <v>0.4795645959015119</v>
+        <v>0.47583184814593044</v>
       </c>
       <c r="D40">
-        <v>0.040965468096260907</v>
+        <v>2.3898936585277175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.30209155510163488</v>
+        <v>0.17814971396103463</v>
       </c>
       <c r="B41">
-        <v>0.47428796063329431</v>
+        <v>0.47728472162901042</v>
       </c>
       <c r="C41">
-        <v>0.48028134273639805</v>
+        <v>0.4776054175453604</v>
       </c>
       <c r="D41">
-        <v>0.040077442130993277</v>
+        <v>2.4734921800884102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.30190040046712574</v>
+        <v>0.17832999941339703</v>
       </c>
       <c r="B42">
-        <v>0.47453011624386432</v>
+        <v>0.47762481819844738</v>
       </c>
       <c r="C42">
-        <v>0.48003972786866272</v>
+        <v>0.47724779131608513</v>
       </c>
       <c r="D42">
-        <v>0.042521952737219836</v>
+        <v>2.4743794452520067</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.32195174377133318</v>
+        <v>0.19927322400153072</v>
       </c>
       <c r="B43">
-        <v>0.47833179065654868</v>
+        <v>0.48128405407919889</v>
       </c>
       <c r="C43">
-        <v>0.47555108417872272</v>
+        <v>0.47293201803965484</v>
       </c>
       <c r="D43">
-        <v>0.040760561137369151</v>
+        <v>2.4527763355836503</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.35009073123022055</v>
+        <v>0.23434618237598923</v>
       </c>
       <c r="B44">
-        <v>0.48967680228770638</v>
+        <v>0.49325174284556261</v>
       </c>
       <c r="C44">
-        <v>0.46323152995444739</v>
+        <v>0.45991711862832868</v>
       </c>
       <c r="D44">
-        <v>0.04010642912857041</v>
+        <v>2.3340872859302264</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.34981466453882948</v>
+        <v>0.23438424927528961</v>
       </c>
       <c r="B45">
-        <v>0.48957623262353195</v>
+        <v>0.49333880006301956</v>
       </c>
       <c r="C45">
-        <v>0.46333371939185425</v>
+        <v>0.45982283508927874</v>
       </c>
       <c r="D45">
-        <v>0.041377290647789063</v>
+        <v>2.3345754879132841</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.34545100714103349</v>
+        <v>0.24881984068788085</v>
       </c>
       <c r="B46">
-        <v>0.48755091378376564</v>
+        <v>0.48964844634010907</v>
       </c>
       <c r="C46">
-        <v>0.46525393432382306</v>
+        <v>0.46339951075144009</v>
       </c>
       <c r="D46">
-        <v>0.042830500352098691</v>
+        <v>1.880100244125243</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.34321991538938357</v>
+        <v>0.25445747565714566</v>
       </c>
       <c r="B47">
-        <v>0.48740931851500868</v>
+        <v>0.48989499133110531</v>
       </c>
       <c r="C47">
-        <v>0.46509063945813067</v>
+        <v>0.46271068069335874</v>
       </c>
       <c r="D47">
-        <v>0.044049968334412826</v>
+        <v>1.7275378725704036</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.34926386446160151</v>
+        <v>0.25066634016794709</v>
       </c>
       <c r="B48">
-        <v>0.48559411302845973</v>
+        <v>0.48659187285443239</v>
       </c>
       <c r="C48">
-        <v>0.46802339222815842</v>
+        <v>0.46735342087324266</v>
       </c>
       <c r="D48">
-        <v>0.046440523385907873</v>
+        <v>1.8710828456119664</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.3590244662056285</v>
+        <v>0.2545329375569646</v>
       </c>
       <c r="B49">
-        <v>0.49111458185158624</v>
+        <v>0.49142131515622722</v>
       </c>
       <c r="C49">
-        <v>0.46263462159625851</v>
+        <v>0.46270736607183677</v>
       </c>
       <c r="D49">
-        <v>0.046619991087134889</v>
+        <v>1.9670622648430556</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.35739815526796676</v>
+        <v>0.25300193678129579</v>
       </c>
       <c r="B50">
-        <v>0.49001541975260504</v>
+        <v>0.49039077723604857</v>
       </c>
       <c r="C50">
-        <v>0.46367598561626933</v>
+        <v>0.46367369383150564</v>
       </c>
       <c r="D50">
-        <v>0.0486332245427838</v>
+        <v>1.9672605358395692</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.3625313482689449</v>
+        <v>0.26111711229121148</v>
       </c>
       <c r="B51">
-        <v>0.49323383165913276</v>
+        <v>0.49351773014590211</v>
       </c>
       <c r="C51">
-        <v>0.46143281556637439</v>
+        <v>0.46157118471936931</v>
       </c>
       <c r="D51">
-        <v>0.050231738244982026</v>
+        <v>1.903215093220646</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.35726577437500762</v>
+        <v>0.25368685853770623</v>
       </c>
       <c r="B52">
-        <v>0.48872361776815049</v>
+        <v>0.48903069522479808</v>
       </c>
       <c r="C52">
-        <v>0.46548096481990686</v>
+        <v>0.46562694259868709</v>
       </c>
       <c r="D52">
-        <v>0.051214222651409458</v>
+        <v>1.9467244555046586</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.35717615317305185</v>
+        <v>0.25171619756939345</v>
       </c>
       <c r="B53">
-        <v>0.48872041041898973</v>
+        <v>0.48904285345465753</v>
       </c>
       <c r="C53">
-        <v>0.46581354923677015</v>
+        <v>0.46573778929960757</v>
       </c>
       <c r="D53">
-        <v>0.050355597826405078</v>
+        <v>1.9864919041219682</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.35769327373857879</v>
+        <v>0.24965668227017282</v>
       </c>
       <c r="B54">
-        <v>0.48922832784987058</v>
+        <v>0.48925793655953409</v>
       </c>
       <c r="C54">
-        <v>0.46570565120615975</v>
+        <v>0.46588070082126737</v>
       </c>
       <c r="D54">
-        <v>0.050780476321865178</v>
+        <v>2.0307749782914701</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.36140130721159908</v>
+        <v>0.24918169474789173</v>
       </c>
       <c r="B55">
-        <v>0.49300288475189047</v>
+        <v>0.4921179816582083</v>
       </c>
       <c r="C55">
-        <v>0.4635479160081753</v>
+        <v>0.46473492978575504</v>
       </c>
       <c r="D55">
-        <v>0.052323011560981368</v>
+        <v>2.0879624606136851</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.35706288779884132</v>
+        <v>0.24412537700245607</v>
       </c>
       <c r="B56">
-        <v>0.48840449131712838</v>
+        <v>0.48768061894296433</v>
       </c>
       <c r="C56">
-        <v>0.46768901235833987</v>
+        <v>0.46871549116036776</v>
       </c>
       <c r="D56">
-        <v>0.053650557805153806</v>
+        <v>2.1061976363245587</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.3571311808488748</v>
+        <v>0.24398180368019512</v>
       </c>
       <c r="B57">
-        <v>0.48828236778604728</v>
+        <v>0.48758558905702404</v>
       </c>
       <c r="C57">
-        <v>0.46768700995356516</v>
+        <v>0.4687220414024359</v>
       </c>
       <c r="D57">
-        <v>0.055680483115175053</v>
+        <v>2.1099900045388358</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.35349908209398745</v>
+        <v>0.24732665872734422</v>
       </c>
       <c r="B58">
-        <v>0.48853852491185673</v>
+        <v>0.48799654215482757</v>
       </c>
       <c r="C58">
-        <v>0.47010887589481537</v>
+        <v>0.47104147022601756</v>
       </c>
       <c r="D58">
-        <v>0.057350639802093741</v>
+        <v>1.9699689475878632</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.35355958746469723</v>
+        <v>0.24774493643530773</v>
       </c>
       <c r="B59">
-        <v>0.48871226040935983</v>
+        <v>0.48835672946389458</v>
       </c>
       <c r="C59">
-        <v>0.46999357977223144</v>
+        <v>0.47075836661862264</v>
       </c>
       <c r="D59">
-        <v>0.059642918486720785</v>
+        <v>1.9658934931933401</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.3534068065287122</v>
+        <v>0.24341234240423909</v>
       </c>
       <c r="B60">
-        <v>0.48999279805984436</v>
+        <v>0.48918617264263492</v>
       </c>
       <c r="C60">
-        <v>0.46929382517019957</v>
+        <v>0.47032269019086037</v>
       </c>
       <c r="D60">
-        <v>0.059609752576849341</v>
+        <v>2.0516225392288128</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.35374019703945997</v>
+        <v>0.25123544711916085</v>
       </c>
       <c r="B61">
-        <v>0.48703682025968464</v>
+        <v>0.486458236080201</v>
       </c>
       <c r="C61">
-        <v>0.47105011858934598</v>
+        <v>0.47175122453479462</v>
       </c>
       <c r="D61">
-        <v>0.060765800155310329</v>
+        <v>1.9099137046291412</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.34471330581466231</v>
+        <v>0.2384306548335717</v>
       </c>
       <c r="B62">
-        <v>0.48431516250231288</v>
+        <v>0.48296297235629515</v>
       </c>
       <c r="C62">
-        <v>0.47631726810095071</v>
+        <v>0.47785166932679674</v>
       </c>
       <c r="D62">
-        <v>0.064312354692537932</v>
+        <v>1.9654830816680717</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.34483681947835865</v>
+        <v>0.23944307389906655</v>
       </c>
       <c r="B63">
-        <v>0.48810655872691749</v>
+        <v>0.48659924739704102</v>
       </c>
       <c r="C63">
-        <v>0.47384493180507459</v>
+        <v>0.47557565162671434</v>
       </c>
       <c r="D63">
-        <v>0.063761431569935204</v>
+        <v>1.9422098872332525</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.34383787783391662</v>
+        <v>0.2367870222567322</v>
       </c>
       <c r="B64">
-        <v>0.48429024307004143</v>
+        <v>0.48284120981096018</v>
       </c>
       <c r="C64">
-        <v>0.47681679789937925</v>
+        <v>0.47852078224977335</v>
       </c>
       <c r="D64">
-        <v>0.065740119603654806</v>
+        <v>1.9741645859671182</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.35058096784140141</v>
+        <v>0.23964860915646588</v>
       </c>
       <c r="B65">
-        <v>0.48415396145396022</v>
+        <v>0.48262516598337013</v>
       </c>
       <c r="C65">
-        <v>0.47470098839053071</v>
+        <v>0.47653176705246181</v>
       </c>
       <c r="D65">
-        <v>0.067618494786664846</v>
+        <v>2.0473511321374178</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.34362901721729822</v>
+        <v>0.23459950835561874</v>
       </c>
       <c r="B66">
-        <v>0.48076348348558207</v>
+        <v>0.4790695758887526</v>
       </c>
       <c r="C66">
-        <v>0.47948261527735392</v>
+        <v>0.48155548846055068</v>
       </c>
       <c r="D66">
-        <v>0.069775758579745023</v>
+        <v>2.0015590850114968</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.34082779782387013</v>
+        <v>0.22398991670506138</v>
       </c>
       <c r="B67">
-        <v>0.48063726401159534</v>
+        <v>0.47884386353168973</v>
       </c>
       <c r="C67">
-        <v>0.48070634636907134</v>
+        <v>0.48259808767669721</v>
       </c>
       <c r="D67">
-        <v>0.073099611514995874</v>
+        <v>2.1731825859708334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.34135162981309675</v>
+        <v>0.229133773907164</v>
       </c>
       <c r="B68">
-        <v>0.47855270878674488</v>
+        <v>0.47707756247907046</v>
       </c>
       <c r="C68">
-        <v>0.48180078920248892</v>
+        <v>0.48329656226621065</v>
       </c>
       <c r="D68">
-        <v>0.073114448396491727</v>
+        <v>2.0898581285131628</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.33732200430240999</v>
+        <v>0.22405696309087628</v>
       </c>
       <c r="B69">
-        <v>0.47730838485308569</v>
+        <v>0.47547159158442992</v>
       </c>
       <c r="C69">
-        <v>0.48423555902911714</v>
+        <v>0.48612538859040444</v>
       </c>
       <c r="D69">
-        <v>0.074892763104863466</v>
+        <v>2.1012256711934283</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.33596107602210945</v>
+        <v>0.22399813701105958</v>
       </c>
       <c r="B70">
-        <v>0.47884898422590244</v>
+        <v>0.47687731248707027</v>
       </c>
       <c r="C70">
-        <v>0.48389186983718324</v>
+        <v>0.48596923469917136</v>
       </c>
       <c r="D70">
-        <v>0.077207944648806648</v>
+        <v>2.0691411547381708</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.33566259251968972</v>
+        <v>0.22335179409642039</v>
       </c>
       <c r="B71">
-        <v>0.47807837817837823</v>
+        <v>0.47620051809958697</v>
       </c>
       <c r="C71">
-        <v>0.48450279996268736</v>
+        <v>0.48651860998250179</v>
       </c>
       <c r="D71">
-        <v>0.077855777986173616</v>
+        <v>2.0761365641546825</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.33897951890356182</v>
+        <v>0.22210806759485896</v>
       </c>
       <c r="B72">
-        <v>0.476010631361029</v>
+        <v>0.47395712615660995</v>
       </c>
       <c r="C72">
-        <v>0.48468196659269491</v>
+        <v>0.48692533425743245</v>
       </c>
       <c r="D72">
-        <v>0.082378226728407652</v>
+        <v>2.1613632863726417</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.32892073803992283</v>
+        <v>0.21607461708204181</v>
       </c>
       <c r="B73">
-        <v>0.47086133283731213</v>
+        <v>0.46874791836302843</v>
       </c>
       <c r="C73">
-        <v>0.49198138139594366</v>
+        <v>0.49436087763776015</v>
       </c>
       <c r="D73">
-        <v>0.081901557774416114</v>
+        <v>2.0750058152553823</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.32644970357053466</v>
+        <v>0.17871655845831172</v>
       </c>
       <c r="B74">
-        <v>0.47466837060971978</v>
+        <v>0.47145489836412652</v>
       </c>
       <c r="C74">
-        <v>0.49079774972468981</v>
+        <v>0.4936585299419502</v>
       </c>
       <c r="D74">
-        <v>0.085054448089437851</v>
+        <v>2.8125445956429846</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.31865451767914066</v>
+        <v>0.18692904089871748</v>
       </c>
       <c r="B75">
-        <v>0.4604039219278051</v>
+        <v>0.45824402466118058</v>
       </c>
       <c r="C75">
-        <v>0.50332055960901045</v>
+        <v>0.50509283098296953</v>
       </c>
       <c r="D75">
-        <v>0.089001293860137359</v>
+        <v>2.4980038951037806</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.31923729492169745</v>
+        <v>0.18821276443462875</v>
       </c>
       <c r="B76">
-        <v>0.46060678080270667</v>
+        <v>0.45864886678815253</v>
       </c>
       <c r="C76">
-        <v>0.5029730139498535</v>
+        <v>0.5044776604561152</v>
       </c>
       <c r="D76">
-        <v>0.090903452400481824</v>
+        <v>2.4913089991794668</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.32606222677551344</v>
+        <v>0.19533833105404108</v>
       </c>
       <c r="B77">
-        <v>0.46296521200147461</v>
+        <v>0.46171567540510938</v>
       </c>
       <c r="C77">
-        <v>0.49868640758932542</v>
+        <v>0.49939135701357595</v>
       </c>
       <c r="D77">
-        <v>0.09366150752384686</v>
+        <v>2.5065946898617311</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.32178200419327002</v>
+        <v>0.1916996712777837</v>
       </c>
       <c r="B78">
-        <v>0.46011034014407559</v>
+        <v>0.45843141540920557</v>
       </c>
       <c r="C78">
-        <v>0.50242608860637494</v>
+        <v>0.50366834110465475</v>
       </c>
       <c r="D78">
-        <v>0.090113497702067669</v>
+        <v>2.478386209319392</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.32114088607763747</v>
+        <v>0.19203767247865061</v>
       </c>
       <c r="B79">
-        <v>0.45986594826735805</v>
+        <v>0.45814363096319799</v>
       </c>
       <c r="C79">
-        <v>0.50301254091213321</v>
+        <v>0.5043626449686005</v>
       </c>
       <c r="D79">
-        <v>0.093852569147753417</v>
+        <v>2.4549354730958788</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.3211270745342471</v>
+        <v>0.19219222614382078</v>
       </c>
       <c r="B80">
-        <v>0.45985066704672561</v>
+        <v>0.45817603372395138</v>
       </c>
       <c r="C80">
-        <v>0.5030267291952174</v>
+        <v>0.50437639651558874</v>
       </c>
       <c r="D80">
-        <v>0.097348759385643094</v>
+        <v>2.4514155782961837</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.32031169446534885</v>
+        <v>0.16772991411830032</v>
       </c>
       <c r="B81">
-        <v>0.46088091276149057</v>
+        <v>0.45908855306197149</v>
       </c>
       <c r="C81">
-        <v>0.50395803792481231</v>
+        <v>0.5048664398030025</v>
       </c>
       <c r="D81">
-        <v>0.10068056398473903</v>
+        <v>2.9694616874635136</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.32066416364937766</v>
+        <v>0.1675565688794533</v>
       </c>
       <c r="B82">
-        <v>0.46137650952006054</v>
+        <v>0.45917708160792847</v>
       </c>
       <c r="C82">
-        <v>0.50353919764521138</v>
+        <v>0.50481382149775655</v>
       </c>
       <c r="D82">
-        <v>0.10332853001080665</v>
+        <v>2.9737384463315486</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.32109960505434582</v>
+        <v>0.16744792452089391</v>
       </c>
       <c r="B83">
-        <v>0.46331505127669942</v>
+        <v>0.46084952744837171</v>
       </c>
       <c r="C83">
-        <v>0.50220771282414367</v>
+        <v>0.50376974565488153</v>
       </c>
       <c r="D83">
-        <v>0.10464854802577736</v>
+        <v>2.9785221568540714</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.32104033562794693</v>
+        <v>0.16774580009156889</v>
       </c>
       <c r="B84">
-        <v>0.46388252635970151</v>
+        <v>0.46148990279410401</v>
       </c>
       <c r="C84">
-        <v>0.50185965498273788</v>
+        <v>0.50338672308742527</v>
       </c>
       <c r="D84">
-        <v>0.10889390866379732</v>
+        <v>2.9702677797081845</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.32067237222857292</v>
+        <v>0.16787873505956241</v>
       </c>
       <c r="B85">
-        <v>0.46412184543516172</v>
+        <v>0.46184799140176114</v>
       </c>
       <c r="C85">
-        <v>0.50182390384274511</v>
+        <v>0.50328816642537588</v>
       </c>
       <c r="D85">
-        <v>0.1146912055716883</v>
+        <v>2.9586374786954512</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.32230636078924502</v>
+        <v>0.16677925914595262</v>
       </c>
       <c r="B86">
-        <v>0.46250047053431986</v>
+        <v>0.46014105319342752</v>
       </c>
       <c r="C86">
-        <v>0.50241770240214234</v>
+        <v>0.50401579815062802</v>
       </c>
       <c r="D86">
-        <v>0.11855656242257404</v>
+        <v>3.0107528428172112</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.31541523597572718</v>
+        <v>0.15985805436319112</v>
       </c>
       <c r="B87">
-        <v>0.46034066330404755</v>
+        <v>0.45813355194300953</v>
       </c>
       <c r="C87">
-        <v>0.50632782799868026</v>
+        <v>0.50774066811708862</v>
       </c>
       <c r="D87">
-        <v>0.11945080226608319</v>
+        <v>3.0171221199370923</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.31448715193111326</v>
+        <v>0.15133493804872608</v>
       </c>
       <c r="B88">
-        <v>0.46218206221017077</v>
+        <v>0.45902300419620257</v>
       </c>
       <c r="C88">
-        <v>0.50537586686476399</v>
+        <v>0.50727977210285491</v>
       </c>
       <c r="D88">
-        <v>0.12183994843933858</v>
+        <v>3.1921372788545463</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.31446133245212832</v>
+        <v>0.15548394857398465</v>
       </c>
       <c r="B89">
-        <v>0.46027545417532145</v>
+        <v>0.45728284539126929</v>
       </c>
       <c r="C89">
-        <v>0.50676362212998793</v>
+        <v>0.50840608690227751</v>
       </c>
       <c r="D89">
-        <v>0.14130872152463486</v>
+        <v>3.1123000944769292</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.31111488305712021</v>
+        <v>0.14854270303182687</v>
       </c>
       <c r="B90">
-        <v>0.46037856070698008</v>
+        <v>0.45668491054713278</v>
       </c>
       <c r="C90">
-        <v>0.50773244205282653</v>
+        <v>0.50997211909995521</v>
       </c>
       <c r="D90">
-        <v>0.14276751993408954</v>
+        <v>3.1820479066871257</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.31214727599914854</v>
+        <v>0.15180786719305339</v>
       </c>
       <c r="B91">
-        <v>0.4586306021980498</v>
+        <v>0.45528441437423478</v>
       </c>
       <c r="C91">
-        <v>0.50871337178503151</v>
+        <v>0.51055067463058013</v>
       </c>
       <c r="D91">
-        <v>0.13052668053156974</v>
+        <v>3.1446309617288355</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.30572296379339553</v>
+        <v>0.14375346350914867</v>
       </c>
       <c r="B92">
-        <v>0.45763956620866386</v>
+        <v>0.45361405909620139</v>
       </c>
       <c r="C92">
-        <v>0.51142077595401292</v>
+        <v>0.5139777593675382</v>
       </c>
       <c r="D92">
-        <v>0.13063912165122743</v>
+        <v>3.1626163223692894</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.30568383003115418</v>
+        <v>0.14350933428876991</v>
       </c>
       <c r="B93">
-        <v>0.45705458272056898</v>
+        <v>0.45311898717882837</v>
       </c>
       <c r="C93">
-        <v>0.51186978353800328</v>
+        <v>0.51436768649908271</v>
       </c>
       <c r="D93">
-        <v>0.13211011248766055</v>
+        <v>3.1662198139731861</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.30272394620663845</v>
+        <v>0.13831167060839131</v>
       </c>
       <c r="B94">
-        <v>0.45773786676158396</v>
+        <v>0.45359055679351346</v>
       </c>
       <c r="C94">
-        <v>0.512215389237625</v>
+        <v>0.51479161331880974</v>
       </c>
       <c r="D94">
-        <v>0.13467106458535077</v>
+        <v>3.2210636496366254</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.29998386552603162</v>
+        <v>0.12439892700259628</v>
       </c>
       <c r="B95">
-        <v>0.46076918636964814</v>
+        <v>0.45525248024714299</v>
       </c>
       <c r="C95">
-        <v>0.51066246383217129</v>
+        <v>0.51405258692768674</v>
       </c>
       <c r="D95">
-        <v>0.14248275431278376</v>
+        <v>3.4820407307106094</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.29894219656306048</v>
+        <v>0.11425962189861495</v>
       </c>
       <c r="B96">
-        <v>0.4653766644873174</v>
+        <v>0.45769438855221356</v>
       </c>
       <c r="C96">
-        <v>0.50732049267973123</v>
+        <v>0.51246829082539314</v>
       </c>
       <c r="D96">
-        <v>0.14422396352903769</v>
+        <v>3.6759933250919428</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.29863108261660321</v>
+        <v>0.11440406555063642</v>
       </c>
       <c r="B97">
-        <v>0.46466021105773475</v>
+        <v>0.45676213315629832</v>
       </c>
       <c r="C97">
-        <v>0.50797004677440483</v>
+        <v>0.51326354825853382</v>
       </c>
       <c r="D97">
-        <v>0.14910130115951742</v>
+        <v>3.6682256553794184</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.29382020956584587</v>
+        <v>0.1087793331939003</v>
       </c>
       <c r="B98">
-        <v>0.46655433677371688</v>
+        <v>0.45793283868578316</v>
       </c>
       <c r="C98">
-        <v>0.50755866828512786</v>
+        <v>0.51363225647018262</v>
       </c>
       <c r="D98">
-        <v>0.15060982503265774</v>
+        <v>3.6689653273993001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.29328314505476083</v>
+        <v>0.10814039640972667</v>
       </c>
       <c r="B99">
-        <v>0.46629597581372412</v>
+        <v>0.45778743342959322</v>
       </c>
       <c r="C99">
-        <v>0.50789068019119143</v>
+        <v>0.51391966973845005</v>
       </c>
       <c r="D99">
-        <v>0.16277864001720349</v>
+        <v>3.6666829806529955</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.28717889048182488</v>
+        <v>0.10456364694584684</v>
       </c>
       <c r="B100">
-        <v>0.46777228466670651</v>
+        <v>0.45945334881983046</v>
       </c>
       <c r="C100">
-        <v>0.50803332027501125</v>
+        <v>0.51400682379073359</v>
       </c>
       <c r="D100">
-        <v>0.16666549025635993</v>
+        <v>3.6055117048642056</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.28541615550517346</v>
+        <v>0.10367722756774851</v>
       </c>
       <c r="B101">
-        <v>0.46842938446074783</v>
+        <v>0.46041959795285609</v>
       </c>
       <c r="C101">
-        <v>0.50787098511745277</v>
+        <v>0.51362923405773553</v>
       </c>
       <c r="D101">
-        <v>0.16816670105207188</v>
+        <v>3.5840049121077935</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.28227189955088733</v>
+        <v>0.099313437466753002</v>
       </c>
       <c r="B102">
-        <v>0.46916621655631729</v>
+        <v>0.46043428254387692</v>
       </c>
       <c r="C102">
-        <v>0.5079267349189599</v>
+        <v>0.51396700744144008</v>
       </c>
       <c r="D102">
-        <v>0.17153121663116752</v>
+        <v>3.643234663616016</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.27923452711547225</v>
+        <v>0.095071665149236831</v>
       </c>
       <c r="B103">
-        <v>0.46973717682704785</v>
+        <v>0.46036903288664349</v>
       </c>
       <c r="C103">
-        <v>0.50808626181764804</v>
+        <v>0.51451964154583796</v>
       </c>
       <c r="D103">
-        <v>0.18101166781421388</v>
+        <v>3.6839493176640401</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.26867192516659549</v>
+        <v>0.082039683525707355</v>
       </c>
       <c r="B104">
-        <v>0.47282915099734663</v>
+        <v>0.46224507725570002</v>
       </c>
       <c r="C104">
-        <v>0.5076891874322137</v>
+        <v>0.51528914384923863</v>
       </c>
       <c r="D104">
-        <v>0.19689079057803047</v>
+        <v>3.7254771966270281</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.26671812035567249</v>
+        <v>0.080458309613839152</v>
       </c>
       <c r="B105">
-        <v>0.47417941660196145</v>
+        <v>0.46367317127356106</v>
       </c>
       <c r="C105">
-        <v>0.50694524591163348</v>
+        <v>0.51453877121137315</v>
       </c>
       <c r="D105">
-        <v>0.20313052693609271</v>
+        <v>3.7125884033383252</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.27502216221603681</v>
+        <v>0.084051032085972172</v>
       </c>
       <c r="B106">
-        <v>0.46850765330171346</v>
+        <v>0.45787899688035211</v>
       </c>
       <c r="C106">
-        <v>0.51010631924987326</v>
+        <v>0.51788744837396417</v>
       </c>
       <c r="D106">
-        <v>0.23208594473520117</v>
+        <v>3.7985677277489138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.28934332803106083</v>
+        <v>0.094651036041784126</v>
       </c>
       <c r="B107">
-        <v>0.47137772541800366</v>
+        <v>0.46044793133998257</v>
       </c>
       <c r="C107">
-        <v>0.50482843215235573</v>
+        <v>0.51299383927233488</v>
       </c>
       <c r="D107">
-        <v>0.23311508105459378</v>
+        <v>3.8611036939187411</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.27813258466530305</v>
+        <v>0.084591601995291227</v>
       </c>
       <c r="B108">
-        <v>0.46720980807731</v>
+        <v>0.45599709159433027</v>
       </c>
       <c r="C108">
-        <v>0.51062421381368739</v>
+        <v>0.51922675317446565</v>
       </c>
       <c r="D108">
-        <v>0.25334012272509926</v>
+        <v>3.8170862024710064</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.25539977032068406</v>
+        <v>0.040675807378534747</v>
       </c>
       <c r="B109">
-        <v>0.46496103760156132</v>
+        <v>0.45270554547303188</v>
       </c>
       <c r="C109">
-        <v>0.51725663555106538</v>
+        <v>0.52533828678135697</v>
       </c>
       <c r="D109">
-        <v>0.28784001227309058</v>
+        <v>4.437468365345727</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.25666123990881023</v>
+        <v>0.045577227638411176</v>
       </c>
       <c r="B110">
-        <v>0.45943381403409544</v>
+        <v>0.44745244196012979</v>
       </c>
       <c r="C110">
-        <v>0.52166793744028139</v>
+        <v>0.52946537964865492</v>
       </c>
       <c r="D110">
-        <v>0.28714966672109349</v>
+        <v>4.3577945946959638</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.24838087251750171</v>
+        <v>0.03601687410426832</v>
       </c>
       <c r="B111">
-        <v>0.45938967266331165</v>
+        <v>0.4465337467938878</v>
       </c>
       <c r="C111">
-        <v>0.52337076980271935</v>
+        <v>0.53202439021867121</v>
       </c>
       <c r="D111">
-        <v>0.2830227978105489</v>
+        <v>4.3756080103100388</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.25429486338134194</v>
+        <v>0.039991084934807609</v>
       </c>
       <c r="B112">
-        <v>0.45593857771051999</v>
+        <v>0.4434498802160845</v>
       </c>
       <c r="C112">
-        <v>0.52512851144632067</v>
+        <v>0.53343870319102171</v>
       </c>
       <c r="D112">
-        <v>0.28585883674894985</v>
+        <v>4.4174639732438852</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.25363731412488028</v>
+        <v>0.038745986300435603</v>
       </c>
       <c r="B113">
-        <v>0.45544990826026388</v>
+        <v>0.44278429449012358</v>
       </c>
       <c r="C113">
-        <v>0.5256742094009641</v>
+        <v>0.53427356276701965</v>
       </c>
       <c r="D113">
-        <v>0.29722747128402893</v>
+        <v>4.4151314932149468</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.25803216530906481</v>
+        <v>0.041027228681551772</v>
       </c>
       <c r="B114">
-        <v>0.45557125160123862</v>
+        <v>0.44273881199163656</v>
       </c>
       <c r="C114">
-        <v>0.52467943479492651</v>
+        <v>0.53354659529160542</v>
       </c>
       <c r="D114">
-        <v>0.30382491390184962</v>
+        <v>4.4465672516743053</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.26239664630577203</v>
+        <v>0.043233749281124681</v>
       </c>
       <c r="B115">
-        <v>0.45621146910694588</v>
+        <v>0.44308703898134344</v>
       </c>
       <c r="C115">
-        <v>0.52323866491455273</v>
+        <v>0.53251252428068929</v>
       </c>
       <c r="D115">
-        <v>0.2955701544596307</v>
+        <v>4.4760051871393145</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.24194191283720393</v>
+        <v>0.0087241702608168228</v>
       </c>
       <c r="B116">
-        <v>0.45054210253514093</v>
+        <v>0.43778249956219895</v>
       </c>
       <c r="C116">
-        <v>0.5323236101189236</v>
+        <v>0.53969788962544596</v>
       </c>
       <c r="D116">
-        <v>0.30892347790801983</v>
+        <v>4.9676067439358231</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.2333680649093885</v>
+        <v>2.8068400525055707e-12</v>
       </c>
       <c r="B117">
-        <v>0.45955085783942384</v>
+        <v>0.44432728732192328</v>
       </c>
       <c r="C117">
-        <v>0.52651537136329241</v>
+        <v>0.53503937574936045</v>
       </c>
       <c r="D117">
-        <v>0.31644637569619599</v>
+        <v>5.2341603791993299</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.23262365600661986</v>
+        <v>2.869483092101282e-12</v>
       </c>
       <c r="B118">
-        <v>0.45498475005861272</v>
+        <v>0.44005259010817316</v>
       </c>
       <c r="C118">
-        <v>0.53054920568472297</v>
+        <v>0.53877230935349507</v>
       </c>
       <c r="D118">
-        <v>0.31924138137573016</v>
+        <v>5.22467830394638</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.23563148409925974</v>
+        <v>2.9100582967225808e-12</v>
       </c>
       <c r="B119">
-        <v>0.452678543702562</v>
+        <v>0.43782268142739628</v>
       </c>
       <c r="C119">
-        <v>0.53194329651368255</v>
+        <v>0.54021497369645488</v>
       </c>
       <c r="D119">
-        <v>0.33822395238432906</v>
+        <v>5.2555432494400618</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.23782260278286799</v>
+        <v>3.0805969419931117e-12</v>
       </c>
       <c r="B120">
-        <v>0.45230567292354384</v>
+        <v>0.43727984693171068</v>
       </c>
       <c r="C120">
-        <v>0.53183816654565053</v>
+        <v>0.54042623569395976</v>
       </c>
       <c r="D120">
-        <v>0.34042420724642969</v>
+        <v>5.2748409476064992</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.24908507674202213</v>
+        <v>3.1982049148635251e-12</v>
       </c>
       <c r="B121">
-        <v>0.45344226882165029</v>
+        <v>0.43732779948523226</v>
       </c>
       <c r="C121">
-        <v>0.5286759152879964</v>
+        <v>0.5386951828191533</v>
       </c>
       <c r="D121">
-        <v>0.33650003394422701</v>
+        <v>5.3959961349479526</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.24489310740231046</v>
+        <v>3.2960075072249707e-12</v>
       </c>
       <c r="B122">
-        <v>0.45165440927874995</v>
+        <v>0.43588968442739845</v>
       </c>
       <c r="C122">
-        <v>0.53103112763264748</v>
+        <v>0.54057558371448966</v>
       </c>
       <c r="D122">
-        <v>0.35561696044500163</v>
+        <v>5.3660902187408306</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.23443010295550656</v>
+        <v>3.384079863093947e-12</v>
       </c>
       <c r="B123">
-        <v>0.44932072070845508</v>
+        <v>0.43525927162812644</v>
       </c>
       <c r="C123">
-        <v>0.53513349346455619</v>
+        <v>0.54168544689644005</v>
       </c>
       <c r="D123">
-        <v>0.36907420480307013</v>
+        <v>5.4540131816563466</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.23583693786474261</v>
+        <v>3.5092558006220741e-12</v>
       </c>
       <c r="B124">
-        <v>0.44810800371311565</v>
+        <v>0.43350413262656451</v>
       </c>
       <c r="C124">
-        <v>0.53588041913271722</v>
+        <v>0.54306371857418256</v>
       </c>
       <c r="D124">
-        <v>0.37188377504253078</v>
+        <v>5.4045288488857128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.23015180896902401</v>
+        <v>3.6799088830448593e-12</v>
       </c>
       <c r="B125">
-        <v>0.44760739247519615</v>
+        <v>0.43292904521618375</v>
       </c>
       <c r="C125">
-        <v>0.53745139213654392</v>
+        <v>0.54435470778851691</v>
       </c>
       <c r="D125">
-        <v>0.39022817471239912</v>
+        <v>5.3935184119162125</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.22694659817371302</v>
+        <v>3.8253152918922986e-12</v>
       </c>
       <c r="B126">
-        <v>0.44814513897597669</v>
+        <v>0.43347314865946041</v>
       </c>
       <c r="C126">
-        <v>0.53763278360977318</v>
+        <v>0.54449857195956086</v>
       </c>
       <c r="D126">
-        <v>0.4068114855808822</v>
+        <v>5.3621430121314688</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.23414094729491933</v>
+        <v>3.8015681447553143e-12</v>
       </c>
       <c r="B127">
-        <v>0.44396327797425905</v>
+        <v>0.4292186124743449</v>
       </c>
       <c r="C127">
-        <v>0.5397936516686771</v>
+        <v>0.54683469715665234</v>
       </c>
       <c r="D127">
-        <v>0.38481873507440978</v>
+        <v>5.4717557203264313</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.24214024704812273</v>
+        <v>3.9998776647242539e-12</v>
       </c>
       <c r="B128">
-        <v>0.44645964449905767</v>
+        <v>0.43076112673206829</v>
       </c>
       <c r="C128">
-        <v>0.53605924952768413</v>
+        <v>0.54432279519396642</v>
       </c>
       <c r="D128">
-        <v>0.40295000149960908</v>
+        <v>5.5508897947695193</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.24215577970310179</v>
+        <v>4.2100040514748783e-12</v>
       </c>
       <c r="B129">
-        <v>0.44627639459915441</v>
+        <v>0.43031700526876138</v>
       </c>
       <c r="C129">
-        <v>0.53621019691859018</v>
+        <v>0.54482213529016621</v>
       </c>
       <c r="D129">
-        <v>0.41984913695795778</v>
+        <v>5.5452486207363325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.2303782563627419</v>
+        <v>4.1893168788622351e-12</v>
       </c>
       <c r="B130">
-        <v>0.44240959656609069</v>
+        <v>0.42930484540814673</v>
       </c>
       <c r="C130">
-        <v>0.54198315110864981</v>
+        <v>0.54598542056021748</v>
       </c>
       <c r="D130">
-        <v>0.45082058011268589</v>
+        <v>5.7121214865293988</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.22545005199202811</v>
+        <v>4.3583809172755879e-12</v>
       </c>
       <c r="B131">
-        <v>0.44497223256500734</v>
+        <v>0.43111039740923207</v>
       </c>
       <c r="C131">
-        <v>0.54087269480480893</v>
+        <v>0.54483002532587566</v>
       </c>
       <c r="D131">
-        <v>0.45443363437673684</v>
+        <v>5.8005755250169679</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.22336596035885095</v>
+        <v>4.5662968725906586e-12</v>
       </c>
       <c r="B132">
-        <v>0.44987139427279416</v>
+        <v>0.4349893199976605</v>
       </c>
       <c r="C132">
-        <v>0.53714864765942472</v>
+        <v>0.54182502828735923</v>
       </c>
       <c r="D132">
-        <v>0.44275226244089894</v>
+        <v>5.8315220878176257</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.22215614565410075</v>
+        <v>4.661846988364097e-12</v>
       </c>
       <c r="B133">
-        <v>0.45276989452442573</v>
+        <v>0.4375323223690003</v>
       </c>
       <c r="C133">
-        <v>0.53491229115619532</v>
+        <v>0.53983030476697469</v>
       </c>
       <c r="D133">
-        <v>0.44324826361141945</v>
+        <v>5.8376721656476649</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.22041792766784032</v>
+        <v>4.9026144174650147e-12</v>
       </c>
       <c r="B134">
-        <v>0.45428593067808648</v>
+        <v>0.43933777668839752</v>
       </c>
       <c r="C134">
-        <v>0.53394200255651125</v>
+        <v>0.53864049614497256</v>
       </c>
       <c r="D134">
-        <v>0.45749391040563558</v>
+        <v>5.8121089291639558</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.21441060817617377</v>
+        <v>5.0039752587437639e-12</v>
       </c>
       <c r="B135">
-        <v>0.45842822531060778</v>
+        <v>0.44444941421414963</v>
       </c>
       <c r="C135">
-        <v>0.53150197181087289</v>
+        <v>0.53543911657857735</v>
       </c>
       <c r="D135">
-        <v>0.46658346281637519</v>
+        <v>5.6987209439550037</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.21127870217125791</v>
+        <v>5.1996819342097128e-12</v>
       </c>
       <c r="B136">
-        <v>0.46307735645508552</v>
+        <v>0.44997011983780988</v>
       </c>
       <c r="C136">
-        <v>0.52805941826526548</v>
+        <v>0.53106125167080653</v>
       </c>
       <c r="D136">
-        <v>0.47054976460917347</v>
+        <v>5.6783772275504685</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.20305833153110719</v>
+        <v>4.8647522730852287e-12</v>
       </c>
       <c r="B137">
-        <v>0.47500637319272776</v>
+        <v>0.46157334113155435</v>
       </c>
       <c r="C137">
-        <v>0.51922307811649959</v>
+        <v>0.51995082379769308</v>
       </c>
       <c r="D137">
-        <v>0.48168288735258469</v>
+        <v>6.1103594627236335</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.20264963523891899</v>
+        <v>4.8854516022970039e-12</v>
       </c>
       <c r="B138">
-        <v>0.46433531964307811</v>
+        <v>0.44912593862578665</v>
       </c>
       <c r="C138">
-        <v>0.52856528282533588</v>
+        <v>0.5316568725926859</v>
       </c>
       <c r="D138">
-        <v>0.45298211410577027</v>
+        <v>5.8687581547315242</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.19690489263461927</v>
+        <v>5.0104841706315233e-12</v>
       </c>
       <c r="B139">
-        <v>0.46426909407885841</v>
+        <v>0.4488089312594673</v>
       </c>
       <c r="C139">
-        <v>0.5296078923712797</v>
+        <v>0.53255464385082463</v>
       </c>
       <c r="D139">
-        <v>0.46205117648435839</v>
+        <v>5.8677741948274846</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.17902349951670155</v>
+        <v>5.1623943387480841e-12</v>
       </c>
       <c r="B140">
-        <v>0.46818775629943132</v>
+        <v>0.45266907108491111</v>
       </c>
       <c r="C140">
-        <v>0.52925830977406496</v>
+        <v>0.53196492201307155</v>
       </c>
       <c r="D140">
-        <v>0.49946348339932467</v>
+        <v>5.7162322427001158</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.17602474168035037</v>
+        <v>5.2347877873675429e-12</v>
       </c>
       <c r="B141">
-        <v>0.47220765848559443</v>
+        <v>0.45785989959611917</v>
       </c>
       <c r="C141">
-        <v>0.52624941699320082</v>
+        <v>0.52807468487269948</v>
       </c>
       <c r="D141">
-        <v>0.51241230422454953</v>
+        <v>5.6455102558436003</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.17712343274260109</v>
+        <v>5.2975947186632276e-12</v>
       </c>
       <c r="B142">
-        <v>0.46933614064335566</v>
+        <v>0.45572817723523273</v>
       </c>
       <c r="C142">
-        <v>0.52857582241617129</v>
+        <v>0.52986229866673096</v>
       </c>
       <c r="D142">
-        <v>0.51190323630603529</v>
+        <v>5.6638672145048607</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.16610815060320452</v>
+        <v>5.4424789820946795e-12</v>
       </c>
       <c r="B143">
-        <v>0.47010696527110007</v>
+        <v>0.45849097650712056</v>
       </c>
       <c r="C143">
-        <v>0.5297249752167289</v>
+        <v>0.52925155663166645</v>
       </c>
       <c r="D143">
-        <v>0.53894303668785137</v>
+        <v>5.50260402196818</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.15014426572026757</v>
+        <v>5.2498325656351433e-12</v>
       </c>
       <c r="B144">
-        <v>0.47693389935520608</v>
+        <v>0.46724747161149399</v>
       </c>
       <c r="C144">
-        <v>0.52638541873674327</v>
+        <v>0.52134392823633924</v>
       </c>
       <c r="D144">
-        <v>0.58492566000003177</v>
+        <v>5.8669923105956521</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.14072500392556669</v>
+        <v>5.0449179869327047e-12</v>
       </c>
       <c r="B145">
-        <v>0.4926160183988606</v>
+        <v>0.48137199248799223</v>
       </c>
       <c r="C145">
-        <v>0.51422965923199704</v>
+        <v>0.50888224654815473</v>
       </c>
       <c r="D145">
-        <v>0.62355163175052297</v>
+        <v>6.1555798976507594</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.1382208619065862</v>
+        <v>4.987455913983146e-12</v>
       </c>
       <c r="B146">
-        <v>0.49782557755680223</v>
+        <v>0.48601282806601787</v>
       </c>
       <c r="C146">
-        <v>0.51008528414484755</v>
+        <v>0.5050799475574429</v>
       </c>
       <c r="D146">
-        <v>0.63578350657068261</v>
+        <v>6.1743544850642325</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.13363873790725164</v>
+        <v>4.9945622234251933e-12</v>
       </c>
       <c r="B147">
-        <v>0.50035953282216616</v>
+        <v>0.48917318744225946</v>
       </c>
       <c r="C147">
-        <v>0.50860387480211622</v>
+        <v>0.50299698526555725</v>
       </c>
       <c r="D147">
-        <v>0.66511632922420894</v>
+        <v>6.1424537874320659</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.13002418181702041</v>
+        <v>5.0755206910267966e-12</v>
       </c>
       <c r="B148">
-        <v>0.50056698852327952</v>
+        <v>0.49059340859935946</v>
       </c>
       <c r="C148">
-        <v>0.50899195160606303</v>
+        <v>0.50250128285069884</v>
       </c>
       <c r="D148">
-        <v>0.67653640330435905</v>
+        <v>6.082679298494778</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.12610570119416284</v>
+        <v>5.1990332723251222e-12</v>
       </c>
       <c r="B149">
-        <v>0.50017304718574662</v>
+        <v>0.49157069470188902</v>
       </c>
       <c r="C149">
-        <v>0.50995109689759288</v>
+        <v>0.50254670997050921</v>
       </c>
       <c r="D149">
-        <v>0.66789559406195886</v>
+        <v>6.0021972411373632</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.13904750487791573</v>
+        <v>5.6450361345010144e-12</v>
       </c>
       <c r="B150">
-        <v>0.49637797994117144</v>
+        <v>0.48589580285475537</v>
       </c>
       <c r="C150">
-        <v>0.51121676984622222</v>
+        <v>0.50605594507379281</v>
       </c>
       <c r="D150">
-        <v>0.625889143243888</v>
+        <v>6.1228114099400788</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.1009415154553179</v>
+        <v>5.6472636602751067e-12</v>
       </c>
       <c r="B151">
-        <v>0.48766772110559081</v>
+        <v>0.48488848413265301</v>
       </c>
       <c r="C151">
-        <v>0.5249073886159662</v>
+        <v>0.50817326335874802</v>
       </c>
       <c r="D151">
-        <v>0.70931874587672394</v>
+        <v>6.5584880424176273</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.10674417256142833</v>
+        <v>5.6241271811542029e-12</v>
       </c>
       <c r="B152">
-        <v>0.48228887704157652</v>
+        <v>0.47868937604603501</v>
       </c>
       <c r="C152">
-        <v>0.52870831584172218</v>
+        <v>0.51306227001105376</v>
       </c>
       <c r="D152">
-        <v>0.70078995424393442</v>
+        <v>6.516981366040417</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.10947311225598085</v>
+        <v>5.5789129564283099e-12</v>
       </c>
       <c r="B153">
-        <v>0.48124949850085003</v>
+        <v>0.47750575769006126</v>
       </c>
       <c r="C153">
-        <v>0.52918359716415919</v>
+        <v>0.51392782311366647</v>
       </c>
       <c r="D153">
-        <v>0.71503292281027098</v>
+        <v>6.5302588392651364</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.13234570427460574</v>
+        <v>5.6819393319038731e-12</v>
       </c>
       <c r="B154">
-        <v>0.48249160605634162</v>
+        <v>0.47696660219640863</v>
       </c>
       <c r="C154">
-        <v>0.52448968942879215</v>
+        <v>0.51130043268463921</v>
       </c>
       <c r="D154">
-        <v>0.66983008027965274</v>
+        <v>6.7884725131766901</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.10566637788275003</v>
+        <v>6.290607652069628e-12</v>
       </c>
       <c r="B155">
-        <v>0.4722203216117809</v>
+        <v>0.46750795242507964</v>
       </c>
       <c r="C155">
-        <v>0.53775831074777447</v>
+        <v>0.52443277879822148</v>
       </c>
       <c r="D155">
-        <v>0.76090772661037287</v>
+        <v>6.3984210572972922</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.11106658166992091</v>
+        <v>5.8680574871288141e-12</v>
       </c>
       <c r="B156">
-        <v>0.47081054524130167</v>
+        <v>0.46468108519641221</v>
       </c>
       <c r="C156">
-        <v>0.53814485587058747</v>
+        <v>0.5264370864067327</v>
       </c>
       <c r="D156">
-        <v>0.72140539883679766</v>
+        <v>6.3927481948083535</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.11883556961730783</v>
+        <v>6.1229745866798067e-12</v>
       </c>
       <c r="B157">
-        <v>0.4708913761541958</v>
+        <v>0.46368461640722547</v>
       </c>
       <c r="C157">
-        <v>0.53684286616210208</v>
+        <v>0.52646424659678448</v>
       </c>
       <c r="D157">
-        <v>0.69342400182142128</v>
+        <v>6.4426655101133079</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.075622406967581435</v>
+        <v>5.9848348648099815e-12</v>
       </c>
       <c r="B158">
-        <v>0.46011946560436207</v>
+        <v>0.46136087693030892</v>
       </c>
       <c r="C158">
-        <v>0.55324454499731124</v>
+        <v>0.53035066870430514</v>
       </c>
       <c r="D158">
-        <v>0.93084304288174413</v>
+        <v>7.0287370050975948</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.082513542808484303</v>
+        <v>5.5403679241507765e-12</v>
       </c>
       <c r="B159">
-        <v>0.44882213448028196</v>
+        <v>0.44769506092754818</v>
       </c>
       <c r="C159">
-        <v>0.5622147003997191</v>
+        <v>0.54239741260837193</v>
       </c>
       <c r="D159">
-        <v>0.93834843831839665</v>
+        <v>6.8153903631522175</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.10145467911058366</v>
+        <v>5.815901725715563e-12</v>
       </c>
       <c r="B160">
-        <v>0.44931501372914251</v>
+        <v>0.44758852826885037</v>
       </c>
       <c r="C160">
-        <v>0.55880234336350976</v>
+        <v>0.54033409202708615</v>
       </c>
       <c r="D160">
-        <v>0.87403256502665039</v>
+        <v>6.7426335056201188</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.12194467112550242</v>
+        <v>5.9541729553782301e-12</v>
       </c>
       <c r="B161">
-        <v>0.45643800378914051</v>
+        <v>0.45430511068568052</v>
       </c>
       <c r="C161">
-        <v>0.54924195093706829</v>
+        <v>0.53142500329668063</v>
       </c>
       <c r="D161">
-        <v>0.93362634347128493</v>
+        <v>6.9057194685275931</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.10995111942267924</v>
+        <v>6.0187065395841752e-12</v>
       </c>
       <c r="B162">
-        <v>0.45047299978978361</v>
+        <v>0.4468868087739411</v>
       </c>
       <c r="C162">
-        <v>0.5564340117786637</v>
+        <v>0.54057872877652591</v>
       </c>
       <c r="D162">
-        <v>0.92100394183792289</v>
+        <v>6.7158178437586029</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.11210773646369487</v>
+        <v>6.5376324044080601e-12</v>
       </c>
       <c r="B163">
-        <v>0.45021113072425473</v>
+        <v>0.44604151527745606</v>
       </c>
       <c r="C163">
-        <v>0.55632040133230576</v>
+        <v>0.54109004223861856</v>
       </c>
       <c r="D163">
-        <v>0.9481185272468331</v>
+        <v>6.6313907482549386</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.12591838978945408</v>
+        <v>6.8542556991681765e-12</v>
       </c>
       <c r="B164">
-        <v>0.45198267222024613</v>
+        <v>0.44726251313071702</v>
       </c>
       <c r="C164">
-        <v>0.55256388714339233</v>
+        <v>0.53818582341366139</v>
       </c>
       <c r="D164">
-        <v>0.9311048486979393</v>
+        <v>6.6682798799156862</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.10749022461900398</v>
+        <v>5.9010034534829744e-12</v>
       </c>
       <c r="B165">
-        <v>0.44439768751849923</v>
+        <v>0.44311954884583005</v>
       </c>
       <c r="C165">
-        <v>0.56223968602043961</v>
+        <v>0.54266978494470108</v>
       </c>
       <c r="D165">
-        <v>1.0324697002316012</v>
+        <v>6.8667332452119725</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.12205027496791952</v>
+        <v>6.2148919023107083e-12</v>
       </c>
       <c r="B166">
-        <v>0.44187332169534849</v>
+        <v>0.44092856122310742</v>
       </c>
       <c r="C166">
-        <v>0.56219730126570933</v>
+        <v>0.54279014503070055</v>
       </c>
       <c r="D166">
-        <v>0.92738612501746098</v>
+        <v>6.8208781174842512</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.12120783001798788</v>
+        <v>6.5941300769085241e-12</v>
       </c>
       <c r="B167">
-        <v>0.44111067392191666</v>
+        <v>0.43943736017757445</v>
       </c>
       <c r="C167">
-        <v>0.56300628520789975</v>
+        <v>0.54450911666851698</v>
       </c>
       <c r="D167">
-        <v>0.98431948416575465</v>
+        <v>6.7976041217891296</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.11525147866272258</v>
+        <v>6.7880317958468428e-12</v>
       </c>
       <c r="B168">
-        <v>0.43906348175195808</v>
+        <v>0.43679434590155364</v>
       </c>
       <c r="C168">
-        <v>0.56577813196085691</v>
+        <v>0.54836681899379214</v>
       </c>
       <c r="D168">
-        <v>1.0082985047242456</v>
+        <v>6.6668089785188069</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.12149755606752988</v>
+        <v>6.7696958480533606e-12</v>
       </c>
       <c r="B169">
-        <v>0.43848834095944672</v>
+        <v>0.43577989586133142</v>
       </c>
       <c r="C169">
-        <v>0.56529425579924697</v>
+        <v>0.54837279985051579</v>
       </c>
       <c r="D169">
-        <v>0.97399694822704108</v>
+        <v>6.7723949998127626</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.12796837376093614</v>
+        <v>7.0514024485971585e-12</v>
       </c>
       <c r="B170">
-        <v>0.4395937375666612</v>
+        <v>0.43583501764023919</v>
       </c>
       <c r="C170">
-        <v>0.56327031953711071</v>
+        <v>0.5475455928948455</v>
       </c>
       <c r="D170">
-        <v>0.96563334291027225</v>
+        <v>6.8635456863335413</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.13514723179410076</v>
+        <v>7.3124523063610356e-12</v>
       </c>
       <c r="B171">
-        <v>0.44151237638122665</v>
+        <v>0.43625194704019293</v>
       </c>
       <c r="C171">
-        <v>0.56040390339592616</v>
+        <v>0.54633536296802598</v>
       </c>
       <c r="D171">
-        <v>0.91440629386762606</v>
+        <v>6.9621339729053027</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.13047073544164173</v>
+        <v>7.5894000876372033e-12</v>
       </c>
       <c r="B172">
-        <v>0.43939921776177177</v>
+        <v>0.43540791493010406</v>
       </c>
       <c r="C172">
-        <v>0.5630381639737686</v>
+        <v>0.54729011324747345</v>
       </c>
       <c r="D172">
-        <v>0.96237009625981962</v>
+        <v>6.9832905558464242</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.13920416341024222</v>
+        <v>7.961295650355774e-12</v>
       </c>
       <c r="B173">
-        <v>0.44007162925144994</v>
+        <v>0.43507940104957687</v>
       </c>
       <c r="C173">
-        <v>0.56102423908597776</v>
+        <v>0.54642847294529451</v>
       </c>
       <c r="D173">
-        <v>0.93061663475258716</v>
+        <v>7.0158071659482726</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.14077332209503202</v>
+        <v>8.1099643070517652e-12</v>
       </c>
       <c r="B174">
-        <v>0.44037176693198898</v>
+        <v>0.43480167829310512</v>
       </c>
       <c r="C174">
-        <v>0.56049688140304976</v>
+        <v>0.54662988765084708</v>
       </c>
       <c r="D174">
-        <v>0.97033351735305606</v>
+        <v>7.0210874161477799</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.15004764443580221</v>
+        <v>8.3146763967106434e-12</v>
       </c>
       <c r="B175">
-        <v>0.4428177619222422</v>
+        <v>0.43586937833663791</v>
       </c>
       <c r="C175">
-        <v>0.55679712955394722</v>
+        <v>0.54493488166214588</v>
       </c>
       <c r="D175">
-        <v>0.90596361163508254</v>
+        <v>6.8562549968161912</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.14989022281979641</v>
+        <v>8.7887722457583955e-12</v>
       </c>
       <c r="B176">
-        <v>0.44251023582506432</v>
+        <v>0.43558262237174827</v>
       </c>
       <c r="C176">
-        <v>0.55709246648429156</v>
+        <v>0.54519110418233363</v>
       </c>
       <c r="D176">
-        <v>0.92274961223416729</v>
+        <v>6.8562172167688447</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.1588927893537857</v>
+        <v>8.9486371491046114e-12</v>
       </c>
       <c r="B177">
-        <v>0.44500323832162381</v>
+        <v>0.43785480432585394</v>
       </c>
       <c r="C177">
-        <v>0.55337014353184488</v>
+        <v>0.54165441484312726</v>
       </c>
       <c r="D177">
-        <v>0.94371716388799998</v>
+        <v>6.9667390322090341</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.16438361837587528</v>
+        <v>9.5314237227481756e-12</v>
       </c>
       <c r="B178">
-        <v>0.44747871280737972</v>
+        <v>0.43947905928283343</v>
       </c>
       <c r="C178">
-        <v>0.55024339735659145</v>
+        <v>0.5394450293352705</v>
       </c>
       <c r="D178">
-        <v>0.95038791721427107</v>
+        <v>7.0349571084948099</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.14332274481255411</v>
+        <v>9.4296448135263823e-12</v>
       </c>
       <c r="B179">
-        <v>0.43698323797099914</v>
+        <v>0.43429104758784853</v>
       </c>
       <c r="C179">
-        <v>0.56317320238664725</v>
+        <v>0.54479200451309329</v>
       </c>
       <c r="D179">
-        <v>1.0336675577536325</v>
+        <v>7.4412192265562309</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.14286954167191968</v>
+        <v>9.8128413565635441e-12</v>
       </c>
       <c r="B180">
-        <v>0.43699884546698037</v>
+        <v>0.43319499569293701</v>
       </c>
       <c r="C180">
-        <v>0.56323367102650446</v>
+        <v>0.54583955772625836</v>
       </c>
       <c r="D180">
-        <v>1.0786514017374091</v>
+        <v>7.4120852146845246</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.15038996442305036</v>
+        <v>1.0467032455179144e-11</v>
       </c>
       <c r="B181">
-        <v>0.43173022279891532</v>
+        <v>0.42904531290708603</v>
       </c>
       <c r="C181">
-        <v>0.5666350082122088</v>
+        <v>0.54827553003609575</v>
       </c>
       <c r="D181">
-        <v>1.1264624753638206</v>
+        <v>7.4092093669736041</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.14941833099496474</v>
+        <v>1.0928799153134045e-11</v>
       </c>
       <c r="B182">
-        <v>0.4310672104097692</v>
+        <v>0.4286653010981315</v>
       </c>
       <c r="C182">
-        <v>0.56738789385076027</v>
+        <v>0.54866353283078129</v>
       </c>
       <c r="D182">
-        <v>1.1696523170879949</v>
+        <v>7.4081691882074931</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.15209058719975851</v>
+        <v>1.0996303508260193e-11</v>
       </c>
       <c r="B183">
-        <v>0.43173806353542743</v>
+        <v>0.42932525048366199</v>
       </c>
       <c r="C183">
-        <v>0.56632374945416486</v>
+        <v>0.54763783334372118</v>
       </c>
       <c r="D183">
-        <v>1.1954942589125666</v>
+        <v>7.4361555900369289</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.16232989793436645</v>
+        <v>1.250930903920088e-11</v>
       </c>
       <c r="B184">
-        <v>0.43508489165648628</v>
+        <v>0.43269058735881738</v>
       </c>
       <c r="C184">
-        <v>0.561551071237122</v>
+        <v>0.54256227566103787</v>
       </c>
       <c r="D184">
-        <v>1.1778557905746763</v>
+        <v>7.6287066883413788</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.17002729659682184</v>
+        <v>1.2816037556102448e-11</v>
       </c>
       <c r="B185">
-        <v>0.43986768774160884</v>
+        <v>0.43632994223470872</v>
       </c>
       <c r="C185">
-        <v>0.55594184142256908</v>
+        <v>0.53803706658213768</v>
       </c>
       <c r="D185">
-        <v>1.1980871839585148</v>
+        <v>7.7521610821893248</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.16661865833726711</v>
+        <v>1.3209402299963705e-11</v>
       </c>
       <c r="B186">
-        <v>0.43752876273578029</v>
+        <v>0.4369484050978894</v>
       </c>
       <c r="C186">
-        <v>0.55863119553885132</v>
+        <v>0.53757565498319149</v>
       </c>
       <c r="D186">
-        <v>1.2248854508066047</v>
+        <v>7.6460961155862437</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.17346735621642626</v>
+        <v>1.3500065482849619e-11</v>
       </c>
       <c r="B187">
-        <v>0.43986329484686315</v>
+        <v>0.4404189971834605</v>
       </c>
       <c r="C187">
-        <v>0.55525195515382397</v>
+        <v>0.53367324297252694</v>
       </c>
       <c r="D187">
-        <v>1.2176514358230928</v>
+        <v>7.4664773927782839</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.17478463788544846</v>
+        <v>1.3946605255598497e-11</v>
       </c>
       <c r="B188">
-        <v>0.44066037585053897</v>
+        <v>0.44159925573469727</v>
       </c>
       <c r="C188">
-        <v>0.55429257892974138</v>
+        <v>0.53232006540011301</v>
       </c>
       <c r="D188">
-        <v>1.2677599196671507</v>
+        <v>7.4745245772780491</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.17801359585400656</v>
+        <v>1.4610036840446247e-11</v>
       </c>
       <c r="B189">
-        <v>0.44234104745838099</v>
+        <v>0.4439870480919893</v>
       </c>
       <c r="C189">
-        <v>0.55215569787034802</v>
+        <v>0.52986263649098708</v>
       </c>
       <c r="D189">
-        <v>1.3356561619798404</v>
+        <v>7.3291686209254125</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.18091634779105739</v>
+        <v>1.5023775080407534e-11</v>
       </c>
       <c r="B190">
-        <v>0.44401033561902226</v>
+        <v>0.44647997325637589</v>
       </c>
       <c r="C190">
-        <v>0.55007896334536044</v>
+        <v>0.5269937128984431</v>
       </c>
       <c r="D190">
-        <v>1.3602048919055798</v>
+        <v>7.3274133671162192</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.18969026042552034</v>
+        <v>1.5225224123888735e-11</v>
       </c>
       <c r="B191">
-        <v>0.44941766244374404</v>
+        <v>0.45340310151077756</v>
       </c>
       <c r="C191">
-        <v>0.54342266307590825</v>
+        <v>0.51858471091103309</v>
       </c>
       <c r="D191">
-        <v>1.3975940125984059</v>
+        <v>7.461659037379345</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.18988468859417496</v>
+        <v>1.6304337473218827e-11</v>
       </c>
       <c r="B192">
-        <v>0.44958859704820153</v>
+        <v>0.45236267439158812</v>
       </c>
       <c r="C192">
-        <v>0.54323015634742633</v>
+        <v>0.5197650532418967</v>
       </c>
       <c r="D192">
-        <v>1.4138325787674002</v>
+        <v>7.4419743740597033</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.18764896989027355</v>
+        <v>1.7007161895685375e-11</v>
       </c>
       <c r="B193">
-        <v>0.44771328014491862</v>
+        <v>0.45267179511810013</v>
       </c>
       <c r="C193">
-        <v>0.54542399561122334</v>
+        <v>0.51990131666208728</v>
       </c>
       <c r="D193">
-        <v>1.4368788927708325</v>
+        <v>7.2547990065847836</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.18876264745830851</v>
+        <v>1.7438692010547972e-11</v>
       </c>
       <c r="B194">
-        <v>0.44800333953847848</v>
+        <v>0.45411312593577241</v>
       </c>
       <c r="C194">
-        <v>0.54477962661927215</v>
+        <v>0.51858518722726032</v>
       </c>
       <c r="D194">
-        <v>1.50314424322825</v>
+        <v>7.069352953325942</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.19056564817036842</v>
+        <v>1.7932668294088536e-11</v>
       </c>
       <c r="B195">
-        <v>0.44927728881948531</v>
+        <v>0.45699433678667534</v>
       </c>
       <c r="C195">
-        <v>0.54311122323768102</v>
+        <v>0.51535989103357593</v>
       </c>
       <c r="D195">
-        <v>1.4852224590444698</v>
+        <v>7.0485169639572502</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.19173235588561049</v>
+        <v>1.854909738769918e-11</v>
       </c>
       <c r="B196">
-        <v>0.45036644171906909</v>
+        <v>0.45913386101114234</v>
       </c>
       <c r="C196">
-        <v>0.54180453917799209</v>
+        <v>0.51397865551352651</v>
       </c>
       <c r="D196">
-        <v>1.5073582188221994</v>
+        <v>6.6954209003652583</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.19068099180397088</v>
+        <v>1.9469352281630593e-11</v>
       </c>
       <c r="B197">
-        <v>0.44928825661587135</v>
+        <v>0.45838772668755323</v>
       </c>
       <c r="C197">
-        <v>0.5431132952727965</v>
+        <v>0.51473581290738812</v>
       </c>
       <c r="D197">
-        <v>1.5390959820289918</v>
+        <v>6.7169043779249407</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.19127211754814827</v>
+        <v>1.9736189614727517e-11</v>
       </c>
       <c r="B198">
-        <v>0.44930124372313124</v>
+        <v>0.46073757050959652</v>
       </c>
       <c r="C198">
-        <v>0.54244805730066858</v>
+        <v>0.51175114361114871</v>
       </c>
       <c r="D198">
-        <v>1.5997861482009539</v>
+        <v>6.6960972273994734</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.19108807805920386</v>
+        <v>2.0169507304184797e-11</v>
       </c>
       <c r="B199">
-        <v>0.44905970985365662</v>
+        <v>0.45995489306108622</v>
       </c>
       <c r="C199">
-        <v>0.54272511812354063</v>
+        <v>0.51264519640878869</v>
       </c>
       <c r="D199">
-        <v>1.589121908426308</v>
+        <v>6.6843016709514531</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.1905723169453192</v>
+        <v>2.0984417471995424e-11</v>
       </c>
       <c r="B200">
-        <v>0.44815509365579204</v>
+        <v>0.45959803816651801</v>
       </c>
       <c r="C200">
-        <v>0.54387109500343045</v>
+        <v>0.51368968105554125</v>
       </c>
       <c r="D200">
-        <v>1.6403939115890318</v>
+        <v>6.440681915070269</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.19117735579613446</v>
+        <v>2.0658759111154544e-11</v>
       </c>
       <c r="B201">
-        <v>0.4486376997718019</v>
+        <v>0.45932239000623415</v>
       </c>
       <c r="C201">
-        <v>0.54369902867307851</v>
+        <v>0.513846808961402</v>
       </c>
       <c r="D201">
-        <v>1.6702991534095453</v>
+        <v>6.5121914699390739</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.19125609730152154</v>
+        <v>2.1611491824744415e-11</v>
       </c>
       <c r="B202">
-        <v>0.44873683943672504</v>
+        <v>0.45911099836540847</v>
       </c>
       <c r="C202">
-        <v>0.5436163826439816</v>
+        <v>0.51409390747926376</v>
       </c>
       <c r="D202">
-        <v>1.7178658354429788</v>
+        <v>6.4691027911554615</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.18998509909569969</v>
+        <v>1.9860857587096558e-11</v>
       </c>
       <c r="B203">
-        <v>0.4469499234486215</v>
+        <v>0.45682586050532364</v>
       </c>
       <c r="C203">
-        <v>0.54493026332416861</v>
+        <v>0.51791069349278218</v>
       </c>
       <c r="D203">
-        <v>1.7306417688451738</v>
+        <v>5.8443470387418035</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.19113640149522465</v>
+        <v>2.0562822485005706e-11</v>
       </c>
       <c r="B204">
-        <v>0.44866842640215937</v>
+        <v>0.46115499196619758</v>
       </c>
       <c r="C204">
-        <v>0.54285347121380234</v>
+        <v>0.513595056986763</v>
       </c>
       <c r="D204">
-        <v>1.8049842215867697</v>
+        <v>5.7184452437088007</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.18987263317199712</v>
+        <v>2.1560553986852379e-11</v>
       </c>
       <c r="B205">
-        <v>0.44639787889979032</v>
+        <v>0.45766122834251599</v>
       </c>
       <c r="C205">
-        <v>0.54544130463214835</v>
+        <v>0.51736061002664657</v>
       </c>
       <c r="D205">
-        <v>1.8392687486095947</v>
+        <v>5.7201512732441744</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.18917107679406805</v>
+        <v>2.2863092945837517e-11</v>
       </c>
       <c r="B206">
-        <v>0.44622068442853424</v>
+        <v>0.45855951830526981</v>
       </c>
       <c r="C206">
-        <v>0.54530708494207636</v>
+        <v>0.51604218015934333</v>
       </c>
       <c r="D206">
-        <v>1.9558712927705448</v>
+        <v>5.7394090706976213</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.18921993927449729</v>
+        <v>2.3687970152465942e-11</v>
       </c>
       <c r="B207">
-        <v>0.44636193137888253</v>
+        <v>0.45821286006927442</v>
       </c>
       <c r="C207">
-        <v>0.54514486716752197</v>
+        <v>0.51768772513061456</v>
       </c>
       <c r="D207">
-        <v>1.9868783667890317</v>
+        <v>5.3095723951120704</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.18895532954722247</v>
+        <v>2.416911614175493e-11</v>
       </c>
       <c r="B208">
-        <v>0.44708533345459528</v>
+        <v>0.4603708970362152</v>
       </c>
       <c r="C208">
-        <v>0.54417712098745441</v>
+        <v>0.51593592949860456</v>
       </c>
       <c r="D208">
-        <v>1.9885591508077127</v>
+        <v>5.1000076946199471</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.18899045411028784</v>
+        <v>2.521153756862707e-11</v>
       </c>
       <c r="B209">
-        <v>0.44723647665223182</v>
+        <v>0.46124753977158578</v>
       </c>
       <c r="C209">
-        <v>0.54400956823101454</v>
+        <v>0.51504276323460074</v>
       </c>
       <c r="D209">
-        <v>2.0905781938990851</v>
+        <v>5.0836251797133158</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.18996926561071728</v>
+        <v>2.5125098306251921e-11</v>
       </c>
       <c r="B210">
-        <v>0.44612688580067439</v>
+        <v>0.46117450918143266</v>
       </c>
       <c r="C210">
-        <v>0.54544630620577339</v>
+        <v>0.51479001877010344</v>
       </c>
       <c r="D210">
-        <v>2.1063468139683059</v>
+        <v>5.196785410009884</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.1915408243953472</v>
+        <v>2.6563429530972672e-11</v>
       </c>
       <c r="B211">
-        <v>0.44717243558472264</v>
+        <v>0.46132342334674559</v>
       </c>
       <c r="C211">
-        <v>0.54454731769412557</v>
+        <v>0.51459702558587017</v>
       </c>
       <c r="D211">
-        <v>2.1184057012995803</v>
+        <v>5.2313880034534144</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.19020593739946942</v>
+        <v>2.6682817283965362e-11</v>
       </c>
       <c r="B212">
-        <v>0.446115139478929</v>
+        <v>0.46092925310508953</v>
       </c>
       <c r="C212">
-        <v>0.54547558249482087</v>
+        <v>0.51487129561050637</v>
       </c>
       <c r="D212">
-        <v>2.0960198239392849</v>
+        <v>5.2082719426772384</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.18904805005343506</v>
+        <v>2.7309193959729233e-11</v>
       </c>
       <c r="B213">
-        <v>0.44583071401574143</v>
+        <v>0.46178303960370548</v>
       </c>
       <c r="C213">
-        <v>0.54550520616556042</v>
+        <v>0.51364167012752759</v>
       </c>
       <c r="D213">
-        <v>2.1531423559193441</v>
+        <v>5.2270529839078677</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.18922270717392506</v>
+        <v>2.9415854252944081e-11</v>
       </c>
       <c r="B214">
-        <v>0.44492998531235922</v>
+        <v>0.46119958275435291</v>
       </c>
       <c r="C214">
-        <v>0.5466019927228859</v>
+        <v>0.51495809530820635</v>
       </c>
       <c r="D214">
-        <v>2.1525125527381967</v>
+        <v>5.0045861585121578</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.18898485455660619</v>
+        <v>3.0269605449058099e-11</v>
       </c>
       <c r="B215">
-        <v>0.44487602627124162</v>
+        <v>0.46146711686908476</v>
       </c>
       <c r="C215">
-        <v>0.546615672330512</v>
+        <v>0.51497218009296486</v>
       </c>
       <c r="D215">
-        <v>2.2690575029534834</v>
+        <v>4.882386020192893</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.19033154135101948</v>
+        <v>2.9861197995935895e-11</v>
       </c>
       <c r="B216">
-        <v>0.44507603874694457</v>
+        <v>0.4603569693818681</v>
       </c>
       <c r="C216">
-        <v>0.54666570710355356</v>
+        <v>0.51613578519044334</v>
       </c>
       <c r="D216">
-        <v>2.3725558381964769</v>
+        <v>4.9284773023279209</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.19213689960747354</v>
+        <v>3.0277867612289656e-11</v>
       </c>
       <c r="B217">
-        <v>0.44645918405994262</v>
+        <v>0.46020104666269018</v>
       </c>
       <c r="C217">
-        <v>0.54546652632280945</v>
+        <v>0.51635046538360396</v>
       </c>
       <c r="D217">
-        <v>2.4401619174663192</v>
+        <v>4.9085631223482995</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.19079467677589426</v>
+        <v>3.0319229531741314e-11</v>
       </c>
       <c r="B218">
-        <v>0.44520780827349982</v>
+        <v>0.45936426689054571</v>
       </c>
       <c r="C218">
-        <v>0.54657987785892514</v>
+        <v>0.51730118231814537</v>
       </c>
       <c r="D218">
-        <v>2.4481981181925794</v>
+        <v>4.8095829993399146</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.19061798105908836</v>
+        <v>3.2028507932005013e-11</v>
       </c>
       <c r="B219">
-        <v>0.44514401521506114</v>
+        <v>0.4596987331770212</v>
       </c>
       <c r="C219">
-        <v>0.54659183290637148</v>
+        <v>0.51689888483998103</v>
       </c>
       <c r="D219">
-        <v>2.4686338545115909</v>
+        <v>4.803638047995169</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.1900703024722013</v>
+        <v>3.4504245716468089e-11</v>
       </c>
       <c r="B220">
-        <v>0.44511232818325419</v>
+        <v>0.46055331993203191</v>
       </c>
       <c r="C220">
-        <v>0.54641568502588189</v>
+        <v>0.51575490662438406</v>
       </c>
       <c r="D220">
-        <v>2.4677747608212366</v>
+        <v>4.817310588286877</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.19009112178372409</v>
+        <v>3.4067773867148874e-11</v>
       </c>
       <c r="B221">
-        <v>0.44516854321353522</v>
+        <v>0.45947404356660199</v>
       </c>
       <c r="C221">
-        <v>0.54635400401156531</v>
+        <v>0.51801364384122361</v>
       </c>
       <c r="D221">
-        <v>2.5792749685017924</v>
+        <v>4.4637260334478341</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.19115453228486848</v>
+        <v>3.3630660408667216e-11</v>
       </c>
       <c r="B222">
-        <v>0.44441935624121059</v>
+        <v>0.45811136447225453</v>
       </c>
       <c r="C222">
-        <v>0.54753691307753349</v>
+        <v>0.51905141486109152</v>
       </c>
       <c r="D222">
-        <v>2.6162989845959057</v>
+        <v>4.6155583133231977</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.1904610916446843</v>
+        <v>3.5303623018102642e-11</v>
       </c>
       <c r="B223">
-        <v>0.44378127132854905</v>
+        <v>0.4576887003599332</v>
       </c>
       <c r="C223">
-        <v>0.54810578465788284</v>
+        <v>0.51943878043777536</v>
       </c>
       <c r="D223">
-        <v>2.6935424041986948</v>
+        <v>4.5872899352050958</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.1904315218361517</v>
+        <v>3.6234458540139862e-11</v>
       </c>
       <c r="B224">
-        <v>0.44377095050861842</v>
+        <v>0.45686055643535517</v>
       </c>
       <c r="C224">
-        <v>0.54810781308871148</v>
+        <v>0.52068331324954054</v>
       </c>
       <c r="D224">
-        <v>2.8667027319153258</v>
+        <v>4.4396878945965597</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.18965897534177792</v>
+        <v>3.7546790967637552e-11</v>
       </c>
       <c r="B225">
-        <v>0.44335390985420098</v>
+        <v>0.45744373158232909</v>
       </c>
       <c r="C225">
-        <v>0.54831580785430589</v>
+        <v>0.52012909228201476</v>
       </c>
       <c r="D225">
-        <v>2.9272041238816291</v>
+        <v>4.357056988812074</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.18992306764770248</v>
+        <v>4.1875352767218103e-11</v>
       </c>
       <c r="B226">
-        <v>0.44191677952106367</v>
+        <v>0.45369749172156126</v>
       </c>
       <c r="C226">
-        <v>0.55027025988642442</v>
+        <v>0.52435493587096416</v>
       </c>
       <c r="D226">
-        <v>2.8237338473790281</v>
+        <v>4.3710708939590246</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.18726555359180164</v>
+        <v>4.1326403995926697e-11</v>
       </c>
       <c r="B227">
-        <v>0.43914365406437045</v>
+        <v>0.45134807773282193</v>
       </c>
       <c r="C227">
-        <v>0.55273568943187334</v>
+        <v>0.52653400905445469</v>
       </c>
       <c r="D227">
-        <v>2.8176819208539876</v>
+        <v>4.3090055885471683</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.18719933406237971</v>
+        <v>4.2841392132107051e-11</v>
       </c>
       <c r="B228">
-        <v>0.43952683872194892</v>
+        <v>0.45017602035783888</v>
       </c>
       <c r="C228">
-        <v>0.55217655750289196</v>
+        <v>0.52897583241215196</v>
       </c>
       <c r="D228">
-        <v>2.9442891494022527</v>
+        <v>3.9261104649947391</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.18712581010308027</v>
+        <v>4.6475766672369479e-11</v>
       </c>
       <c r="B229">
-        <v>0.4383894335566319</v>
+        <v>0.44913446098530047</v>
       </c>
       <c r="C229">
-        <v>0.5535982411516488</v>
+        <v>0.52989955163332791</v>
       </c>
       <c r="D229">
-        <v>2.9725884784447976</v>
+        <v>3.9898702413240068</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.18734176254944496</v>
+        <v>4.8356486109724321e-11</v>
       </c>
       <c r="B230">
-        <v>0.43854631205954608</v>
+        <v>0.44915092981531407</v>
       </c>
       <c r="C230">
-        <v>0.55347892219076733</v>
+        <v>0.52988269002796284</v>
       </c>
       <c r="D230">
-        <v>3.0097394245048008</v>
+        <v>3.9897387680540577</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.18730550811154204</v>
+        <v>4.9831993909187645e-11</v>
       </c>
       <c r="B231">
-        <v>0.43853088581489669</v>
+        <v>0.44852531762526826</v>
       </c>
       <c r="C231">
-        <v>0.55348465417079962</v>
+        <v>0.53078201395802738</v>
       </c>
       <c r="D231">
-        <v>3.2197931851754369</v>
+        <v>3.8902364037169717</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.18570719733652252</v>
+        <v>5.1672431640044973e-11</v>
       </c>
       <c r="B232">
-        <v>0.43765928799035281</v>
+        <v>0.44914076817413662</v>
       </c>
       <c r="C232">
-        <v>0.55391798945703208</v>
+        <v>0.53014708742844896</v>
       </c>
       <c r="D232">
-        <v>3.3956016548491417</v>
+        <v>3.769323243387217</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.18490407328860531</v>
+        <v>5.4303170573342351e-11</v>
       </c>
       <c r="B233">
-        <v>0.43521560802066656</v>
+        <v>0.44555710207558896</v>
       </c>
       <c r="C233">
-        <v>0.55667823690432838</v>
+        <v>0.53405499705332626</v>
       </c>
       <c r="D233">
-        <v>3.3906411591236658</v>
+        <v>3.7646498750954027</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.18465281334270794</v>
+        <v>5.5614976627142542e-11</v>
       </c>
       <c r="B234">
-        <v>0.43514527827445637</v>
+        <v>0.44561682091143401</v>
       </c>
       <c r="C234">
-        <v>0.55669541677907186</v>
+        <v>0.53393338113304023</v>
       </c>
       <c r="D234">
-        <v>3.5126235883695514</v>
+        <v>3.7628235551558746</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.18455376928966516</v>
+        <v>5.7454618303549522e-11</v>
       </c>
       <c r="B235">
-        <v>0.43516834904610979</v>
+        <v>0.44428995649461162</v>
       </c>
       <c r="C235">
-        <v>0.55664277542351204</v>
+        <v>0.53603799218923598</v>
       </c>
       <c r="D235">
-        <v>3.6471323730195757</v>
+        <v>3.5405826111338166</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.18580211549777459</v>
+        <v>5.7796956865459298e-11</v>
       </c>
       <c r="B236">
-        <v>0.43515631010444122</v>
+        <v>0.44381308550644155</v>
       </c>
       <c r="C236">
-        <v>0.55696771939566636</v>
+        <v>0.53631662235421595</v>
       </c>
       <c r="D236">
-        <v>3.7443111493821055</v>
+        <v>3.6362494414832818</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.18538527899659718</v>
+        <v>5.963849373198562e-11</v>
       </c>
       <c r="B237">
-        <v>0.4347972805986402</v>
+        <v>0.44352919689259246</v>
       </c>
       <c r="C237">
-        <v>0.55728111394881497</v>
+        <v>0.53656943995858097</v>
       </c>
       <c r="D237">
-        <v>3.8696974718121417</v>
+        <v>3.6211600766710643</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.18492944035902087</v>
+        <v>6.4063312824753066e-11</v>
       </c>
       <c r="B238">
-        <v>0.43450429238929461</v>
+        <v>0.44291540664979662</v>
       </c>
       <c r="C238">
-        <v>0.55748461087653201</v>
+        <v>0.53740126681337652</v>
       </c>
       <c r="D238">
-        <v>3.8976762805728309</v>
+        <v>3.5281552755426677</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.18403176565229015</v>
+        <v>6.5783028400888981e-11</v>
       </c>
       <c r="B239">
-        <v>0.43444604462754371</v>
+        <v>0.44389067250167913</v>
       </c>
       <c r="C239">
-        <v>0.55722250147027508</v>
+        <v>0.5362976690252157</v>
       </c>
       <c r="D239">
-        <v>4.2474750987737613</v>
+        <v>3.4700037438318541</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.18416877125172404</v>
+        <v>6.9174898425134906e-11</v>
       </c>
       <c r="B240">
-        <v>0.43508206020265078</v>
+        <v>0.44483990322121103</v>
       </c>
       <c r="C240">
-        <v>0.55649638044485927</v>
+        <v>0.53523961128788222</v>
       </c>
       <c r="D240">
-        <v>4.4663647828872</v>
+        <v>3.473483657671022</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.1844620130038033</v>
+        <v>7.5445464504973589e-11</v>
       </c>
       <c r="B241">
-        <v>0.43337874505880852</v>
+        <v>0.44261129855543474</v>
       </c>
       <c r="C241">
-        <v>0.55851116359810227</v>
+        <v>0.53779300960272858</v>
       </c>
       <c r="D241">
-        <v>4.549029550540749</v>
+        <v>3.4749960918865526</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.18851912678329483</v>
+        <v>8.0970703015629414e-11</v>
       </c>
       <c r="B242">
-        <v>0.43574222779691324</v>
+        <v>0.44557384368349695</v>
       </c>
       <c r="C242">
-        <v>0.55659887754125081</v>
+        <v>0.53382342509075786</v>
       </c>
       <c r="D242">
-        <v>4.6308838497552687</v>
+        <v>3.7550617508339266</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.18516959603124578</v>
+        <v>8.7685769566096268e-11</v>
       </c>
       <c r="B243">
-        <v>0.43209431847246005</v>
+        <v>0.44167393876231653</v>
       </c>
       <c r="C243">
-        <v>0.56002825145813451</v>
+        <v>0.53801216673310515</v>
       </c>
       <c r="D243">
-        <v>4.7501816543772026</v>
+        <v>3.6063877969622671</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.18517967426258239</v>
+        <v>9.378744788061193e-11</v>
       </c>
       <c r="B244">
-        <v>0.43211062637571873</v>
+        <v>0.44175406418127777</v>
       </c>
       <c r="C244">
-        <v>0.56001189302360022</v>
+        <v>0.53791347564858327</v>
       </c>
       <c r="D244">
-        <v>4.8710150427528314</v>
+        <v>3.6032403536721747</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.18634728046463109</v>
+        <v>9.6492912177192577e-11</v>
       </c>
       <c r="B245">
-        <v>0.43266285602785581</v>
+        <v>0.44189420567792992</v>
       </c>
       <c r="C245">
-        <v>0.55981789416214223</v>
+        <v>0.5376834511665648</v>
       </c>
       <c r="D245">
-        <v>4.9483434671651807</v>
+        <v>3.6876743260044709</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.18618885661419535</v>
+        <v>1.0362562858404437e-10</v>
       </c>
       <c r="B246">
-        <v>0.43248146665837461</v>
+        <v>0.44163630239632568</v>
       </c>
       <c r="C246">
-        <v>0.5599787215870724</v>
+        <v>0.53791241245203003</v>
       </c>
       <c r="D246">
-        <v>5.2725242166320125</v>
+        <v>3.6826135361188101</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.18663832031468289</v>
+        <v>1.0860395778508588e-10</v>
       </c>
       <c r="B247">
-        <v>0.43300170360681184</v>
+        <v>0.44187871158295089</v>
       </c>
       <c r="C247">
-        <v>0.55957398008485648</v>
+        <v>0.53782892426497364</v>
       </c>
       <c r="D247">
-        <v>5.3564013722825603</v>
+        <v>3.6796795136344946</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.1864177256936273</v>
+        <v>1.1329523123811307e-10</v>
       </c>
       <c r="B248">
-        <v>0.43270538214065496</v>
+        <v>0.44169903041339587</v>
       </c>
       <c r="C248">
-        <v>0.55981128302905836</v>
+        <v>0.53794589707483209</v>
       </c>
       <c r="D248">
-        <v>5.5883979277751985</v>
+        <v>3.6807484968020798</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.1871631702179766</v>
+        <v>1.2226664070712153e-10</v>
       </c>
       <c r="B249">
-        <v>0.43382609416216933</v>
+        <v>0.4438226882935824</v>
       </c>
       <c r="C249">
-        <v>0.55926648282531743</v>
+        <v>0.53501976616605795</v>
       </c>
       <c r="D249">
-        <v>5.6511746832827292</v>
+        <v>3.9100426311017165</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.18593730083559837</v>
+        <v>1.3764174967107087e-10</v>
       </c>
       <c r="B250">
-        <v>0.43183952509854384</v>
+        <v>0.44094042245813242</v>
       </c>
       <c r="C250">
-        <v>0.56106952897350015</v>
+        <v>0.53820318476015361</v>
       </c>
       <c r="D250">
-        <v>5.8424831524399075</v>
+        <v>3.7726060593780915</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.1860228114102607</v>
+        <v>1.4547471752758987e-10</v>
       </c>
       <c r="B251">
-        <v>0.43241256744816803</v>
+        <v>0.44079134196991171</v>
       </c>
       <c r="C251">
-        <v>0.56072042980539671</v>
+        <v>0.53843045948365542</v>
       </c>
       <c r="D251">
-        <v>6.0838372733753383</v>
+        <v>3.7927675484174732</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.18562523204331077</v>
+        <v>1.5157885402033004e-10</v>
       </c>
       <c r="B252">
-        <v>0.43123844241899811</v>
+        <v>0.44032018870983086</v>
       </c>
       <c r="C252">
-        <v>0.56165674573511581</v>
+        <v>0.5386432488049071</v>
       </c>
       <c r="D252">
-        <v>6.3027089682194894</v>
+        <v>3.7902894837527579</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.18615496194063064</v>
+        <v>1.6179176352293827e-10</v>
       </c>
       <c r="B253">
-        <v>0.43133053996051912</v>
+        <v>0.44096571592251055</v>
       </c>
       <c r="C253">
-        <v>0.56130612256767476</v>
+        <v>0.53766597182240805</v>
       </c>
       <c r="D253">
-        <v>6.5598088439410231</v>
+        <v>3.8100355035362772</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.18686573453532218</v>
+        <v>1.7160812311105471e-10</v>
       </c>
       <c r="B254">
-        <v>0.43195131767231415</v>
+        <v>0.4416912041027839</v>
       </c>
       <c r="C254">
-        <v>0.56049392690174782</v>
+        <v>0.53678991346145766</v>
       </c>
       <c r="D254">
-        <v>6.814385919833275</v>
+        <v>3.7988438821184087</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.18756318810995623</v>
+        <v>1.8658296700980158e-10</v>
       </c>
       <c r="B255">
-        <v>0.43271150952763171</v>
+        <v>0.44208257025243919</v>
       </c>
       <c r="C255">
-        <v>0.559549170255765</v>
+        <v>0.53675837571326401</v>
       </c>
       <c r="D255">
-        <v>7.4156352311816134</v>
+        <v>3.6632676103704336</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.18847439454379264</v>
+        <v>2.0576951980660304e-10</v>
       </c>
       <c r="B256">
-        <v>0.43392895852398355</v>
+        <v>0.44371285290695867</v>
       </c>
       <c r="C256">
-        <v>0.55807374882071814</v>
+        <v>0.5353318490351382</v>
       </c>
       <c r="D256">
-        <v>7.3934371551662688</v>
+        <v>3.5534687294964074</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.18603114154260122</v>
+        <v>2.1914187736609835e-10</v>
       </c>
       <c r="B257">
-        <v>0.42981757326975151</v>
+        <v>0.4415320516075642</v>
       </c>
       <c r="C257">
-        <v>0.56282991002398286</v>
+        <v>0.53693694153129379</v>
       </c>
       <c r="D257">
-        <v>7.8865511299811812</v>
+        <v>3.7457847488528349</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.1854375396528761</v>
+        <v>2.3478428564802984e-10</v>
       </c>
       <c r="B258">
-        <v>0.42907604866905757</v>
+        <v>0.44084521791564324</v>
       </c>
       <c r="C258">
-        <v>0.5634638376738903</v>
+        <v>0.53762677191526387</v>
       </c>
       <c r="D258">
-        <v>7.9847689683062848</v>
+        <v>3.7048823217939595</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.18548795515153557</v>
+        <v>2.4871975889382828e-10</v>
       </c>
       <c r="B259">
-        <v>0.429135387916111</v>
+        <v>0.44082924819744806</v>
       </c>
       <c r="C259">
-        <v>0.56343574993630607</v>
+        <v>0.53765189140602065</v>
       </c>
       <c r="D259">
-        <v>8.3242119284255853</v>
+        <v>3.6925177257078823</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.18532049939840872</v>
+        <v>2.6622225817558086e-10</v>
       </c>
       <c r="B260">
-        <v>0.42892531918879578</v>
+        <v>0.44097001371467187</v>
       </c>
       <c r="C260">
-        <v>0.56353633625639699</v>
+        <v>0.53740427989602735</v>
       </c>
       <c r="D260">
-        <v>8.5778466720252382</v>
+        <v>3.6848153236834231</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.18533943306113851</v>
+        <v>2.8258439037294977e-10</v>
       </c>
       <c r="B261">
-        <v>0.42900323303852644</v>
+        <v>0.44138864369714692</v>
       </c>
       <c r="C261">
-        <v>0.56332713996675621</v>
+        <v>0.5368217224168087</v>
       </c>
       <c r="D261">
-        <v>8.6502753780909423</v>
+        <v>3.6915928772377558</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.18551931805106184</v>
+        <v>2.9773137538362304e-10</v>
       </c>
       <c r="B262">
-        <v>0.42942484868196606</v>
+        <v>0.44206440632832672</v>
       </c>
       <c r="C262">
-        <v>0.5627257087077141</v>
+        <v>0.5359137672157348</v>
       </c>
       <c r="D262">
-        <v>9.1962351937972286</v>
+        <v>3.7040413005823543</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.18540358806935031</v>
+        <v>3.2606611594233729e-10</v>
       </c>
       <c r="B263">
-        <v>0.42912088102063323</v>
+        <v>0.44193632253932891</v>
       </c>
       <c r="C263">
-        <v>0.56310626339375747</v>
+        <v>0.53626379043360395</v>
       </c>
       <c r="D263">
-        <v>9.4494262548253225</v>
+        <v>3.6402977399684233</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.18559815041306249</v>
+        <v>3.535026968683442e-10</v>
       </c>
       <c r="B264">
-        <v>0.4290430218579418</v>
+        <v>0.44183587537176644</v>
       </c>
       <c r="C264">
-        <v>0.56332167806667566</v>
+        <v>0.53634955297008025</v>
       </c>
       <c r="D264">
-        <v>9.8388417115982403</v>
+        <v>3.6559392324059972</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.18554119947790434</v>
+        <v>3.7685570849651e-10</v>
       </c>
       <c r="B265">
-        <v>0.42900415796774316</v>
+        <v>0.44184218520018514</v>
       </c>
       <c r="C265">
-        <v>0.56334424156150431</v>
+        <v>0.53631436649897957</v>
       </c>
       <c r="D265">
-        <v>10.080927860610378</v>
+        <v>3.6530443056063526</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.18587169967365752</v>
+        <v>3.9838518153226569e-10</v>
       </c>
       <c r="B266">
-        <v>0.42921077896216026</v>
+        <v>0.44192158526631459</v>
       </c>
       <c r="C266">
-        <v>0.56325274669649883</v>
+        <v>0.53622671254072984</v>
       </c>
       <c r="D266">
-        <v>10.608268675801868</v>
+        <v>3.6654309343388429</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.18529473297701346</v>
+        <v>4.2297934132500497e-10</v>
       </c>
       <c r="B267">
-        <v>0.42866223671591414</v>
+        <v>0.44166142134323616</v>
       </c>
       <c r="C267">
-        <v>0.56365868875572955</v>
+        <v>0.5363544539782269</v>
       </c>
       <c r="D267">
-        <v>10.844844311823115</v>
+        <v>3.6548176779158825</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.18539578757452402</v>
+        <v>4.8924626763828414e-10</v>
       </c>
       <c r="B268">
-        <v>0.42860628750074081</v>
+        <v>0.44129433274830704</v>
       </c>
       <c r="C268">
-        <v>0.56382223556804989</v>
+        <v>0.53689432272221338</v>
       </c>
       <c r="D268">
-        <v>11.132883214835084</v>
+        <v>3.6473684174382881</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.18601592848845108</v>
+        <v>5.1630589676364033e-10</v>
       </c>
       <c r="B269">
-        <v>0.42909189767298506</v>
+        <v>0.44169626170931947</v>
       </c>
       <c r="C269">
-        <v>0.56354740352582022</v>
+        <v>0.5366535265239778</v>
       </c>
       <c r="D269">
-        <v>11.539212090512436</v>
+        <v>3.6598943309343341</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.1873414079855942</v>
+        <v>5.2552522743703722e-10</v>
       </c>
       <c r="B270">
-        <v>0.43068142060646791</v>
+        <v>0.4426078160243444</v>
       </c>
       <c r="C270">
-        <v>0.56221397073147472</v>
+        <v>0.53554745675389126</v>
       </c>
       <c r="D270">
-        <v>11.236778730740136</v>
+        <v>3.7162443787895136</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.18718812010598537</v>
+        <v>5.4436210550958486e-10</v>
       </c>
       <c r="B271">
-        <v>0.43045728049670873</v>
+        <v>0.44193296743398275</v>
       </c>
       <c r="C271">
-        <v>0.56241453532292995</v>
+        <v>0.53623840349746565</v>
       </c>
       <c r="D271">
-        <v>11.476399276533975</v>
+        <v>3.6918353974075586</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.18679136993734907</v>
+        <v>5.7869020199899688e-10</v>
       </c>
       <c r="B272">
-        <v>0.42969787964222655</v>
+        <v>0.4416565096782829</v>
       </c>
       <c r="C272">
-        <v>0.56300898229707541</v>
+        <v>0.53635364785295259</v>
       </c>
       <c r="D272">
-        <v>11.337953667972018</v>
+        <v>3.6831195562237364</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.18695231896367012</v>
+        <v>6.249694377916465e-10</v>
       </c>
       <c r="B273">
-        <v>0.4297135807556785</v>
+        <v>0.44130480815460355</v>
       </c>
       <c r="C273">
-        <v>0.56282456728936914</v>
+        <v>0.53697281361150584</v>
       </c>
       <c r="D273">
-        <v>11.997280300362288</v>
+        <v>3.5767270306501735</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.18751182940637565</v>
+        <v>6.8212451261099193e-10</v>
       </c>
       <c r="B274">
-        <v>0.43031358240427187</v>
+        <v>0.44265335536356504</v>
       </c>
       <c r="C274">
-        <v>0.56198443803876563</v>
+        <v>0.53549623507487998</v>
       </c>
       <c r="D274">
-        <v>11.963004842885907</v>
+        <v>3.5475477368963597</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.18748979289569426</v>
+        <v>7.0813154138582671e-10</v>
       </c>
       <c r="B275">
-        <v>0.43028365301460231</v>
+        <v>0.44260601593893706</v>
       </c>
       <c r="C275">
-        <v>0.56202298724637034</v>
+        <v>0.53555250236675966</v>
       </c>
       <c r="D275">
-        <v>12.677703247106933</v>
+        <v>3.5473174250498802</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.18803359398224218</v>
+        <v>7.5845145596445038e-10</v>
       </c>
       <c r="B276">
-        <v>0.43158623795716416</v>
+        <v>0.4441955927495212</v>
       </c>
       <c r="C276">
-        <v>0.56021409959155921</v>
+        <v>0.53368974853320972</v>
       </c>
       <c r="D276">
-        <v>13.164411231353592</v>
+        <v>3.4965320400366871</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.18742728972734687</v>
+        <v>8.1215927495284646e-10</v>
       </c>
       <c r="B277">
-        <v>0.43042741301556514</v>
+        <v>0.44471241788461929</v>
       </c>
       <c r="C277">
-        <v>0.56148224262235602</v>
+        <v>0.53330001573711894</v>
       </c>
       <c r="D277">
-        <v>14.050170487267485</v>
+        <v>3.4611429303207442</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.18754973320880949</v>
+        <v>8.546242995489436e-10</v>
       </c>
       <c r="B278">
-        <v>0.42801902416177873</v>
+        <v>0.44200421464414436</v>
       </c>
       <c r="C278">
-        <v>0.56439703659865614</v>
+        <v>0.53592952206514688</v>
       </c>
       <c r="D278">
-        <v>14.217769598266376</v>
+        <v>3.5596993972464119</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.18804013554049126</v>
+        <v>9.044072956793493e-10</v>
       </c>
       <c r="B279">
-        <v>0.428497353823177</v>
+        <v>0.4420723650923053</v>
       </c>
       <c r="C279">
-        <v>0.56396297772273007</v>
+        <v>0.53586221538188628</v>
       </c>
       <c r="D279">
-        <v>14.462406719623097</v>
+        <v>3.5614941169141487</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.18959128741587142</v>
+        <v>9.3710243627802175e-10</v>
       </c>
       <c r="B280">
-        <v>0.43004438386494687</v>
+        <v>0.44272363671831377</v>
       </c>
       <c r="C280">
-        <v>0.56262938199679013</v>
+        <v>0.53505430646131302</v>
       </c>
       <c r="D280">
-        <v>15.146131956825114</v>
+        <v>3.6058127773161317</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.18687542124498388</v>
+        <v>1.0032413448695648e-09</v>
       </c>
       <c r="B281">
-        <v>0.42667410732218275</v>
+        <v>0.44011237064923797</v>
       </c>
       <c r="C281">
-        <v>0.56565700692527665</v>
+        <v>0.53771901917864318</v>
       </c>
       <c r="D281">
-        <v>15.165176427855913</v>
+        <v>3.5035239936414824</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.1870911392804622</v>
+        <v>1.0674980736274639e-09</v>
       </c>
       <c r="B282">
-        <v>0.42714648336999117</v>
+        <v>0.44131061013553136</v>
       </c>
       <c r="C282">
-        <v>0.56503200550380306</v>
+        <v>0.53634415251848222</v>
       </c>
       <c r="D282">
-        <v>16.203505178020947</v>
+        <v>3.5048258801976533</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.18713439472796844</v>
+        <v>1.1568919461285504e-09</v>
       </c>
       <c r="B283">
-        <v>0.42724799069712188</v>
+        <v>0.44172120216409949</v>
       </c>
       <c r="C283">
-        <v>0.56491209704538248</v>
+        <v>0.53593802913654798</v>
       </c>
       <c r="D283">
-        <v>16.87481600235995</v>
+        <v>3.4889888685905799</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.18714350877802644</v>
+        <v>1.2508229808997525e-09</v>
       </c>
       <c r="B284">
-        <v>0.42729126133659256</v>
+        <v>0.44158919435213745</v>
       </c>
       <c r="C284">
-        <v>0.56486005399244443</v>
+        <v>0.53640695791428938</v>
       </c>
       <c r="D284">
-        <v>17.612990541361331</v>
+        <v>3.3988138929343696</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.18709311492882874</v>
+        <v>1.2189425508347709e-09</v>
       </c>
       <c r="B285">
-        <v>0.42735739195666278</v>
+        <v>0.4419807260092885</v>
       </c>
       <c r="C285">
-        <v>0.56475972250074957</v>
+        <v>0.53603170495630981</v>
       </c>
       <c r="D285">
-        <v>18.470953981693405</v>
+        <v>3.3769288528280512</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.18678119229595103</v>
+        <v>1.2908638949522422e-09</v>
       </c>
       <c r="B286">
-        <v>0.42754657526050871</v>
+        <v>0.44241566621783118</v>
       </c>
       <c r="C286">
-        <v>0.56443277510659773</v>
+        <v>0.53574615385591717</v>
       </c>
       <c r="D286">
-        <v>19.096751371073204</v>
+        <v>3.3084875555458546</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.18684381916795761</v>
+        <v>1.4181898848874162e-09</v>
       </c>
       <c r="B287">
-        <v>0.42739935053595673</v>
+        <v>0.44253674925822389</v>
       </c>
       <c r="C287">
-        <v>0.56462352968615781</v>
+        <v>0.535891704502657</v>
       </c>
       <c r="D287">
-        <v>20.152165898538414</v>
+        <v>3.2416659481554544</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.18824869156719395</v>
+        <v>1.4875174942798292e-09</v>
       </c>
       <c r="B288">
-        <v>0.42719089102988345</v>
+        <v>0.44140149494537156</v>
       </c>
       <c r="C288">
-        <v>0.56516578346427726</v>
+        <v>0.53692504996709312</v>
       </c>
       <c r="D288">
-        <v>21.055429428509282</v>
+        <v>3.3143507345406795</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.18955273666211364</v>
+        <v>1.5436608001046645e-09</v>
       </c>
       <c r="B289">
-        <v>0.42838876071500975</v>
+        <v>0.44194407081979858</v>
       </c>
       <c r="C289">
-        <v>0.5640779812124993</v>
+        <v>0.53644507095789484</v>
       </c>
       <c r="D289">
-        <v>21.048228535301138</v>
+        <v>3.3259582121529738</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.18834919140061826</v>
+        <v>1.6202435845811651e-09</v>
       </c>
       <c r="B290">
-        <v>0.4271485796153075</v>
+        <v>0.4404962111408452</v>
       </c>
       <c r="C290">
-        <v>0.56519042946229792</v>
+        <v>0.53793076312632315</v>
       </c>
       <c r="D290">
-        <v>21.561726656234718</v>
+        <v>3.2794061398293395</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.18988110196959315</v>
+        <v>1.8115943698529734e-09</v>
       </c>
       <c r="B291">
-        <v>0.42798072672085208</v>
+        <v>0.44207683292838162</v>
       </c>
       <c r="C291">
-        <v>0.5648802944667497</v>
+        <v>0.53554432880800751</v>
       </c>
       <c r="D291">
-        <v>22.401578012540831</v>
+        <v>3.4830380182251179</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.18602461361504252</v>
+        <v>2.0106242515806081e-09</v>
       </c>
       <c r="B292">
-        <v>0.42287975487225554</v>
+        <v>0.43745848032277584</v>
       </c>
       <c r="C292">
-        <v>0.56961629833152017</v>
+        <v>0.54035002190451165</v>
       </c>
       <c r="D292">
-        <v>23.324573993468693</v>
+        <v>3.3512650034816112</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.18574861076937041</v>
+        <v>2.1588318715206685e-09</v>
       </c>
       <c r="B293">
-        <v>0.42239214976276046</v>
+        <v>0.43703660177266918</v>
       </c>
       <c r="C293">
-        <v>0.57033427979818885</v>
+        <v>0.54070535660754759</v>
       </c>
       <c r="D293">
-        <v>23.948327290643419</v>
+        <v>3.3837574663125745</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.18599294285093185</v>
+        <v>2.2889182404504371e-09</v>
       </c>
       <c r="B294">
-        <v>0.42270814712411747</v>
+        <v>0.43703751525361489</v>
       </c>
       <c r="C294">
-        <v>0.57010749431311447</v>
+        <v>0.54073451678978568</v>
       </c>
       <c r="D294">
-        <v>24.718812811391579</v>
+        <v>3.3892657559797925</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.18677023352453168</v>
+        <v>2.4300339229061306e-09</v>
       </c>
       <c r="B295">
-        <v>0.42387698993386802</v>
+        <v>0.43728110163267592</v>
       </c>
       <c r="C295">
-        <v>0.5692177842983458</v>
+        <v>0.54082860325031834</v>
       </c>
       <c r="D295">
-        <v>25.568752653238754</v>
+        <v>3.3869821559001125</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.18582399787426743</v>
+        <v>2.619592493502522e-09</v>
       </c>
       <c r="B296">
-        <v>0.42226814413438596</v>
+        <v>0.43616133144395719</v>
       </c>
       <c r="C296">
-        <v>0.57063369830861477</v>
+        <v>0.54169253517846705</v>
       </c>
       <c r="D296">
-        <v>25.949818946834313</v>
+        <v>3.3932871531866504</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.18589829477508971</v>
+        <v>2.7811179863946145e-09</v>
       </c>
       <c r="B297">
-        <v>0.42215541847542898</v>
+        <v>0.43574408055705</v>
       </c>
       <c r="C297">
-        <v>0.57061910760411005</v>
+        <v>0.54212231232539054</v>
       </c>
       <c r="D297">
-        <v>27.150917542918545</v>
+        <v>3.3575966255084713</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.18649820527849872</v>
+        <v>3.057961363081866e-09</v>
       </c>
       <c r="B298">
-        <v>0.42257544715122519</v>
+        <v>0.43526631528387266</v>
       </c>
       <c r="C298">
-        <v>0.56989627022867728</v>
+        <v>0.54306156045578458</v>
       </c>
       <c r="D298">
-        <v>28.284537417813219</v>
+        <v>3.2094565777970909</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.18716419427935962</v>
+        <v>3.2955472278508207e-09</v>
       </c>
       <c r="B299">
-        <v>0.42344735123356175</v>
+        <v>0.43678783268026961</v>
       </c>
       <c r="C299">
-        <v>0.56887182427187211</v>
+        <v>0.54146048680246506</v>
       </c>
       <c r="D299">
-        <v>29.319130908868726</v>
+        <v>3.1911710766282426</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.18614162830598763</v>
+        <v>3.6854635315408559e-09</v>
       </c>
       <c r="B300">
-        <v>0.42174877484138723</v>
+        <v>0.43427946760756597</v>
       </c>
       <c r="C300">
-        <v>0.5708670531999247</v>
+        <v>0.54429879013193239</v>
       </c>
       <c r="D300">
-        <v>29.466314583455251</v>
+        <v>3.1831230996952815</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.18540323772488035</v>
+        <v>4.0894886539310812e-09</v>
       </c>
       <c r="B301">
-        <v>0.42106020866047095</v>
+        <v>0.43234049940128044</v>
       </c>
       <c r="C301">
-        <v>0.57127532547413351</v>
+        <v>0.54672685660307585</v>
       </c>
       <c r="D301">
-        <v>32.305980695578917</v>
+        <v>3.0326780932834336</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.18475206567158439</v>
+        <v>4.9072507924466551e-09</v>
       </c>
       <c r="B302">
-        <v>0.41949469272924755</v>
+        <v>0.43045607705162325</v>
       </c>
       <c r="C302">
-        <v>0.57317395021503603</v>
+        <v>0.54871581761884258</v>
       </c>
       <c r="D302">
-        <v>33.292774649306473</v>
+        <v>3.0629415394523196</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.18365797778855267</v>
+        <v>5.1539209207591486e-09</v>
       </c>
       <c r="B303">
-        <v>0.41841395515782454</v>
+        <v>0.42992293418802768</v>
       </c>
       <c r="C303">
-        <v>0.5740184476072101</v>
+        <v>0.54900591836382706</v>
       </c>
       <c r="D303">
-        <v>32.515647997349262</v>
+        <v>3.0547305798602888</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.18368729582738574</v>
+        <v>5.6263396728284653e-09</v>
       </c>
       <c r="B304">
-        <v>0.41854061364734796</v>
+        <v>0.4301728868612395</v>
       </c>
       <c r="C304">
-        <v>0.57385563589610089</v>
+        <v>0.54875456085014263</v>
       </c>
       <c r="D304">
-        <v>34.338958918378118</v>
+        <v>3.040676509558236</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.1836115528215542</v>
+        <v>6.1468247479012856e-09</v>
       </c>
       <c r="B305">
-        <v>0.41887083732714925</v>
+        <v>0.43055625887287841</v>
       </c>
       <c r="C305">
-        <v>0.57338814005459249</v>
+        <v>0.54840524615184283</v>
       </c>
       <c r="D305">
-        <v>35.639167883502125</v>
+        <v>3.002224346694772</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.18361832751180099</v>
+        <v>6.5238923260963322e-09</v>
       </c>
       <c r="B306">
-        <v>0.41831791759890113</v>
+        <v>0.43043483148518658</v>
       </c>
       <c r="C306">
-        <v>0.57407208712024194</v>
+        <v>0.54848456284052838</v>
       </c>
       <c r="D306">
-        <v>35.823343239122366</v>
+        <v>3.0169875708085669</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.18368848746539057</v>
+        <v>7.002981528776696e-09</v>
       </c>
       <c r="B307">
-        <v>0.41835076866490145</v>
+        <v>0.43046158670669615</v>
       </c>
       <c r="C307">
-        <v>0.57405320991131314</v>
+        <v>0.54845262343462131</v>
       </c>
       <c r="D307">
-        <v>37.600684863211626</v>
+        <v>3.015282108328766</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.18481838461631581</v>
+        <v>7.3291334973172078e-09</v>
       </c>
       <c r="B308">
-        <v>0.41875195230762241</v>
+        <v>0.43105587163173198</v>
       </c>
       <c r="C308">
-        <v>0.57389519297704772</v>
+        <v>0.54757288617392119</v>
       </c>
       <c r="D308">
-        <v>37.338606064804722</v>
+        <v>3.0812223010316591</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.18511507289516413</v>
+        <v>7.8908498800950048e-09</v>
       </c>
       <c r="B309">
-        <v>0.41904648735669209</v>
+        <v>0.43092271710262836</v>
       </c>
       <c r="C309">
-        <v>0.57363390386151791</v>
+        <v>0.5477178874940194</v>
       </c>
       <c r="D309">
-        <v>38.598213140338942</v>
+        <v>3.0746314299369497</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.18421320678496497</v>
+        <v>8.3289547820848728e-09</v>
       </c>
       <c r="B310">
-        <v>0.41813271918204736</v>
+        <v>0.43058172466404504</v>
       </c>
       <c r="C310">
-        <v>0.57439550357188474</v>
+        <v>0.54792669943758721</v>
       </c>
       <c r="D310">
-        <v>40.398382735868381</v>
+        <v>3.0619098777368245</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.18389672486296377</v>
+        <v>9.0736976904405833e-09</v>
       </c>
       <c r="B311">
-        <v>0.41827895353172406</v>
+        <v>0.43067930176342473</v>
       </c>
       <c r="C311">
-        <v>0.57397850899269276</v>
+        <v>0.54804455758129123</v>
       </c>
       <c r="D311">
-        <v>41.979113083600772</v>
+        <v>2.9685153824976256</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.18310882365191219</v>
+        <v>9.3115055915595074e-09</v>
       </c>
       <c r="B312">
-        <v>0.41590067926072916</v>
+        <v>0.42938712905441828</v>
       </c>
       <c r="C312">
-        <v>0.57672471841575756</v>
+        <v>0.54904203764188964</v>
       </c>
       <c r="D312">
-        <v>42.134007189709628</v>
+        <v>3.0541694040039991</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.18276731266735452</v>
+        <v>9.8130833141953739e-09</v>
       </c>
       <c r="B313">
-        <v>0.41562302554144159</v>
+        <v>0.42915842257720582</v>
       </c>
       <c r="C313">
-        <v>0.57694661458995156</v>
+        <v>0.54926230862931746</v>
       </c>
       <c r="D313">
-        <v>43.640249560141974</v>
+        <v>3.0370496563848675</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.18220805037980278</v>
+        <v>1.0630668844167021e-08</v>
       </c>
       <c r="B314">
-        <v>0.41537016156263884</v>
+        <v>0.42925650529503584</v>
       </c>
       <c r="C314">
-        <v>0.57703387148079288</v>
+        <v>0.54910718146334458</v>
       </c>
       <c r="D314">
-        <v>44.733576328858277</v>
+        <v>3.0094983677468168</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.18222423497984555</v>
+        <v>1.1623797966674894e-08</v>
       </c>
       <c r="B315">
-        <v>0.41535338658676546</v>
+        <v>0.42914004340634199</v>
       </c>
       <c r="C315">
-        <v>0.57706155240890655</v>
+        <v>0.54954196256888754</v>
       </c>
       <c r="D315">
-        <v>45.704929963225155</v>
+        <v>2.9378885334577087</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.18185233490969152</v>
+        <v>1.2267967095392919e-08</v>
       </c>
       <c r="B316">
-        <v>0.41556443925928577</v>
+        <v>0.42989672669262113</v>
       </c>
       <c r="C316">
-        <v>0.57669433618107058</v>
+        <v>0.54887061809861581</v>
       </c>
       <c r="D316">
-        <v>47.231606137029118</v>
+        <v>2.8868108692708656</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.18167643603045824</v>
+        <v>1.3032184531862026e-08</v>
       </c>
       <c r="B317">
-        <v>0.41690289658869556</v>
+        <v>0.43255416693182397</v>
       </c>
       <c r="C317">
-        <v>0.57508687823191917</v>
+        <v>0.54595168207452116</v>
       </c>
       <c r="D317">
-        <v>47.892340498759758</v>
+        <v>2.8788161596528505</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.18206679096415565</v>
+        <v>1.3536373597473634e-08</v>
       </c>
       <c r="B318">
-        <v>0.4194526762170554</v>
+        <v>0.43527100539766372</v>
       </c>
       <c r="C318">
-        <v>0.57230275202480263</v>
+        <v>0.54357837394691744</v>
       </c>
       <c r="D318">
-        <v>49.447416719322256</v>
+        <v>2.7779057982909605</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.18185229498183997</v>
+        <v>1.4552523435164837e-08</v>
       </c>
       <c r="B319">
-        <v>0.41558772991574783</v>
+        <v>0.43300671432476423</v>
       </c>
       <c r="C319">
-        <v>0.57643827997168284</v>
+        <v>0.54558684363703558</v>
       </c>
       <c r="D319">
-        <v>48.3159334716659</v>
+        <v>2.8466105081713735</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.17964457809752932</v>
+        <v>1.5890379751736186e-08</v>
       </c>
       <c r="B320">
-        <v>0.41535718866743598</v>
+        <v>0.43326958180252051</v>
       </c>
       <c r="C320">
-        <v>0.57650544074958154</v>
+        <v>0.54533188012898459</v>
       </c>
       <c r="D320">
-        <v>51.710722464653337</v>
+        <v>2.8027018802485371</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.18171033553125907</v>
+        <v>1.9517560162500219e-08</v>
       </c>
       <c r="B321">
-        <v>0.41304636308516068</v>
+        <v>0.42982261834929492</v>
       </c>
       <c r="C321">
-        <v>0.57908633108114849</v>
+        <v>0.54906459256562312</v>
       </c>
       <c r="D321">
-        <v>51.497016455894254</v>
+        <v>2.8120711987639662</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.17964247023766688</v>
+        <v>2.1201503126669506e-08</v>
       </c>
       <c r="B322">
-        <v>0.41203093427934012</v>
+        <v>0.42676466743259167</v>
       </c>
       <c r="C322">
-        <v>0.5800118334260701</v>
+        <v>0.55289665482821659</v>
       </c>
       <c r="D322">
-        <v>55.45899380810318</v>
+        <v>2.652907842129506</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.17747123031721845</v>
+        <v>2.2619004487791372e-08</v>
       </c>
       <c r="B323">
-        <v>0.41210517518552553</v>
+        <v>0.42732500372074667</v>
       </c>
       <c r="C323">
-        <v>0.57977024491950324</v>
+        <v>0.55252088811884337</v>
       </c>
       <c r="D323">
-        <v>59.095389075379934</v>
+        <v>2.5805649075978421</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.17624430270098296</v>
+        <v>2.4966887942103057e-08</v>
       </c>
       <c r="B324">
-        <v>0.41382682738536097</v>
+        <v>0.43014626546455492</v>
       </c>
       <c r="C324">
-        <v>0.57788732123046571</v>
+        <v>0.54951733722356133</v>
       </c>
       <c r="D324">
-        <v>61.908251782371373</v>
+        <v>2.5741793868967648</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.17706938755322132</v>
+        <v>2.69530626393734e-08</v>
       </c>
       <c r="B325">
-        <v>0.4122479173447488</v>
+        <v>0.42942458580774828</v>
       </c>
       <c r="C325">
-        <v>0.57956086308879795</v>
+        <v>0.55015254843554062</v>
       </c>
       <c r="D325">
-        <v>64.069785797677866</v>
+        <v>2.5978151986497333</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.1780526270289752</v>
+        <v>0.079288586140576905</v>
       </c>
       <c r="B326">
-        <v>0.41216625575754989</v>
+        <v>0.43149007550662799</v>
       </c>
       <c r="C326">
-        <v>0.57967910993782412</v>
+        <v>0.54638349160389621</v>
       </c>
       <c r="D326">
-        <v>64.400119691404939</v>
+        <v>2.4979454605729319</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.17534643358423177</v>
+        <v>0.077835857755021096</v>
       </c>
       <c r="B327">
-        <v>0.41185460161081794</v>
+        <v>0.43145747815902252</v>
       </c>
       <c r="C327">
-        <v>0.57991183285422687</v>
+        <v>0.54645190432809998</v>
       </c>
       <c r="D327">
-        <v>66.395085089785482</v>
+        <v>2.469927354357595</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.1731279417185794</v>
+        <v>0.076288271547042277</v>
       </c>
       <c r="B328">
-        <v>0.41269894416270614</v>
+        <v>0.43288640510960164</v>
       </c>
       <c r="C328">
-        <v>0.57898046164366912</v>
+        <v>0.54491550555916668</v>
       </c>
       <c r="D328">
-        <v>72.667966457775748</v>
+        <v>2.4669710039742809</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.17086204992430848</v>
+        <v>0.07691133063771026</v>
       </c>
       <c r="B329">
-        <v>0.41436945711588985</v>
+        <v>0.43415048761884267</v>
       </c>
       <c r="C329">
-        <v>0.577227132334032</v>
+        <v>0.54403889090157298</v>
       </c>
       <c r="D329">
-        <v>75.8383465451939</v>
+        <v>2.3757362192509923</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.17083794578479092</v>
+        <v>0.076788427042198459</v>
       </c>
       <c r="B330">
-        <v>0.41447515517405709</v>
+        <v>0.43454895500633767</v>
       </c>
       <c r="C330">
-        <v>0.57712073273992492</v>
+        <v>0.54364138230817749</v>
       </c>
       <c r="D330">
-        <v>80.462004510824798</v>
+        <v>2.3733180364371225</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.17224801254014679</v>
+        <v>0.077993302922702804</v>
       </c>
       <c r="B331">
-        <v>0.41409033768368197</v>
+        <v>0.43401840799071401</v>
       </c>
       <c r="C331">
-        <v>0.5775184072006021</v>
+        <v>0.54419629733308306</v>
       </c>
       <c r="D331">
-        <v>79.200696420346901</v>
+        <v>2.3729129418663657</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.17142445366619122</v>
+        <v>0.077358013549183549</v>
       </c>
       <c r="B332">
-        <v>0.41415114405951087</v>
+        <v>0.43363481506708335</v>
       </c>
       <c r="C332">
-        <v>0.57745567402609987</v>
+        <v>0.54479965919520723</v>
       </c>
       <c r="D332">
-        <v>82.62590421368769</v>
+        <v>2.3319952964636563</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.16738048422428323</v>
+        <v>0.074989278608455653</v>
       </c>
       <c r="B333">
-        <v>0.41431822881812835</v>
+        <v>0.43368487418652291</v>
       </c>
       <c r="C333">
-        <v>0.5772801634190543</v>
+        <v>0.54500253838646695</v>
       </c>
       <c r="D333">
-        <v>85.997238167743859</v>
+        <v>2.2807615142246802</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.16759697841924284</v>
+        <v>0.075020655877959128</v>
       </c>
       <c r="B334">
-        <v>0.41432505053836155</v>
+        <v>0.43374706224199638</v>
       </c>
       <c r="C334">
-        <v>0.57727429526808294</v>
+        <v>0.54493923950385115</v>
       </c>
       <c r="D334">
-        <v>90.062524585980086</v>
+        <v>2.2810419623119031</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.16556541616153231</v>
+        <v>0.073144397282795981</v>
       </c>
       <c r="B335">
-        <v>0.41458148215256524</v>
+        <v>0.43408686650073242</v>
       </c>
       <c r="C335">
-        <v>0.57702490955883778</v>
+        <v>0.54463992063202205</v>
       </c>
       <c r="D335">
-        <v>94.090135708388772</v>
+        <v>2.2734741064478712</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.16532391904648702</v>
+        <v>0.073966651075214551</v>
       </c>
       <c r="B336">
-        <v>0.41467757807929323</v>
+        <v>0.43329635479987555</v>
       </c>
       <c r="C336">
-        <v>0.57693103035202697</v>
+        <v>0.54603438554398631</v>
       </c>
       <c r="D336">
-        <v>95.291592682853846</v>
+        <v>2.1684261042394821</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.16507048822243156</v>
+        <v>0.073484519014610783</v>
       </c>
       <c r="B337">
-        <v>0.41475163203708632</v>
+        <v>0.4334161252405544</v>
       </c>
       <c r="C337">
-        <v>0.57685980190603725</v>
+        <v>0.54606403680188964</v>
       </c>
       <c r="D337">
-        <v>97.75128496283925</v>
+        <v>2.1420170015811917</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.16229745334144702</v>
+        <v>0.071361628703833405</v>
       </c>
       <c r="B338">
-        <v>0.41484027958862119</v>
+        <v>0.43382617189797279</v>
       </c>
       <c r="C338">
-        <v>0.57679444327232809</v>
+        <v>0.54575721773182573</v>
       </c>
       <c r="D338">
-        <v>102.46931820881071</v>
+        <v>2.1244107325694102</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.15779654691854439</v>
+        <v>0.068716030216932247</v>
       </c>
       <c r="B339">
-        <v>0.41532706006840558</v>
+        <v>0.43430294620192078</v>
       </c>
       <c r="C339">
-        <v>0.57635022249863099</v>
+        <v>0.54560548429682199</v>
       </c>
       <c r="D339">
-        <v>108.27172598311084</v>
+        <v>2.0706907489264208</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.15309219818673378</v>
+        <v>0.066857979597983966</v>
       </c>
       <c r="B340">
-        <v>0.41641130297235918</v>
+        <v>0.4350973705338213</v>
       </c>
       <c r="C340">
-        <v>0.57532263369007197</v>
+        <v>0.54533914943106288</v>
       </c>
       <c r="D340">
-        <v>110.3689015274679</v>
+        <v>1.9845566246416277</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.14950567464045786</v>
+        <v>0.064022803693282254</v>
       </c>
       <c r="B341">
-        <v>0.41743204403509432</v>
+        <v>0.43654190918808394</v>
       </c>
       <c r="C341">
-        <v>0.57435831187626507</v>
+        <v>0.54404499995163469</v>
       </c>
       <c r="D341">
-        <v>112.40598206199171</v>
+        <v>1.9652108516557394</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.15849416762388832</v>
+        <v>0.066611389844315333</v>
       </c>
       <c r="B342">
-        <v>0.41561324102326286</v>
+        <v>0.43592756228494123</v>
       </c>
       <c r="C342">
-        <v>0.57601421683008847</v>
+        <v>0.54421507594266882</v>
       </c>
       <c r="D342">
-        <v>110.55044525117243</v>
+        <v>2.0295913980739102</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.16910781932465385</v>
+        <v>0.066083872174404659</v>
       </c>
       <c r="B343">
-        <v>0.41664646786493276</v>
+        <v>0.43699203576272927</v>
       </c>
       <c r="C343">
-        <v>0.57479751241559851</v>
+        <v>0.54273190385997161</v>
       </c>
       <c r="D343">
-        <v>110.19379482870013</v>
+        <v>2.0979261504854447</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.16546416885674139</v>
+        <v>0.064460943409489366</v>
       </c>
       <c r="B344">
-        <v>0.41572352698105336</v>
+        <v>0.43538066669959813</v>
       </c>
       <c r="C344">
-        <v>0.57577547076020397</v>
+        <v>0.5448330988953084</v>
       </c>
       <c r="D344">
-        <v>114.1758340397612</v>
+        <v>2.0196201658778752</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -44,11 +44,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -58,6 +62,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -70,4826 +78,4826 @@
   <dimension ref="A1:D344"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.21697065542171046</v>
+        <v>0.28475823786886351</v>
       </c>
       <c r="B1">
-        <v>0.50940172540457029</v>
+        <v>0.50588797700665811</v>
       </c>
       <c r="C1">
-        <v>0.4456903283334186</v>
+        <v>0.44957440250719799</v>
       </c>
       <c r="D1">
-        <v>1.706963657424073</v>
+        <v>0.0019303166017244952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.26906148779853162</v>
+        <v>0.3195832367155983</v>
       </c>
       <c r="B2">
-        <v>0.51169064706394141</v>
+        <v>0.50828491553436594</v>
       </c>
       <c r="C2">
-        <v>0.44185381178570116</v>
+        <v>0.44569359901140271</v>
       </c>
       <c r="D2">
-        <v>1.3344504556584071</v>
+        <v>0.0018525851411818337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.24692080976220276</v>
+        <v>0.2998053735950324</v>
       </c>
       <c r="B3">
-        <v>0.50650942768877394</v>
+        <v>0.50331392208055181</v>
       </c>
       <c r="C3">
-        <v>0.44793088599669617</v>
+        <v>0.45153760440284496</v>
       </c>
       <c r="D3">
-        <v>1.386446842001515</v>
+        <v>0.0019504175870769822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.24886757689007569</v>
+        <v>0.30013605827202899</v>
       </c>
       <c r="B4">
-        <v>0.5067632960606413</v>
+        <v>0.50404345503208914</v>
       </c>
       <c r="C4">
-        <v>0.44777939842150527</v>
+        <v>0.45078194483138401</v>
       </c>
       <c r="D4">
-        <v>1.2748734179343815</v>
+        <v>0.0020531200194328332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.24238593520228449</v>
+        <v>0.28977092625144163</v>
       </c>
       <c r="B5">
-        <v>0.50617946605741038</v>
+        <v>0.50350436051137648</v>
       </c>
       <c r="C5">
-        <v>0.44875662593430771</v>
+        <v>0.45170029385103405</v>
       </c>
       <c r="D5">
-        <v>1.1719336923274348</v>
+        <v>0.0021046929912118279</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.27842989005832536</v>
+        <v>0.32253468437156607</v>
       </c>
       <c r="B6">
-        <v>0.50703742054983514</v>
+        <v>0.50503726881115973</v>
       </c>
       <c r="C6">
-        <v>0.44675435529800878</v>
+        <v>0.44895012549690583</v>
       </c>
       <c r="D6">
-        <v>1.079614451681373</v>
+        <v>0.0020261016797287067</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.28358817365846922</v>
+        <v>0.32683002543980949</v>
       </c>
       <c r="B7">
-        <v>0.50887117886819466</v>
+        <v>0.50676338546373867</v>
       </c>
       <c r="C7">
-        <v>0.44471956006305219</v>
+        <v>0.44703867225062921</v>
       </c>
       <c r="D7">
-        <v>1.0678361119383408</v>
+        <v>0.0020671647862954014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.26725439226494291</v>
+        <v>0.31409804443157885</v>
       </c>
       <c r="B8">
-        <v>0.50605102614047814</v>
+        <v>0.5037728940634828</v>
       </c>
       <c r="C8">
-        <v>0.4479147591535767</v>
+        <v>0.45042628941087359</v>
       </c>
       <c r="D8">
-        <v>1.1640759828461225</v>
+        <v>0.0020703055106140755</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.26842620122833799</v>
+        <v>0.31467946589727031</v>
       </c>
       <c r="B9">
-        <v>0.50671845083859135</v>
+        <v>0.5044133045005782</v>
       </c>
       <c r="C9">
-        <v>0.44719936818606604</v>
+        <v>0.44974898809016822</v>
       </c>
       <c r="D9">
-        <v>1.1620042429533992</v>
+        <v>0.002189956685509256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.25367181311594933</v>
+        <v>0.30205445204815123</v>
       </c>
       <c r="B10">
-        <v>0.50580536843184043</v>
+        <v>0.5036292092117397</v>
       </c>
       <c r="C10">
-        <v>0.4484077424086636</v>
+        <v>0.450816519065941</v>
       </c>
       <c r="D10">
-        <v>1.211392597055694</v>
+        <v>0.0021056664402274066</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.23658389403320648</v>
+        <v>0.32689145103824813</v>
       </c>
       <c r="B11">
-        <v>0.50641838877889056</v>
+        <v>0.50122066650870023</v>
       </c>
       <c r="C11">
-        <v>0.4470560589215557</v>
+        <v>0.45272760832639819</v>
       </c>
       <c r="D11">
-        <v>2.2175267118099997</v>
+        <v>0.0020678977889632458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.23547574747100852</v>
+        <v>0.32549026678782661</v>
       </c>
       <c r="B12">
-        <v>0.50578204196145948</v>
+        <v>0.50109372437409283</v>
       </c>
       <c r="C12">
-        <v>0.44778742827156381</v>
+        <v>0.45289415213071027</v>
       </c>
       <c r="D12">
-        <v>2.1734996046993955</v>
+        <v>0.0021676604054980293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.24501646370230837</v>
+        <v>0.33602245997170299</v>
       </c>
       <c r="B13">
-        <v>0.50829681672261573</v>
+        <v>0.50391184052260984</v>
       </c>
       <c r="C13">
-        <v>0.44504885230373542</v>
+        <v>0.449811302864011</v>
       </c>
       <c r="D13">
-        <v>2.1858395935847286</v>
+        <v>0.0020958958447611356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.23224653307244356</v>
+        <v>0.32018469162791274</v>
       </c>
       <c r="B14">
-        <v>0.50341009637829259</v>
+        <v>0.4991490251827268</v>
       </c>
       <c r="C14">
-        <v>0.45026866042754643</v>
+        <v>0.45489789483453336</v>
       </c>
       <c r="D14">
-        <v>2.1044529045956923</v>
+        <v>0.0021722937505592893</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.2346757855667109</v>
+        <v>0.32213408354129658</v>
       </c>
       <c r="B15">
-        <v>0.5036834334084298</v>
+        <v>0.49950827349049476</v>
       </c>
       <c r="C15">
-        <v>0.44998982846148211</v>
+        <v>0.45452221596703674</v>
       </c>
       <c r="D15">
-        <v>2.0963835094727137</v>
+        <v>0.0022224981955536426</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.22382211186341383</v>
+        <v>0.31406216304187984</v>
       </c>
       <c r="B16">
-        <v>0.50354844255572506</v>
+        <v>0.49920852281409722</v>
       </c>
       <c r="C16">
-        <v>0.45014659144913199</v>
+        <v>0.45487379825585272</v>
       </c>
       <c r="D16">
-        <v>2.1785562410950732</v>
+        <v>0.0022844404814150554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.21102521267447663</v>
+        <v>0.30582365288673397</v>
       </c>
       <c r="B17">
-        <v>0.50528446263213778</v>
+        <v>0.50088915452035132</v>
       </c>
       <c r="C17">
-        <v>0.44836161028964538</v>
+        <v>0.45317437561983431</v>
       </c>
       <c r="D17">
-        <v>2.3060762527682832</v>
+        <v>0.0024609837295480113</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.20998801597310873</v>
+        <v>0.31099137863790322</v>
       </c>
       <c r="B18">
-        <v>0.50577160104542795</v>
+        <v>0.50028499709895335</v>
       </c>
       <c r="C18">
-        <v>0.44780109808606861</v>
+        <v>0.45370102699566461</v>
       </c>
       <c r="D18">
-        <v>2.379578857722874</v>
+        <v>0.0025054146878680759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.2114612473887835</v>
+        <v>0.306694751883344</v>
       </c>
       <c r="B19">
-        <v>0.50552189546969306</v>
+        <v>0.50030028450268127</v>
       </c>
       <c r="C19">
-        <v>0.44823160582875532</v>
+        <v>0.45380748261986287</v>
       </c>
       <c r="D19">
-        <v>2.19762583638787</v>
+        <v>0.0024988439809880297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.21032996927569989</v>
+        <v>0.30398906748517907</v>
       </c>
       <c r="B20">
-        <v>0.5059833957047104</v>
+        <v>0.50064755434710284</v>
       </c>
       <c r="C20">
-        <v>0.44783579940425638</v>
+        <v>0.45352851251008841</v>
       </c>
       <c r="D20">
-        <v>2.1483438704974382</v>
+        <v>0.0025543777993440151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.21535640509840645</v>
+        <v>0.3088442565020354</v>
       </c>
       <c r="B21">
-        <v>0.50663008007718346</v>
+        <v>0.50148004790791634</v>
       </c>
       <c r="C21">
-        <v>0.44703434783507179</v>
+        <v>0.45252166660509091</v>
       </c>
       <c r="D21">
-        <v>2.1431421536125663</v>
+        <v>0.0025600918690897199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.23587404035312554</v>
+        <v>0.32445513208907051</v>
       </c>
       <c r="B22">
-        <v>0.50959424348279792</v>
+        <v>0.50456182719192655</v>
       </c>
       <c r="C22">
-        <v>0.44349588978611443</v>
+        <v>0.44886316893430106</v>
       </c>
       <c r="D22">
-        <v>2.0447248345224822</v>
+        <v>0.0025477479870579614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.21188565016683897</v>
+        <v>0.30563479580599212</v>
       </c>
       <c r="B23">
-        <v>0.50403388663539617</v>
+        <v>0.49893842773517899</v>
       </c>
       <c r="C23">
-        <v>0.44971526629451514</v>
+        <v>0.45515387905550453</v>
       </c>
       <c r="D23">
-        <v>2.1711953590968345</v>
+        <v>0.0026379502153566045</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.22449390563951704</v>
+        <v>0.31312180622510583</v>
       </c>
       <c r="B24">
-        <v>0.50373349281341473</v>
+        <v>0.498788726935261</v>
       </c>
       <c r="C24">
-        <v>0.44988279781266372</v>
+        <v>0.45517375601747373</v>
       </c>
       <c r="D24">
-        <v>2.0713166708718047</v>
+        <v>0.0026354402180550451</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.2172290735696768</v>
+        <v>0.33419599383555731</v>
       </c>
       <c r="B25">
-        <v>0.50887554965145743</v>
+        <v>0.50323782500821868</v>
       </c>
       <c r="C25">
-        <v>0.44403219156729351</v>
+        <v>0.45007976767926083</v>
       </c>
       <c r="D25">
-        <v>2.6655570153437695</v>
+        <v>0.0025702072108605796</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.21082952011878919</v>
+        <v>0.30631861415158745</v>
       </c>
       <c r="B26">
-        <v>0.49742782611654274</v>
+        <v>0.4922695168715539</v>
       </c>
       <c r="C26">
-        <v>0.45640057949589957</v>
+        <v>0.46192141712085344</v>
       </c>
       <c r="D26">
-        <v>2.1471816508219184</v>
+        <v>0.0028653860632957225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.21101069698410987</v>
+        <v>0.31392867325183166</v>
       </c>
       <c r="B27">
-        <v>0.49400962201033638</v>
+        <v>0.48930981293485848</v>
       </c>
       <c r="C27">
-        <v>0.4600827775183593</v>
+        <v>0.46504151185558001</v>
       </c>
       <c r="D27">
-        <v>2.2732110339341651</v>
+        <v>0.0029348282381402666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.22129216986840228</v>
+        <v>0.3240604559130098</v>
       </c>
       <c r="B28">
-        <v>0.49609852240326152</v>
+        <v>0.49171520684554293</v>
       </c>
       <c r="C28">
-        <v>0.45779575035120562</v>
+        <v>0.46238866854633448</v>
       </c>
       <c r="D28">
-        <v>2.2616373681107342</v>
+        <v>0.0028738507363787308</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.21626071072326614</v>
+        <v>0.31961733070968229</v>
       </c>
       <c r="B29">
-        <v>0.49507163729512926</v>
+        <v>0.49048708353946568</v>
       </c>
       <c r="C29">
-        <v>0.45889014959687102</v>
+        <v>0.46370439881025061</v>
       </c>
       <c r="D29">
-        <v>2.2869331594256037</v>
+        <v>0.0029447303661885977</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.2036944288736787</v>
+        <v>0.31093355994119598</v>
       </c>
       <c r="B30">
-        <v>0.49416341255358309</v>
+        <v>0.48941612131755502</v>
       </c>
       <c r="C30">
-        <v>0.45977665834763748</v>
+        <v>0.46477604243748166</v>
       </c>
       <c r="D30">
-        <v>2.3883066179268901</v>
+        <v>0.0031393708297721016</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.20317162358919696</v>
+        <v>0.31030051728184177</v>
       </c>
       <c r="B31">
-        <v>0.49474261792864144</v>
+        <v>0.49010725655598747</v>
       </c>
       <c r="C31">
-        <v>0.45915491225148558</v>
+        <v>0.46403552877856924</v>
       </c>
       <c r="D31">
-        <v>2.4002085593974307</v>
+        <v>0.0031476174921940482</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.21482685596685053</v>
+        <v>0.30567357400823125</v>
       </c>
       <c r="B32">
-        <v>0.49425738548276038</v>
+        <v>0.49069237003784638</v>
       </c>
       <c r="C32">
-        <v>0.45977877407295492</v>
+        <v>0.46345676235358296</v>
       </c>
       <c r="D32">
-        <v>1.9595864806338721</v>
+        <v>0.0032503349966982731</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.21577162012716244</v>
+        <v>0.3028293435247586</v>
       </c>
       <c r="B33">
-        <v>0.49523106507976361</v>
+        <v>0.4914490005013904</v>
       </c>
       <c r="C33">
-        <v>0.45879093323219783</v>
+        <v>0.46271168671433793</v>
       </c>
       <c r="D33">
-        <v>1.8668562579784032</v>
+        <v>0.0033271543266461881</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.23380420821747033</v>
+        <v>0.32636259020092717</v>
       </c>
       <c r="B34">
-        <v>0.49349371171840617</v>
+        <v>0.49100449455492806</v>
       </c>
       <c r="C34">
-        <v>0.46018113122101151</v>
+        <v>0.46259618446492246</v>
       </c>
       <c r="D34">
-        <v>1.93384772137871</v>
+        <v>0.0033285461390549537</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.20497635502418232</v>
+        <v>0.30070545787356662</v>
       </c>
       <c r="B35">
-        <v>0.48413949614775392</v>
+        <v>0.48129641329931172</v>
       </c>
       <c r="C35">
-        <v>0.47042646691190615</v>
+        <v>0.47324166207594853</v>
       </c>
       <c r="D35">
-        <v>2.015596135823901</v>
+        <v>0.0035000013387103848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.20920733654238852</v>
+        <v>0.30283216342193331</v>
       </c>
       <c r="B36">
-        <v>0.48378554354224873</v>
+        <v>0.48120079567968604</v>
       </c>
       <c r="C36">
-        <v>0.47077370072688979</v>
+        <v>0.4733179513199457</v>
       </c>
       <c r="D36">
-        <v>1.9794267159433845</v>
+        <v>0.0036153192719578496</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.1881671227337525</v>
+        <v>0.28930323503196331</v>
       </c>
       <c r="B37">
-        <v>0.48347238160143546</v>
+        <v>0.48093303743317284</v>
       </c>
       <c r="C37">
-        <v>0.47140381346705318</v>
+        <v>0.47390080180733435</v>
       </c>
       <c r="D37">
-        <v>2.1519354150276171</v>
+        <v>0.0037559202827612296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.1945011499804685</v>
+        <v>0.29184490228515786</v>
       </c>
       <c r="B38">
-        <v>0.48298115070272352</v>
+        <v>0.48074100370777784</v>
       </c>
       <c r="C38">
-        <v>0.4717964051727444</v>
+        <v>0.47402448295946298</v>
       </c>
       <c r="D38">
-        <v>2.0939106220699601</v>
+        <v>0.0039587041678574228</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.1786387221690903</v>
+        <v>0.3126541335270614</v>
       </c>
       <c r="B39">
-        <v>0.48484534323006756</v>
+        <v>0.4818596400422383</v>
       </c>
       <c r="C39">
-        <v>0.46938148913816885</v>
+        <v>0.47206439437889808</v>
       </c>
       <c r="D39">
-        <v>2.7230845825384238</v>
+        <v>0.003890245059089048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.17341736275861719</v>
+        <v>0.29095731012450299</v>
       </c>
       <c r="B40">
-        <v>0.47917742402268643</v>
+        <v>0.47531127391343869</v>
       </c>
       <c r="C40">
-        <v>0.47583184814593044</v>
+        <v>0.47956450123312633</v>
       </c>
       <c r="D40">
-        <v>2.3898936585277175</v>
+        <v>0.0041037247078193227</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.17814971396103463</v>
+        <v>0.30209164460202609</v>
       </c>
       <c r="B41">
-        <v>0.47728472162901042</v>
+        <v>0.47428789065388888</v>
       </c>
       <c r="C41">
-        <v>0.4776054175453604</v>
+        <v>0.48028139497286298</v>
       </c>
       <c r="D41">
-        <v>2.4734921800884102</v>
+        <v>0.0040133457834014398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.17832999941339703</v>
+        <v>0.30190042338700329</v>
       </c>
       <c r="B42">
-        <v>0.47762481819844738</v>
+        <v>0.4745300670641307</v>
       </c>
       <c r="C42">
-        <v>0.47724779131608513</v>
+        <v>0.48003977521108798</v>
       </c>
       <c r="D42">
-        <v>2.4743794452520067</v>
+        <v>0.0042582508814000301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.19927322400153072</v>
+        <v>0.32195154192680481</v>
       </c>
       <c r="B43">
-        <v>0.48128405407919889</v>
+        <v>0.4783318021034037</v>
       </c>
       <c r="C43">
-        <v>0.47293201803965484</v>
+        <v>0.47555111542998929</v>
       </c>
       <c r="D43">
-        <v>2.4527763355836503</v>
+        <v>0.0040818660997528457</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.23434618237598923</v>
+        <v>0.35009073938734442</v>
       </c>
       <c r="B44">
-        <v>0.49325174284556261</v>
+        <v>0.48967690933160468</v>
       </c>
       <c r="C44">
-        <v>0.45991711862832868</v>
+        <v>0.46323141432303205</v>
       </c>
       <c r="D44">
-        <v>2.3340872859302264</v>
+        <v>0.0040158817447295738</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.23438424927528961</v>
+        <v>0.34981468319279868</v>
       </c>
       <c r="B45">
-        <v>0.49333880006301956</v>
+        <v>0.48957629068861991</v>
       </c>
       <c r="C45">
-        <v>0.45982283508927874</v>
+        <v>0.46333366260729564</v>
       </c>
       <c r="D45">
-        <v>2.3345754879132841</v>
+        <v>0.0041444981627984977</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.24881984068788085</v>
+        <v>0.34545097911980888</v>
       </c>
       <c r="B46">
-        <v>0.48964844634010907</v>
+        <v>0.48755093335050614</v>
       </c>
       <c r="C46">
-        <v>0.46339951075144009</v>
+        <v>0.46525392921652903</v>
       </c>
       <c r="D46">
-        <v>1.880100244125243</v>
+        <v>0.004289714958654856</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.25445747565714566</v>
+        <v>0.34322002133460522</v>
       </c>
       <c r="B47">
-        <v>0.48989499133110531</v>
+        <v>0.48740938504432396</v>
       </c>
       <c r="C47">
-        <v>0.46271068069335874</v>
+        <v>0.46509055618288514</v>
       </c>
       <c r="D47">
-        <v>1.7275378725704036</v>
+        <v>0.0044118855992886941</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.25066634016794709</v>
+        <v>0.34926359751332986</v>
       </c>
       <c r="B48">
-        <v>0.48659187285443239</v>
+        <v>0.48559407963815571</v>
       </c>
       <c r="C48">
-        <v>0.46735342087324266</v>
+        <v>0.46802344811429614</v>
       </c>
       <c r="D48">
-        <v>1.8710828456119664</v>
+        <v>0.0046513110021978886</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.2545329375569646</v>
+        <v>0.35902465494385638</v>
       </c>
       <c r="B49">
-        <v>0.49142131515622722</v>
+        <v>0.49111458760570992</v>
       </c>
       <c r="C49">
-        <v>0.46270736607183677</v>
+        <v>0.46263459516093858</v>
       </c>
       <c r="D49">
-        <v>1.9670622648430556</v>
+        <v>0.0046692508221427243</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.25300193678129579</v>
+        <v>0.35739823701468992</v>
       </c>
       <c r="B50">
-        <v>0.49039077723604857</v>
+        <v>0.49001538754169588</v>
       </c>
       <c r="C50">
-        <v>0.46367369383150564</v>
+        <v>0.46367599028813733</v>
       </c>
       <c r="D50">
-        <v>1.9672605358395692</v>
+        <v>0.0048709137396487044</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.26111711229121148</v>
+        <v>0.36253114052070451</v>
       </c>
       <c r="B51">
-        <v>0.49351773014590211</v>
+        <v>0.49323373875500193</v>
       </c>
       <c r="C51">
-        <v>0.46157118471936931</v>
+        <v>0.46143292558094035</v>
       </c>
       <c r="D51">
-        <v>1.903215093220646</v>
+        <v>0.0050301195850902536</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.25368685853770623</v>
+        <v>0.35726601902811062</v>
       </c>
       <c r="B52">
-        <v>0.48903069522479808</v>
+        <v>0.48872354539485824</v>
       </c>
       <c r="C52">
-        <v>0.46562694259868709</v>
+        <v>0.46548102732154856</v>
       </c>
       <c r="D52">
-        <v>1.9467244555046586</v>
+        <v>0.005128486808625766</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.25171619756939345</v>
+        <v>0.3571759651720034</v>
       </c>
       <c r="B53">
-        <v>0.48904285345465753</v>
+        <v>0.48872032378305846</v>
       </c>
       <c r="C53">
-        <v>0.46573778929960757</v>
+        <v>0.4658136442250847</v>
       </c>
       <c r="D53">
-        <v>1.9864919041219682</v>
+        <v>0.0050560080184244545</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.24965668227017282</v>
+        <v>0.35769317717182053</v>
       </c>
       <c r="B54">
-        <v>0.48925793655953409</v>
+        <v>0.48922831697517155</v>
       </c>
       <c r="C54">
-        <v>0.46588070082126737</v>
+        <v>0.46570566615180331</v>
       </c>
       <c r="D54">
-        <v>2.0307749782914701</v>
+        <v>0.0050942240637688232</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.24918169474789173</v>
+        <v>0.36140125510208032</v>
       </c>
       <c r="B55">
-        <v>0.4921179816582083</v>
+        <v>0.49300287420262651</v>
       </c>
       <c r="C55">
-        <v>0.46473492978575504</v>
+        <v>0.46354796771060497</v>
       </c>
       <c r="D55">
-        <v>2.0879624606136851</v>
+        <v>0.0052489994188681588</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.24412537700245607</v>
+        <v>0.35706287012453175</v>
       </c>
       <c r="B56">
-        <v>0.48768061894296433</v>
+        <v>0.48840450069251312</v>
       </c>
       <c r="C56">
-        <v>0.46871549116036776</v>
+        <v>0.46768898211798171</v>
       </c>
       <c r="D56">
-        <v>2.1061976363245587</v>
+        <v>0.0053819825225623541</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.24398180368019512</v>
+        <v>0.35713091653286411</v>
       </c>
       <c r="B57">
-        <v>0.48758558905702404</v>
+        <v>0.48828225580361356</v>
       </c>
       <c r="C57">
-        <v>0.4687220414024359</v>
+        <v>0.46768714132669292</v>
       </c>
       <c r="D57">
-        <v>2.1099900045388358</v>
+        <v>0.0055852938670635077</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.24732665872734422</v>
+        <v>0.35349923425034335</v>
       </c>
       <c r="B58">
-        <v>0.48799654215482757</v>
+        <v>0.48853868388839394</v>
       </c>
       <c r="C58">
-        <v>0.47104147022601756</v>
+        <v>0.47010869815178674</v>
       </c>
       <c r="D58">
-        <v>1.9699689475878632</v>
+        <v>0.0057527513074812986</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.24774493643530773</v>
+        <v>0.35355977619242213</v>
       </c>
       <c r="B59">
-        <v>0.48835672946389458</v>
+        <v>0.48871235230045451</v>
       </c>
       <c r="C59">
-        <v>0.47075836661862264</v>
+        <v>0.4699934688653728</v>
       </c>
       <c r="D59">
-        <v>1.9658934931933401</v>
+        <v>0.0059829906233196941</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.24341234240423909</v>
+        <v>0.35340648974801969</v>
       </c>
       <c r="B60">
-        <v>0.48918617264263492</v>
+        <v>0.48999272068138477</v>
       </c>
       <c r="C60">
-        <v>0.47032269019086037</v>
+        <v>0.46929394189185181</v>
       </c>
       <c r="D60">
-        <v>2.0516225392288128</v>
+        <v>0.0059796319965163209</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.25123544711916085</v>
+        <v>0.35374005315826323</v>
       </c>
       <c r="B61">
-        <v>0.486458236080201</v>
+        <v>0.48703679400140787</v>
       </c>
       <c r="C61">
-        <v>0.47175122453479462</v>
+        <v>0.47105017476636907</v>
       </c>
       <c r="D61">
-        <v>1.9099137046291412</v>
+        <v>0.0060955709389977119</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.2384306548335717</v>
+        <v>0.34471316599375862</v>
       </c>
       <c r="B62">
-        <v>0.48296297235629515</v>
+        <v>0.48431515760564919</v>
       </c>
       <c r="C62">
-        <v>0.47785166932679674</v>
+        <v>0.47631729108421261</v>
       </c>
       <c r="D62">
-        <v>1.9654830816680717</v>
+        <v>0.0064513613237169309</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.23944307389906655</v>
+        <v>0.34483674002285503</v>
       </c>
       <c r="B63">
-        <v>0.48659924739704102</v>
+        <v>0.48810647812499069</v>
       </c>
       <c r="C63">
-        <v>0.47557565162671434</v>
+        <v>0.47384499273684993</v>
       </c>
       <c r="D63">
-        <v>1.9422098872332525</v>
+        <v>0.0063967244210158267</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.2367870222567322</v>
+        <v>0.34383781235478111</v>
       </c>
       <c r="B64">
-        <v>0.48284120981096018</v>
+        <v>0.48429026868388125</v>
       </c>
       <c r="C64">
-        <v>0.47852078224977335</v>
+        <v>0.4768167840376959</v>
       </c>
       <c r="D64">
-        <v>1.9741645859671182</v>
+        <v>0.0065956460317120437</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.23964860915646588</v>
+        <v>0.35058080425135713</v>
       </c>
       <c r="B65">
-        <v>0.48262516598337013</v>
+        <v>0.48415393890014768</v>
       </c>
       <c r="C65">
-        <v>0.47653176705246181</v>
+        <v>0.47470104161374349</v>
       </c>
       <c r="D65">
-        <v>2.0473511321374178</v>
+        <v>0.0067848812660890219</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.23459950835561874</v>
+        <v>0.34362878994823415</v>
       </c>
       <c r="B66">
-        <v>0.4790695758887526</v>
+        <v>0.48076336124022107</v>
       </c>
       <c r="C66">
-        <v>0.48155548846055068</v>
+        <v>0.47948274787530504</v>
       </c>
       <c r="D66">
-        <v>2.0015590850114968</v>
+        <v>0.0070013376981391262</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.22398991670506138</v>
+        <v>0.34082786438710433</v>
       </c>
       <c r="B67">
-        <v>0.47884386353168973</v>
+        <v>0.48063713685246306</v>
       </c>
       <c r="C67">
-        <v>0.48259808767669721</v>
+        <v>0.48070643793588996</v>
       </c>
       <c r="D67">
-        <v>2.1731825859708334</v>
+        <v>0.0073366528727100413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.229133773907164</v>
+        <v>0.34135150499199907</v>
       </c>
       <c r="B68">
-        <v>0.47707756247907046</v>
+        <v>0.47855268578383647</v>
       </c>
       <c r="C68">
-        <v>0.48329656226621065</v>
+        <v>0.4818008132552416</v>
       </c>
       <c r="D68">
-        <v>2.0898581285131628</v>
+        <v>0.0073390688183941578</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.22405696309087628</v>
+        <v>0.33732204260496423</v>
       </c>
       <c r="B69">
-        <v>0.47547159158442992</v>
+        <v>0.4773084255678281</v>
       </c>
       <c r="C69">
-        <v>0.48612538859040444</v>
+        <v>0.48423549612846251</v>
       </c>
       <c r="D69">
-        <v>2.1012256711934283</v>
+        <v>0.0075174320631178626</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.22399813701105958</v>
+        <v>0.3359609543909145</v>
       </c>
       <c r="B70">
-        <v>0.47687731248707027</v>
+        <v>0.47884905641232273</v>
       </c>
       <c r="C70">
-        <v>0.48596923469917136</v>
+        <v>0.48389182922841723</v>
       </c>
       <c r="D70">
-        <v>2.0691411547381708</v>
+        <v>0.0077488297733762828</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.22335179409642039</v>
+        <v>0.3356624057135551</v>
       </c>
       <c r="B71">
-        <v>0.47620051809958697</v>
+        <v>0.47807830285540032</v>
       </c>
       <c r="C71">
-        <v>0.48651860998250179</v>
+        <v>0.48450292944520207</v>
       </c>
       <c r="D71">
-        <v>2.0761365641546825</v>
+        <v>0.0078164987427366741</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.22210806759485896</v>
+        <v>0.33897963837072015</v>
       </c>
       <c r="B72">
-        <v>0.47395712615660995</v>
+        <v>0.47601061056035426</v>
       </c>
       <c r="C72">
-        <v>0.48692533425743245</v>
+        <v>0.48468199183458943</v>
       </c>
       <c r="D72">
-        <v>2.1613632863726417</v>
+        <v>0.0082708223598152841</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.21607461708204181</v>
+        <v>0.32892072547923951</v>
       </c>
       <c r="B73">
-        <v>0.46874791836302843</v>
+        <v>0.47086125168472659</v>
       </c>
       <c r="C73">
-        <v>0.49436087763776015</v>
+        <v>0.49198143024807039</v>
       </c>
       <c r="D73">
-        <v>2.0750058152553823</v>
+        <v>0.0082226581700276073</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.17871655845831172</v>
+        <v>0.3264494956122973</v>
       </c>
       <c r="B74">
-        <v>0.47145489836412652</v>
+        <v>0.47466830836224083</v>
       </c>
       <c r="C74">
-        <v>0.4936585299419502</v>
+        <v>0.49079782284689849</v>
       </c>
       <c r="D74">
-        <v>2.8125445956429846</v>
+        <v>0.0085396129443851103</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.18692904089871748</v>
+        <v>0.31865486521046049</v>
       </c>
       <c r="B75">
-        <v>0.45824402466118058</v>
+        <v>0.46040393943665958</v>
       </c>
       <c r="C75">
-        <v>0.50509283098296953</v>
+        <v>0.5033204940753242</v>
       </c>
       <c r="D75">
-        <v>2.4980038951037806</v>
+        <v>0.0089332282194245546</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.18821276443462875</v>
+        <v>0.31923705679711656</v>
       </c>
       <c r="B76">
-        <v>0.45864886678815253</v>
+        <v>0.46060674167830062</v>
       </c>
       <c r="C76">
-        <v>0.5044776604561152</v>
+        <v>0.50297306174433687</v>
       </c>
       <c r="D76">
-        <v>2.4913089991794668</v>
+        <v>0.0091208541568220686</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.19533833105404108</v>
+        <v>0.32606235009479839</v>
       </c>
       <c r="B77">
-        <v>0.46171567540510938</v>
+        <v>0.46296514097101776</v>
       </c>
       <c r="C77">
-        <v>0.49939135701357595</v>
+        <v>0.49868646039715325</v>
       </c>
       <c r="D77">
-        <v>2.5065946898617311</v>
+        <v>0.0093977582257286658</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.1916996712777837</v>
+        <v>0.32178202895890307</v>
       </c>
       <c r="B78">
-        <v>0.45843141540920557</v>
+        <v>0.460110243786583</v>
       </c>
       <c r="C78">
-        <v>0.50366834110465475</v>
+        <v>0.50242617465867423</v>
       </c>
       <c r="D78">
-        <v>2.478386209319392</v>
+        <v>0.0090418243348662757</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.19203767247865061</v>
+        <v>0.32114084646375002</v>
       </c>
       <c r="B79">
-        <v>0.45814363096319799</v>
+        <v>0.4598658701227375</v>
       </c>
       <c r="C79">
-        <v>0.5043626449686005</v>
+        <v>0.50301261343441672</v>
       </c>
       <c r="D79">
-        <v>2.4549354730958788</v>
+        <v>0.0094167529994190306</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.19219222614382078</v>
+        <v>0.3211270408935718</v>
       </c>
       <c r="B80">
-        <v>0.45817603372395138</v>
+        <v>0.45985061241156722</v>
       </c>
       <c r="C80">
-        <v>0.50437639651558874</v>
+        <v>0.50302681931875115</v>
       </c>
       <c r="D80">
-        <v>2.4514155782961837</v>
+        <v>0.0098000010950383253</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.16772991411830032</v>
+        <v>0.32031162262105062</v>
       </c>
       <c r="B81">
-        <v>0.45908855306197149</v>
+        <v>0.46088093105491201</v>
       </c>
       <c r="C81">
-        <v>0.5048664398030025</v>
+        <v>0.50395803364628922</v>
       </c>
       <c r="D81">
-        <v>2.9694616874635136</v>
+        <v>0.01013707248439662</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.1675565688794533</v>
+        <v>0.32066408665953156</v>
       </c>
       <c r="B82">
-        <v>0.45917708160792847</v>
+        <v>0.46137650604614738</v>
       </c>
       <c r="C82">
-        <v>0.50481382149775655</v>
+        <v>0.5035392164311242</v>
       </c>
       <c r="D82">
-        <v>2.9737384463315486</v>
+        <v>0.010401056870354882</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.16744792452089391</v>
+        <v>0.32109946538759854</v>
       </c>
       <c r="B83">
-        <v>0.46084952744837171</v>
+        <v>0.46331500153368316</v>
       </c>
       <c r="C83">
-        <v>0.50376974565488153</v>
+        <v>0.50220778531982302</v>
       </c>
       <c r="D83">
-        <v>2.9785221568540714</v>
+        <v>0.010533988338037759</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.16774580009156889</v>
+        <v>0.32104054080500061</v>
       </c>
       <c r="B84">
-        <v>0.46148990279410401</v>
+        <v>0.46388255483465224</v>
       </c>
       <c r="C84">
-        <v>0.50338672308742527</v>
+        <v>0.50185963300288561</v>
       </c>
       <c r="D84">
-        <v>2.9702677797081845</v>
+        <v>0.010962180332876312</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.16787873505956241</v>
+        <v>0.32067239362837813</v>
       </c>
       <c r="B85">
-        <v>0.46184799140176114</v>
+        <v>0.46412180082644461</v>
       </c>
       <c r="C85">
-        <v>0.50328816642537588</v>
+        <v>0.5018239460958247</v>
       </c>
       <c r="D85">
-        <v>2.9586374786954512</v>
+        <v>0.011545850059010574</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.16677925914595262</v>
+        <v>0.3223061918371492</v>
       </c>
       <c r="B86">
-        <v>0.46014105319342752</v>
+        <v>0.46250043187093953</v>
       </c>
       <c r="C86">
-        <v>0.50401579815062802</v>
+        <v>0.50241774227748448</v>
       </c>
       <c r="D86">
-        <v>3.0107528428172112</v>
+        <v>0.011934301244104576</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.15985805436319112</v>
+        <v>0.31541520202657869</v>
       </c>
       <c r="B87">
-        <v>0.45813355194300953</v>
+        <v>0.46034073270777282</v>
       </c>
       <c r="C87">
-        <v>0.50774066811708862</v>
+        <v>0.50632775726309287</v>
       </c>
       <c r="D87">
-        <v>3.0171221199370923</v>
+        <v>0.012022551876111249</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.15133493804872608</v>
+        <v>0.31448722306920629</v>
       </c>
       <c r="B88">
-        <v>0.45902300419620257</v>
+        <v>0.46218213188041718</v>
       </c>
       <c r="C88">
-        <v>0.50727977210285491</v>
+        <v>0.50537578261842242</v>
       </c>
       <c r="D88">
-        <v>3.1921372788545463</v>
+        <v>0.012263720225156181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.15548394857398465</v>
+        <v>0.31446124627960198</v>
       </c>
       <c r="B89">
-        <v>0.45728284539126929</v>
+        <v>0.46027535064733971</v>
       </c>
       <c r="C89">
-        <v>0.50840608690227751</v>
+        <v>0.5067637160258297</v>
       </c>
       <c r="D89">
-        <v>3.1123000944769292</v>
+        <v>0.014226724544382919</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.14854270303182687</v>
+        <v>0.3111151173545279</v>
       </c>
       <c r="B90">
-        <v>0.45668491054713278</v>
+        <v>0.46037856054362747</v>
       </c>
       <c r="C90">
-        <v>0.50997211909995521</v>
+        <v>0.50773239507543877</v>
       </c>
       <c r="D90">
-        <v>3.1820479066871257</v>
+        <v>0.014372913981182669</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.15180786719305339</v>
+        <v>0.31214750513053952</v>
       </c>
       <c r="B91">
-        <v>0.45528441437423478</v>
+        <v>0.45863065313547063</v>
       </c>
       <c r="C91">
-        <v>0.51055067463058013</v>
+        <v>0.50871333820758813</v>
       </c>
       <c r="D91">
-        <v>3.1446309617288355</v>
+        <v>0.013566827992554478</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.14375346350914867</v>
+        <v>0.30572309737884706</v>
       </c>
       <c r="B92">
-        <v>0.45361405909620139</v>
+        <v>0.4576395405161478</v>
       </c>
       <c r="C92">
-        <v>0.5139777593675382</v>
+        <v>0.51142080292138592</v>
       </c>
       <c r="D92">
-        <v>3.1626163223692894</v>
+        <v>0.013578252155855104</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.14350933428876991</v>
+        <v>0.30568406264632875</v>
       </c>
       <c r="B93">
-        <v>0.45311898717882837</v>
+        <v>0.45705452648641437</v>
       </c>
       <c r="C93">
-        <v>0.51436768649908271</v>
+        <v>0.51186983242938167</v>
       </c>
       <c r="D93">
-        <v>3.1662198139731861</v>
+        <v>0.013769502067007717</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.13831167060839131</v>
+        <v>0.30272404735811131</v>
       </c>
       <c r="B94">
-        <v>0.45359055679351346</v>
+        <v>0.45773790412554211</v>
       </c>
       <c r="C94">
-        <v>0.51479161331880974</v>
+        <v>0.51221534174801464</v>
       </c>
       <c r="D94">
-        <v>3.2210636496366254</v>
+        <v>0.014037046668676285</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.12439892700259628</v>
+        <v>0.29998367530748893</v>
       </c>
       <c r="B95">
-        <v>0.45525248024714299</v>
+        <v>0.46076910206040755</v>
       </c>
       <c r="C95">
-        <v>0.51405258692768674</v>
+        <v>0.51066258215743832</v>
       </c>
       <c r="D95">
-        <v>3.4820407307106094</v>
+        <v>0.014851238134655893</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.11425962189861495</v>
+        <v>0.2989423892332258</v>
       </c>
       <c r="B96">
-        <v>0.45769438855221356</v>
+        <v>0.46537674164604864</v>
       </c>
       <c r="C96">
-        <v>0.51246829082539314</v>
+        <v>0.50732041262914473</v>
       </c>
       <c r="D96">
-        <v>3.6759933250919428</v>
+        <v>0.015031321943202653</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.11440406555063642</v>
+        <v>0.29863118899053431</v>
       </c>
       <c r="B97">
-        <v>0.45676213315629832</v>
+        <v>0.46466026101669983</v>
       </c>
       <c r="C97">
-        <v>0.51326354825853382</v>
+        <v>0.5079699998352214</v>
       </c>
       <c r="D97">
-        <v>3.6682256553794184</v>
+        <v>0.015539888003981824</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.1087793331939003</v>
+        <v>0.29381987655420622</v>
       </c>
       <c r="B98">
-        <v>0.45793283868578316</v>
+        <v>0.46655423041909766</v>
       </c>
       <c r="C98">
-        <v>0.51363225647018262</v>
+        <v>0.50755879434433782</v>
       </c>
       <c r="D98">
-        <v>3.6689653273993001</v>
+        <v>0.015697105040626193</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.10814039640972667</v>
+        <v>0.29328335031461544</v>
       </c>
       <c r="B99">
-        <v>0.45778743342959322</v>
+        <v>0.4662959326618874</v>
       </c>
       <c r="C99">
-        <v>0.51391966973845005</v>
+        <v>0.5078906939418365</v>
       </c>
       <c r="D99">
-        <v>3.6666829806529955</v>
+        <v>0.016999052162938455</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.10456364694584684</v>
+        <v>0.28717913660515398</v>
       </c>
       <c r="B100">
-        <v>0.45945334881983046</v>
+        <v>0.46777227853956338</v>
       </c>
       <c r="C100">
-        <v>0.51400682379073359</v>
+        <v>0.50803329224463345</v>
       </c>
       <c r="D100">
-        <v>3.6055117048642056</v>
+        <v>0.017404721451429638</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.10367722756774851</v>
+        <v>0.28541619583862493</v>
       </c>
       <c r="B101">
-        <v>0.46041959795285609</v>
+        <v>0.46842937737735407</v>
       </c>
       <c r="C101">
-        <v>0.51362923405773553</v>
+        <v>0.50787100995339918</v>
       </c>
       <c r="D101">
-        <v>3.5840049121077935</v>
+        <v>0.017566982458159453</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.099313437466753002</v>
+        <v>0.28227190603201657</v>
       </c>
       <c r="B102">
-        <v>0.46043428254387692</v>
+        <v>0.46916627835427271</v>
       </c>
       <c r="C102">
-        <v>0.51396700744144008</v>
+        <v>0.50792668391949458</v>
       </c>
       <c r="D102">
-        <v>3.643234663616016</v>
+        <v>0.017918939227606488</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.095071665149236831</v>
+        <v>0.27923458013250491</v>
       </c>
       <c r="B103">
-        <v>0.46036903288664349</v>
+        <v>0.46973719253135038</v>
       </c>
       <c r="C103">
-        <v>0.51451964154583796</v>
+        <v>0.50808623561578647</v>
       </c>
       <c r="D103">
-        <v>3.6839493176640401</v>
+        <v>0.018908640223075139</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.082039683525707355</v>
+        <v>0.26867182820261654</v>
       </c>
       <c r="B104">
-        <v>0.46224507725570002</v>
+        <v>0.47282922037964731</v>
       </c>
       <c r="C104">
-        <v>0.51528914384923863</v>
+        <v>0.50768910717589355</v>
       </c>
       <c r="D104">
-        <v>3.7254771966270281</v>
+        <v>0.020567319520412568</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.080458309613839152</v>
+        <v>0.26671777675772063</v>
       </c>
       <c r="B105">
-        <v>0.46367317127356106</v>
+        <v>0.47417941295931643</v>
       </c>
       <c r="C105">
-        <v>0.51453877121137315</v>
+        <v>0.50694527153009439</v>
       </c>
       <c r="D105">
-        <v>3.7125884033383252</v>
+        <v>0.021219148927052473</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.084051032085972172</v>
+        <v>0.27502232607318527</v>
       </c>
       <c r="B106">
-        <v>0.45787899688035211</v>
+        <v>0.46850763388616284</v>
       </c>
       <c r="C106">
-        <v>0.51788744837396417</v>
+        <v>0.51010631108124294</v>
       </c>
       <c r="D106">
-        <v>3.7985677277489138</v>
+        <v>0.024229285897468551</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.094651036041784126</v>
+        <v>0.2893435549877344</v>
       </c>
       <c r="B107">
-        <v>0.46044793133998257</v>
+        <v>0.47137779949140018</v>
       </c>
       <c r="C107">
-        <v>0.51299383927233488</v>
+        <v>0.50482833205593525</v>
       </c>
       <c r="D107">
-        <v>3.8611036939187411</v>
+        <v>0.02433728056576373</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.084591601995291227</v>
+        <v>0.27813258642598948</v>
       </c>
       <c r="B108">
-        <v>0.45599709159433027</v>
+        <v>0.46720980151342167</v>
       </c>
       <c r="C108">
-        <v>0.51922675317446565</v>
+        <v>0.51062420327149172</v>
       </c>
       <c r="D108">
-        <v>3.8170862024710064</v>
+        <v>0.026484106675816677</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.040675807378534747</v>
+        <v>0.25539983849336106</v>
       </c>
       <c r="B109">
-        <v>0.45270554547303188</v>
+        <v>0.46496105877537108</v>
       </c>
       <c r="C109">
-        <v>0.52533828678135697</v>
+        <v>0.51725660630377357</v>
       </c>
       <c r="D109">
-        <v>4.437468365345727</v>
+        <v>0.030090617113987916</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.045577227638411176</v>
+        <v>0.25666137046258675</v>
       </c>
       <c r="B110">
-        <v>0.44745244196012979</v>
+        <v>0.45943384628600398</v>
       </c>
       <c r="C110">
-        <v>0.52946537964865492</v>
+        <v>0.5216679075093611</v>
       </c>
       <c r="D110">
-        <v>4.3577945946959638</v>
+        <v>0.030018617166151021</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.03601687410426832</v>
+        <v>0.24838085500380244</v>
       </c>
       <c r="B111">
-        <v>0.4465337467938878</v>
+        <v>0.45938960313673782</v>
       </c>
       <c r="C111">
-        <v>0.53202439021867121</v>
+        <v>0.52337084033349357</v>
       </c>
       <c r="D111">
-        <v>4.3756080103100388</v>
+        <v>0.029587798681071906</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.039991084934807609</v>
+        <v>0.25429483896899374</v>
       </c>
       <c r="B112">
-        <v>0.4434498802160845</v>
+        <v>0.45593850823245718</v>
       </c>
       <c r="C112">
-        <v>0.53343870319102171</v>
+        <v>0.52512855975578621</v>
       </c>
       <c r="D112">
-        <v>4.4174639732438852</v>
+        <v>0.029883409636378755</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.038745986300435603</v>
+        <v>0.25363726988463148</v>
       </c>
       <c r="B113">
-        <v>0.44278429449012358</v>
+        <v>0.45544989078415704</v>
       </c>
       <c r="C113">
-        <v>0.53427356276701965</v>
+        <v>0.52567423879000119</v>
       </c>
       <c r="D113">
-        <v>4.4151314932149468</v>
+        <v>0.031064416702601422</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.041027228681551772</v>
+        <v>0.25803232807073406</v>
       </c>
       <c r="B114">
-        <v>0.44273881199163656</v>
+        <v>0.45557120910757665</v>
       </c>
       <c r="C114">
-        <v>0.53354659529160542</v>
+        <v>0.52467947506692414</v>
       </c>
       <c r="D114">
-        <v>4.4465672516743053</v>
+        <v>0.03175400882185106</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.043233749281124681</v>
+        <v>0.26239707426805903</v>
       </c>
       <c r="B115">
-        <v>0.44308703898134344</v>
+        <v>0.45621156745714386</v>
       </c>
       <c r="C115">
-        <v>0.53251252428068929</v>
+        <v>0.52323853033701162</v>
       </c>
       <c r="D115">
-        <v>4.4760051871393145</v>
+        <v>0.03089276192268749</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.0087241702608168228</v>
+        <v>0.24194208459155431</v>
       </c>
       <c r="B116">
-        <v>0.43778249956219895</v>
+        <v>0.45054215487261878</v>
       </c>
       <c r="C116">
-        <v>0.53969788962544596</v>
+        <v>0.53232353506884789</v>
       </c>
       <c r="D116">
-        <v>4.9676067439358231</v>
+        <v>0.032288425571660763</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2.8068400525055707e-12</v>
+        <v>0.23336806495981544</v>
       </c>
       <c r="B117">
-        <v>0.44432728732192328</v>
+        <v>0.45955090147972733</v>
       </c>
       <c r="C117">
-        <v>0.53503937574936045</v>
+        <v>0.52651532489850117</v>
       </c>
       <c r="D117">
-        <v>5.2341603791993299</v>
+        <v>0.033073147058403758</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2.869483092101282e-12</v>
+        <v>0.23262358527329233</v>
       </c>
       <c r="B118">
-        <v>0.44005259010817316</v>
+        <v>0.45498485108313264</v>
       </c>
       <c r="C118">
-        <v>0.53877230935349507</v>
+        <v>0.53054912766165074</v>
       </c>
       <c r="D118">
-        <v>5.22467830394638</v>
+        <v>0.03336612909046946</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>2.9100582967225808e-12</v>
+        <v>0.23563136355693073</v>
       </c>
       <c r="B119">
-        <v>0.43782268142739628</v>
+        <v>0.45267858941187217</v>
       </c>
       <c r="C119">
-        <v>0.54021497369645488</v>
+        <v>0.53194327047094636</v>
       </c>
       <c r="D119">
-        <v>5.2555432494400618</v>
+        <v>0.035351710621376382</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>3.0805969419931117e-12</v>
+        <v>0.23782258233634737</v>
       </c>
       <c r="B120">
-        <v>0.43727984693171068</v>
+        <v>0.45230563681969205</v>
       </c>
       <c r="C120">
-        <v>0.54042623569395976</v>
+        <v>0.53183820806458082</v>
       </c>
       <c r="D120">
-        <v>5.2748409476064992</v>
+        <v>0.035581596466337809</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>3.1982049148635251e-12</v>
+        <v>0.24908497020628179</v>
       </c>
       <c r="B121">
-        <v>0.43732779948523226</v>
+        <v>0.45344220895106008</v>
       </c>
       <c r="C121">
-        <v>0.5386951828191533</v>
+        <v>0.52867598629819879</v>
       </c>
       <c r="D121">
-        <v>5.3959961349479526</v>
+        <v>0.035171502946376651</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>3.2960075072249707e-12</v>
+        <v>0.24489318629152096</v>
       </c>
       <c r="B122">
-        <v>0.43588968442739845</v>
+        <v>0.45165441412881496</v>
       </c>
       <c r="C122">
-        <v>0.54057558371448966</v>
+        <v>0.53103111240303047</v>
       </c>
       <c r="D122">
-        <v>5.3660902187408306</v>
+        <v>0.037184062394308839</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>3.384079863093947e-12</v>
+        <v>0.23442990994010984</v>
       </c>
       <c r="B123">
-        <v>0.43525927162812644</v>
+        <v>0.44932075806690136</v>
       </c>
       <c r="C123">
-        <v>0.54168544689644005</v>
+        <v>0.53513347850684645</v>
       </c>
       <c r="D123">
-        <v>5.4540131816563466</v>
+        <v>0.038591257038557439</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>3.5092558006220741e-12</v>
+        <v>0.23583706750762898</v>
       </c>
       <c r="B124">
-        <v>0.43350413262656451</v>
+        <v>0.44810795461192005</v>
       </c>
       <c r="C124">
-        <v>0.54306371857418256</v>
+        <v>0.53588044769964727</v>
       </c>
       <c r="D124">
-        <v>5.4045288488857128</v>
+        <v>0.03886136964332184</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>3.6799088830448593e-12</v>
+        <v>0.23015164821189593</v>
       </c>
       <c r="B125">
-        <v>0.43292904521618375</v>
+        <v>0.447607352547712</v>
       </c>
       <c r="C125">
-        <v>0.54435470778851691</v>
+        <v>0.53745143494309411</v>
       </c>
       <c r="D125">
-        <v>5.3935184119162125</v>
+        <v>0.040778193016258388</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>3.8253152918922986e-12</v>
+        <v>0.22694648048441016</v>
       </c>
       <c r="B126">
-        <v>0.43347314865946041</v>
+        <v>0.44814510142814068</v>
       </c>
       <c r="C126">
-        <v>0.54449857195956086</v>
+        <v>0.53763283811268892</v>
       </c>
       <c r="D126">
-        <v>5.3621430121314688</v>
+        <v>0.042511289349774599</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>3.8015681447553143e-12</v>
+        <v>0.23414107165796627</v>
       </c>
       <c r="B127">
-        <v>0.4292186124743449</v>
+        <v>0.44396328579626726</v>
       </c>
       <c r="C127">
-        <v>0.54683469715665234</v>
+        <v>0.53979364718913092</v>
       </c>
       <c r="D127">
-        <v>5.4717557203264313</v>
+        <v>0.040212513118863751</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>3.9998776647242539e-12</v>
+        <v>0.24214031536869213</v>
       </c>
       <c r="B128">
-        <v>0.43076112673206829</v>
+        <v>0.44645964290464862</v>
       </c>
       <c r="C128">
-        <v>0.54432279519396642</v>
+        <v>0.53605922557113972</v>
       </c>
       <c r="D128">
-        <v>5.5508897947695193</v>
+        <v>0.042108877197128962</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>4.2100040514748783e-12</v>
+        <v>0.24215572438730268</v>
       </c>
       <c r="B129">
-        <v>0.43031700526876138</v>
+        <v>0.44627643130271316</v>
       </c>
       <c r="C129">
-        <v>0.54482213529016621</v>
+        <v>0.53621014364242525</v>
       </c>
       <c r="D129">
-        <v>5.5452486207363325</v>
+        <v>0.043868352428152763</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>4.1893168788622351e-12</v>
+        <v>0.2303778944822254</v>
       </c>
       <c r="B130">
-        <v>0.42930484540814673</v>
+        <v>0.44240956137622423</v>
       </c>
       <c r="C130">
-        <v>0.54598542056021748</v>
+        <v>0.54198320930805621</v>
       </c>
       <c r="D130">
-        <v>5.7121214865293988</v>
+        <v>0.04709903170629641</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>4.3583809172755879e-12</v>
+        <v>0.22545014403301794</v>
       </c>
       <c r="B131">
-        <v>0.43111039740923207</v>
+        <v>0.4449721358433652</v>
       </c>
       <c r="C131">
-        <v>0.54483002532587566</v>
+        <v>0.54087278481134249</v>
       </c>
       <c r="D131">
-        <v>5.8005755250169679</v>
+        <v>0.047478523134406418</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>4.5662968725906586e-12</v>
+        <v>0.22336580324107616</v>
       </c>
       <c r="B132">
-        <v>0.4349893199976605</v>
+        <v>0.44987143797336276</v>
       </c>
       <c r="C132">
-        <v>0.54182502828735923</v>
+        <v>0.53714861990353102</v>
       </c>
       <c r="D132">
-        <v>5.8315220878176257</v>
+        <v>0.046257019626460505</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>4.661846988364097e-12</v>
+        <v>0.22215642643028702</v>
       </c>
       <c r="B133">
-        <v>0.4375323223690003</v>
+        <v>0.45276999176661781</v>
       </c>
       <c r="C133">
-        <v>0.53983030476697469</v>
+        <v>0.53491217452246564</v>
       </c>
       <c r="D133">
-        <v>5.8376721656476649</v>
+        <v>0.046309724541609934</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>4.9026144174650147e-12</v>
+        <v>0.22041772101111781</v>
       </c>
       <c r="B134">
-        <v>0.43933777668839752</v>
+        <v>0.45428582466591982</v>
       </c>
       <c r="C134">
-        <v>0.53864049614497256</v>
+        <v>0.53394213495458132</v>
       </c>
       <c r="D134">
-        <v>5.8121089291639558</v>
+        <v>0.047798836928561961</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>5.0039752587437639e-12</v>
+        <v>0.21441058253405804</v>
       </c>
       <c r="B135">
-        <v>0.44444941421414963</v>
+        <v>0.45842820660436268</v>
       </c>
       <c r="C135">
-        <v>0.53543911657857735</v>
+        <v>0.53150198458526399</v>
       </c>
       <c r="D135">
-        <v>5.6987209439550037</v>
+        <v>0.048757230060037272</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>5.1996819342097128e-12</v>
+        <v>0.21127878406689429</v>
       </c>
       <c r="B136">
-        <v>0.44997011983780988</v>
+        <v>0.46307740544053844</v>
       </c>
       <c r="C136">
-        <v>0.53106125167080653</v>
+        <v>0.5280593681015372</v>
       </c>
       <c r="D136">
-        <v>5.6783772275504685</v>
+        <v>0.049171914560866774</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>4.8647522730852287e-12</v>
+        <v>0.20305840598644223</v>
       </c>
       <c r="B137">
-        <v>0.46157334113155435</v>
+        <v>0.47500638913648924</v>
       </c>
       <c r="C137">
-        <v>0.51995082379769308</v>
+        <v>0.51922305381292433</v>
       </c>
       <c r="D137">
-        <v>6.1103594627236335</v>
+        <v>0.050336421869005353</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>4.8854516022970039e-12</v>
+        <v>0.20264993280557156</v>
       </c>
       <c r="B138">
-        <v>0.44912593862578665</v>
+        <v>0.46433532425116159</v>
       </c>
       <c r="C138">
-        <v>0.5316568725926859</v>
+        <v>0.52856527453224178</v>
       </c>
       <c r="D138">
-        <v>5.8687581547315242</v>
+        <v>0.047336204570331226</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>5.0104841706315233e-12</v>
+        <v>0.19690525287805272</v>
       </c>
       <c r="B139">
-        <v>0.4488089312594673</v>
+        <v>0.46426908457637728</v>
       </c>
       <c r="C139">
-        <v>0.53255464385082463</v>
+        <v>0.52960786577751617</v>
       </c>
       <c r="D139">
-        <v>5.8677741948274846</v>
+        <v>0.048282251706224188</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>5.1623943387480841e-12</v>
+        <v>0.17902354491019806</v>
       </c>
       <c r="B140">
-        <v>0.45266907108491111</v>
+        <v>0.46818770652264019</v>
       </c>
       <c r="C140">
-        <v>0.53196492201307155</v>
+        <v>0.5292583636740682</v>
       </c>
       <c r="D140">
-        <v>5.7162322427001158</v>
+        <v>0.052191756976296681</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>5.2347877873675429e-12</v>
+        <v>0.1760243818345914</v>
       </c>
       <c r="B141">
-        <v>0.45785989959611917</v>
+        <v>0.4722076605846719</v>
       </c>
       <c r="C141">
-        <v>0.52807468487269948</v>
+        <v>0.52624943611743447</v>
       </c>
       <c r="D141">
-        <v>5.6455102558436003</v>
+        <v>0.053544540684338143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>5.2975947186632276e-12</v>
+        <v>0.17712340729332735</v>
       </c>
       <c r="B142">
-        <v>0.45572817723523273</v>
+        <v>0.46933615848248605</v>
       </c>
       <c r="C142">
-        <v>0.52986229866673096</v>
+        <v>0.52857581665055353</v>
       </c>
       <c r="D142">
-        <v>5.6638672145048607</v>
+        <v>0.053463178992096801</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>5.4424789820946795e-12</v>
+        <v>0.16610818383200088</v>
       </c>
       <c r="B143">
-        <v>0.45849097650712056</v>
+        <v>0.47010701061611587</v>
       </c>
       <c r="C143">
-        <v>0.52925155663166645</v>
+        <v>0.52972494030265993</v>
       </c>
       <c r="D143">
-        <v>5.50260402196818</v>
+        <v>0.056287385996254928</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>5.2498325656351433e-12</v>
+        <v>0.15014474646609571</v>
       </c>
       <c r="B144">
-        <v>0.46724747161149399</v>
+        <v>0.47693396275790645</v>
       </c>
       <c r="C144">
-        <v>0.52134392823633924</v>
+        <v>0.52638534008738613</v>
       </c>
       <c r="D144">
-        <v>5.8669923105956521</v>
+        <v>0.061088949518380099</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>5.0449179869327047e-12</v>
+        <v>0.14072501658158179</v>
       </c>
       <c r="B145">
-        <v>0.48137199248799223</v>
+        <v>0.49261605667451885</v>
       </c>
       <c r="C145">
-        <v>0.50888224654815473</v>
+        <v>0.51422960930075345</v>
       </c>
       <c r="D145">
-        <v>6.1555798976507594</v>
+        <v>0.06511906975066406</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>4.987455913983146e-12</v>
+        <v>0.13822108178283429</v>
       </c>
       <c r="B146">
-        <v>0.48601282806601787</v>
+        <v>0.49782552172557948</v>
       </c>
       <c r="C146">
-        <v>0.5050799475574429</v>
+        <v>0.51008534734526156</v>
       </c>
       <c r="D146">
-        <v>6.1743544850642325</v>
+        <v>0.066396364994348839</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>4.9945622234251933e-12</v>
+        <v>0.13363880336910117</v>
       </c>
       <c r="B147">
-        <v>0.48917318744225946</v>
+        <v>0.50035955342157223</v>
       </c>
       <c r="C147">
-        <v>0.50299698526555725</v>
+        <v>0.50860385415578535</v>
       </c>
       <c r="D147">
-        <v>6.1424537874320659</v>
+        <v>0.069459195052741507</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>5.0755206910267966e-12</v>
+        <v>0.13002416055797689</v>
       </c>
       <c r="B148">
-        <v>0.49059340859935946</v>
+        <v>0.50056698214201412</v>
       </c>
       <c r="C148">
-        <v>0.50250128285069884</v>
+        <v>0.50899194581598717</v>
       </c>
       <c r="D148">
-        <v>6.082679298494778</v>
+        <v>0.070663108389086557</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>5.1990332723251222e-12</v>
+        <v>0.12610559749556241</v>
       </c>
       <c r="B149">
-        <v>0.49157069470188902</v>
+        <v>0.50017295252117111</v>
       </c>
       <c r="C149">
-        <v>0.50254670997050921</v>
+        <v>0.50995121648707231</v>
       </c>
       <c r="D149">
-        <v>6.0021972411373632</v>
+        <v>0.069762098342227713</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>5.6450361345010144e-12</v>
+        <v>0.13904782287146941</v>
       </c>
       <c r="B150">
-        <v>0.48589580285475537</v>
+        <v>0.49637791296346889</v>
       </c>
       <c r="C150">
-        <v>0.50605594507379281</v>
+        <v>0.51121680643612577</v>
       </c>
       <c r="D150">
-        <v>6.1228114099400788</v>
+        <v>0.065374392557326091</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>5.6472636602751067e-12</v>
+        <v>0.10094161902717332</v>
       </c>
       <c r="B151">
-        <v>0.48488848413265301</v>
+        <v>0.48766784445422057</v>
       </c>
       <c r="C151">
-        <v>0.50817326335874802</v>
+        <v>0.52490724535339139</v>
       </c>
       <c r="D151">
-        <v>6.5584880424176273</v>
+        <v>0.074088364015969521</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>5.6241271811542029e-12</v>
+        <v>0.10674418050917749</v>
       </c>
       <c r="B152">
-        <v>0.47868937604603501</v>
+        <v>0.48228879753356829</v>
       </c>
       <c r="C152">
-        <v>0.51306227001105376</v>
+        <v>0.52870836683281974</v>
       </c>
       <c r="D152">
-        <v>6.516981366040417</v>
+        <v>0.073198696817531966</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>5.5789129564283099e-12</v>
+        <v>0.1094730669347096</v>
       </c>
       <c r="B153">
-        <v>0.47750575769006126</v>
+        <v>0.48124947881588376</v>
       </c>
       <c r="C153">
-        <v>0.51392782311366647</v>
+        <v>0.5291836005208882</v>
       </c>
       <c r="D153">
-        <v>6.5302588392651364</v>
+        <v>0.074696921478204448</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>5.6819393319038731e-12</v>
+        <v>0.13234567319558285</v>
       </c>
       <c r="B154">
-        <v>0.47696660219640863</v>
+        <v>0.48249162151128139</v>
       </c>
       <c r="C154">
-        <v>0.51130043268463921</v>
+        <v>0.5244896645375634</v>
       </c>
       <c r="D154">
-        <v>6.7884725131766901</v>
+        <v>0.069974877458740217</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>6.290607652069628e-12</v>
+        <v>0.1056663654846644</v>
       </c>
       <c r="B155">
-        <v>0.46750795242507964</v>
+        <v>0.47222028588132714</v>
       </c>
       <c r="C155">
-        <v>0.52443277879822148</v>
+        <v>0.53775834169025716</v>
       </c>
       <c r="D155">
-        <v>6.3984210572972922</v>
+        <v>0.079488597644026424</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>5.8680574871288141e-12</v>
+        <v>0.11106681095606194</v>
       </c>
       <c r="B156">
-        <v>0.46468108519641221</v>
+        <v>0.47081059911906181</v>
       </c>
       <c r="C156">
-        <v>0.5264370864067327</v>
+        <v>0.53814480116511354</v>
       </c>
       <c r="D156">
-        <v>6.3927481948083535</v>
+        <v>0.075361743551672009</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>6.1229745866798067e-12</v>
+        <v>0.11883574093927082</v>
       </c>
       <c r="B157">
-        <v>0.46368461640722547</v>
+        <v>0.47089136551673128</v>
       </c>
       <c r="C157">
-        <v>0.52646424659678448</v>
+        <v>0.53684288041204409</v>
       </c>
       <c r="D157">
-        <v>6.4426655101133079</v>
+        <v>0.072437906905791022</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>5.9848348648099815e-12</v>
+        <v>0.075622546407949992</v>
       </c>
       <c r="B158">
-        <v>0.46136087693030892</v>
+        <v>0.46011946884294602</v>
       </c>
       <c r="C158">
-        <v>0.53035066870430514</v>
+        <v>0.5532445451349165</v>
       </c>
       <c r="D158">
-        <v>7.0287370050975948</v>
+        <v>0.097238846921827937</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>5.5403679241507765e-12</v>
+        <v>0.082513409955344244</v>
       </c>
       <c r="B159">
-        <v>0.44769506092754818</v>
+        <v>0.4488220787207024</v>
       </c>
       <c r="C159">
-        <v>0.54239741260837193</v>
+        <v>0.56221476643341195</v>
       </c>
       <c r="D159">
-        <v>6.8153903631522175</v>
+        <v>0.098022778000715877</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>5.815901725715563e-12</v>
+        <v>0.10145459552616919</v>
       </c>
       <c r="B160">
-        <v>0.44758852826885037</v>
+        <v>0.44931494000809991</v>
       </c>
       <c r="C160">
-        <v>0.54033409202708615</v>
+        <v>0.5588024177938351</v>
       </c>
       <c r="D160">
-        <v>6.7426335056201188</v>
+        <v>0.091306989362565649</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>5.9541729553782301e-12</v>
+        <v>0.12194467115948036</v>
       </c>
       <c r="B161">
-        <v>0.45430511068568052</v>
+        <v>0.45643791890154845</v>
       </c>
       <c r="C161">
-        <v>0.53142500329668063</v>
+        <v>0.5492420324261551</v>
       </c>
       <c r="D161">
-        <v>6.9057194685275931</v>
+        <v>0.097533518518814102</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>6.0187065395841752e-12</v>
+        <v>0.10995151340138602</v>
       </c>
       <c r="B162">
-        <v>0.4468868087739411</v>
+        <v>0.45047313509165904</v>
       </c>
       <c r="C162">
-        <v>0.54057872877652591</v>
+        <v>0.55643385627181063</v>
       </c>
       <c r="D162">
-        <v>6.7158178437586029</v>
+        <v>0.096217105682114903</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>6.5376324044080601e-12</v>
+        <v>0.11210779978792301</v>
       </c>
       <c r="B163">
-        <v>0.44604151527745606</v>
+        <v>0.45021110733709624</v>
       </c>
       <c r="C163">
-        <v>0.54109004223861856</v>
+        <v>0.55632042287932804</v>
       </c>
       <c r="D163">
-        <v>6.6313907482549386</v>
+        <v>0.099055203180380441</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>6.8542556991681765e-12</v>
+        <v>0.12591848941461334</v>
       </c>
       <c r="B164">
-        <v>0.44726251313071702</v>
+        <v>0.45198278107586293</v>
       </c>
       <c r="C164">
-        <v>0.53818582341366139</v>
+        <v>0.55256377453397887</v>
       </c>
       <c r="D164">
-        <v>6.6682798799156862</v>
+        <v>0.097272317553682139</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>5.9010034534829744e-12</v>
+        <v>0.10749014335474888</v>
       </c>
       <c r="B165">
-        <v>0.44311954884583005</v>
+        <v>0.4443977297931283</v>
       </c>
       <c r="C165">
-        <v>0.54266978494470108</v>
+        <v>0.56223965233107176</v>
       </c>
       <c r="D165">
-        <v>6.8667332452119725</v>
+        <v>0.1078599114531083</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>6.2148919023107083e-12</v>
+        <v>0.12205037296993201</v>
       </c>
       <c r="B166">
-        <v>0.44092856122310742</v>
+        <v>0.44187329707954581</v>
       </c>
       <c r="C166">
-        <v>0.54279014503070055</v>
+        <v>0.56219732523624999</v>
       </c>
       <c r="D166">
-        <v>6.8208781174842512</v>
+        <v>0.096878252691113442</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>6.5941300769085241e-12</v>
+        <v>0.12120759554860112</v>
       </c>
       <c r="B167">
-        <v>0.43943736017757445</v>
+        <v>0.44111062607936835</v>
       </c>
       <c r="C167">
-        <v>0.54450911666851698</v>
+        <v>0.56300634361571344</v>
       </c>
       <c r="D167">
-        <v>6.7976041217891296</v>
+        <v>0.10280334340847548</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>6.7880317958468428e-12</v>
+        <v>0.11525195650849047</v>
       </c>
       <c r="B168">
-        <v>0.43679434590155364</v>
+        <v>0.43906347176503135</v>
       </c>
       <c r="C168">
-        <v>0.54836681899379214</v>
+        <v>0.56577812542959161</v>
       </c>
       <c r="D168">
-        <v>6.6668089785188069</v>
+        <v>0.10531693195727962</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>6.7696958480533606e-12</v>
+        <v>0.12149768677552508</v>
       </c>
       <c r="B169">
-        <v>0.43577989586133142</v>
+        <v>0.43848827629379045</v>
       </c>
       <c r="C169">
-        <v>0.54837279985051579</v>
+        <v>0.56529431773147587</v>
       </c>
       <c r="D169">
-        <v>6.7723949998127626</v>
+        <v>0.10174393785716943</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>7.0514024485971585e-12</v>
+        <v>0.12796846279014631</v>
       </c>
       <c r="B170">
-        <v>0.43583501764023919</v>
+        <v>0.43959376182283183</v>
       </c>
       <c r="C170">
-        <v>0.5475455928948455</v>
+        <v>0.56327030887086271</v>
       </c>
       <c r="D170">
-        <v>6.8635456863335413</v>
+        <v>0.10087020388963683</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>7.3124523063610356e-12</v>
+        <v>0.1351472208012148</v>
       </c>
       <c r="B171">
-        <v>0.43625194704019293</v>
+        <v>0.44151238652668745</v>
       </c>
       <c r="C171">
-        <v>0.54633536296802598</v>
+        <v>0.56040393582592696</v>
       </c>
       <c r="D171">
-        <v>6.9621339729053027</v>
+        <v>0.095632515045021807</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>7.5894000876372033e-12</v>
+        <v>0.13047059155447208</v>
       </c>
       <c r="B172">
-        <v>0.43540791493010406</v>
+        <v>0.43939926782694105</v>
       </c>
       <c r="C172">
-        <v>0.54729011324747345</v>
+        <v>0.56303812216141447</v>
       </c>
       <c r="D172">
-        <v>6.9832905558464242</v>
+        <v>0.1005174929630636</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>7.961295650355774e-12</v>
+        <v>0.13920408589669131</v>
       </c>
       <c r="B173">
-        <v>0.43507940104957687</v>
+        <v>0.44007147898422949</v>
       </c>
       <c r="C173">
-        <v>0.54642847294529451</v>
+        <v>0.56102440339047077</v>
       </c>
       <c r="D173">
-        <v>7.0158071659482726</v>
+        <v>0.097161192937438176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>8.1099643070517652e-12</v>
+        <v>0.14077325652473385</v>
       </c>
       <c r="B174">
-        <v>0.43480167829310512</v>
+        <v>0.44037184853966654</v>
       </c>
       <c r="C174">
-        <v>0.54662988765084708</v>
+        <v>0.56049681546764718</v>
       </c>
       <c r="D174">
-        <v>7.0210874161477799</v>
+        <v>0.10131395297127473</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>8.3146763967106434e-12</v>
+        <v>0.15004746672845107</v>
       </c>
       <c r="B175">
-        <v>0.43586937833663791</v>
+        <v>0.44281775867359141</v>
       </c>
       <c r="C175">
-        <v>0.54493488166214588</v>
+        <v>0.55679711345626792</v>
       </c>
       <c r="D175">
-        <v>6.8562549968161912</v>
+        <v>0.09459784346938413</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>8.7887722457583955e-12</v>
+        <v>0.14989059259875961</v>
       </c>
       <c r="B176">
-        <v>0.43558262237174827</v>
+        <v>0.4425103392452302</v>
       </c>
       <c r="C176">
-        <v>0.54519110418233363</v>
+        <v>0.55709234144120778</v>
       </c>
       <c r="D176">
-        <v>6.8562172167688447</v>
+        <v>0.095217658516588977</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>8.9486371491046114e-12</v>
+        <v>0.15889290837210437</v>
       </c>
       <c r="B177">
-        <v>0.43785480432585394</v>
+        <v>0.44500335783489764</v>
       </c>
       <c r="C177">
-        <v>0.54165441484312726</v>
+        <v>0.55337001130809349</v>
       </c>
       <c r="D177">
-        <v>6.9667390322090341</v>
+        <v>0.097386122435738035</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>9.5314237227481756e-12</v>
+        <v>0.16438352046255739</v>
       </c>
       <c r="B178">
-        <v>0.43947905928283343</v>
+        <v>0.44747873809884681</v>
       </c>
       <c r="C178">
-        <v>0.5394450293352705</v>
+        <v>0.550243368634598</v>
       </c>
       <c r="D178">
-        <v>7.0349571084948099</v>
+        <v>0.098070796636289356</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>9.4296448135263823e-12</v>
+        <v>0.14332266373709449</v>
       </c>
       <c r="B179">
-        <v>0.43429104758784853</v>
+        <v>0.4369832399961755</v>
       </c>
       <c r="C179">
-        <v>0.54479200451309329</v>
+        <v>0.5631732076135253</v>
       </c>
       <c r="D179">
-        <v>7.4412192265562309</v>
+        <v>0.10666597809604751</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>9.8128413565635441e-12</v>
+        <v>0.14286928925668971</v>
       </c>
       <c r="B180">
-        <v>0.43319499569293701</v>
+        <v>0.43699880483612136</v>
       </c>
       <c r="C180">
-        <v>0.54583955772625836</v>
+        <v>0.56323371848845871</v>
       </c>
       <c r="D180">
-        <v>7.4120852146845246</v>
+        <v>0.11131191149982642</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1.0467032455179144e-11</v>
+        <v>0.1503898217057594</v>
       </c>
       <c r="B181">
-        <v>0.42904531290708603</v>
+        <v>0.43173024512361097</v>
       </c>
       <c r="C181">
-        <v>0.54827553003609575</v>
+        <v>0.56663498557817793</v>
       </c>
       <c r="D181">
-        <v>7.4092093669736041</v>
+        <v>0.11624639137904376</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1.0928799153134045e-11</v>
+        <v>0.14941825658266467</v>
       </c>
       <c r="B182">
-        <v>0.4286653010981315</v>
+        <v>0.43106711036134476</v>
       </c>
       <c r="C182">
-        <v>0.54866353283078129</v>
+        <v>0.56738800308086623</v>
       </c>
       <c r="D182">
-        <v>7.4081691882074931</v>
+        <v>0.12069797473376241</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1.0996303508260193e-11</v>
+        <v>0.1520904331020935</v>
       </c>
       <c r="B183">
-        <v>0.42932525048366199</v>
+        <v>0.4317379741181645</v>
       </c>
       <c r="C183">
-        <v>0.54763783334372118</v>
+        <v>0.56632386453117789</v>
       </c>
       <c r="D183">
-        <v>7.4361555900369289</v>
+        <v>0.12336646491443409</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1.250930903920088e-11</v>
+        <v>0.16232997934365653</v>
       </c>
       <c r="B184">
-        <v>0.43269058735881738</v>
+        <v>0.43508487997279777</v>
       </c>
       <c r="C184">
-        <v>0.54256227566103787</v>
+        <v>0.56155107806020699</v>
       </c>
       <c r="D184">
-        <v>7.6287066883413788</v>
+        <v>0.12154670024408695</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1.2816037556102448e-11</v>
+        <v>0.17002718874351369</v>
       </c>
       <c r="B185">
-        <v>0.43632994223470872</v>
+        <v>0.43986761677649616</v>
       </c>
       <c r="C185">
-        <v>0.53803706658213768</v>
+        <v>0.5559419220533347</v>
       </c>
       <c r="D185">
-        <v>7.7521610821893248</v>
+        <v>0.12363400115397497</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1.3209402299963705e-11</v>
+        <v>0.16661881972895357</v>
       </c>
       <c r="B186">
-        <v>0.4369484050978894</v>
+        <v>0.43752881733608345</v>
       </c>
       <c r="C186">
-        <v>0.53757565498319149</v>
+        <v>0.55863113303149836</v>
       </c>
       <c r="D186">
-        <v>7.6460961155862437</v>
+        <v>0.12639998362488272</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1.3500065482849619e-11</v>
+        <v>0.17346740907322836</v>
       </c>
       <c r="B187">
-        <v>0.4404189971834605</v>
+        <v>0.43986326125604835</v>
       </c>
       <c r="C187">
-        <v>0.53367324297252694</v>
+        <v>0.5552519771027461</v>
       </c>
       <c r="D187">
-        <v>7.4664773927782839</v>
+        <v>0.12565042830222992</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.3946605255598497e-11</v>
+        <v>0.17478446294445715</v>
       </c>
       <c r="B188">
-        <v>0.44159925573469727</v>
+        <v>0.44066031567420089</v>
       </c>
       <c r="C188">
-        <v>0.53232006540011301</v>
+        <v>0.55429262902116339</v>
       </c>
       <c r="D188">
-        <v>7.4745245772780491</v>
+        <v>0.13082007504042306</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1.4610036840446247e-11</v>
+        <v>0.17801386999112198</v>
       </c>
       <c r="B189">
-        <v>0.4439870480919893</v>
+        <v>0.44234112077659138</v>
       </c>
       <c r="C189">
-        <v>0.52986263649098708</v>
+        <v>0.55215560851754097</v>
       </c>
       <c r="D189">
-        <v>7.3291686209254125</v>
+        <v>0.13783349250411717</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1.5023775080407534e-11</v>
+        <v>0.18091639914868862</v>
       </c>
       <c r="B190">
-        <v>0.44647997325637589</v>
+        <v>0.44401039288042382</v>
       </c>
       <c r="C190">
-        <v>0.5269937128984431</v>
+        <v>0.5500789148732721</v>
       </c>
       <c r="D190">
-        <v>7.3274133671162192</v>
+        <v>0.14035448448652471</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1.5225224123888735e-11</v>
+        <v>0.18969038035846697</v>
       </c>
       <c r="B191">
-        <v>0.45340310151077756</v>
+        <v>0.44941763041979804</v>
       </c>
       <c r="C191">
-        <v>0.51858471091103309</v>
+        <v>0.54342269422042955</v>
       </c>
       <c r="D191">
-        <v>7.461659037379345</v>
+        <v>0.14338884254106304</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.6304337473218827e-11</v>
+        <v>0.18988466172159418</v>
       </c>
       <c r="B192">
-        <v>0.45236267439158812</v>
+        <v>0.44958860015365237</v>
       </c>
       <c r="C192">
-        <v>0.5197650532418967</v>
+        <v>0.54323015585560763</v>
       </c>
       <c r="D192">
-        <v>7.4419743740597033</v>
+        <v>0.14507816631919424</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1.7007161895685375e-11</v>
+        <v>0.18764889039819033</v>
       </c>
       <c r="B193">
-        <v>0.45267179511810013</v>
+        <v>0.44771336396754041</v>
       </c>
       <c r="C193">
-        <v>0.51990131666208728</v>
+        <v>0.54542393875415263</v>
       </c>
       <c r="D193">
-        <v>7.2547990065847836</v>
+        <v>0.14744173034706695</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1.7438692010547972e-11</v>
+        <v>0.18876281746992099</v>
       </c>
       <c r="B194">
-        <v>0.45411312593577241</v>
+        <v>0.44800351470183242</v>
       </c>
       <c r="C194">
-        <v>0.51858518722726032</v>
+        <v>0.54477944443119308</v>
       </c>
       <c r="D194">
-        <v>7.069352953325942</v>
+        <v>0.15423826509505364</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1.7932668294088536e-11</v>
+        <v>0.19056554462613071</v>
       </c>
       <c r="B195">
-        <v>0.45699433678667534</v>
+        <v>0.44927724498347765</v>
       </c>
       <c r="C195">
-        <v>0.51535989103357593</v>
+        <v>0.54311126083986128</v>
       </c>
       <c r="D195">
-        <v>7.0485169639572502</v>
+        <v>0.15245531980255794</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1.854909738769918e-11</v>
+        <v>0.19173235214480178</v>
       </c>
       <c r="B196">
-        <v>0.45913386101114234</v>
+        <v>0.45036652158121854</v>
       </c>
       <c r="C196">
-        <v>0.51397865551352651</v>
+        <v>0.54180447824661393</v>
       </c>
       <c r="D196">
-        <v>6.6954209003652583</v>
+        <v>0.15469575149454959</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1.9469352281630593e-11</v>
+        <v>0.1906812897460288</v>
       </c>
       <c r="B197">
-        <v>0.45838772668755323</v>
+        <v>0.44928827095328555</v>
       </c>
       <c r="C197">
-        <v>0.51473581290738812</v>
+        <v>0.5431132800473395</v>
       </c>
       <c r="D197">
-        <v>6.7169043779249407</v>
+        <v>0.15792552803568247</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9736189614727517e-11</v>
+        <v>0.19127227999728083</v>
       </c>
       <c r="B198">
-        <v>0.46073757050959652</v>
+        <v>0.44930110794811168</v>
       </c>
       <c r="C198">
-        <v>0.51175114361114871</v>
+        <v>0.54244820143706562</v>
       </c>
       <c r="D198">
-        <v>6.6960972273994734</v>
+        <v>0.16415532522151666</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>2.0169507304184797e-11</v>
+        <v>0.19108761358161114</v>
       </c>
       <c r="B199">
-        <v>0.45995489306108622</v>
+        <v>0.4490597894353805</v>
       </c>
       <c r="C199">
-        <v>0.51264519640878869</v>
+        <v>0.54272505326386744</v>
       </c>
       <c r="D199">
-        <v>6.6843016709514531</v>
+        <v>0.16375136416942834</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>2.0984417471995424e-11</v>
+        <v>0.19057233595250594</v>
       </c>
       <c r="B200">
-        <v>0.45959803816651801</v>
+        <v>0.44815513419601427</v>
       </c>
       <c r="C200">
-        <v>0.51368968105554125</v>
+        <v>0.54387105522093793</v>
       </c>
       <c r="D200">
-        <v>6.440681915070269</v>
+        <v>0.16900268577188754</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>2.0658759111154544e-11</v>
+        <v>0.19117728448749244</v>
       </c>
       <c r="B201">
-        <v>0.45932239000623415</v>
+        <v>0.44863771144479303</v>
       </c>
       <c r="C201">
-        <v>0.513846808961402</v>
+        <v>0.54369900449191988</v>
       </c>
       <c r="D201">
-        <v>6.5121914699390739</v>
+        <v>0.17208371944184123</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>2.1611491824744415e-11</v>
+        <v>0.1912560295521108</v>
       </c>
       <c r="B202">
-        <v>0.45911099836540847</v>
+        <v>0.44873685789609863</v>
       </c>
       <c r="C202">
-        <v>0.51409390747926376</v>
+        <v>0.54361635441356504</v>
       </c>
       <c r="D202">
-        <v>6.4691027911554615</v>
+        <v>0.17702329315330129</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1.9860857587096558e-11</v>
+        <v>0.18998517965635636</v>
       </c>
       <c r="B203">
-        <v>0.45682586050532364</v>
+        <v>0.44694998554988863</v>
       </c>
       <c r="C203">
-        <v>0.51791069349278218</v>
+        <v>0.54493020216913624</v>
       </c>
       <c r="D203">
-        <v>5.8443470387418035</v>
+        <v>0.17834256205973859</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>2.0562822485005706e-11</v>
+        <v>0.19113682321896938</v>
       </c>
       <c r="B204">
-        <v>0.46115499196619758</v>
+        <v>0.44866844782386073</v>
       </c>
       <c r="C204">
-        <v>0.513595056986763</v>
+        <v>0.54285344585569462</v>
       </c>
       <c r="D204">
-        <v>5.7184452437088007</v>
+        <v>0.18601235280689973</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>2.1560553986852379e-11</v>
+        <v>0.18987290909692728</v>
       </c>
       <c r="B205">
-        <v>0.45766122834251599</v>
+        <v>0.44639807602916548</v>
       </c>
       <c r="C205">
-        <v>0.51736061002664657</v>
+        <v>0.54544109594867851</v>
       </c>
       <c r="D205">
-        <v>5.7201512732441744</v>
+        <v>0.1895401905676744</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>2.2863092945837517e-11</v>
+        <v>0.18917109679361388</v>
       </c>
       <c r="B206">
-        <v>0.45855951830526981</v>
+        <v>0.44622080801254704</v>
       </c>
       <c r="C206">
-        <v>0.51604218015934333</v>
+        <v>0.54530697139464546</v>
       </c>
       <c r="D206">
-        <v>5.7394090706976213</v>
+        <v>0.20153852936225167</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>2.3687970152465942e-11</v>
+        <v>0.18922012501199298</v>
       </c>
       <c r="B207">
-        <v>0.45821286006927442</v>
+        <v>0.44636200407047355</v>
       </c>
       <c r="C207">
-        <v>0.51768772513061456</v>
+        <v>0.54514479414082273</v>
       </c>
       <c r="D207">
-        <v>5.3095723951120704</v>
+        <v>0.20479079951551718</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>2.416911614175493e-11</v>
+        <v>0.18895531611868363</v>
       </c>
       <c r="B208">
-        <v>0.4603708970362152</v>
+        <v>0.44708521881733887</v>
       </c>
       <c r="C208">
-        <v>0.51593592949860456</v>
+        <v>0.54417722564653692</v>
       </c>
       <c r="D208">
-        <v>5.1000076946199471</v>
+        <v>0.20511535760325675</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>2.521153756862707e-11</v>
+        <v>0.18899042234053226</v>
       </c>
       <c r="B209">
-        <v>0.46124753977158578</v>
+        <v>0.44723648893524459</v>
       </c>
       <c r="C209">
-        <v>0.51504276323460074</v>
+        <v>0.54400956477009221</v>
       </c>
       <c r="D209">
-        <v>5.0836251797133158</v>
+        <v>0.21611152893111701</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>2.5125098306251921e-11</v>
+        <v>0.18996885597188909</v>
       </c>
       <c r="B210">
-        <v>0.46117450918143266</v>
+        <v>0.44612686896048581</v>
       </c>
       <c r="C210">
-        <v>0.51479001877010344</v>
+        <v>0.54544633746974969</v>
       </c>
       <c r="D210">
-        <v>5.196785410009884</v>
+        <v>0.21773451508462352</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>2.6563429530972672e-11</v>
+        <v>0.1915409952019374</v>
       </c>
       <c r="B211">
-        <v>0.46132342334674559</v>
+        <v>0.44717235790724774</v>
       </c>
       <c r="C211">
-        <v>0.51459702558587017</v>
+        <v>0.54454738249320467</v>
       </c>
       <c r="D211">
-        <v>5.2313880034534144</v>
+        <v>0.21897558785261018</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>2.6682817283965362e-11</v>
+        <v>0.19020583569954</v>
       </c>
       <c r="B212">
-        <v>0.46092925310508953</v>
+        <v>0.4461151977070949</v>
       </c>
       <c r="C212">
-        <v>0.51487129561050637</v>
+        <v>0.54547554983454016</v>
       </c>
       <c r="D212">
-        <v>5.2082719426772384</v>
+        <v>0.21690854237999102</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>2.7309193959729233e-11</v>
+        <v>0.18904791377336219</v>
       </c>
       <c r="B213">
-        <v>0.46178303960370548</v>
+        <v>0.44583068606126902</v>
       </c>
       <c r="C213">
-        <v>0.51364167012752759</v>
+        <v>0.5455052367707498</v>
       </c>
       <c r="D213">
-        <v>5.2270529839078677</v>
+        <v>0.22282638350812781</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>2.9415854252944081e-11</v>
+        <v>0.18922307748047545</v>
       </c>
       <c r="B214">
-        <v>0.46119958275435291</v>
+        <v>0.4449300302741947</v>
       </c>
       <c r="C214">
-        <v>0.51495809530820635</v>
+        <v>0.54660193912300958</v>
       </c>
       <c r="D214">
-        <v>5.0045861585121578</v>
+        <v>0.22276586868712239</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>3.0269605449058099e-11</v>
+        <v>0.18898428163251177</v>
       </c>
       <c r="B215">
-        <v>0.46146711686908476</v>
+        <v>0.44487593329916347</v>
       </c>
       <c r="C215">
-        <v>0.51497218009296486</v>
+        <v>0.54661579437825858</v>
       </c>
       <c r="D215">
-        <v>4.882386020192893</v>
+        <v>0.23486029174294334</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>2.9861197995935895e-11</v>
+        <v>0.19033129384491454</v>
       </c>
       <c r="B216">
-        <v>0.4603569693818681</v>
+        <v>0.4450761103786256</v>
       </c>
       <c r="C216">
-        <v>0.51613578519044334</v>
+        <v>0.54666564530137729</v>
       </c>
       <c r="D216">
-        <v>4.9284773023279209</v>
+        <v>0.24557363761770024</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>3.0277867612289656e-11</v>
+        <v>0.19213741874498513</v>
       </c>
       <c r="B217">
-        <v>0.46020104666269018</v>
+        <v>0.44645927209869912</v>
       </c>
       <c r="C217">
-        <v>0.51635046538360396</v>
+        <v>0.54546642472663465</v>
       </c>
       <c r="D217">
-        <v>4.9085631223482995</v>
+        <v>0.25262374923192643</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>3.0319229531741314e-11</v>
+        <v>0.19079416076378763</v>
       </c>
       <c r="B218">
-        <v>0.45936426689054571</v>
+        <v>0.44520764200000207</v>
       </c>
       <c r="C218">
-        <v>0.51730118231814537</v>
+        <v>0.54658004403386529</v>
       </c>
       <c r="D218">
-        <v>4.8095829993399146</v>
+        <v>0.25345999887240434</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>3.2028507932005013e-11</v>
+        <v>0.19061776504225686</v>
       </c>
       <c r="B219">
-        <v>0.4596987331770212</v>
+        <v>0.44514393438061889</v>
       </c>
       <c r="C219">
-        <v>0.51689888483998103</v>
+        <v>0.54659192537438483</v>
       </c>
       <c r="D219">
-        <v>4.803638047995169</v>
+        <v>0.25317921503685525</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>3.4504245716468089e-11</v>
+        <v>0.19007035737985431</v>
       </c>
       <c r="B220">
-        <v>0.46055331993203191</v>
+        <v>0.44511231274787399</v>
       </c>
       <c r="C220">
-        <v>0.51575490662438406</v>
+        <v>0.54641569485745023</v>
       </c>
       <c r="D220">
-        <v>4.817310588286877</v>
+        <v>0.25306783181932252</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>3.4067773867148874e-11</v>
+        <v>0.1900914114645777</v>
       </c>
       <c r="B221">
-        <v>0.45947404356660199</v>
+        <v>0.4451684243455778</v>
       </c>
       <c r="C221">
-        <v>0.51801364384122361</v>
+        <v>0.54635412690167173</v>
       </c>
       <c r="D221">
-        <v>4.4637260334478341</v>
+        <v>0.26441538784074736</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>3.3630660408667216e-11</v>
+        <v>0.19115442791602721</v>
       </c>
       <c r="B222">
-        <v>0.45811136447225453</v>
+        <v>0.44441930922754841</v>
       </c>
       <c r="C222">
-        <v>0.51905141486109152</v>
+        <v>0.54753696486464098</v>
       </c>
       <c r="D222">
-        <v>4.6155583133231977</v>
+        <v>0.26824709716999262</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>3.5303623018102642e-11</v>
+        <v>0.19046137799691781</v>
       </c>
       <c r="B223">
-        <v>0.4576887003599332</v>
+        <v>0.44378129536708855</v>
       </c>
       <c r="C223">
-        <v>0.51943878043777536</v>
+        <v>0.54810575927077432</v>
       </c>
       <c r="D223">
-        <v>4.5872899352050958</v>
+        <v>0.27617907579185874</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>3.6234458540139862e-11</v>
+        <v>0.19043114390423213</v>
       </c>
       <c r="B224">
-        <v>0.45686055643535517</v>
+        <v>0.44377090904474287</v>
       </c>
       <c r="C224">
-        <v>0.52068331324954054</v>
+        <v>0.5481078694324375</v>
       </c>
       <c r="D224">
-        <v>4.4396878945965597</v>
+        <v>0.29370315694897325</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>3.7546790967637552e-11</v>
+        <v>0.18965901530373178</v>
       </c>
       <c r="B225">
-        <v>0.45744373158232909</v>
+        <v>0.44335383719079968</v>
       </c>
       <c r="C225">
-        <v>0.52012909228201476</v>
+        <v>0.54831586618291595</v>
       </c>
       <c r="D225">
-        <v>4.357056988812074</v>
+        <v>0.29999788185507814</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>4.1875352767218103e-11</v>
+        <v>0.18992323306432612</v>
       </c>
       <c r="B226">
-        <v>0.45369749172156126</v>
+        <v>0.44191678722288796</v>
       </c>
       <c r="C226">
-        <v>0.52435493587096416</v>
+        <v>0.55027025089601445</v>
       </c>
       <c r="D226">
-        <v>4.3710708939590246</v>
+        <v>0.2894889425418381</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>4.1326403995926697e-11</v>
+        <v>0.1872653043053133</v>
       </c>
       <c r="B227">
-        <v>0.45134807773282193</v>
+        <v>0.43914366833924973</v>
       </c>
       <c r="C227">
-        <v>0.52653400905445469</v>
+        <v>0.55273567276765145</v>
       </c>
       <c r="D227">
-        <v>4.3090055885471683</v>
+        <v>0.28887792888370128</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>4.2841392132107051e-11</v>
+        <v>0.18719913757947013</v>
       </c>
       <c r="B228">
-        <v>0.45017602035783888</v>
+        <v>0.4395267330351626</v>
       </c>
       <c r="C228">
-        <v>0.52897583241215196</v>
+        <v>0.55217667418455962</v>
       </c>
       <c r="D228">
-        <v>3.9261104649947391</v>
+        <v>0.30186747584467938</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>4.6475766672369479e-11</v>
+        <v>0.18712569913129184</v>
       </c>
       <c r="B229">
-        <v>0.44913446098530047</v>
+        <v>0.43838937886220997</v>
       </c>
       <c r="C229">
-        <v>0.52989955163332791</v>
+        <v>0.55359830976456292</v>
       </c>
       <c r="D229">
-        <v>3.9898702413240068</v>
+        <v>0.30471324579722531</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>4.8356486109724321e-11</v>
+        <v>0.18734186677127207</v>
       </c>
       <c r="B230">
-        <v>0.44915092981531407</v>
+        <v>0.43854633909202217</v>
       </c>
       <c r="C230">
-        <v>0.52988269002796284</v>
+        <v>0.55347887085023761</v>
       </c>
       <c r="D230">
-        <v>3.9897387680540577</v>
+        <v>0.30884685393378714</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>4.9831993909187645e-11</v>
+        <v>0.18730520275787957</v>
       </c>
       <c r="B231">
-        <v>0.44852531762526826</v>
+        <v>0.43853095956688332</v>
       </c>
       <c r="C231">
-        <v>0.53078201395802738</v>
+        <v>0.55348460446228431</v>
       </c>
       <c r="D231">
-        <v>3.8902364037169717</v>
+        <v>0.33064677018654359</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>5.1672431640044973e-11</v>
+        <v>0.18570758885667543</v>
       </c>
       <c r="B232">
-        <v>0.44914076817413662</v>
+        <v>0.43765936023793695</v>
       </c>
       <c r="C232">
-        <v>0.53014708742844896</v>
+        <v>0.55391791100449106</v>
       </c>
       <c r="D232">
-        <v>3.769323243387217</v>
+        <v>0.348723525337717</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>5.4303170573342351e-11</v>
+        <v>0.1849044051530348</v>
       </c>
       <c r="B233">
-        <v>0.44555710207558896</v>
+        <v>0.43521545870735157</v>
       </c>
       <c r="C233">
-        <v>0.53405499705332626</v>
+        <v>0.55667838730519281</v>
       </c>
       <c r="D233">
-        <v>3.7646498750954027</v>
+        <v>0.34850525134315635</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>5.5614976627142542e-11</v>
+        <v>0.18465286753810417</v>
       </c>
       <c r="B234">
-        <v>0.44561682091143401</v>
+        <v>0.43514529794027812</v>
       </c>
       <c r="C234">
-        <v>0.53393338113304023</v>
+        <v>0.55669538989039857</v>
       </c>
       <c r="D234">
-        <v>3.7628235551558746</v>
+        <v>0.36110639070204087</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>5.7454618303549522e-11</v>
+        <v>0.1845541075871818</v>
       </c>
       <c r="B235">
-        <v>0.44428995649461162</v>
+        <v>0.43516845380146391</v>
       </c>
       <c r="C235">
-        <v>0.53603799218923598</v>
+        <v>0.55664266847681521</v>
       </c>
       <c r="D235">
-        <v>3.5405826111338166</v>
+        <v>0.37489182486647432</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>5.7796956865459298e-11</v>
+        <v>0.18580198367873815</v>
       </c>
       <c r="B236">
-        <v>0.44381308550644155</v>
+        <v>0.43515634541931658</v>
       </c>
       <c r="C236">
-        <v>0.53631662235421595</v>
+        <v>0.55696768142802067</v>
       </c>
       <c r="D236">
-        <v>3.6362494414832818</v>
+        <v>0.38488120695326716</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>5.963849373198562e-11</v>
+        <v>0.18538532364891819</v>
       </c>
       <c r="B237">
-        <v>0.44352919689259246</v>
+        <v>0.43479727579805288</v>
       </c>
       <c r="C237">
-        <v>0.53656943995858097</v>
+        <v>0.55728109157132322</v>
       </c>
       <c r="D237">
-        <v>3.6211600766710643</v>
+        <v>0.39743235318006437</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>6.4063312824753066e-11</v>
+        <v>0.18492988189464507</v>
       </c>
       <c r="B238">
-        <v>0.44291540664979662</v>
+        <v>0.43450437356197608</v>
       </c>
       <c r="C238">
-        <v>0.53740126681337652</v>
+        <v>0.55748452627401068</v>
       </c>
       <c r="D238">
-        <v>3.5281552755426677</v>
+        <v>0.40036138792835924</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>6.5783028400888981e-11</v>
+        <v>0.18403159488571608</v>
       </c>
       <c r="B239">
-        <v>0.44389067250167913</v>
+        <v>0.43444592930148673</v>
       </c>
       <c r="C239">
-        <v>0.5362976690252157</v>
+        <v>0.55722263630370827</v>
       </c>
       <c r="D239">
-        <v>3.4700037438318541</v>
+        <v>0.43627645601107762</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>6.9174898425134906e-11</v>
+        <v>0.18416895254856955</v>
       </c>
       <c r="B240">
-        <v>0.44483990322121103</v>
+        <v>0.43508210782189499</v>
       </c>
       <c r="C240">
-        <v>0.53523961128788222</v>
+        <v>0.55649629754541619</v>
       </c>
       <c r="D240">
-        <v>3.473483657671022</v>
+        <v>0.45873365326333426</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>7.5445464504973589e-11</v>
+        <v>0.18446194921526529</v>
       </c>
       <c r="B241">
-        <v>0.44261129855543474</v>
+        <v>0.4333789356139886</v>
       </c>
       <c r="C241">
-        <v>0.53779300960272858</v>
+        <v>0.55851100426933353</v>
       </c>
       <c r="D241">
-        <v>3.4749960918865526</v>
+        <v>0.46875671386872603</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>8.0970703015629414e-11</v>
+        <v>0.18851988251432425</v>
       </c>
       <c r="B242">
-        <v>0.44557384368349695</v>
+        <v>0.43574221607363456</v>
       </c>
       <c r="C242">
-        <v>0.53382342509075786</v>
+        <v>0.55659886656654067</v>
       </c>
       <c r="D242">
-        <v>3.7550617508339266</v>
+        <v>0.47547565205439535</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>8.7685769566096268e-11</v>
+        <v>0.18517013558942641</v>
       </c>
       <c r="B243">
-        <v>0.44167393876231653</v>
+        <v>0.43209448191738919</v>
       </c>
       <c r="C243">
-        <v>0.53801216673310515</v>
+        <v>0.56002809857766378</v>
       </c>
       <c r="D243">
-        <v>3.6063877969622671</v>
+        <v>0.48773178154293684</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>9.378744788061193e-11</v>
+        <v>0.18517946619347994</v>
       </c>
       <c r="B244">
-        <v>0.44175406418127777</v>
+        <v>0.43211054753855044</v>
       </c>
       <c r="C244">
-        <v>0.53791347564858327</v>
+        <v>0.5600119463350498</v>
       </c>
       <c r="D244">
-        <v>3.6032403536721747</v>
+        <v>0.50046265773260146</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>9.6492912177192577e-11</v>
+        <v>0.18634722657821592</v>
       </c>
       <c r="B245">
-        <v>0.44189420567792992</v>
+        <v>0.43266291722009076</v>
       </c>
       <c r="C245">
-        <v>0.5376834511665648</v>
+        <v>0.55981784661788436</v>
       </c>
       <c r="D245">
-        <v>3.6876743260044709</v>
+        <v>0.50840947995466101</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1.0362562858404437e-10</v>
+        <v>0.18618894448583698</v>
       </c>
       <c r="B246">
-        <v>0.44163630239632568</v>
+        <v>0.4324813343903578</v>
       </c>
       <c r="C246">
-        <v>0.53791241245203003</v>
+        <v>0.55997884744866699</v>
       </c>
       <c r="D246">
-        <v>3.6826135361188101</v>
+        <v>0.54171665217385001</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1.0860395778508588e-10</v>
+        <v>0.18663828179909864</v>
       </c>
       <c r="B247">
-        <v>0.44187871158295089</v>
+        <v>0.43300177526750738</v>
       </c>
       <c r="C247">
-        <v>0.53782892426497364</v>
+        <v>0.55957390998166245</v>
       </c>
       <c r="D247">
-        <v>3.6796795136344946</v>
+        <v>0.55112454817080925</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.1329523123811307e-10</v>
+        <v>0.18641722585471035</v>
       </c>
       <c r="B248">
-        <v>0.44169903041339587</v>
+        <v>0.43270537292045641</v>
       </c>
       <c r="C248">
-        <v>0.53794589707483209</v>
+        <v>0.55981128463597929</v>
       </c>
       <c r="D248">
-        <v>3.6807484968020798</v>
+        <v>0.57497046240386374</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1.2226664070712153e-10</v>
+        <v>0.18716298347791821</v>
       </c>
       <c r="B249">
-        <v>0.4438226882935824</v>
+        <v>0.43382613566962236</v>
       </c>
       <c r="C249">
-        <v>0.53501976616605795</v>
+        <v>0.55926644994039953</v>
       </c>
       <c r="D249">
-        <v>3.9100426311017165</v>
+        <v>0.58136556639986714</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1.3764174967107087e-10</v>
+        <v>0.18593712770589632</v>
       </c>
       <c r="B250">
-        <v>0.44094042245813242</v>
+        <v>0.43183950038119479</v>
       </c>
       <c r="C250">
-        <v>0.53820318476015361</v>
+        <v>0.5610695577490753</v>
       </c>
       <c r="D250">
-        <v>3.7726060593780915</v>
+        <v>0.60103491555545607</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1.4547471752758987e-10</v>
+        <v>0.18602269305388927</v>
       </c>
       <c r="B251">
-        <v>0.44079134196991171</v>
+        <v>0.43241237609370781</v>
       </c>
       <c r="C251">
-        <v>0.53843045948365542</v>
+        <v>0.56072062379942245</v>
       </c>
       <c r="D251">
-        <v>3.7927675484174732</v>
+        <v>0.62592071519310122</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1.5157885402033004e-10</v>
+        <v>0.18562487458027546</v>
       </c>
       <c r="B252">
-        <v>0.44032018870983086</v>
+        <v>0.43123844411828749</v>
       </c>
       <c r="C252">
-        <v>0.5386432488049071</v>
+        <v>0.56165676422688404</v>
       </c>
       <c r="D252">
-        <v>3.7902894837527579</v>
+        <v>0.64842159761610685</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1.6179176352293827e-10</v>
+        <v>0.18615485974887053</v>
       </c>
       <c r="B253">
-        <v>0.44096571592251055</v>
+        <v>0.43133050677458235</v>
       </c>
       <c r="C253">
-        <v>0.53766597182240805</v>
+        <v>0.56130616089863294</v>
       </c>
       <c r="D253">
-        <v>3.8100355035362772</v>
+        <v>0.6749052181651144</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1.7160812311105471e-10</v>
+        <v>0.18686563640264461</v>
       </c>
       <c r="B254">
-        <v>0.4416912041027839</v>
+        <v>0.43195128135259964</v>
       </c>
       <c r="C254">
-        <v>0.53678991346145766</v>
+        <v>0.5604939636527031</v>
       </c>
       <c r="D254">
-        <v>3.7988438821184087</v>
+        <v>0.70107902621277018</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1.8658296700980158e-10</v>
+        <v>0.18756344137398884</v>
       </c>
       <c r="B255">
-        <v>0.44208257025243919</v>
+        <v>0.43271165328323541</v>
       </c>
       <c r="C255">
-        <v>0.53675837571326401</v>
+        <v>0.5595490223208055</v>
       </c>
       <c r="D255">
-        <v>3.6632676103704336</v>
+        <v>0.75790770050736311</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>2.0576951980660304e-10</v>
+        <v>0.18847439560732901</v>
       </c>
       <c r="B256">
-        <v>0.44371285290695867</v>
+        <v>0.43392898263681601</v>
       </c>
       <c r="C256">
-        <v>0.5353318490351382</v>
+        <v>0.55807372873576599</v>
       </c>
       <c r="D256">
-        <v>3.5534687294964074</v>
+        <v>0.7539946152896021</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>2.1914187736609835e-10</v>
+        <v>0.18603117040521189</v>
       </c>
       <c r="B257">
-        <v>0.4415320516075642</v>
+        <v>0.42981758617718174</v>
       </c>
       <c r="C257">
-        <v>0.53693694153129379</v>
+        <v>0.56282987734034651</v>
       </c>
       <c r="D257">
-        <v>3.7457847488528349</v>
+        <v>0.80426319428206028</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>2.3478428564802984e-10</v>
+        <v>0.18543787928500843</v>
       </c>
       <c r="B258">
-        <v>0.44084521791564324</v>
+        <v>0.42907608315177398</v>
       </c>
       <c r="C258">
-        <v>0.53762677191526387</v>
+        <v>0.56346379242183786</v>
       </c>
       <c r="D258">
-        <v>3.7048823217939595</v>
+        <v>0.81465221973202107</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>2.4871975889382828e-10</v>
+        <v>0.18548854199003095</v>
       </c>
       <c r="B259">
-        <v>0.44082924819744806</v>
+        <v>0.42913527096846943</v>
       </c>
       <c r="C259">
-        <v>0.53765189140602065</v>
+        <v>0.56343584882639397</v>
       </c>
       <c r="D259">
-        <v>3.6925177257078823</v>
+        <v>0.84755199245772306</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>2.6622225817558086e-10</v>
+        <v>0.18532031678200137</v>
       </c>
       <c r="B260">
-        <v>0.44097001371467187</v>
+        <v>0.42892529093529569</v>
       </c>
       <c r="C260">
-        <v>0.53740427989602735</v>
+        <v>0.56353636089997861</v>
       </c>
       <c r="D260">
-        <v>3.6848153236834231</v>
+        <v>0.87332160273635606</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>2.8258439037294977e-10</v>
+        <v>0.18533908021688575</v>
       </c>
       <c r="B261">
-        <v>0.44138864369714692</v>
+        <v>0.42900332886389952</v>
       </c>
       <c r="C261">
-        <v>0.5368217224168087</v>
+        <v>0.5633270380726122</v>
       </c>
       <c r="D261">
-        <v>3.6915928772377558</v>
+        <v>0.88058176049954429</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>2.9773137538362304e-10</v>
+        <v>0.18551985527012529</v>
       </c>
       <c r="B262">
-        <v>0.44206440632832672</v>
+        <v>0.42942478060730493</v>
       </c>
       <c r="C262">
-        <v>0.5359137672157348</v>
+        <v>0.56272575354713994</v>
       </c>
       <c r="D262">
-        <v>3.7040413005823543</v>
+        <v>0.93609853116509623</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>3.2606611594233729e-10</v>
+        <v>0.18540313846741996</v>
       </c>
       <c r="B263">
-        <v>0.44193632253932891</v>
+        <v>0.42912086664333743</v>
       </c>
       <c r="C263">
-        <v>0.53626379043360395</v>
+        <v>0.56310629485982899</v>
       </c>
       <c r="D263">
-        <v>3.6402977399684233</v>
+        <v>0.96180747256851351</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>3.535026968683442e-10</v>
+        <v>0.18559804111390449</v>
       </c>
       <c r="B264">
-        <v>0.44183587537176644</v>
+        <v>0.42904292479224126</v>
       </c>
       <c r="C264">
-        <v>0.53634955297008025</v>
+        <v>0.56332179519648895</v>
       </c>
       <c r="D264">
-        <v>3.6559392324059972</v>
+        <v>1.0015192497490242</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>3.7685570849651e-10</v>
+        <v>0.18554097230192818</v>
       </c>
       <c r="B265">
-        <v>0.44184218520018514</v>
+        <v>0.42900416250017354</v>
       </c>
       <c r="C265">
-        <v>0.53631436649897957</v>
+        <v>0.5633442389622707</v>
       </c>
       <c r="D265">
-        <v>3.6530443056063526</v>
+        <v>1.0259293511647429</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>3.9838518153226569e-10</v>
+        <v>0.18587131630092549</v>
       </c>
       <c r="B266">
-        <v>0.44192158526631459</v>
+        <v>0.42921087723348061</v>
       </c>
       <c r="C266">
-        <v>0.53622671254072984</v>
+        <v>0.56325267317176164</v>
       </c>
       <c r="D266">
-        <v>3.6654309343388429</v>
+        <v>1.0795635468137323</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>4.2297934132500497e-10</v>
+        <v>0.18529501546979887</v>
       </c>
       <c r="B267">
-        <v>0.44166142134323616</v>
+        <v>0.42866220591294685</v>
       </c>
       <c r="C267">
-        <v>0.5363544539782269</v>
+        <v>0.56365871976336523</v>
       </c>
       <c r="D267">
-        <v>3.6548176779158825</v>
+        <v>1.1036542808761496</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>4.8924626763828414e-10</v>
+        <v>0.18539544536519839</v>
       </c>
       <c r="B268">
-        <v>0.44129433274830704</v>
+        <v>0.428606345717429</v>
       </c>
       <c r="C268">
-        <v>0.53689432272221338</v>
+        <v>0.56382220211959988</v>
       </c>
       <c r="D268">
-        <v>3.6473684174382881</v>
+        <v>1.132922291184038</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>5.1630589676364033e-10</v>
+        <v>0.18601573818606196</v>
       </c>
       <c r="B269">
-        <v>0.44169626170931947</v>
+        <v>0.42909186580777114</v>
       </c>
       <c r="C269">
-        <v>0.5366535265239778</v>
+        <v>0.56354745195842859</v>
       </c>
       <c r="D269">
-        <v>3.6598943309343341</v>
+        <v>1.1743071896020207</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>5.2552522743703722e-10</v>
+        <v>0.18734157215272895</v>
       </c>
       <c r="B270">
-        <v>0.4426078160243444</v>
+        <v>0.43068138400043521</v>
       </c>
       <c r="C270">
-        <v>0.53554745675389126</v>
+        <v>0.5622140070234235</v>
       </c>
       <c r="D270">
-        <v>3.7162443787895136</v>
+        <v>1.1436861188979546</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>5.4436210550958486e-10</v>
+        <v>0.18718818446394922</v>
       </c>
       <c r="B271">
-        <v>0.44193296743398275</v>
+        <v>0.43045712402615049</v>
       </c>
       <c r="C271">
-        <v>0.53623840349746565</v>
+        <v>0.56241469829425783</v>
       </c>
       <c r="D271">
-        <v>3.6918353974075586</v>
+        <v>1.1819846022504874</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>5.7869020199899688e-10</v>
+        <v>0.18679129721027496</v>
       </c>
       <c r="B272">
-        <v>0.4416565096782829</v>
+        <v>0.42969794548617762</v>
       </c>
       <c r="C272">
-        <v>0.53635364785295259</v>
+        <v>0.56300891913316675</v>
       </c>
       <c r="D272">
-        <v>3.6831195562237364</v>
+        <v>1.1677484013140098</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>6.249694377916465e-10</v>
+        <v>0.18695255701568134</v>
       </c>
       <c r="B273">
-        <v>0.44130480815460355</v>
+        <v>0.42971366311493364</v>
       </c>
       <c r="C273">
-        <v>0.53697281361150584</v>
+        <v>0.56282447681493919</v>
       </c>
       <c r="D273">
-        <v>3.5767270306501735</v>
+        <v>1.2356154546650993</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>6.8212451261099193e-10</v>
+        <v>0.18751139032190509</v>
       </c>
       <c r="B274">
-        <v>0.44265335536356504</v>
+        <v>0.43031351284410008</v>
       </c>
       <c r="C274">
-        <v>0.53549623507487998</v>
+        <v>0.56198452186050618</v>
       </c>
       <c r="D274">
-        <v>3.5475477368963597</v>
+        <v>1.2323469176472581</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>7.0813154138582671e-10</v>
+        <v>0.18749047377644407</v>
       </c>
       <c r="B275">
-        <v>0.44260601593893706</v>
+        <v>0.43028363864953795</v>
       </c>
       <c r="C275">
-        <v>0.53555250236675966</v>
+        <v>0.56202294164395239</v>
       </c>
       <c r="D275">
-        <v>3.5473174250498802</v>
+        <v>1.3064097330773385</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>7.5845145596445038e-10</v>
+        <v>0.18803387723453061</v>
       </c>
       <c r="B276">
-        <v>0.4441955927495212</v>
+        <v>0.43158635943412221</v>
       </c>
       <c r="C276">
-        <v>0.53368974853320972</v>
+        <v>0.56021396759858078</v>
       </c>
       <c r="D276">
-        <v>3.4965320400366871</v>
+        <v>1.3565608148125219</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>8.1215927495284646e-10</v>
+        <v>0.18742709201751462</v>
       </c>
       <c r="B277">
-        <v>0.44471241788461929</v>
+        <v>0.43042736619852262</v>
       </c>
       <c r="C277">
-        <v>0.53330001573711894</v>
+        <v>0.56148230255189369</v>
       </c>
       <c r="D277">
-        <v>3.4611429303207442</v>
+        <v>1.4481021919761889</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>8.546242995489436e-10</v>
+        <v>0.1875500167335456</v>
       </c>
       <c r="B278">
-        <v>0.44200421464414436</v>
+        <v>0.42801894494745552</v>
       </c>
       <c r="C278">
-        <v>0.53592952206514688</v>
+        <v>0.56439710961185885</v>
       </c>
       <c r="D278">
-        <v>3.5596993972464119</v>
+        <v>1.4653604808330583</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>9.044072956793493e-10</v>
+        <v>0.18804007338349019</v>
       </c>
       <c r="B279">
-        <v>0.4420723650923053</v>
+        <v>0.42849728652775515</v>
       </c>
       <c r="C279">
-        <v>0.53586221538188628</v>
+        <v>0.56396306004867347</v>
       </c>
       <c r="D279">
-        <v>3.5614941169141487</v>
+        <v>1.4904599804999872</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>9.3710243627802175e-10</v>
+        <v>0.18959143370129256</v>
       </c>
       <c r="B280">
-        <v>0.44272363671831377</v>
+        <v>0.43004436098344329</v>
       </c>
       <c r="C280">
-        <v>0.53505430646131302</v>
+        <v>0.5626294002975486</v>
       </c>
       <c r="D280">
-        <v>3.6058127773161317</v>
+        <v>1.5609873212749847</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>1.0032413448695648e-09</v>
+        <v>0.18687511091353995</v>
       </c>
       <c r="B281">
-        <v>0.44011237064923797</v>
+        <v>0.42667406940118369</v>
       </c>
       <c r="C281">
-        <v>0.53771901917864318</v>
+        <v>0.56565705001803879</v>
       </c>
       <c r="D281">
-        <v>3.5035239936414824</v>
+        <v>1.5629177133217855</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>1.0674980736274639e-09</v>
+        <v>0.18709065211326908</v>
       </c>
       <c r="B282">
-        <v>0.44131061013553136</v>
+        <v>0.42714650410640864</v>
       </c>
       <c r="C282">
-        <v>0.53634415251848222</v>
+        <v>0.56503198134132138</v>
       </c>
       <c r="D282">
-        <v>3.5048258801976533</v>
+        <v>1.669764868327094</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>1.1568919461285504e-09</v>
+        <v>0.18713406311123781</v>
       </c>
       <c r="B283">
-        <v>0.44172120216409949</v>
+        <v>0.42724810367574478</v>
       </c>
       <c r="C283">
-        <v>0.53593802913654798</v>
+        <v>0.56491197988230912</v>
       </c>
       <c r="D283">
-        <v>3.4889888685905799</v>
+        <v>1.7441483870499528</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>1.2508229808997525e-09</v>
+        <v>0.18714329675057423</v>
       </c>
       <c r="B284">
-        <v>0.44158919435213745</v>
+        <v>0.42729112583887285</v>
       </c>
       <c r="C284">
-        <v>0.53640695791428938</v>
+        <v>0.56486018701312823</v>
       </c>
       <c r="D284">
-        <v>3.3988138929343696</v>
+        <v>1.8203205352679264</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1.2189425508347709e-09</v>
+        <v>0.18709286417364018</v>
       </c>
       <c r="B285">
-        <v>0.4419807260092885</v>
+        <v>0.42735738257274847</v>
       </c>
       <c r="C285">
-        <v>0.53603170495630981</v>
+        <v>0.56475975780585586</v>
       </c>
       <c r="D285">
-        <v>3.3769288528280512</v>
+        <v>1.9078715461358171</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>1.2908638949522422e-09</v>
+        <v>0.18678183446605168</v>
       </c>
       <c r="B286">
-        <v>0.44241566621783118</v>
+        <v>0.42754657517611666</v>
       </c>
       <c r="C286">
-        <v>0.53574615385591717</v>
+        <v>0.56443275689186412</v>
       </c>
       <c r="D286">
-        <v>3.3084875555458546</v>
+        <v>1.9724062265397846</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1.4181898848874162e-09</v>
+        <v>0.18684327788645727</v>
       </c>
       <c r="B287">
-        <v>0.44253674925822389</v>
+        <v>0.42739940220774453</v>
       </c>
       <c r="C287">
-        <v>0.535891704502657</v>
+        <v>0.56462350200429789</v>
       </c>
       <c r="D287">
-        <v>3.2416659481554544</v>
+        <v>2.0737012631300229</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.4875174942798292e-09</v>
+        <v>0.18824905541818551</v>
       </c>
       <c r="B288">
-        <v>0.44140149494537156</v>
+        <v>0.42719106643512128</v>
       </c>
       <c r="C288">
-        <v>0.53692504996709312</v>
+        <v>0.56516559032355007</v>
       </c>
       <c r="D288">
-        <v>3.3143507345406795</v>
+        <v>2.1666636191217084</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>1.5436608001046645e-09</v>
+        <v>0.1895527298499381</v>
       </c>
       <c r="B289">
-        <v>0.44194407081979858</v>
+        <v>0.4283888894163323</v>
       </c>
       <c r="C289">
-        <v>0.53644507095789484</v>
+        <v>0.56407784780255776</v>
       </c>
       <c r="D289">
-        <v>3.3259582121529738</v>
+        <v>2.1599198315280264</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>1.6202435845811651e-09</v>
+        <v>0.18834980487570624</v>
       </c>
       <c r="B290">
-        <v>0.4404962111408452</v>
+        <v>0.42714869262975802</v>
       </c>
       <c r="C290">
-        <v>0.53793076312632315</v>
+        <v>0.56519029469695836</v>
       </c>
       <c r="D290">
-        <v>3.2794061398293395</v>
+        <v>2.2112325122328875</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>1.8115943698529734e-09</v>
+        <v>0.18988065033938015</v>
       </c>
       <c r="B291">
-        <v>0.44207683292838162</v>
+        <v>0.42798086413996794</v>
       </c>
       <c r="C291">
-        <v>0.53554432880800751</v>
+        <v>0.56488016566364097</v>
       </c>
       <c r="D291">
-        <v>3.4830380182251179</v>
+        <v>2.2973939951975617</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>2.0106242515806081e-09</v>
+        <v>0.18602493923454047</v>
       </c>
       <c r="B292">
-        <v>0.43745848032277584</v>
+        <v>0.42287983791362665</v>
       </c>
       <c r="C292">
-        <v>0.54035002190451165</v>
+        <v>0.56961621259801665</v>
       </c>
       <c r="D292">
-        <v>3.3512650034816112</v>
+        <v>2.3918672142315547</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>2.1588318715206685e-09</v>
+        <v>0.1857484069906192</v>
       </c>
       <c r="B293">
-        <v>0.43703660177266918</v>
+        <v>0.42239236546062076</v>
       </c>
       <c r="C293">
-        <v>0.54070535660754759</v>
+        <v>0.57033404507759433</v>
       </c>
       <c r="D293">
-        <v>3.3837574663125745</v>
+        <v>2.4562368194685855</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>2.2889182404504371e-09</v>
+        <v>0.18599312605971635</v>
       </c>
       <c r="B294">
-        <v>0.43703751525361489</v>
+        <v>0.42270815394661448</v>
       </c>
       <c r="C294">
-        <v>0.54073451678978568</v>
+        <v>0.57010748143991963</v>
       </c>
       <c r="D294">
-        <v>3.3892657559797925</v>
+        <v>2.5350137231580381</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>2.4300339229061306e-09</v>
+        <v>0.18676999266486541</v>
       </c>
       <c r="B295">
-        <v>0.43728110163267592</v>
+        <v>0.42387688804310264</v>
       </c>
       <c r="C295">
-        <v>0.54082860325031834</v>
+        <v>0.5692178806143402</v>
       </c>
       <c r="D295">
-        <v>3.3869821559001125</v>
+        <v>2.6223082105165436</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>2.619592493502522e-09</v>
+        <v>0.18582352938551261</v>
       </c>
       <c r="B296">
-        <v>0.43616133144395719</v>
+        <v>0.42226805500406361</v>
       </c>
       <c r="C296">
-        <v>0.54169253517846705</v>
+        <v>0.57063380043833212</v>
       </c>
       <c r="D296">
-        <v>3.3932871531866504</v>
+        <v>2.6611925080367516</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>2.7811179863946145e-09</v>
+        <v>0.18589838541958315</v>
       </c>
       <c r="B297">
-        <v>0.43574408055705</v>
+        <v>0.42215552817761209</v>
       </c>
       <c r="C297">
-        <v>0.54212231232539054</v>
+        <v>0.57061899615230638</v>
       </c>
       <c r="D297">
-        <v>3.3575966255084713</v>
+        <v>2.7845005312581441</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>3.057961363081866e-09</v>
+        <v>0.18649767852927945</v>
       </c>
       <c r="B298">
-        <v>0.43526631528387266</v>
+        <v>0.42257547172379478</v>
       </c>
       <c r="C298">
-        <v>0.54306156045578458</v>
+        <v>0.56989628121864866</v>
       </c>
       <c r="D298">
-        <v>3.2094565777970909</v>
+        <v>2.9007942655474475</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>3.2955472278508207e-09</v>
+        <v>0.18716422253683107</v>
       </c>
       <c r="B299">
-        <v>0.43678783268026961</v>
+        <v>0.4234471422978579</v>
       </c>
       <c r="C299">
-        <v>0.54146048680246506</v>
+        <v>0.56887200497512791</v>
       </c>
       <c r="D299">
-        <v>3.1911710766282426</v>
+        <v>3.0067341479144734</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>3.6854635315408559e-09</v>
+        <v>0.1861414851131197</v>
       </c>
       <c r="B300">
-        <v>0.43427946760756597</v>
+        <v>0.42174872702767052</v>
       </c>
       <c r="C300">
-        <v>0.54429879013193239</v>
+        <v>0.57086709725410301</v>
       </c>
       <c r="D300">
-        <v>3.1831230996952815</v>
+        <v>3.0023978297028613</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>4.0894886539310812e-09</v>
+        <v>0.18540302640152612</v>
       </c>
       <c r="B301">
-        <v>0.43234049940128044</v>
+        <v>0.421060248875819</v>
       </c>
       <c r="C301">
-        <v>0.54672685660307585</v>
+        <v>0.57127527776328324</v>
       </c>
       <c r="D301">
-        <v>3.0326780932834336</v>
+        <v>3.2917579171355968</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>4.9072507924466551e-09</v>
+        <v>0.18475210832610228</v>
       </c>
       <c r="B302">
-        <v>0.43045607705162325</v>
+        <v>0.41949480445023418</v>
       </c>
       <c r="C302">
-        <v>0.54871581761884258</v>
+        <v>0.57317382937598893</v>
       </c>
       <c r="D302">
-        <v>3.0629415394523196</v>
+        <v>3.3907768603502562</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>5.1539209207591486e-09</v>
+        <v>0.18365773399012425</v>
       </c>
       <c r="B303">
-        <v>0.42992293418802768</v>
+        <v>0.41841382265061816</v>
       </c>
       <c r="C303">
-        <v>0.54900591836382706</v>
+        <v>0.57401858531828442</v>
       </c>
       <c r="D303">
-        <v>3.0547305798602888</v>
+        <v>3.3031530006213954</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>5.6263396728284653e-09</v>
+        <v>0.1836866538505332</v>
       </c>
       <c r="B304">
-        <v>0.4301728868612395</v>
+        <v>0.41854047171554115</v>
       </c>
       <c r="C304">
-        <v>0.54875456085014263</v>
+        <v>0.57385577990820391</v>
       </c>
       <c r="D304">
-        <v>3.040676509558236</v>
+        <v>3.4859484473299065</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>6.1468247479012856e-09</v>
+        <v>0.18361130404034179</v>
       </c>
       <c r="B305">
-        <v>0.43055625887287841</v>
+        <v>0.41887066101587889</v>
       </c>
       <c r="C305">
-        <v>0.54840524615184283</v>
+        <v>0.57338834255706406</v>
       </c>
       <c r="D305">
-        <v>3.002224346694772</v>
+        <v>3.6163732418885659</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>6.5238923260963322e-09</v>
+        <v>0.18361832811672638</v>
       </c>
       <c r="B306">
-        <v>0.43043483148518658</v>
+        <v>0.41831785590382309</v>
       </c>
       <c r="C306">
-        <v>0.54848456284052838</v>
+        <v>0.57407214877024471</v>
       </c>
       <c r="D306">
-        <v>3.0169875708085669</v>
+        <v>3.6354159810619615</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>7.002981528776696e-09</v>
+        <v>0.1836884096568332</v>
       </c>
       <c r="B307">
-        <v>0.43046158670669615</v>
+        <v>0.41835083945052243</v>
       </c>
       <c r="C307">
-        <v>0.54845262343462131</v>
+        <v>0.574053173661488</v>
       </c>
       <c r="D307">
-        <v>3.015282108328766</v>
+        <v>3.7750198322134882</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>7.3291334973172078e-09</v>
+        <v>0.18481872031249336</v>
       </c>
       <c r="B308">
-        <v>0.43105587163173198</v>
+        <v>0.41875213890451546</v>
       </c>
       <c r="C308">
-        <v>0.54757288617392119</v>
+        <v>0.57389501558005596</v>
       </c>
       <c r="D308">
-        <v>3.0812223010316591</v>
+        <v>3.7470474419206088</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>7.8908498800950048e-09</v>
+        <v>0.18511530726356171</v>
       </c>
       <c r="B309">
-        <v>0.43092271710262836</v>
+        <v>0.41904652440871426</v>
       </c>
       <c r="C309">
-        <v>0.5477178874940194</v>
+        <v>0.5736338701102266</v>
       </c>
       <c r="D309">
-        <v>3.0746314299369497</v>
+        <v>3.8743790542080565</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>8.3289547820848728e-09</v>
+        <v>0.18421343354805225</v>
       </c>
       <c r="B310">
-        <v>0.43058172466404504</v>
+        <v>0.41813277163855339</v>
       </c>
       <c r="C310">
-        <v>0.54792669943758721</v>
+        <v>0.57439543159391537</v>
       </c>
       <c r="D310">
-        <v>3.0619098777368245</v>
+        <v>4.0543360691405184</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>9.0736976904405833e-09</v>
+        <v>0.18389617693367766</v>
       </c>
       <c r="B311">
-        <v>0.43067930176342473</v>
+        <v>0.41827903485328666</v>
       </c>
       <c r="C311">
-        <v>0.54804455758129123</v>
+        <v>0.57397843849947039</v>
       </c>
       <c r="D311">
-        <v>2.9685153824976256</v>
+        <v>4.2120195833156373</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>9.3115055915595074e-09</v>
+        <v>0.18310862751351037</v>
       </c>
       <c r="B312">
-        <v>0.42938712905441828</v>
+        <v>0.41590079455258933</v>
       </c>
       <c r="C312">
-        <v>0.54904203764188964</v>
+        <v>0.57672460856433627</v>
       </c>
       <c r="D312">
-        <v>3.0541694040039991</v>
+        <v>4.2275663932048957</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>9.8130833141953739e-09</v>
+        <v>0.18276673956153755</v>
       </c>
       <c r="B313">
-        <v>0.42915842257720582</v>
+        <v>0.41562296814379474</v>
       </c>
       <c r="C313">
-        <v>0.54926230862931746</v>
+        <v>0.57694668757352041</v>
       </c>
       <c r="D313">
-        <v>3.0370496563848675</v>
+        <v>4.3789396642656939</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>1.0630668844167021e-08</v>
+        <v>0.18220841242289157</v>
       </c>
       <c r="B314">
-        <v>0.42925650529503584</v>
+        <v>0.41537006624891243</v>
       </c>
       <c r="C314">
-        <v>0.54910718146334458</v>
+        <v>0.57703392889909888</v>
       </c>
       <c r="D314">
-        <v>3.0094983677468168</v>
+        <v>4.4884486553509388</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>1.1623797966674894e-08</v>
+        <v>0.18222390164321342</v>
       </c>
       <c r="B315">
-        <v>0.42914004340634199</v>
+        <v>0.41535332392304097</v>
       </c>
       <c r="C315">
-        <v>0.54954196256888754</v>
+        <v>0.57706160792938099</v>
       </c>
       <c r="D315">
-        <v>2.9378885334577087</v>
+        <v>4.5930506655458636</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>1.2267967095392919e-08</v>
+        <v>0.18185256045859038</v>
       </c>
       <c r="B316">
-        <v>0.42989672669262113</v>
+        <v>0.4155641329673283</v>
       </c>
       <c r="C316">
-        <v>0.54887061809861581</v>
+        <v>0.57669458321825617</v>
       </c>
       <c r="D316">
-        <v>2.8868108692708656</v>
+        <v>4.7452108883614672</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1.3032184531862026e-08</v>
+        <v>0.18167630718572353</v>
       </c>
       <c r="B317">
-        <v>0.43255416693182397</v>
+        <v>0.41690277832168099</v>
       </c>
       <c r="C317">
-        <v>0.54595168207452116</v>
+        <v>0.57508698868713659</v>
       </c>
       <c r="D317">
-        <v>2.8788161596528505</v>
+        <v>4.811606515802425</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.3536373597473634e-08</v>
+        <v>0.182066253203711</v>
       </c>
       <c r="B318">
-        <v>0.43527100539766372</v>
+        <v>0.41945247001395319</v>
       </c>
       <c r="C318">
-        <v>0.54357837394691744</v>
+        <v>0.57230297716445167</v>
       </c>
       <c r="D318">
-        <v>2.7779057982909605</v>
+        <v>4.9682291158758174</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>1.4552523435164837e-08</v>
+        <v>0.18185260107232257</v>
       </c>
       <c r="B319">
-        <v>0.43300671432476423</v>
+        <v>0.41558784339180632</v>
       </c>
       <c r="C319">
-        <v>0.54558684363703558</v>
+        <v>0.57643815671872167</v>
       </c>
       <c r="D319">
-        <v>2.8466105081713735</v>
+        <v>4.8542250126469417</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>1.5890379751736186e-08</v>
+        <v>0.17964408714445984</v>
       </c>
       <c r="B320">
-        <v>0.43326958180252051</v>
+        <v>0.41535731235202822</v>
       </c>
       <c r="C320">
-        <v>0.54533188012898459</v>
+        <v>0.5765053291768486</v>
       </c>
       <c r="D320">
-        <v>2.8027018802485371</v>
+        <v>5.1941094248835062</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>1.9517560162500219e-08</v>
+        <v>0.1817101526140395</v>
       </c>
       <c r="B321">
-        <v>0.42982261834929492</v>
+        <v>0.41304646640358572</v>
       </c>
       <c r="C321">
-        <v>0.54906459256562312</v>
+        <v>0.57908623149796568</v>
       </c>
       <c r="D321">
-        <v>2.8120711987639662</v>
+        <v>5.1727140789215591</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>2.1201503126669506e-08</v>
+        <v>0.17964215905253125</v>
       </c>
       <c r="B322">
-        <v>0.42676466743259167</v>
+        <v>0.41203090889358912</v>
       </c>
       <c r="C322">
-        <v>0.55289665482821659</v>
+        <v>0.58001187146388367</v>
       </c>
       <c r="D322">
-        <v>2.652907842129506</v>
+        <v>5.570978027908378</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>2.2619004487791372e-08</v>
+        <v>0.17747112597515166</v>
       </c>
       <c r="B323">
-        <v>0.42732500372074667</v>
+        <v>0.41210513337809118</v>
       </c>
       <c r="C323">
-        <v>0.55252088811884337</v>
+        <v>0.57977027680908533</v>
       </c>
       <c r="D323">
-        <v>2.5805649075978421</v>
+        <v>5.935963568114393</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>2.4966887942103057e-08</v>
+        <v>0.17624403889855858</v>
       </c>
       <c r="B324">
-        <v>0.43014626546455492</v>
+        <v>0.41382682193431947</v>
       </c>
       <c r="C324">
-        <v>0.54951733722356133</v>
+        <v>0.57788736004872365</v>
       </c>
       <c r="D324">
-        <v>2.5741793868967648</v>
+        <v>6.2187807921456626</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>2.69530626393734e-08</v>
+        <v>0.17706973414924043</v>
       </c>
       <c r="B325">
-        <v>0.42942458580774828</v>
+        <v>0.41224797029394705</v>
       </c>
       <c r="C325">
-        <v>0.55015254843554062</v>
+        <v>0.5795607962119248</v>
       </c>
       <c r="D325">
-        <v>2.5978151986497333</v>
+        <v>6.435829208502339</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.079288586140576905</v>
+        <v>0.17805266050248972</v>
       </c>
       <c r="B326">
-        <v>0.43149007550662799</v>
+        <v>0.41216625900897919</v>
       </c>
       <c r="C326">
-        <v>0.54638349160389621</v>
+        <v>0.57967909147457652</v>
       </c>
       <c r="D326">
-        <v>2.4979454605729319</v>
+        <v>6.4685115269204552</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.077835857755021096</v>
+        <v>0.17534653008023787</v>
       </c>
       <c r="B327">
-        <v>0.43145747815902252</v>
+        <v>0.41185461300727161</v>
       </c>
       <c r="C327">
-        <v>0.54645190432809998</v>
+        <v>0.57991180739934223</v>
       </c>
       <c r="D327">
-        <v>2.469927354357595</v>
+        <v>6.668554567505824</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.076288271547042277</v>
+        <v>0.17312779377374313</v>
       </c>
       <c r="B328">
-        <v>0.43288640510960164</v>
+        <v>0.41269885440695392</v>
       </c>
       <c r="C328">
-        <v>0.54491550555916668</v>
+        <v>0.57898054193884152</v>
       </c>
       <c r="D328">
-        <v>2.4669710039742809</v>
+        <v>7.2986186786053908</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.07691133063771026</v>
+        <v>0.17086212730671338</v>
       </c>
       <c r="B329">
-        <v>0.43415048761884267</v>
+        <v>0.41436960088508523</v>
       </c>
       <c r="C329">
-        <v>0.54403889090157298</v>
+        <v>0.5772269991224358</v>
       </c>
       <c r="D329">
-        <v>2.3757362192509923</v>
+        <v>7.616249199538613</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.076788427042198459</v>
+        <v>0.17083749418824001</v>
       </c>
       <c r="B330">
-        <v>0.43454895500633767</v>
+        <v>0.41447517293565717</v>
       </c>
       <c r="C330">
-        <v>0.54364138230817749</v>
+        <v>0.57712074495758003</v>
       </c>
       <c r="D330">
-        <v>2.3733180364371225</v>
+        <v>8.0931459721103227</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.077993302922702804</v>
+        <v>0.17224829553141852</v>
       </c>
       <c r="B331">
-        <v>0.43401840799071401</v>
+        <v>0.41409048905484824</v>
       </c>
       <c r="C331">
-        <v>0.54419629733308306</v>
+        <v>0.57751825029444015</v>
       </c>
       <c r="D331">
-        <v>2.3729129418663657</v>
+        <v>7.9673308593322272</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.077358013549183549</v>
+        <v>0.17142421162276231</v>
       </c>
       <c r="B332">
-        <v>0.43363481506708335</v>
+        <v>0.41415118795764266</v>
       </c>
       <c r="C332">
-        <v>0.54479965919520723</v>
+        <v>0.57745564337015687</v>
       </c>
       <c r="D332">
-        <v>2.3319952964636563</v>
+        <v>8.3126408336852329</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.074989278608455653</v>
+        <v>0.16738089043324236</v>
       </c>
       <c r="B333">
-        <v>0.43368487418652291</v>
+        <v>0.41431825205708928</v>
       </c>
       <c r="C333">
-        <v>0.54500253838646695</v>
+        <v>0.57728012090476921</v>
       </c>
       <c r="D333">
-        <v>2.2807615142246802</v>
+        <v>8.6515632741307762</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.075020655877959128</v>
+        <v>0.16759713765195255</v>
       </c>
       <c r="B334">
-        <v>0.43374706224199638</v>
+        <v>0.41432507087329412</v>
       </c>
       <c r="C334">
-        <v>0.54493923950385115</v>
+        <v>0.57727428696880034</v>
       </c>
       <c r="D334">
-        <v>2.2810419623119031</v>
+        <v>9.0585120498153877</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.073144397282795981</v>
+        <v>0.16556542842962446</v>
       </c>
       <c r="B335">
-        <v>0.43408686650073242</v>
+        <v>0.41458145724730178</v>
       </c>
       <c r="C335">
-        <v>0.54463992063202205</v>
+        <v>0.57702493998230109</v>
       </c>
       <c r="D335">
-        <v>2.2734741064478712</v>
+        <v>9.4624763099540417</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.073966651075214551</v>
+        <v>0.16532403356197956</v>
       </c>
       <c r="B336">
-        <v>0.43329635479987555</v>
+        <v>0.41467744598766637</v>
       </c>
       <c r="C336">
-        <v>0.54603438554398631</v>
+        <v>0.57693116252070875</v>
       </c>
       <c r="D336">
-        <v>2.1684261042394821</v>
+        <v>9.5825025307747644</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.073484519014610783</v>
+        <v>0.16507015213904833</v>
       </c>
       <c r="B337">
-        <v>0.4334161252405544</v>
+        <v>0.41475143340317</v>
       </c>
       <c r="C337">
-        <v>0.54606403680188964</v>
+        <v>0.57686000830475859</v>
       </c>
       <c r="D337">
-        <v>2.1420170015811917</v>
+        <v>9.790894957319356</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.071361628703833405</v>
+        <v>0.16229726198390731</v>
       </c>
       <c r="B338">
-        <v>0.43382617189797279</v>
+        <v>0.4148403932146551</v>
       </c>
       <c r="C338">
-        <v>0.54575721773182573</v>
+        <v>0.57679434615279124</v>
       </c>
       <c r="D338">
-        <v>2.1244107325694102</v>
+        <v>10.263345387657807</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.068716030216932247</v>
+        <v>0.15779643899494669</v>
       </c>
       <c r="B339">
-        <v>0.43430294620192078</v>
+        <v>0.41532697092867704</v>
       </c>
       <c r="C339">
-        <v>0.54560548429682199</v>
+        <v>0.57635029858021081</v>
       </c>
       <c r="D339">
-        <v>2.0706907489264208</v>
+        <v>10.832058490034074</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.066857979597983966</v>
+        <v>0.15309191954485271</v>
       </c>
       <c r="B340">
-        <v>0.4350973705338213</v>
+        <v>0.41641129061089793</v>
       </c>
       <c r="C340">
-        <v>0.54533914943106288</v>
+        <v>0.575322652807154</v>
       </c>
       <c r="D340">
-        <v>1.9845566246416277</v>
+        <v>11.040620326413014</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.064022803693282254</v>
+        <v>0.14950549708045968</v>
       </c>
       <c r="B341">
-        <v>0.43654190918808394</v>
+        <v>0.41743199899847128</v>
       </c>
       <c r="C341">
-        <v>0.54404499995163469</v>
+        <v>0.57435836993282108</v>
       </c>
       <c r="D341">
-        <v>1.9652108516557394</v>
+        <v>11.245030061846316</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.066611389844315333</v>
+        <v>0.15849448296097693</v>
       </c>
       <c r="B342">
-        <v>0.43592756228494123</v>
+        <v>0.4156133282684123</v>
       </c>
       <c r="C342">
-        <v>0.54421507594266882</v>
+        <v>0.57601412978828836</v>
       </c>
       <c r="D342">
-        <v>2.0295913980739102</v>
+        <v>11.059217152536011</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.066083872174404659</v>
+        <v>0.16910833407491699</v>
       </c>
       <c r="B343">
-        <v>0.43699203576272927</v>
+        <v>0.4166464843601273</v>
       </c>
       <c r="C343">
-        <v>0.54273190385997161</v>
+        <v>0.57479748119503471</v>
       </c>
       <c r="D343">
-        <v>2.0979261504854447</v>
+        <v>10.960963753400792</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.064460943409489366</v>
+        <v>0.16546456742348081</v>
       </c>
       <c r="B344">
-        <v>0.43538066669959813</v>
+        <v>0.41572356359533208</v>
       </c>
       <c r="C344">
-        <v>0.5448330988953084</v>
+        <v>0.57577544971681793</v>
       </c>
       <c r="D344">
-        <v>2.0196201658778752</v>
+        <v>11.357014494262877</v>
       </c>
     </row>
   </sheetData>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -48,11 +48,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -66,6 +68,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,13 +90,13 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.28475823786886351</v>
+        <v>0.28475820680256037</v>
       </c>
       <c r="B1">
-        <v>0.50588797700665811</v>
+        <v>0.50588788370564175</v>
       </c>
       <c r="C1">
-        <v>0.44957440250719799</v>
+        <v>0.44957447372757187</v>
       </c>
       <c r="D1">
         <v>0.0019303166017244952</v>
@@ -100,13 +104,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3195832367155983</v>
+        <v>0.31958329768449895</v>
       </c>
       <c r="B2">
-        <v>0.50828491553436594</v>
+        <v>0.5082848415789547</v>
       </c>
       <c r="C2">
-        <v>0.44569359901140271</v>
+        <v>0.44569365554091672</v>
       </c>
       <c r="D2">
         <v>0.0018525851411818337</v>
@@ -114,13 +118,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.2998053735950324</v>
+        <v>0.29980557759753029</v>
       </c>
       <c r="B3">
-        <v>0.50331392208055181</v>
+        <v>0.50331396975287923</v>
       </c>
       <c r="C3">
-        <v>0.45153760440284496</v>
+        <v>0.45153756094358671</v>
       </c>
       <c r="D3">
         <v>0.0019504175870769822</v>
@@ -128,13 +132,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.30013605827202899</v>
+        <v>0.30013621982262528</v>
       </c>
       <c r="B4">
-        <v>0.50404345503208914</v>
+        <v>0.50404351371266942</v>
       </c>
       <c r="C4">
-        <v>0.45078194483138401</v>
+        <v>0.45078188123146512</v>
       </c>
       <c r="D4">
         <v>0.0020531200194328332</v>
@@ -142,13 +146,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.28977092625144163</v>
+        <v>0.28977101255747151</v>
       </c>
       <c r="B5">
-        <v>0.50350436051137648</v>
+        <v>0.50350446398343784</v>
       </c>
       <c r="C5">
-        <v>0.45170029385103405</v>
+        <v>0.45170017662187878</v>
       </c>
       <c r="D5">
         <v>0.0021046929912118279</v>
@@ -156,13 +160,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.32253468437156607</v>
+        <v>0.32253471665354227</v>
       </c>
       <c r="B6">
-        <v>0.50503726881115973</v>
+        <v>0.50503724181915521</v>
       </c>
       <c r="C6">
-        <v>0.44895012549690583</v>
+        <v>0.44895014725020149</v>
       </c>
       <c r="D6">
         <v>0.0020261016797287067</v>
@@ -170,13 +174,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.32683002543980949</v>
+        <v>0.32682993436164776</v>
       </c>
       <c r="B7">
-        <v>0.50676338546373867</v>
+        <v>0.50676332271262392</v>
       </c>
       <c r="C7">
-        <v>0.44703867225062921</v>
+        <v>0.44703872598602978</v>
       </c>
       <c r="D7">
         <v>0.0020671647862954014</v>
@@ -184,13 +188,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.31409804443157885</v>
+        <v>0.31409816065578322</v>
       </c>
       <c r="B8">
-        <v>0.5037728940634828</v>
+        <v>0.5037728116186041</v>
       </c>
       <c r="C8">
-        <v>0.45042628941087359</v>
+        <v>0.45042636488548354</v>
       </c>
       <c r="D8">
         <v>0.0020703055106140755</v>
@@ -198,13 +202,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.31467946589727031</v>
+        <v>0.31467959496139225</v>
       </c>
       <c r="B9">
-        <v>0.5044133045005782</v>
+        <v>0.50441343395338478</v>
       </c>
       <c r="C9">
-        <v>0.44974898809016822</v>
+        <v>0.44974883699310481</v>
       </c>
       <c r="D9">
         <v>0.002189956685509256</v>
@@ -212,13 +216,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.30205445204815123</v>
+        <v>0.30205446785145368</v>
       </c>
       <c r="B10">
-        <v>0.5036292092117397</v>
+        <v>0.50362925534907177</v>
       </c>
       <c r="C10">
-        <v>0.450816519065941</v>
+        <v>0.45081647162308813</v>
       </c>
       <c r="D10">
         <v>0.0021056664402274066</v>
@@ -226,13 +230,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.32689145103824813</v>
+        <v>0.32689146039329869</v>
       </c>
       <c r="B11">
-        <v>0.50122066650870023</v>
+        <v>0.50122077004618493</v>
       </c>
       <c r="C11">
-        <v>0.45272760832639819</v>
+        <v>0.45272751466716099</v>
       </c>
       <c r="D11">
         <v>0.0020678977889632458</v>
@@ -240,13 +244,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.32549026678782661</v>
+        <v>0.32549025368736151</v>
       </c>
       <c r="B12">
-        <v>0.50109372437409283</v>
+        <v>0.50109363308351507</v>
       </c>
       <c r="C12">
-        <v>0.45289415213071027</v>
+        <v>0.45289425427595509</v>
       </c>
       <c r="D12">
         <v>0.0021676604054980293</v>
@@ -254,13 +258,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.33602245997170299</v>
+        <v>0.33602252430835089</v>
       </c>
       <c r="B13">
-        <v>0.50391184052260984</v>
+        <v>0.50391184838661141</v>
       </c>
       <c r="C13">
-        <v>0.449811302864011</v>
+        <v>0.44981127959011019</v>
       </c>
       <c r="D13">
         <v>0.0020958958447611356</v>
@@ -268,13 +272,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.32018469162791274</v>
+        <v>0.32018495914142181</v>
       </c>
       <c r="B14">
-        <v>0.4991490251827268</v>
+        <v>0.49914914579274439</v>
       </c>
       <c r="C14">
-        <v>0.45489789483453336</v>
+        <v>0.45489774417371465</v>
       </c>
       <c r="D14">
         <v>0.0021722937505592893</v>
@@ -282,13 +286,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.32213408354129658</v>
+        <v>0.32213390858801361</v>
       </c>
       <c r="B15">
-        <v>0.49950827349049476</v>
+        <v>0.49950823577751113</v>
       </c>
       <c r="C15">
-        <v>0.45452221596703674</v>
+        <v>0.45452224301018557</v>
       </c>
       <c r="D15">
         <v>0.0022224981955536426</v>
@@ -296,13 +300,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.31406216304187984</v>
+        <v>0.3140620287119345</v>
       </c>
       <c r="B16">
-        <v>0.49920852281409722</v>
+        <v>0.49920857562127779</v>
       </c>
       <c r="C16">
-        <v>0.45487379825585272</v>
+        <v>0.45487373324508235</v>
       </c>
       <c r="D16">
         <v>0.0022844404814150554</v>
@@ -310,13 +314,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.30582365288673397</v>
+        <v>0.30582368542382432</v>
       </c>
       <c r="B17">
-        <v>0.50088915452035132</v>
+        <v>0.50088916575396258</v>
       </c>
       <c r="C17">
-        <v>0.45317437561983431</v>
+        <v>0.45317436687100515</v>
       </c>
       <c r="D17">
         <v>0.0024609837295480113</v>
@@ -324,13 +328,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.31099137863790322</v>
+        <v>0.31099145688875224</v>
       </c>
       <c r="B18">
-        <v>0.50028499709895335</v>
+        <v>0.50028505764577458</v>
       </c>
       <c r="C18">
-        <v>0.45370102699566461</v>
+        <v>0.45370095155895512</v>
       </c>
       <c r="D18">
         <v>0.0025054146878680759</v>
@@ -338,13 +342,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.306694751883344</v>
+        <v>0.30669483953511578</v>
       </c>
       <c r="B19">
-        <v>0.50030028450268127</v>
+        <v>0.50030029446530622</v>
       </c>
       <c r="C19">
-        <v>0.45380748261986287</v>
+        <v>0.45380749111955454</v>
       </c>
       <c r="D19">
         <v>0.0024988439809880297</v>
@@ -352,13 +356,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.30398906748517907</v>
+        <v>0.30398928947244547</v>
       </c>
       <c r="B20">
-        <v>0.50064755434710284</v>
+        <v>0.50064757624833833</v>
       </c>
       <c r="C20">
-        <v>0.45352851251008841</v>
+        <v>0.45352847457214152</v>
       </c>
       <c r="D20">
         <v>0.0025543777993440151</v>
@@ -366,13 +370,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.3088442565020354</v>
+        <v>0.30884450197263719</v>
       </c>
       <c r="B21">
-        <v>0.50148004790791634</v>
+        <v>0.50148019825536605</v>
       </c>
       <c r="C21">
-        <v>0.45252166660509091</v>
+        <v>0.45252147342808841</v>
       </c>
       <c r="D21">
         <v>0.0025600918690897199</v>
@@ -380,13 +384,13 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.32445513208907051</v>
+        <v>0.32445512008291888</v>
       </c>
       <c r="B22">
-        <v>0.50456182719192655</v>
+        <v>0.50456185538758036</v>
       </c>
       <c r="C22">
-        <v>0.44886316893430106</v>
+        <v>0.448863158042415</v>
       </c>
       <c r="D22">
         <v>0.0025477479870579614</v>
@@ -394,13 +398,13 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.30563479580599212</v>
+        <v>0.30563494866831376</v>
       </c>
       <c r="B23">
-        <v>0.49893842773517899</v>
+        <v>0.49893856617866872</v>
       </c>
       <c r="C23">
-        <v>0.45515387905550453</v>
+        <v>0.45515370055175403</v>
       </c>
       <c r="D23">
         <v>0.0026379502153566045</v>
@@ -408,13 +412,13 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.31312180622510583</v>
+        <v>0.31312175549900867</v>
       </c>
       <c r="B24">
-        <v>0.498788726935261</v>
+        <v>0.49878873366948318</v>
       </c>
       <c r="C24">
-        <v>0.45517375601747373</v>
+        <v>0.45517374690756457</v>
       </c>
       <c r="D24">
         <v>0.0026354402180550451</v>
@@ -422,13 +426,13 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.33419599383555731</v>
+        <v>0.33419599335162115</v>
       </c>
       <c r="B25">
-        <v>0.50323782500821868</v>
+        <v>0.50323781387690636</v>
       </c>
       <c r="C25">
-        <v>0.45007976767926083</v>
+        <v>0.45007977939765881</v>
       </c>
       <c r="D25">
         <v>0.0025702072108605796</v>
@@ -436,13 +440,13 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.30631861415158745</v>
+        <v>0.30631875026875782</v>
       </c>
       <c r="B26">
-        <v>0.4922695168715539</v>
+        <v>0.49226960910186368</v>
       </c>
       <c r="C26">
-        <v>0.46192141712085344</v>
+        <v>0.46192131454162272</v>
       </c>
       <c r="D26">
         <v>0.0028653860632957225</v>
@@ -450,13 +454,13 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.31392867325183166</v>
+        <v>0.31392863170549984</v>
       </c>
       <c r="B27">
-        <v>0.48930981293485848</v>
+        <v>0.48930969755648013</v>
       </c>
       <c r="C27">
-        <v>0.46504151185558001</v>
+        <v>0.46504164000227166</v>
       </c>
       <c r="D27">
         <v>0.0029348282381402666</v>
@@ -464,13 +468,13 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.3240604559130098</v>
+        <v>0.32406090780021141</v>
       </c>
       <c r="B28">
-        <v>0.49171520684554293</v>
+        <v>0.49171523756886021</v>
       </c>
       <c r="C28">
-        <v>0.46238866854633448</v>
+        <v>0.46238860189392178</v>
       </c>
       <c r="D28">
         <v>0.0028738507363787308</v>
@@ -478,13 +482,13 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.31961733070968229</v>
+        <v>0.31961750324211224</v>
       </c>
       <c r="B29">
-        <v>0.49048708353946568</v>
+        <v>0.49048704093364109</v>
       </c>
       <c r="C29">
-        <v>0.46370439881025061</v>
+        <v>0.46370442931560146</v>
       </c>
       <c r="D29">
         <v>0.0029447303661885977</v>
@@ -492,13 +496,13 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.31093355994119598</v>
+        <v>0.31093340332856573</v>
       </c>
       <c r="B30">
-        <v>0.48941612131755502</v>
+        <v>0.48941613025073843</v>
       </c>
       <c r="C30">
-        <v>0.46477604243748166</v>
+        <v>0.46477604933091404</v>
       </c>
       <c r="D30">
         <v>0.0031393708297721016</v>
@@ -506,13 +510,13 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.31030051728184177</v>
+        <v>0.31030035241186776</v>
       </c>
       <c r="B31">
-        <v>0.49010725655598747</v>
+        <v>0.49010713867313477</v>
       </c>
       <c r="C31">
-        <v>0.46403552877856924</v>
+        <v>0.46403566951884995</v>
       </c>
       <c r="D31">
         <v>0.0031476174921940482</v>
@@ -520,13 +524,13 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.30567357400823125</v>
+        <v>0.30567362330113407</v>
       </c>
       <c r="B32">
-        <v>0.49069237003784638</v>
+        <v>0.49069240976643114</v>
       </c>
       <c r="C32">
-        <v>0.46345676235358296</v>
+        <v>0.46345672419728468</v>
       </c>
       <c r="D32">
         <v>0.0032503349966982731</v>
@@ -534,13 +538,13 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.3028293435247586</v>
+        <v>0.30282932614451813</v>
       </c>
       <c r="B33">
-        <v>0.4914490005013904</v>
+        <v>0.49144903494367675</v>
       </c>
       <c r="C33">
-        <v>0.46271168671433793</v>
+        <v>0.46271164496744571</v>
       </c>
       <c r="D33">
         <v>0.0033271543266461881</v>
@@ -548,13 +552,13 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.32636259020092717</v>
+        <v>0.32636251540488082</v>
       </c>
       <c r="B34">
-        <v>0.49100449455492806</v>
+        <v>0.49100455436903534</v>
       </c>
       <c r="C34">
-        <v>0.46259618446492246</v>
+        <v>0.46259613859527776</v>
       </c>
       <c r="D34">
         <v>0.0033285461390549537</v>
@@ -562,13 +566,13 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.30070545787356662</v>
+        <v>0.3007056779862915</v>
       </c>
       <c r="B35">
-        <v>0.48129641329931172</v>
+        <v>0.48129644559590373</v>
       </c>
       <c r="C35">
-        <v>0.47324166207594853</v>
+        <v>0.47324162927915647</v>
       </c>
       <c r="D35">
         <v>0.0035000013387103848</v>
@@ -576,13 +580,13 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.30283216342193331</v>
+        <v>0.30283240119700633</v>
       </c>
       <c r="B36">
-        <v>0.48120079567968604</v>
+        <v>0.48120082184114982</v>
       </c>
       <c r="C36">
-        <v>0.4733179513199457</v>
+        <v>0.47331791905810083</v>
       </c>
       <c r="D36">
         <v>0.0036153192719578496</v>
@@ -590,13 +594,13 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.28930323503196331</v>
+        <v>0.28930317840997294</v>
       </c>
       <c r="B37">
-        <v>0.48093303743317284</v>
+        <v>0.48093301093919244</v>
       </c>
       <c r="C37">
-        <v>0.47390080180733435</v>
+        <v>0.47390082743892709</v>
       </c>
       <c r="D37">
         <v>0.0037559202827612296</v>
@@ -604,13 +608,13 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.29184490228515786</v>
+        <v>0.29184475536588983</v>
       </c>
       <c r="B38">
-        <v>0.48074100370777784</v>
+        <v>0.48074104285316915</v>
       </c>
       <c r="C38">
-        <v>0.47402448295946298</v>
+        <v>0.47402445586538899</v>
       </c>
       <c r="D38">
         <v>0.0039587041678574228</v>
@@ -618,13 +622,13 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.3126541335270614</v>
+        <v>0.31265442113169201</v>
       </c>
       <c r="B39">
-        <v>0.4818596400422383</v>
+        <v>0.48185961662547938</v>
       </c>
       <c r="C39">
-        <v>0.47206439437889808</v>
+        <v>0.47206437550568497</v>
       </c>
       <c r="D39">
         <v>0.003890245059089048</v>
@@ -632,13 +636,13 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.29095731012450299</v>
+        <v>0.29095710350895237</v>
       </c>
       <c r="B40">
-        <v>0.47531127391343869</v>
+        <v>0.47531119752043471</v>
       </c>
       <c r="C40">
-        <v>0.47956450123312633</v>
+        <v>0.47956460903862458</v>
       </c>
       <c r="D40">
         <v>0.0041037247078193227</v>
@@ -646,13 +650,13 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.30209164460202609</v>
+        <v>0.3020916086648554</v>
       </c>
       <c r="B41">
-        <v>0.47428789065388888</v>
+        <v>0.47428789630815099</v>
       </c>
       <c r="C41">
-        <v>0.48028139497286298</v>
+        <v>0.4802814155313308</v>
       </c>
       <c r="D41">
         <v>0.0040133457834014398</v>
@@ -660,13 +664,13 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.30190042338700329</v>
+        <v>0.30190025545272581</v>
       </c>
       <c r="B42">
-        <v>0.4745300670641307</v>
+        <v>0.47453014742262062</v>
       </c>
       <c r="C42">
-        <v>0.48003977521108798</v>
+        <v>0.48003969658144019</v>
       </c>
       <c r="D42">
         <v>0.0042582508814000301</v>
@@ -674,13 +678,13 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.32195154192680481</v>
+        <v>0.32195148820382469</v>
       </c>
       <c r="B43">
-        <v>0.4783318021034037</v>
+        <v>0.4783317276185422</v>
       </c>
       <c r="C43">
-        <v>0.47555111542998929</v>
+        <v>0.47555118089266546</v>
       </c>
       <c r="D43">
         <v>0.0040818660997528457</v>
@@ -688,13 +692,13 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.35009073938734442</v>
+        <v>0.35009087868502858</v>
       </c>
       <c r="B44">
-        <v>0.48967690933160468</v>
+        <v>0.48967684649462495</v>
       </c>
       <c r="C44">
-        <v>0.46323141432303205</v>
+        <v>0.46323145460410986</v>
       </c>
       <c r="D44">
         <v>0.0040158817447295738</v>
@@ -702,13 +706,13 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.34981468319279868</v>
+        <v>0.34981429146839482</v>
       </c>
       <c r="B45">
-        <v>0.48957629068861991</v>
+        <v>0.48957624252823639</v>
       </c>
       <c r="C45">
-        <v>0.46333366260729564</v>
+        <v>0.46333374074887002</v>
       </c>
       <c r="D45">
         <v>0.0041444981627984977</v>
@@ -716,13 +720,13 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.34545097911980888</v>
+        <v>0.34545077621731624</v>
       </c>
       <c r="B46">
-        <v>0.48755093335050614</v>
+        <v>0.48755088456136275</v>
       </c>
       <c r="C46">
-        <v>0.46525392921652903</v>
+        <v>0.4652539806198529</v>
       </c>
       <c r="D46">
         <v>0.004289714958654856</v>
@@ -730,13 +734,13 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.34322002133460522</v>
+        <v>0.34321991663068135</v>
       </c>
       <c r="B47">
-        <v>0.48740938504432396</v>
+        <v>0.48740935401068364</v>
       </c>
       <c r="C47">
-        <v>0.46509055618288514</v>
+        <v>0.46509060991145718</v>
       </c>
       <c r="D47">
         <v>0.0044118855992886941</v>
@@ -744,13 +748,13 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.34926359751332986</v>
+        <v>0.34926386002921539</v>
       </c>
       <c r="B48">
-        <v>0.48559407963815571</v>
+        <v>0.48559407770300456</v>
       </c>
       <c r="C48">
-        <v>0.46802344811429614</v>
+        <v>0.46802342360083427</v>
       </c>
       <c r="D48">
         <v>0.0046513110021978886</v>
@@ -758,13 +762,13 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.35902465494385638</v>
+        <v>0.35902430536225705</v>
       </c>
       <c r="B49">
-        <v>0.49111458760570992</v>
+        <v>0.49111445089233635</v>
       </c>
       <c r="C49">
-        <v>0.46263459516093858</v>
+        <v>0.46263475415578503</v>
       </c>
       <c r="D49">
         <v>0.0046692508221427243</v>
@@ -772,13 +776,13 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.35739823701468992</v>
+        <v>0.35739821062099425</v>
       </c>
       <c r="B50">
-        <v>0.49001538754169588</v>
+        <v>0.49001542196265641</v>
       </c>
       <c r="C50">
-        <v>0.46367599028813733</v>
+        <v>0.46367596931595367</v>
       </c>
       <c r="D50">
         <v>0.0048709137396487044</v>
@@ -786,13 +790,13 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.36253114052070451</v>
+        <v>0.36253137075683262</v>
       </c>
       <c r="B51">
-        <v>0.49323373875500193</v>
+        <v>0.49323375044392348</v>
       </c>
       <c r="C51">
-        <v>0.46143292558094035</v>
+        <v>0.46143286584007892</v>
       </c>
       <c r="D51">
         <v>0.0050301195850902536</v>
@@ -800,13 +804,13 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.35726601902811062</v>
+        <v>0.35726579045852147</v>
       </c>
       <c r="B52">
-        <v>0.48872354539485824</v>
+        <v>0.48872361158258409</v>
       </c>
       <c r="C52">
-        <v>0.46548102732154856</v>
+        <v>0.46548097596340293</v>
       </c>
       <c r="D52">
         <v>0.005128486808625766</v>
@@ -814,13 +818,13 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.3571759651720034</v>
+        <v>0.35717595388169487</v>
       </c>
       <c r="B53">
-        <v>0.48872032378305846</v>
+        <v>0.48872044015415639</v>
       </c>
       <c r="C53">
-        <v>0.4658136442250847</v>
+        <v>0.46581352193404374</v>
       </c>
       <c r="D53">
         <v>0.0050560080184244545</v>
@@ -828,13 +832,13 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.35769317717182053</v>
+        <v>0.3576933265766471</v>
       </c>
       <c r="B54">
-        <v>0.48922831697517155</v>
+        <v>0.48922826347389375</v>
       </c>
       <c r="C54">
-        <v>0.46570566615180331</v>
+        <v>0.46570570520143595</v>
       </c>
       <c r="D54">
         <v>0.0050942240637688232</v>
@@ -842,13 +846,13 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.36140125510208032</v>
+        <v>0.36140118899197055</v>
       </c>
       <c r="B55">
-        <v>0.49300287420262651</v>
+        <v>0.49300282154441866</v>
       </c>
       <c r="C55">
-        <v>0.46354796771060497</v>
+        <v>0.46354799877896269</v>
       </c>
       <c r="D55">
         <v>0.0052489994188681588</v>
@@ -856,13 +860,13 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.35706287012453175</v>
+        <v>0.35706271508711179</v>
       </c>
       <c r="B56">
-        <v>0.48840450069251312</v>
+        <v>0.48840451825288234</v>
       </c>
       <c r="C56">
-        <v>0.46768898211798171</v>
+        <v>0.46768899926936341</v>
       </c>
       <c r="D56">
         <v>0.0053819825225623541</v>
@@ -870,13 +874,13 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.35713091653286411</v>
+        <v>0.35713104454910333</v>
       </c>
       <c r="B57">
-        <v>0.48828225580361356</v>
+        <v>0.48828230449227372</v>
       </c>
       <c r="C57">
-        <v>0.46768714132669292</v>
+        <v>0.46768709122622604</v>
       </c>
       <c r="D57">
         <v>0.0055852938670635077</v>
@@ -884,13 +888,13 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.35349923425034335</v>
+        <v>0.35349909113665728</v>
       </c>
       <c r="B58">
-        <v>0.48853868388839394</v>
+        <v>0.48853856730337869</v>
       </c>
       <c r="C58">
-        <v>0.47010869815178674</v>
+        <v>0.47010882631923434</v>
       </c>
       <c r="D58">
         <v>0.0057527513074812986</v>
@@ -898,13 +902,13 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.35355977619242213</v>
+        <v>0.35355963933532331</v>
       </c>
       <c r="B59">
-        <v>0.48871235230045451</v>
+        <v>0.48871232145093163</v>
       </c>
       <c r="C59">
-        <v>0.4699934688653728</v>
+        <v>0.46999351927161309</v>
       </c>
       <c r="D59">
         <v>0.0059829906233196941</v>
@@ -912,13 +916,13 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.35340648974801969</v>
+        <v>0.35340664859251941</v>
       </c>
       <c r="B60">
-        <v>0.48999272068138477</v>
+        <v>0.48999280796097033</v>
       </c>
       <c r="C60">
-        <v>0.46929394189185181</v>
+        <v>0.46929383129887919</v>
       </c>
       <c r="D60">
         <v>0.0059796319965163209</v>
@@ -926,13 +930,13 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.35374005315826323</v>
+        <v>0.35374004806668319</v>
       </c>
       <c r="B61">
-        <v>0.48703679400140787</v>
+        <v>0.4870368013682298</v>
       </c>
       <c r="C61">
-        <v>0.47105017476636907</v>
+        <v>0.47105012990360012</v>
       </c>
       <c r="D61">
         <v>0.0060955709389977119</v>
@@ -940,13 +944,13 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.34471316599375862</v>
+        <v>0.34471300344096883</v>
       </c>
       <c r="B62">
-        <v>0.48431515760564919</v>
+        <v>0.48431510814464784</v>
       </c>
       <c r="C62">
-        <v>0.47631729108421261</v>
+        <v>0.47631736002376163</v>
       </c>
       <c r="D62">
         <v>0.0064513613237169309</v>
@@ -954,13 +958,13 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.34483674002285503</v>
+        <v>0.34483668629162528</v>
       </c>
       <c r="B63">
-        <v>0.48810647812499069</v>
+        <v>0.48810643497539219</v>
       </c>
       <c r="C63">
-        <v>0.47384499273684993</v>
+        <v>0.4738450316052622</v>
       </c>
       <c r="D63">
         <v>0.0063967244210158267</v>
@@ -968,13 +972,13 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.34383781235478111</v>
+        <v>0.34383783121456551</v>
       </c>
       <c r="B64">
-        <v>0.48429026868388125</v>
+        <v>0.48429029008792362</v>
       </c>
       <c r="C64">
-        <v>0.4768167840376959</v>
+        <v>0.47681675175589555</v>
       </c>
       <c r="D64">
         <v>0.0065956460317120437</v>
@@ -982,13 +986,13 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.35058080425135713</v>
+        <v>0.35058085898212471</v>
       </c>
       <c r="B65">
-        <v>0.48415393890014768</v>
+        <v>0.48415401190157287</v>
       </c>
       <c r="C65">
-        <v>0.47470104161374349</v>
+        <v>0.47470097133843464</v>
       </c>
       <c r="D65">
         <v>0.0067848812660890219</v>
@@ -996,13 +1000,13 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.34362878994823415</v>
+        <v>0.34362922590900985</v>
       </c>
       <c r="B66">
-        <v>0.48076336124022107</v>
+        <v>0.48076351963993608</v>
       </c>
       <c r="C66">
-        <v>0.47948274787530504</v>
+        <v>0.47948254459194389</v>
       </c>
       <c r="D66">
         <v>0.0070013376981391262</v>
@@ -1010,13 +1014,13 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.34082786438710433</v>
+        <v>0.34082782414939367</v>
       </c>
       <c r="B67">
-        <v>0.48063713685246306</v>
+        <v>0.48063719978944869</v>
       </c>
       <c r="C67">
-        <v>0.48070643793588996</v>
+        <v>0.48070638341990651</v>
       </c>
       <c r="D67">
         <v>0.0073366528727100413</v>
@@ -1024,13 +1028,13 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.34135150499199907</v>
+        <v>0.34135157193706872</v>
       </c>
       <c r="B68">
-        <v>0.47855268578383647</v>
+        <v>0.47855271034756097</v>
       </c>
       <c r="C68">
-        <v>0.4818008132552416</v>
+        <v>0.4818008035944023</v>
       </c>
       <c r="D68">
         <v>0.0073390688183941578</v>
@@ -1038,13 +1042,13 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.33732204260496423</v>
+        <v>0.33732198258930368</v>
       </c>
       <c r="B69">
-        <v>0.4773084255678281</v>
+        <v>0.47730840793954443</v>
       </c>
       <c r="C69">
-        <v>0.48423549612846251</v>
+        <v>0.48423550265292958</v>
       </c>
       <c r="D69">
         <v>0.0075174320631178626</v>
@@ -1052,13 +1056,13 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.3359609543909145</v>
+        <v>0.33596062663362303</v>
       </c>
       <c r="B70">
-        <v>0.47884905641232273</v>
+        <v>0.47884904639649073</v>
       </c>
       <c r="C70">
-        <v>0.48389182922841723</v>
+        <v>0.48389184201570834</v>
       </c>
       <c r="D70">
         <v>0.0077488297733762828</v>
@@ -1066,13 +1070,13 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.3356624057135551</v>
+        <v>0.33566256764985586</v>
       </c>
       <c r="B71">
-        <v>0.47807830285540032</v>
+        <v>0.47807840511670585</v>
       </c>
       <c r="C71">
-        <v>0.48450292944520207</v>
+        <v>0.48450279480201952</v>
       </c>
       <c r="D71">
         <v>0.0078164987427366741</v>
@@ -1080,13 +1084,13 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.33897963837072015</v>
+        <v>0.33897961759437262</v>
       </c>
       <c r="B72">
-        <v>0.47601061056035426</v>
+        <v>0.47601055314436858</v>
       </c>
       <c r="C72">
-        <v>0.48468199183458943</v>
+        <v>0.48468204212895016</v>
       </c>
       <c r="D72">
         <v>0.0082708223598152841</v>
@@ -1094,13 +1098,13 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.32892072547923951</v>
+        <v>0.3289204808257345</v>
       </c>
       <c r="B73">
-        <v>0.47086125168472659</v>
+        <v>0.47086116316717058</v>
       </c>
       <c r="C73">
-        <v>0.49198143024807039</v>
+        <v>0.49198153338078404</v>
       </c>
       <c r="D73">
         <v>0.0082226581700276073</v>
@@ -1108,13 +1112,13 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.3264494956122973</v>
+        <v>0.3264496785547259</v>
       </c>
       <c r="B74">
-        <v>0.47466830836224083</v>
+        <v>0.4746683111446709</v>
       </c>
       <c r="C74">
-        <v>0.49079782284689849</v>
+        <v>0.49079781053442439</v>
       </c>
       <c r="D74">
         <v>0.0085396129443851103</v>
@@ -1122,13 +1126,13 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.31865486521046049</v>
+        <v>0.31865436547310272</v>
       </c>
       <c r="B75">
-        <v>0.46040393943665958</v>
+        <v>0.4604039229233825</v>
       </c>
       <c r="C75">
-        <v>0.5033204940753242</v>
+        <v>0.50332055603644932</v>
       </c>
       <c r="D75">
         <v>0.0089332282194245546</v>
@@ -1136,13 +1140,13 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.31923705679711656</v>
+        <v>0.31923728402690432</v>
       </c>
       <c r="B76">
-        <v>0.46060674167830062</v>
+        <v>0.46060674139201502</v>
       </c>
       <c r="C76">
-        <v>0.50297306174433687</v>
+        <v>0.5029730434273697</v>
       </c>
       <c r="D76">
         <v>0.0091208541568220686</v>
@@ -1150,13 +1154,13 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.32606235009479839</v>
+        <v>0.32606226865104054</v>
       </c>
       <c r="B77">
-        <v>0.46296514097101776</v>
+        <v>0.46296524074348422</v>
       </c>
       <c r="C77">
-        <v>0.49868646039715325</v>
+        <v>0.49868636794898513</v>
       </c>
       <c r="D77">
         <v>0.0093977582257286658</v>
@@ -1164,13 +1168,13 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.32178202895890307</v>
+        <v>0.32178188065601471</v>
       </c>
       <c r="B78">
-        <v>0.460110243786583</v>
+        <v>0.46011025447168064</v>
       </c>
       <c r="C78">
-        <v>0.50242617465867423</v>
+        <v>0.5024261825072287</v>
       </c>
       <c r="D78">
         <v>0.0090418243348662757</v>
@@ -1178,13 +1182,13 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.32114084646375002</v>
+        <v>0.32114098727447804</v>
       </c>
       <c r="B79">
-        <v>0.4598658701227375</v>
+        <v>0.45986588731753453</v>
       </c>
       <c r="C79">
-        <v>0.50301261343441672</v>
+        <v>0.50301258484492017</v>
       </c>
       <c r="D79">
         <v>0.0094167529994190306</v>
@@ -1192,13 +1196,13 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.3211270408935718</v>
+        <v>0.32112728219988318</v>
       </c>
       <c r="B80">
-        <v>0.45985061241156722</v>
+        <v>0.45985070268720757</v>
       </c>
       <c r="C80">
-        <v>0.50302681931875115</v>
+        <v>0.50302671263356524</v>
       </c>
       <c r="D80">
         <v>0.0098000010950383253</v>
@@ -1206,13 +1210,13 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.32031162262105062</v>
+        <v>0.32031175885948721</v>
       </c>
       <c r="B81">
-        <v>0.46088093105491201</v>
+        <v>0.46088087179368181</v>
       </c>
       <c r="C81">
-        <v>0.50395803364628922</v>
+        <v>0.50395807658884362</v>
       </c>
       <c r="D81">
         <v>0.01013707248439662</v>
@@ -1220,13 +1224,13 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.32066408665953156</v>
+        <v>0.3206640264639522</v>
       </c>
       <c r="B82">
-        <v>0.46137650604614738</v>
+        <v>0.46137648860945851</v>
       </c>
       <c r="C82">
-        <v>0.5035392164311242</v>
+        <v>0.50353922278937524</v>
       </c>
       <c r="D82">
         <v>0.010401056870354882</v>
@@ -1234,13 +1238,13 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.32109946538759854</v>
+        <v>0.3210995451688502</v>
       </c>
       <c r="B83">
-        <v>0.46331500153368316</v>
+        <v>0.46331503560007575</v>
       </c>
       <c r="C83">
-        <v>0.50220778531982302</v>
+        <v>0.502207730145253</v>
       </c>
       <c r="D83">
         <v>0.010533988338037759</v>
@@ -1248,13 +1252,13 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.32104054080500061</v>
+        <v>0.32104054174370183</v>
       </c>
       <c r="B84">
-        <v>0.46388255483465224</v>
+        <v>0.46388253526383982</v>
       </c>
       <c r="C84">
-        <v>0.50185963300288561</v>
+        <v>0.50185965150892331</v>
       </c>
       <c r="D84">
         <v>0.010962180332876312</v>
@@ -1262,13 +1266,13 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.32067239362837813</v>
+        <v>0.32067245284914969</v>
       </c>
       <c r="B85">
-        <v>0.46412180082644461</v>
+        <v>0.46412177169008995</v>
       </c>
       <c r="C85">
-        <v>0.5018239460958247</v>
+        <v>0.50182396768906323</v>
       </c>
       <c r="D85">
         <v>0.011545850059010574</v>
@@ -1276,13 +1280,13 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.3223061918371492</v>
+        <v>0.32230629758957924</v>
       </c>
       <c r="B86">
-        <v>0.46250043187093953</v>
+        <v>0.46250040565012657</v>
       </c>
       <c r="C86">
-        <v>0.50241774227748448</v>
+        <v>0.50241776708763941</v>
       </c>
       <c r="D86">
         <v>0.011934301244104576</v>
@@ -1290,13 +1294,13 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.31541520202657869</v>
+        <v>0.31541510416210838</v>
       </c>
       <c r="B87">
-        <v>0.46034073270777282</v>
+        <v>0.46034064546399761</v>
       </c>
       <c r="C87">
-        <v>0.50632775726309287</v>
+        <v>0.50632782311039215</v>
       </c>
       <c r="D87">
         <v>0.012022551876111249</v>
@@ -1304,13 +1308,13 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.31448722306920629</v>
+        <v>0.31448717740755855</v>
       </c>
       <c r="B88">
-        <v>0.46218213188041718</v>
+        <v>0.46218210410828942</v>
       </c>
       <c r="C88">
-        <v>0.50537578261842242</v>
+        <v>0.50537582426243011</v>
       </c>
       <c r="D88">
         <v>0.012263720225156181</v>
@@ -1318,13 +1322,13 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.31446124627960198</v>
+        <v>0.31446139113253402</v>
       </c>
       <c r="B89">
-        <v>0.46027535064733971</v>
+        <v>0.46027548630878629</v>
       </c>
       <c r="C89">
-        <v>0.5067637160258297</v>
+        <v>0.50676361821538241</v>
       </c>
       <c r="D89">
         <v>0.014226724544382919</v>
@@ -1332,13 +1336,13 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.3111151173545279</v>
+        <v>0.31111484620738911</v>
       </c>
       <c r="B90">
-        <v>0.46037856054362747</v>
+        <v>0.4603785423237009</v>
       </c>
       <c r="C90">
-        <v>0.50773239507543877</v>
+        <v>0.50773246107591608</v>
       </c>
       <c r="D90">
         <v>0.014372913981182669</v>
@@ -1346,13 +1350,13 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.31214750513053952</v>
+        <v>0.31214744253468424</v>
       </c>
       <c r="B91">
-        <v>0.45863065313547063</v>
+        <v>0.45863061435791808</v>
       </c>
       <c r="C91">
-        <v>0.50871333820758813</v>
+        <v>0.50871337760493418</v>
       </c>
       <c r="D91">
         <v>0.013566827992554478</v>
@@ -1360,13 +1364,13 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.30572309737884706</v>
+        <v>0.30572298027249778</v>
       </c>
       <c r="B92">
-        <v>0.4576395405161478</v>
+        <v>0.45763953128565943</v>
       </c>
       <c r="C92">
-        <v>0.51142080292138592</v>
+        <v>0.51142082457542926</v>
       </c>
       <c r="D92">
         <v>0.013578252155855104</v>
@@ -1374,13 +1378,13 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.30568406264632875</v>
+        <v>0.30568396775487133</v>
       </c>
       <c r="B93">
-        <v>0.45705452648641437</v>
+        <v>0.45705460904445055</v>
       </c>
       <c r="C93">
-        <v>0.51186983242938167</v>
+        <v>0.51186975719109074</v>
       </c>
       <c r="D93">
         <v>0.013769502067007717</v>
@@ -1388,13 +1392,13 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.30272404735811131</v>
+        <v>0.30272405853749768</v>
       </c>
       <c r="B94">
-        <v>0.45773790412554211</v>
+        <v>0.45773786669757305</v>
       </c>
       <c r="C94">
-        <v>0.51221534174801464</v>
+        <v>0.51221537313594956</v>
       </c>
       <c r="D94">
         <v>0.014037046668676285</v>
@@ -1402,13 +1406,13 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.29998367530748893</v>
+        <v>0.29998397941878302</v>
       </c>
       <c r="B95">
-        <v>0.46076910206040755</v>
+        <v>0.46076909680282047</v>
       </c>
       <c r="C95">
-        <v>0.51066258215743832</v>
+        <v>0.51066254475449635</v>
       </c>
       <c r="D95">
         <v>0.014851238134655893</v>
@@ -1416,13 +1420,13 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.2989423892332258</v>
+        <v>0.29894221361465823</v>
       </c>
       <c r="B96">
-        <v>0.46537674164604864</v>
+        <v>0.46537671895452898</v>
       </c>
       <c r="C96">
-        <v>0.50732041262914473</v>
+        <v>0.50732044279206501</v>
       </c>
       <c r="D96">
         <v>0.015031321943202653</v>
@@ -1430,13 +1434,13 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.29863118899053431</v>
+        <v>0.29863102671226577</v>
       </c>
       <c r="B97">
-        <v>0.46466026101669983</v>
+        <v>0.46466028099607265</v>
       </c>
       <c r="C97">
-        <v>0.5079699998352214</v>
+        <v>0.50796996663528016</v>
       </c>
       <c r="D97">
         <v>0.015539888003981824</v>
@@ -1444,13 +1448,13 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.29381987655420622</v>
+        <v>0.29382008141738558</v>
       </c>
       <c r="B98">
-        <v>0.46655423041909766</v>
+        <v>0.46655423003957386</v>
       </c>
       <c r="C98">
-        <v>0.50755879434433782</v>
+        <v>0.50755877197756771</v>
       </c>
       <c r="D98">
         <v>0.015697105040626193</v>
@@ -1458,13 +1462,13 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.29328335031461544</v>
+        <v>0.29328305347163797</v>
       </c>
       <c r="B99">
-        <v>0.4662959326618874</v>
+        <v>0.46629589312742209</v>
       </c>
       <c r="C99">
-        <v>0.5078906939418365</v>
+        <v>0.50789074379286658</v>
       </c>
       <c r="D99">
         <v>0.016999052162938455</v>
@@ -1472,13 +1476,13 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.28717913660515398</v>
+        <v>0.28717918865944736</v>
       </c>
       <c r="B100">
-        <v>0.46777227853956338</v>
+        <v>0.46777231327909413</v>
       </c>
       <c r="C100">
-        <v>0.50803329224463345</v>
+        <v>0.50803327049730118</v>
       </c>
       <c r="D100">
         <v>0.017404721451429638</v>
@@ -1486,13 +1490,13 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.28541619583862493</v>
+        <v>0.28541617389434076</v>
       </c>
       <c r="B101">
-        <v>0.46842937737735407</v>
+        <v>0.46842940532640009</v>
       </c>
       <c r="C101">
-        <v>0.50787100995339918</v>
+        <v>0.50787097464996955</v>
       </c>
       <c r="D101">
         <v>0.017566982458159453</v>
@@ -1500,13 +1504,13 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.28227190603201657</v>
+        <v>0.28227206100477303</v>
       </c>
       <c r="B102">
-        <v>0.46916627835427271</v>
+        <v>0.4691662231354729</v>
       </c>
       <c r="C102">
-        <v>0.50792668391949458</v>
+        <v>0.50792674449315567</v>
       </c>
       <c r="D102">
         <v>0.017918939227606488</v>
@@ -1514,13 +1518,13 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.27923458013250491</v>
+        <v>0.27923459527887545</v>
       </c>
       <c r="B103">
-        <v>0.46973719253135038</v>
+        <v>0.46973718890187022</v>
       </c>
       <c r="C103">
-        <v>0.50808623561578647</v>
+        <v>0.50808623387869978</v>
       </c>
       <c r="D103">
         <v>0.018908640223075139</v>
@@ -1528,13 +1532,13 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.26867182820261654</v>
+        <v>0.26867198790478947</v>
       </c>
       <c r="B104">
-        <v>0.47282922037964731</v>
+        <v>0.47282914434722106</v>
       </c>
       <c r="C104">
-        <v>0.50768910717589355</v>
+        <v>0.50768919584614924</v>
       </c>
       <c r="D104">
         <v>0.020567319520412568</v>
@@ -1542,13 +1546,13 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.26671777675772063</v>
+        <v>0.26671778901747106</v>
       </c>
       <c r="B105">
-        <v>0.47417941295931643</v>
+        <v>0.47417940713351692</v>
       </c>
       <c r="C105">
-        <v>0.50694527153009439</v>
+        <v>0.50694526893308434</v>
       </c>
       <c r="D105">
         <v>0.021219148927052473</v>
@@ -1556,13 +1560,13 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.27502232607318527</v>
+        <v>0.27502242912983932</v>
       </c>
       <c r="B106">
-        <v>0.46850763388616284</v>
+        <v>0.46850760240078232</v>
       </c>
       <c r="C106">
-        <v>0.51010631108124294</v>
+        <v>0.51010633258351357</v>
       </c>
       <c r="D106">
         <v>0.024229285897468551</v>
@@ -1570,13 +1574,13 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.2893435549877344</v>
+        <v>0.28934341619678278</v>
       </c>
       <c r="B107">
-        <v>0.47137779949140018</v>
+        <v>0.47137777444850459</v>
       </c>
       <c r="C107">
-        <v>0.50482833205593525</v>
+        <v>0.50482839049646233</v>
       </c>
       <c r="D107">
         <v>0.02433728056576373</v>
@@ -1584,13 +1588,13 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.27813258642598948</v>
+        <v>0.27813233150976174</v>
       </c>
       <c r="B108">
-        <v>0.46720980151342167</v>
+        <v>0.46720983870424421</v>
       </c>
       <c r="C108">
-        <v>0.51062420327149172</v>
+        <v>0.51062418905851659</v>
       </c>
       <c r="D108">
         <v>0.026484106675816677</v>
@@ -1598,13 +1602,13 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.25539983849336106</v>
+        <v>0.25539966912075279</v>
       </c>
       <c r="B109">
-        <v>0.46496105877537108</v>
+        <v>0.46496093970454067</v>
       </c>
       <c r="C109">
-        <v>0.51725660630377357</v>
+        <v>0.51725675090998624</v>
       </c>
       <c r="D109">
         <v>0.030090617113987916</v>
@@ -1612,13 +1616,13 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.25666137046258675</v>
+        <v>0.2566611010503681</v>
       </c>
       <c r="B110">
-        <v>0.45943384628600398</v>
+        <v>0.45943388096534771</v>
       </c>
       <c r="C110">
-        <v>0.5216679075093611</v>
+        <v>0.52166788958557053</v>
       </c>
       <c r="D110">
         <v>0.030018617166151021</v>
@@ -1626,13 +1630,13 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.24838085500380244</v>
+        <v>0.24838075650496788</v>
       </c>
       <c r="B111">
-        <v>0.45938960313673782</v>
+        <v>0.45938961674685047</v>
       </c>
       <c r="C111">
-        <v>0.52337084033349357</v>
+        <v>0.52337081284931253</v>
       </c>
       <c r="D111">
         <v>0.029587798681071906</v>
@@ -1640,13 +1644,13 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.25429483896899374</v>
+        <v>0.25429506513099415</v>
       </c>
       <c r="B112">
-        <v>0.45593850823245718</v>
+        <v>0.45593854395133815</v>
       </c>
       <c r="C112">
-        <v>0.52512855975578621</v>
+        <v>0.52512853048643693</v>
       </c>
       <c r="D112">
         <v>0.029883409636378755</v>
@@ -1654,13 +1658,13 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.25363726988463148</v>
+        <v>0.25363728385083906</v>
       </c>
       <c r="B113">
-        <v>0.45544989078415704</v>
+        <v>0.45544995641707892</v>
       </c>
       <c r="C113">
-        <v>0.52567423879000119</v>
+        <v>0.52567417728601029</v>
       </c>
       <c r="D113">
         <v>0.031064416702601422</v>
@@ -1668,13 +1672,13 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.25803232807073406</v>
+        <v>0.25803211993400504</v>
       </c>
       <c r="B114">
-        <v>0.45557120910757665</v>
+        <v>0.45557125450613423</v>
       </c>
       <c r="C114">
-        <v>0.52467947506692414</v>
+        <v>0.52467944288452029</v>
       </c>
       <c r="D114">
         <v>0.03175400882185106</v>
@@ -1682,13 +1686,13 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.26239707426805903</v>
+        <v>0.26239661844351553</v>
       </c>
       <c r="B115">
-        <v>0.45621156745714386</v>
+        <v>0.45621141174580626</v>
       </c>
       <c r="C115">
-        <v>0.52323853033701162</v>
+        <v>0.52323871598911387</v>
       </c>
       <c r="D115">
         <v>0.03089276192268749</v>
@@ -1696,13 +1700,13 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.24194208459155431</v>
+        <v>0.24194201988695488</v>
       </c>
       <c r="B116">
-        <v>0.45054215487261878</v>
+        <v>0.45054216591838286</v>
       </c>
       <c r="C116">
-        <v>0.53232353506884789</v>
+        <v>0.53232353673973776</v>
       </c>
       <c r="D116">
         <v>0.032288425571660763</v>
@@ -1710,13 +1714,13 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.23336806495981544</v>
+        <v>0.23336805062086469</v>
       </c>
       <c r="B117">
-        <v>0.45955090147972733</v>
+        <v>0.45955095778758376</v>
       </c>
       <c r="C117">
-        <v>0.52651532489850117</v>
+        <v>0.52651528446799323</v>
       </c>
       <c r="D117">
         <v>0.033073147058403758</v>
@@ -1724,13 +1728,13 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.23262358527329233</v>
+        <v>0.23262371421006733</v>
       </c>
       <c r="B118">
-        <v>0.45498485108313264</v>
+        <v>0.45498479309895412</v>
       </c>
       <c r="C118">
-        <v>0.53054912766165074</v>
+        <v>0.53054916180047618</v>
       </c>
       <c r="D118">
         <v>0.03336612909046946</v>
@@ -1738,13 +1742,13 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.23563136355693073</v>
+        <v>0.23563165929708282</v>
       </c>
       <c r="B119">
-        <v>0.45267858941187217</v>
+        <v>0.4526786244786889</v>
       </c>
       <c r="C119">
-        <v>0.53194327047094636</v>
+        <v>0.53194319510965737</v>
       </c>
       <c r="D119">
         <v>0.035351710621376382</v>
@@ -1752,13 +1756,13 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.23782258233634737</v>
+        <v>0.23782242474956569</v>
       </c>
       <c r="B120">
-        <v>0.45230563681969205</v>
+        <v>0.45230557642879365</v>
       </c>
       <c r="C120">
-        <v>0.53183820806458082</v>
+        <v>0.53183827992066501</v>
       </c>
       <c r="D120">
         <v>0.035581596466337809</v>
@@ -1766,13 +1770,13 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.24908497020628179</v>
+        <v>0.24908486974821276</v>
       </c>
       <c r="B121">
-        <v>0.45344220895106008</v>
+        <v>0.45344225767278712</v>
       </c>
       <c r="C121">
-        <v>0.52867598629819879</v>
+        <v>0.52867594659516093</v>
       </c>
       <c r="D121">
         <v>0.035171502946376651</v>
@@ -1780,13 +1784,13 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.24489318629152096</v>
+        <v>0.24489315071862905</v>
       </c>
       <c r="B122">
-        <v>0.45165441412881496</v>
+        <v>0.45165440977596238</v>
       </c>
       <c r="C122">
-        <v>0.53103111240303047</v>
+        <v>0.53103111368694988</v>
       </c>
       <c r="D122">
         <v>0.037184062394308839</v>
@@ -1794,13 +1798,13 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.23442990994010984</v>
+        <v>0.23442999116352856</v>
       </c>
       <c r="B123">
-        <v>0.44932075806690136</v>
+        <v>0.44932071606627499</v>
       </c>
       <c r="C123">
-        <v>0.53513347850684645</v>
+        <v>0.53513349368094187</v>
       </c>
       <c r="D123">
         <v>0.038591257038557439</v>
@@ -1808,13 +1812,13 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.23583706750762898</v>
+        <v>0.23583700169051078</v>
       </c>
       <c r="B124">
-        <v>0.44810795461192005</v>
+        <v>0.44810799389753159</v>
       </c>
       <c r="C124">
-        <v>0.53588044769964727</v>
+        <v>0.53588042377357814</v>
       </c>
       <c r="D124">
         <v>0.03886136964332184</v>
@@ -1822,13 +1826,13 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.23015164821189593</v>
+        <v>0.23015179073657063</v>
       </c>
       <c r="B125">
-        <v>0.447607352547712</v>
+        <v>0.44760739378374453</v>
       </c>
       <c r="C125">
-        <v>0.53745143494309411</v>
+        <v>0.53745138335426168</v>
       </c>
       <c r="D125">
         <v>0.040778193016258388</v>
@@ -1836,13 +1840,13 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.22694648048441016</v>
+        <v>0.22694653849384194</v>
       </c>
       <c r="B126">
-        <v>0.44814510142814068</v>
+        <v>0.44814522445493538</v>
       </c>
       <c r="C126">
-        <v>0.53763283811268892</v>
+        <v>0.53763268874320658</v>
       </c>
       <c r="D126">
         <v>0.042511289349774599</v>
@@ -1850,13 +1854,13 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.23414107165796627</v>
+        <v>0.23414079900551946</v>
       </c>
       <c r="B127">
-        <v>0.44396328579626726</v>
+        <v>0.44396331054787913</v>
       </c>
       <c r="C127">
-        <v>0.53979364718913092</v>
+        <v>0.53979363716055273</v>
       </c>
       <c r="D127">
         <v>0.040212513118863751</v>
@@ -1864,13 +1868,13 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.24214031536869213</v>
+        <v>0.24214014147690086</v>
       </c>
       <c r="B128">
-        <v>0.44645964290464862</v>
+        <v>0.44645948854041628</v>
       </c>
       <c r="C128">
-        <v>0.53605922557113972</v>
+        <v>0.53605939794284097</v>
       </c>
       <c r="D128">
         <v>0.042108877197128962</v>
@@ -1878,13 +1882,13 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.24215572438730268</v>
+        <v>0.24215571207078851</v>
       </c>
       <c r="B129">
-        <v>0.44627643130271316</v>
+        <v>0.44627644773166292</v>
       </c>
       <c r="C129">
-        <v>0.53621014364242525</v>
+        <v>0.536210127764981</v>
       </c>
       <c r="D129">
         <v>0.043868352428152763</v>
@@ -1892,13 +1896,13 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.2303778944822254</v>
+        <v>0.23037803822554048</v>
       </c>
       <c r="B130">
-        <v>0.44240956137622423</v>
+        <v>0.44240953129678806</v>
       </c>
       <c r="C130">
-        <v>0.54198320930805621</v>
+        <v>0.54198323259392378</v>
       </c>
       <c r="D130">
         <v>0.04709903170629641</v>
@@ -1906,13 +1910,13 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.22545014403301794</v>
+        <v>0.22544994248471492</v>
       </c>
       <c r="B131">
-        <v>0.4449721358433652</v>
+        <v>0.44497220031574425</v>
       </c>
       <c r="C131">
-        <v>0.54087278481134249</v>
+        <v>0.5408727340058076</v>
       </c>
       <c r="D131">
         <v>0.047478523134406418</v>
@@ -1920,13 +1924,13 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.22336580324107616</v>
+        <v>0.22336608798691823</v>
       </c>
       <c r="B132">
-        <v>0.44987143797336276</v>
+        <v>0.44987146230611513</v>
       </c>
       <c r="C132">
-        <v>0.53714861990353102</v>
+        <v>0.53714857065214594</v>
       </c>
       <c r="D132">
         <v>0.046257019626460505</v>
@@ -1934,13 +1938,13 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.22215642643028702</v>
+        <v>0.22215623243527055</v>
       </c>
       <c r="B133">
-        <v>0.45276999176661781</v>
+        <v>0.45277000913903731</v>
       </c>
       <c r="C133">
-        <v>0.53491217452246564</v>
+        <v>0.53491215687504123</v>
       </c>
       <c r="D133">
         <v>0.046309724541609934</v>
@@ -1948,13 +1952,13 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.22041772101111781</v>
+        <v>0.22041780339041692</v>
       </c>
       <c r="B134">
-        <v>0.45428582466591982</v>
+        <v>0.45428590302342103</v>
       </c>
       <c r="C134">
-        <v>0.53394213495458132</v>
+        <v>0.53394205142535967</v>
       </c>
       <c r="D134">
         <v>0.047798836928561961</v>
@@ -1962,13 +1966,13 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.21441058253405804</v>
+        <v>0.21441067332202243</v>
       </c>
       <c r="B135">
-        <v>0.45842820660436268</v>
+        <v>0.45842822115612691</v>
       </c>
       <c r="C135">
-        <v>0.53150198458526399</v>
+        <v>0.53150197472120753</v>
       </c>
       <c r="D135">
         <v>0.048757230060037272</v>
@@ -1976,13 +1980,13 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.21127878406689429</v>
+        <v>0.21127859264189211</v>
       </c>
       <c r="B136">
-        <v>0.46307740544053844</v>
+        <v>0.4630773319465617</v>
       </c>
       <c r="C136">
-        <v>0.5280593681015372</v>
+        <v>0.5280594391337512</v>
       </c>
       <c r="D136">
         <v>0.049171914560866774</v>
@@ -1990,13 +1994,13 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.20305840598644223</v>
+        <v>0.2030584532910312</v>
       </c>
       <c r="B137">
-        <v>0.47500638913648924</v>
+        <v>0.47500638043990334</v>
       </c>
       <c r="C137">
-        <v>0.51922305381292433</v>
+        <v>0.51922306219709213</v>
       </c>
       <c r="D137">
         <v>0.050336421869005353</v>
@@ -2004,13 +2008,13 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.20264993280557156</v>
+        <v>0.20265003468169832</v>
       </c>
       <c r="B138">
-        <v>0.46433532425116159</v>
+        <v>0.46433537275385245</v>
       </c>
       <c r="C138">
-        <v>0.52856527453224178</v>
+        <v>0.52856522727350064</v>
       </c>
       <c r="D138">
         <v>0.047336204570331226</v>
@@ -2018,13 +2022,13 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.19690525287805272</v>
+        <v>0.19690501152795378</v>
       </c>
       <c r="B139">
-        <v>0.46426908457637728</v>
+        <v>0.46426913445640777</v>
       </c>
       <c r="C139">
-        <v>0.52960786577751617</v>
+        <v>0.52960783168191339</v>
       </c>
       <c r="D139">
         <v>0.048282251706224188</v>
@@ -2032,13 +2036,13 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.17902354491019806</v>
+        <v>0.17902323387169411</v>
       </c>
       <c r="B140">
-        <v>0.46818770652264019</v>
+        <v>0.46818769925984194</v>
       </c>
       <c r="C140">
-        <v>0.5292583636740682</v>
+        <v>0.52925838764250543</v>
       </c>
       <c r="D140">
         <v>0.052191756976296681</v>
@@ -2046,13 +2050,13 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.1760243818345914</v>
+        <v>0.17602464118982292</v>
       </c>
       <c r="B141">
-        <v>0.4722076605846719</v>
+        <v>0.47220769182864047</v>
       </c>
       <c r="C141">
-        <v>0.52624943611743447</v>
+        <v>0.52624939491511891</v>
       </c>
       <c r="D141">
         <v>0.053544540684338143</v>
@@ -2060,13 +2064,13 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.17712340729332735</v>
+        <v>0.1771232838057181</v>
       </c>
       <c r="B142">
-        <v>0.46933615848248605</v>
+        <v>0.46933618373132763</v>
       </c>
       <c r="C142">
-        <v>0.52857581665055353</v>
+        <v>0.52857579103138708</v>
       </c>
       <c r="D142">
         <v>0.053463178992096801</v>
@@ -2074,13 +2078,13 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.16610818383200088</v>
+        <v>0.16610797158775398</v>
       </c>
       <c r="B143">
-        <v>0.47010701061611587</v>
+        <v>0.47010700267745298</v>
       </c>
       <c r="C143">
-        <v>0.52972494030265993</v>
+        <v>0.52972495228618943</v>
       </c>
       <c r="D143">
         <v>0.056287385996254928</v>
@@ -2088,13 +2092,13 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.15014474646609571</v>
+        <v>0.1501445361469238</v>
       </c>
       <c r="B144">
-        <v>0.47693396275790645</v>
+        <v>0.47693398299371648</v>
       </c>
       <c r="C144">
-        <v>0.52638534008738613</v>
+        <v>0.52638534948056126</v>
       </c>
       <c r="D144">
         <v>0.061088949518380099</v>
@@ -2102,13 +2106,13 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.14072501658158179</v>
+        <v>0.14072511601383006</v>
       </c>
       <c r="B145">
-        <v>0.49261605667451885</v>
+        <v>0.49261604976132961</v>
       </c>
       <c r="C145">
-        <v>0.51422960930075345</v>
+        <v>0.5142296180199416</v>
       </c>
       <c r="D145">
         <v>0.06511906975066406</v>
@@ -2116,13 +2120,13 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.13822108178283429</v>
+        <v>0.13822080311677704</v>
       </c>
       <c r="B146">
-        <v>0.49782552172557948</v>
+        <v>0.4978255406848151</v>
       </c>
       <c r="C146">
-        <v>0.51008534734526156</v>
+        <v>0.51008534277780782</v>
       </c>
       <c r="D146">
         <v>0.066396364994348839</v>
@@ -2130,13 +2134,13 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.13363880336910117</v>
+        <v>0.133638749090529</v>
       </c>
       <c r="B147">
-        <v>0.50035955342157223</v>
+        <v>0.50035955108151087</v>
       </c>
       <c r="C147">
-        <v>0.50860385415578535</v>
+        <v>0.50860386122626045</v>
       </c>
       <c r="D147">
         <v>0.069459195052741507</v>
@@ -2144,13 +2148,13 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.13002416055797689</v>
+        <v>0.13002414081339661</v>
       </c>
       <c r="B148">
-        <v>0.50056698214201412</v>
+        <v>0.50056694595471263</v>
       </c>
       <c r="C148">
-        <v>0.50899194581598717</v>
+        <v>0.50899200510439391</v>
       </c>
       <c r="D148">
         <v>0.070663108389086557</v>
@@ -2158,13 +2162,13 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.12610559749556241</v>
+        <v>0.12610590800438415</v>
       </c>
       <c r="B149">
-        <v>0.50017295252117111</v>
+        <v>0.50017309342648364</v>
       </c>
       <c r="C149">
-        <v>0.50995121648707231</v>
+        <v>0.50995105375896754</v>
       </c>
       <c r="D149">
         <v>0.069762098342227713</v>
@@ -2172,13 +2176,13 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.13904782287146941</v>
+        <v>0.13904742881302104</v>
       </c>
       <c r="B150">
-        <v>0.49637791296346889</v>
+        <v>0.49637788902086599</v>
       </c>
       <c r="C150">
-        <v>0.51121680643612577</v>
+        <v>0.51121685288151797</v>
       </c>
       <c r="D150">
         <v>0.065374392557326091</v>
@@ -2186,13 +2190,13 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.10094161902717332</v>
+        <v>0.10094151163772802</v>
       </c>
       <c r="B151">
-        <v>0.48766784445422057</v>
+        <v>0.48766780671330162</v>
       </c>
       <c r="C151">
-        <v>0.52490724535339139</v>
+        <v>0.5249073108948964</v>
       </c>
       <c r="D151">
         <v>0.074088364015969521</v>
@@ -2200,13 +2204,13 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.10674418050917749</v>
+        <v>0.10674429986047189</v>
       </c>
       <c r="B152">
-        <v>0.48228879753356829</v>
+        <v>0.48228888227852512</v>
       </c>
       <c r="C152">
-        <v>0.52870836683281974</v>
+        <v>0.52870829889368587</v>
       </c>
       <c r="D152">
         <v>0.073198696817531966</v>
@@ -2214,13 +2218,13 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.1094730669347096</v>
+        <v>0.10947281976889478</v>
       </c>
       <c r="B153">
-        <v>0.48124947881588376</v>
+        <v>0.48124948771894843</v>
       </c>
       <c r="C153">
-        <v>0.5291836005208882</v>
+        <v>0.52918360377335849</v>
       </c>
       <c r="D153">
         <v>0.074696921478204448</v>
@@ -2228,13 +2232,13 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.13234567319558285</v>
+        <v>0.13234556213100657</v>
       </c>
       <c r="B154">
-        <v>0.48249162151128139</v>
+        <v>0.48249159552769472</v>
       </c>
       <c r="C154">
-        <v>0.5244896645375634</v>
+        <v>0.52448969876504103</v>
       </c>
       <c r="D154">
         <v>0.069974877458740217</v>
@@ -2242,13 +2246,13 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.1056663654846644</v>
+        <v>0.10566637541250883</v>
       </c>
       <c r="B155">
-        <v>0.47222028588132714</v>
+        <v>0.47222040049191732</v>
       </c>
       <c r="C155">
-        <v>0.53775834169025716</v>
+        <v>0.53775824163434049</v>
       </c>
       <c r="D155">
         <v>0.079488597644026424</v>
@@ -2256,13 +2260,13 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.11106681095606194</v>
+        <v>0.11106648399606464</v>
       </c>
       <c r="B156">
-        <v>0.47081059911906181</v>
+        <v>0.47081056103153113</v>
       </c>
       <c r="C156">
-        <v>0.53814480116511354</v>
+        <v>0.53814485658166122</v>
       </c>
       <c r="D156">
         <v>0.075361743551672009</v>
@@ -2270,13 +2274,13 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.11883574093927082</v>
+        <v>0.11883540186670777</v>
       </c>
       <c r="B157">
-        <v>0.47089136551673128</v>
+        <v>0.47089134608329358</v>
       </c>
       <c r="C157">
-        <v>0.53684288041204409</v>
+        <v>0.53684289972702937</v>
       </c>
       <c r="D157">
         <v>0.072437906905791022</v>
@@ -2284,13 +2288,13 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.075622546407949992</v>
+        <v>0.075622632714279145</v>
       </c>
       <c r="B158">
-        <v>0.46011946884294602</v>
+        <v>0.46011937657302315</v>
       </c>
       <c r="C158">
-        <v>0.5532445451349165</v>
+        <v>0.55324461188061258</v>
       </c>
       <c r="D158">
         <v>0.097238846921827937</v>
@@ -2298,13 +2302,13 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.082513409955344244</v>
+        <v>0.082513244037938596</v>
       </c>
       <c r="B159">
-        <v>0.4488220787207024</v>
+        <v>0.4488220787913364</v>
       </c>
       <c r="C159">
-        <v>0.56221476643341195</v>
+        <v>0.56221477103310236</v>
       </c>
       <c r="D159">
         <v>0.098022778000715877</v>
@@ -2312,13 +2316,13 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.10145459552616919</v>
+        <v>0.10145441373376157</v>
       </c>
       <c r="B160">
-        <v>0.44931494000809991</v>
+        <v>0.44931503961824537</v>
       </c>
       <c r="C160">
-        <v>0.5588024177938351</v>
+        <v>0.55880232928204376</v>
       </c>
       <c r="D160">
         <v>0.091306989362565649</v>
@@ -2326,13 +2330,13 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.12194467115948036</v>
+        <v>0.12194465190691162</v>
       </c>
       <c r="B161">
-        <v>0.45643791890154845</v>
+        <v>0.45643796487296495</v>
       </c>
       <c r="C161">
-        <v>0.5492420324261551</v>
+        <v>0.54924198377549172</v>
       </c>
       <c r="D161">
         <v>0.097533518518814102</v>
@@ -2340,13 +2344,13 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.10995151340138602</v>
+        <v>0.10995128527885967</v>
       </c>
       <c r="B162">
-        <v>0.45047313509165904</v>
+        <v>0.4504731220973151</v>
       </c>
       <c r="C162">
-        <v>0.55643385627181063</v>
+        <v>0.55643389282014277</v>
       </c>
       <c r="D162">
         <v>0.096217105682114903</v>
@@ -2354,13 +2358,13 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.11210779978792301</v>
+        <v>0.11210771162657046</v>
       </c>
       <c r="B163">
-        <v>0.45021110733709624</v>
+        <v>0.45021114092470105</v>
       </c>
       <c r="C163">
-        <v>0.55632042287932804</v>
+        <v>0.55632038882341339</v>
       </c>
       <c r="D163">
         <v>0.099055203180380441</v>
@@ -2368,13 +2372,13 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.12591848941461334</v>
+        <v>0.12591825704467169</v>
       </c>
       <c r="B164">
-        <v>0.45198278107586293</v>
+        <v>0.4519827558004923</v>
       </c>
       <c r="C164">
-        <v>0.55256377453397887</v>
+        <v>0.55256381711616576</v>
       </c>
       <c r="D164">
         <v>0.097272317553682139</v>
@@ -2382,13 +2386,13 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.10749014335474888</v>
+        <v>0.10749032854583565</v>
       </c>
       <c r="B165">
-        <v>0.4443977297931283</v>
+        <v>0.44439769472371454</v>
       </c>
       <c r="C165">
-        <v>0.56223965233107176</v>
+        <v>0.56223967668842012</v>
       </c>
       <c r="D165">
         <v>0.1078599114531083</v>
@@ -2396,13 +2400,13 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.12205037296993201</v>
+        <v>0.12205035045079625</v>
       </c>
       <c r="B166">
-        <v>0.44187329707954581</v>
+        <v>0.44187325134583166</v>
       </c>
       <c r="C166">
-        <v>0.56219732523624999</v>
+        <v>0.56219737512876145</v>
       </c>
       <c r="D166">
         <v>0.096878252691113442</v>
@@ -2410,13 +2414,13 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.12120759554860112</v>
+        <v>0.12120774327840013</v>
       </c>
       <c r="B167">
-        <v>0.44111062607936835</v>
+        <v>0.44111062352989944</v>
       </c>
       <c r="C167">
-        <v>0.56300634361571344</v>
+        <v>0.56300634059353694</v>
       </c>
       <c r="D167">
         <v>0.10280334340847548</v>
@@ -2424,13 +2428,13 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.11525195650849047</v>
+        <v>0.11525175582596212</v>
       </c>
       <c r="B168">
-        <v>0.43906347176503135</v>
+        <v>0.43906348817002455</v>
       </c>
       <c r="C168">
-        <v>0.56577812542959161</v>
+        <v>0.56577811189133009</v>
       </c>
       <c r="D168">
         <v>0.10531693195727962</v>
@@ -2438,13 +2442,13 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.12149768677552508</v>
+        <v>0.12149744443255948</v>
       </c>
       <c r="B169">
-        <v>0.43848827629379045</v>
+        <v>0.43848830667614319</v>
       </c>
       <c r="C169">
-        <v>0.56529431773147587</v>
+        <v>0.56529429980659951</v>
       </c>
       <c r="D169">
         <v>0.10174393785716943</v>
@@ -2452,13 +2456,13 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.12796846279014631</v>
+        <v>0.12796811416962151</v>
       </c>
       <c r="B170">
-        <v>0.43959376182283183</v>
+        <v>0.43959376385451193</v>
       </c>
       <c r="C170">
-        <v>0.56327030887086271</v>
+        <v>0.56327030975857406</v>
       </c>
       <c r="D170">
         <v>0.10087020388963683</v>
@@ -2466,13 +2470,13 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.1351472208012148</v>
+        <v>0.13514728060289632</v>
       </c>
       <c r="B171">
-        <v>0.44151238652668745</v>
+        <v>0.44151236197297578</v>
       </c>
       <c r="C171">
-        <v>0.56040393582592696</v>
+        <v>0.56040394255115611</v>
       </c>
       <c r="D171">
         <v>0.095632515045021807</v>
@@ -2480,13 +2484,13 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.13047059155447208</v>
+        <v>0.130470823027139</v>
       </c>
       <c r="B172">
-        <v>0.43939926782694105</v>
+        <v>0.43939926958278969</v>
       </c>
       <c r="C172">
-        <v>0.56303812216141447</v>
+        <v>0.56303811606746323</v>
       </c>
       <c r="D172">
         <v>0.1005174929630636</v>
@@ -2494,13 +2498,13 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.13920408589669131</v>
+        <v>0.1392042067248099</v>
       </c>
       <c r="B173">
-        <v>0.44007147898422949</v>
+        <v>0.4400716099128289</v>
       </c>
       <c r="C173">
-        <v>0.56102440339047077</v>
+        <v>0.56102426383961534</v>
       </c>
       <c r="D173">
         <v>0.097161192937438176</v>
@@ -2508,13 +2512,13 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.14077325652473385</v>
+        <v>0.14077329143770026</v>
       </c>
       <c r="B174">
-        <v>0.44037184853966654</v>
+        <v>0.44037188541789651</v>
       </c>
       <c r="C174">
-        <v>0.56049681546764718</v>
+        <v>0.56049677250577912</v>
       </c>
       <c r="D174">
         <v>0.10131395297127473</v>
@@ -2522,13 +2526,13 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.15004746672845107</v>
+        <v>0.15004728227575917</v>
       </c>
       <c r="B175">
-        <v>0.44281775867359141</v>
+        <v>0.44281773717145007</v>
       </c>
       <c r="C175">
-        <v>0.55679711345626792</v>
+        <v>0.55679716174079674</v>
       </c>
       <c r="D175">
         <v>0.09459784346938413</v>
@@ -2536,13 +2540,13 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.14989059259875961</v>
+        <v>0.14989078313524387</v>
       </c>
       <c r="B176">
-        <v>0.4425103392452302</v>
+        <v>0.44251025880385925</v>
       </c>
       <c r="C176">
-        <v>0.55709234144120778</v>
+        <v>0.55709242576249085</v>
       </c>
       <c r="D176">
         <v>0.095217658516588977</v>
@@ -2550,13 +2554,13 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.15889290837210437</v>
+        <v>0.15889282018592249</v>
       </c>
       <c r="B177">
-        <v>0.44500335783489764</v>
+        <v>0.4450033583139873</v>
       </c>
       <c r="C177">
-        <v>0.55337001130809349</v>
+        <v>0.553370017785629</v>
       </c>
       <c r="D177">
         <v>0.097386122435738035</v>
@@ -2564,13 +2568,13 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.16438352046255739</v>
+        <v>0.16438345342414173</v>
       </c>
       <c r="B178">
-        <v>0.44747873809884681</v>
+        <v>0.44747872046339393</v>
       </c>
       <c r="C178">
-        <v>0.550243368634598</v>
+        <v>0.55024338159165243</v>
       </c>
       <c r="D178">
         <v>0.098070796636289356</v>
@@ -2578,13 +2582,13 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.14332266373709449</v>
+        <v>0.1433228638194628</v>
       </c>
       <c r="B179">
-        <v>0.4369832399961755</v>
+        <v>0.43698320111712324</v>
       </c>
       <c r="C179">
-        <v>0.5631732076135253</v>
+        <v>0.56317324134104574</v>
       </c>
       <c r="D179">
         <v>0.10666597809604751</v>
@@ -2592,13 +2596,13 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.14286928925668971</v>
+        <v>0.1428694172665925</v>
       </c>
       <c r="B180">
-        <v>0.43699880483612136</v>
+        <v>0.43699883425007774</v>
       </c>
       <c r="C180">
-        <v>0.56323371848845871</v>
+        <v>0.56323368313951472</v>
       </c>
       <c r="D180">
         <v>0.11131191149982642</v>
@@ -2606,13 +2610,13 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.1503898217057594</v>
+        <v>0.15038991077284786</v>
       </c>
       <c r="B181">
-        <v>0.43173024512361097</v>
+        <v>0.43173022197124267</v>
       </c>
       <c r="C181">
-        <v>0.56663498557817793</v>
+        <v>0.5666350169315596</v>
       </c>
       <c r="D181">
         <v>0.11624639137904376</v>
@@ -2620,13 +2624,13 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.14941825658266467</v>
+        <v>0.14941819329831621</v>
       </c>
       <c r="B182">
-        <v>0.43106711036134476</v>
+        <v>0.43106713320328904</v>
       </c>
       <c r="C182">
-        <v>0.56738800308086623</v>
+        <v>0.56738797289537291</v>
       </c>
       <c r="D182">
         <v>0.12069797473376241</v>
@@ -2634,13 +2638,13 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.1520904331020935</v>
+        <v>0.15209048746904788</v>
       </c>
       <c r="B183">
-        <v>0.4317379741181645</v>
+        <v>0.43173797259492341</v>
       </c>
       <c r="C183">
-        <v>0.56632386453117789</v>
+        <v>0.56632385685814368</v>
       </c>
       <c r="D183">
         <v>0.12336646491443409</v>
@@ -2648,13 +2652,13 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.16232997934365653</v>
+        <v>0.16232977797627662</v>
       </c>
       <c r="B184">
-        <v>0.43508487997279777</v>
+        <v>0.43508487799662204</v>
       </c>
       <c r="C184">
-        <v>0.56155107806020699</v>
+        <v>0.56155107482171285</v>
       </c>
       <c r="D184">
         <v>0.12154670024408695</v>
@@ -2662,13 +2666,13 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.17002718874351369</v>
+        <v>0.17002710943927818</v>
       </c>
       <c r="B185">
-        <v>0.43986761677649616</v>
+        <v>0.43986760962441751</v>
       </c>
       <c r="C185">
-        <v>0.5559419220533347</v>
+        <v>0.55594193276572512</v>
       </c>
       <c r="D185">
         <v>0.12363400115397497</v>
@@ -2676,13 +2680,13 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.16661881972895357</v>
+        <v>0.16661872283772197</v>
       </c>
       <c r="B186">
-        <v>0.43752881733608345</v>
+        <v>0.43752884789005497</v>
       </c>
       <c r="C186">
-        <v>0.55863113303149836</v>
+        <v>0.55863109297430413</v>
       </c>
       <c r="D186">
         <v>0.12639998362488272</v>
@@ -2690,13 +2694,13 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.17346740907322836</v>
+        <v>0.17346743759857502</v>
       </c>
       <c r="B187">
-        <v>0.43986326125604835</v>
+        <v>0.43986327595842156</v>
       </c>
       <c r="C187">
-        <v>0.5552519771027461</v>
+        <v>0.55525196344273009</v>
       </c>
       <c r="D187">
         <v>0.12565042830222992</v>
@@ -2704,13 +2708,13 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.17478446294445715</v>
+        <v>0.17478456674844398</v>
       </c>
       <c r="B188">
-        <v>0.44066031567420089</v>
+        <v>0.4406604070340211</v>
       </c>
       <c r="C188">
-        <v>0.55429262902116339</v>
+        <v>0.55429255004344824</v>
       </c>
       <c r="D188">
         <v>0.13082007504042306</v>
@@ -2718,13 +2722,13 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.17801386999112198</v>
+        <v>0.17801370128640995</v>
       </c>
       <c r="B189">
-        <v>0.44234112077659138</v>
+        <v>0.44234105048402078</v>
       </c>
       <c r="C189">
-        <v>0.55215560851754097</v>
+        <v>0.55215569431467737</v>
       </c>
       <c r="D189">
         <v>0.13783349250411717</v>
@@ -2732,13 +2736,13 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.18091639914868862</v>
+        <v>0.18091644094052858</v>
       </c>
       <c r="B190">
-        <v>0.44401039288042382</v>
+        <v>0.44401030838363237</v>
       </c>
       <c r="C190">
-        <v>0.5500789148732721</v>
+        <v>0.55007899264535276</v>
       </c>
       <c r="D190">
         <v>0.14035448448652471</v>
@@ -2746,13 +2750,13 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.18969038035846697</v>
+        <v>0.18969044224931816</v>
       </c>
       <c r="B191">
-        <v>0.44941763041979804</v>
+        <v>0.44941763601726148</v>
       </c>
       <c r="C191">
-        <v>0.54342269422042955</v>
+        <v>0.54342268644986413</v>
       </c>
       <c r="D191">
         <v>0.14338884254106304</v>
@@ -2760,13 +2764,13 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.18988466172159418</v>
+        <v>0.18988454909060176</v>
       </c>
       <c r="B192">
-        <v>0.44958860015365237</v>
+        <v>0.44958863913394159</v>
       </c>
       <c r="C192">
-        <v>0.54323015585560763</v>
+        <v>0.54323012745369637</v>
       </c>
       <c r="D192">
         <v>0.14507816631919424</v>
@@ -2774,13 +2778,13 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.18764889039819033</v>
+        <v>0.1876490502198245</v>
       </c>
       <c r="B193">
-        <v>0.44771336396754041</v>
+        <v>0.44771335704518256</v>
       </c>
       <c r="C193">
-        <v>0.54542393875415263</v>
+        <v>0.54542393742204665</v>
       </c>
       <c r="D193">
         <v>0.14744173034706695</v>
@@ -2788,13 +2792,13 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.18876281746992099</v>
+        <v>0.18876275214996965</v>
       </c>
       <c r="B194">
-        <v>0.44800351470183242</v>
+        <v>0.44800343095612322</v>
       </c>
       <c r="C194">
-        <v>0.54477944443119308</v>
+        <v>0.54477951908921873</v>
       </c>
       <c r="D194">
         <v>0.15423826509505364</v>
@@ -2802,13 +2806,13 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.19056554462613071</v>
+        <v>0.19056589707766694</v>
       </c>
       <c r="B195">
-        <v>0.44927724498347765</v>
+        <v>0.44927725578961408</v>
       </c>
       <c r="C195">
-        <v>0.54311126083986128</v>
+        <v>0.54311124595063531</v>
       </c>
       <c r="D195">
         <v>0.15245531980255794</v>
@@ -2816,13 +2820,13 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.19173235214480178</v>
+        <v>0.19173260818359031</v>
       </c>
       <c r="B196">
-        <v>0.45036652158121854</v>
+        <v>0.45036648832211584</v>
       </c>
       <c r="C196">
-        <v>0.54180447824661393</v>
+        <v>0.54180448838124884</v>
       </c>
       <c r="D196">
         <v>0.15469575149454959</v>
@@ -2830,13 +2834,13 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.1906812897460288</v>
+        <v>0.19068088447782003</v>
       </c>
       <c r="B197">
-        <v>0.44928827095328555</v>
+        <v>0.44928818495525219</v>
       </c>
       <c r="C197">
-        <v>0.5431132800473395</v>
+        <v>0.54311337875240073</v>
       </c>
       <c r="D197">
         <v>0.15792552803568247</v>
@@ -2844,13 +2848,13 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.19127227999728083</v>
+        <v>0.19127190956321763</v>
       </c>
       <c r="B198">
-        <v>0.44930110794811168</v>
+        <v>0.44930121026525782</v>
       </c>
       <c r="C198">
-        <v>0.54244820143706562</v>
+        <v>0.54244811532849624</v>
       </c>
       <c r="D198">
         <v>0.16415532522151666</v>
@@ -2858,13 +2862,13 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.19108761358161114</v>
+        <v>0.19108807739036412</v>
       </c>
       <c r="B199">
-        <v>0.4490597894353805</v>
+        <v>0.44905976813269438</v>
       </c>
       <c r="C199">
-        <v>0.54272505326386744</v>
+        <v>0.54272506790261543</v>
       </c>
       <c r="D199">
         <v>0.16375136416942834</v>
@@ -2872,13 +2876,13 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.19057233595250594</v>
+        <v>0.19057239477425675</v>
       </c>
       <c r="B200">
-        <v>0.44815513419601427</v>
+        <v>0.44815524059093498</v>
       </c>
       <c r="C200">
-        <v>0.54387105522093793</v>
+        <v>0.543870947824587</v>
       </c>
       <c r="D200">
         <v>0.16900268577188754</v>
@@ -2886,13 +2890,13 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.19117728448749244</v>
+        <v>0.19117726517056821</v>
       </c>
       <c r="B201">
-        <v>0.44863771144479303</v>
+        <v>0.44863767694956763</v>
       </c>
       <c r="C201">
-        <v>0.54369900449191988</v>
+        <v>0.54369904266489755</v>
       </c>
       <c r="D201">
         <v>0.17208371944184123</v>
@@ -2900,13 +2904,13 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.1912560295521108</v>
+        <v>0.19125619935346458</v>
       </c>
       <c r="B202">
-        <v>0.44873685789609863</v>
+        <v>0.44873688526716976</v>
       </c>
       <c r="C202">
-        <v>0.54361635441356504</v>
+        <v>0.54361634010920612</v>
       </c>
       <c r="D202">
         <v>0.17702329315330129</v>
@@ -2914,13 +2918,13 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.18998517965635636</v>
+        <v>0.18998539321535982</v>
       </c>
       <c r="B203">
-        <v>0.44694998554988863</v>
+        <v>0.44694994307728997</v>
       </c>
       <c r="C203">
-        <v>0.54493020216913624</v>
+        <v>0.54493022568125571</v>
       </c>
       <c r="D203">
         <v>0.17834256205973859</v>
@@ -2928,13 +2932,13 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.19113682321896938</v>
+        <v>0.19113646899339976</v>
       </c>
       <c r="B204">
-        <v>0.44866844782386073</v>
+        <v>0.44866832981607974</v>
       </c>
       <c r="C204">
-        <v>0.54285344585569462</v>
+        <v>0.54285357719496397</v>
       </c>
       <c r="D204">
         <v>0.18601235280689973</v>
@@ -2942,13 +2946,13 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.18987290909692728</v>
+        <v>0.18987247574218963</v>
       </c>
       <c r="B205">
-        <v>0.44639807602916548</v>
+        <v>0.44639806187949427</v>
       </c>
       <c r="C205">
-        <v>0.54544109594867851</v>
+        <v>0.545441112667994</v>
       </c>
       <c r="D205">
         <v>0.1895401905676744</v>
@@ -2956,13 +2960,13 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.18917109679361388</v>
+        <v>0.18917105650227464</v>
       </c>
       <c r="B206">
-        <v>0.44622080801254704</v>
+        <v>0.44622082323547785</v>
       </c>
       <c r="C206">
-        <v>0.54530697139464546</v>
+        <v>0.54530696325647099</v>
       </c>
       <c r="D206">
         <v>0.20153852936225167</v>
@@ -2970,13 +2974,13 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.18922012501199298</v>
+        <v>0.1892203655934083</v>
       </c>
       <c r="B207">
-        <v>0.44636200407047355</v>
+        <v>0.44636196379307247</v>
       </c>
       <c r="C207">
-        <v>0.54514479414082273</v>
+        <v>0.54514481927252134</v>
       </c>
       <c r="D207">
         <v>0.20479079951551718</v>
@@ -2984,13 +2988,13 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.18895531611868363</v>
+        <v>0.18895521007046798</v>
       </c>
       <c r="B208">
-        <v>0.44708521881733887</v>
+        <v>0.44708534774411385</v>
       </c>
       <c r="C208">
-        <v>0.54417722564653692</v>
+        <v>0.54417711286655368</v>
       </c>
       <c r="D208">
         <v>0.20511535760325675</v>
@@ -2998,13 +3002,13 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.18899042234053226</v>
+        <v>0.18899029001032677</v>
       </c>
       <c r="B209">
-        <v>0.44723648893524459</v>
+        <v>0.44723638021048323</v>
       </c>
       <c r="C209">
-        <v>0.54400956477009221</v>
+        <v>0.54400966283732011</v>
       </c>
       <c r="D209">
         <v>0.21611152893111701</v>
@@ -3012,13 +3016,13 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.18996885597188909</v>
+        <v>0.18996879257755353</v>
       </c>
       <c r="B210">
-        <v>0.44612686896048581</v>
+        <v>0.44612663189885238</v>
       </c>
       <c r="C210">
-        <v>0.54544633746974969</v>
+        <v>0.54544658092942377</v>
       </c>
       <c r="D210">
         <v>0.21773451508462352</v>
@@ -3026,13 +3030,13 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.1915409952019374</v>
+        <v>0.19154094259622104</v>
       </c>
       <c r="B211">
-        <v>0.44717235790724774</v>
+        <v>0.44717241993885765</v>
       </c>
       <c r="C211">
-        <v>0.54454738249320467</v>
+        <v>0.54454734588191755</v>
       </c>
       <c r="D211">
         <v>0.21897558785261018</v>
@@ -3040,13 +3044,13 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.19020583569954</v>
+        <v>0.19020610557065484</v>
       </c>
       <c r="B212">
-        <v>0.4461151977070949</v>
+        <v>0.44611529297462971</v>
       </c>
       <c r="C212">
-        <v>0.54547554983454016</v>
+        <v>0.54547545130290898</v>
       </c>
       <c r="D212">
         <v>0.21690854237999102</v>
@@ -3054,13 +3058,13 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.18904791377336219</v>
+        <v>0.18904814170105155</v>
       </c>
       <c r="B213">
-        <v>0.44583068606126902</v>
+        <v>0.44583074802024875</v>
       </c>
       <c r="C213">
-        <v>0.5455052367707498</v>
+        <v>0.54550515965753232</v>
       </c>
       <c r="D213">
         <v>0.22282638350812781</v>
@@ -3068,13 +3072,13 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.18922307748047545</v>
+        <v>0.18922287677550659</v>
       </c>
       <c r="B214">
-        <v>0.4449300302741947</v>
+        <v>0.44492995097346671</v>
       </c>
       <c r="C214">
-        <v>0.54660193912300958</v>
+        <v>0.54660203460223833</v>
       </c>
       <c r="D214">
         <v>0.22276586868712239</v>
@@ -3082,13 +3086,13 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.18898428163251177</v>
+        <v>0.18898457661241566</v>
       </c>
       <c r="B215">
-        <v>0.44487593329916347</v>
+        <v>0.44487599498104913</v>
       </c>
       <c r="C215">
-        <v>0.54661579437825858</v>
+        <v>0.54661572122202007</v>
       </c>
       <c r="D215">
         <v>0.23486029174294334</v>
@@ -3096,13 +3100,13 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.19033129384491454</v>
+        <v>0.19033104596928732</v>
       </c>
       <c r="B216">
-        <v>0.4450761103786256</v>
+        <v>0.44507599944496762</v>
       </c>
       <c r="C216">
-        <v>0.54666564530137729</v>
+        <v>0.54666575566557096</v>
       </c>
       <c r="D216">
         <v>0.24557363761770024</v>
@@ -3110,13 +3114,13 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.19213741874498513</v>
+        <v>0.19213695902872663</v>
       </c>
       <c r="B217">
-        <v>0.44645927209869912</v>
+        <v>0.44645927509584921</v>
       </c>
       <c r="C217">
-        <v>0.54546642472663465</v>
+        <v>0.54546643289260033</v>
       </c>
       <c r="D217">
         <v>0.25262374923192643</v>
@@ -3124,13 +3128,13 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.19079416076378763</v>
+        <v>0.19079474897459894</v>
       </c>
       <c r="B218">
-        <v>0.44520764200000207</v>
+        <v>0.44520777985255006</v>
       </c>
       <c r="C218">
-        <v>0.54658004403386529</v>
+        <v>0.54657991197071742</v>
       </c>
       <c r="D218">
         <v>0.25345999887240434</v>
@@ -3138,13 +3142,13 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.19061776504225686</v>
+        <v>0.19061812600000033</v>
       </c>
       <c r="B219">
-        <v>0.44514393438061889</v>
+        <v>0.44514398369170294</v>
       </c>
       <c r="C219">
-        <v>0.54659192537438483</v>
+        <v>0.54659187177931845</v>
       </c>
       <c r="D219">
         <v>0.25317921503685525</v>
@@ -3152,13 +3156,13 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.19007035737985431</v>
+        <v>0.1900702640581334</v>
       </c>
       <c r="B220">
-        <v>0.44511231274787399</v>
+        <v>0.44511226649913188</v>
       </c>
       <c r="C220">
-        <v>0.54641569485745023</v>
+        <v>0.54641574572626739</v>
       </c>
       <c r="D220">
         <v>0.25306783181932252</v>
@@ -3166,13 +3170,13 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.1900914114645777</v>
+        <v>0.19009128692924707</v>
       </c>
       <c r="B221">
-        <v>0.4451684243455778</v>
+        <v>0.44516845364436103</v>
       </c>
       <c r="C221">
-        <v>0.54635412690167173</v>
+        <v>0.54635410289360486</v>
       </c>
       <c r="D221">
         <v>0.26441538784074736</v>
@@ -3180,13 +3184,13 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.19115442791602721</v>
+        <v>0.19115451034044864</v>
       </c>
       <c r="B222">
-        <v>0.44441930922754841</v>
+        <v>0.44441941661479528</v>
       </c>
       <c r="C222">
-        <v>0.54753696486464098</v>
+        <v>0.54753687128394679</v>
       </c>
       <c r="D222">
         <v>0.26824709716999262</v>
@@ -3194,13 +3198,13 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.19046137799691781</v>
+        <v>0.19046096024778431</v>
       </c>
       <c r="B223">
-        <v>0.44378129536708855</v>
+        <v>0.44378127298473691</v>
       </c>
       <c r="C223">
-        <v>0.54810575927077432</v>
+        <v>0.54810579065750897</v>
       </c>
       <c r="D223">
         <v>0.27617907579185874</v>
@@ -3208,13 +3212,13 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.19043114390423213</v>
+        <v>0.19043160502219683</v>
       </c>
       <c r="B224">
-        <v>0.44377090904474287</v>
+        <v>0.44377089845314949</v>
       </c>
       <c r="C224">
-        <v>0.5481078694324375</v>
+        <v>0.5481078503093636</v>
       </c>
       <c r="D224">
         <v>0.29370315694897325</v>
@@ -3222,13 +3226,13 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.18965901530373178</v>
+        <v>0.18965913262288553</v>
       </c>
       <c r="B225">
-        <v>0.44335383719079968</v>
+        <v>0.44335397354606682</v>
       </c>
       <c r="C225">
-        <v>0.54831586618291595</v>
+        <v>0.54831574128963634</v>
       </c>
       <c r="D225">
         <v>0.29999788185507814</v>
@@ -3236,13 +3240,13 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.18992323306432612</v>
+        <v>0.18992309696069792</v>
       </c>
       <c r="B226">
-        <v>0.44191678722288796</v>
+        <v>0.44191676863234131</v>
       </c>
       <c r="C226">
-        <v>0.55027025089601445</v>
+        <v>0.5502702627435998</v>
       </c>
       <c r="D226">
         <v>0.2894889425418381</v>
@@ -3250,13 +3254,13 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.1872653043053133</v>
+        <v>0.18726517695731656</v>
       </c>
       <c r="B227">
-        <v>0.43914366833924973</v>
+        <v>0.43914367470442162</v>
       </c>
       <c r="C227">
-        <v>0.55273567276765145</v>
+        <v>0.55273567635650833</v>
       </c>
       <c r="D227">
         <v>0.28887792888370128</v>
@@ -3264,13 +3268,13 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.18719913757947013</v>
+        <v>0.18719912793077517</v>
       </c>
       <c r="B228">
-        <v>0.4395267330351626</v>
+        <v>0.43952684904048228</v>
       </c>
       <c r="C228">
-        <v>0.55217667418455962</v>
+        <v>0.55217654405170291</v>
       </c>
       <c r="D228">
         <v>0.30186747584467938</v>
@@ -3278,13 +3282,13 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.18712569913129184</v>
+        <v>0.18712591501245113</v>
       </c>
       <c r="B229">
-        <v>0.43838937886220997</v>
+        <v>0.43838944180831718</v>
       </c>
       <c r="C229">
-        <v>0.55359830976456292</v>
+        <v>0.55359824533280733</v>
       </c>
       <c r="D229">
         <v>0.30471324579722531</v>
@@ -3292,13 +3296,13 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.18734186677127207</v>
+        <v>0.1873418583336145</v>
       </c>
       <c r="B230">
-        <v>0.43854633909202217</v>
+        <v>0.43854644359975731</v>
       </c>
       <c r="C230">
-        <v>0.55347887085023761</v>
+        <v>0.55347878970490438</v>
       </c>
       <c r="D230">
         <v>0.30884685393378714</v>
@@ -3306,13 +3310,13 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.18730520275787957</v>
+        <v>0.18730548361816288</v>
       </c>
       <c r="B231">
-        <v>0.43853095956688332</v>
+        <v>0.43853092476358085</v>
       </c>
       <c r="C231">
-        <v>0.55348460446228431</v>
+        <v>0.55348464632073913</v>
       </c>
       <c r="D231">
         <v>0.33064677018654359</v>
@@ -3320,13 +3324,13 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.18570758885667543</v>
+        <v>0.18570774917455632</v>
       </c>
       <c r="B232">
-        <v>0.43765936023793695</v>
+        <v>0.43765934131428036</v>
       </c>
       <c r="C232">
-        <v>0.55391791100449106</v>
+        <v>0.55391791215996866</v>
       </c>
       <c r="D232">
         <v>0.348723525337717</v>
@@ -3334,13 +3338,13 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.1849044051530348</v>
+        <v>0.18490402238154202</v>
       </c>
       <c r="B233">
-        <v>0.43521545870735157</v>
+        <v>0.43521570092536016</v>
       </c>
       <c r="C233">
-        <v>0.55667838730519281</v>
+        <v>0.55667814441208374</v>
       </c>
       <c r="D233">
         <v>0.34850525134315635</v>
@@ -3348,13 +3352,13 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.18465286753810417</v>
+        <v>0.18465279291200687</v>
       </c>
       <c r="B234">
-        <v>0.43514529794027812</v>
+        <v>0.43514519987477129</v>
       </c>
       <c r="C234">
-        <v>0.55669538989039857</v>
+        <v>0.55669549435749321</v>
       </c>
       <c r="D234">
         <v>0.36110639070204087</v>
@@ -3362,13 +3366,13 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.1845541075871818</v>
+        <v>0.18455380491997847</v>
       </c>
       <c r="B235">
-        <v>0.43516845380146391</v>
+        <v>0.43516851769676224</v>
       </c>
       <c r="C235">
-        <v>0.55664266847681521</v>
+        <v>0.55664261246445323</v>
       </c>
       <c r="D235">
         <v>0.37489182486647432</v>
@@ -3376,13 +3380,13 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.18580198367873815</v>
+        <v>0.18580187207848012</v>
       </c>
       <c r="B236">
-        <v>0.43515634541931658</v>
+        <v>0.43515629895210917</v>
       </c>
       <c r="C236">
-        <v>0.55696768142802067</v>
+        <v>0.55696772831076347</v>
       </c>
       <c r="D236">
         <v>0.38488120695326716</v>
@@ -3390,13 +3394,13 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.18538532364891819</v>
+        <v>0.18538534696448297</v>
       </c>
       <c r="B237">
-        <v>0.43479727579805288</v>
+        <v>0.43479722170262791</v>
       </c>
       <c r="C237">
-        <v>0.55728109157132322</v>
+        <v>0.55728115771641995</v>
       </c>
       <c r="D237">
         <v>0.39743235318006437</v>
@@ -3404,13 +3408,13 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.18492988189464507</v>
+        <v>0.18492980972192999</v>
       </c>
       <c r="B238">
-        <v>0.43450437356197608</v>
+        <v>0.434504211634961</v>
       </c>
       <c r="C238">
-        <v>0.55748452627401068</v>
+        <v>0.55748467965739767</v>
       </c>
       <c r="D238">
         <v>0.40036138792835924</v>
@@ -3418,13 +3422,13 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.18403159488571608</v>
+        <v>0.18403178197612499</v>
       </c>
       <c r="B239">
-        <v>0.43444592930148673</v>
+        <v>0.43444588287088426</v>
       </c>
       <c r="C239">
-        <v>0.55722263630370827</v>
+        <v>0.55722265299038565</v>
       </c>
       <c r="D239">
         <v>0.43627645601107762</v>
@@ -3432,13 +3436,13 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.18416895254856955</v>
+        <v>0.18416905946830173</v>
       </c>
       <c r="B240">
-        <v>0.43508210782189499</v>
+        <v>0.43508211128150093</v>
       </c>
       <c r="C240">
-        <v>0.55649629754541619</v>
+        <v>0.55649631217362316</v>
       </c>
       <c r="D240">
         <v>0.45873365326333426</v>
@@ -3446,13 +3450,13 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.18446194921526529</v>
+        <v>0.18446176833157349</v>
       </c>
       <c r="B241">
-        <v>0.4333789356139886</v>
+        <v>0.43337885403351495</v>
       </c>
       <c r="C241">
-        <v>0.55851100426933353</v>
+        <v>0.55851108257846771</v>
       </c>
       <c r="D241">
         <v>0.46875671386872603</v>
@@ -3460,13 +3464,13 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.18851988251432425</v>
+        <v>0.18851960728622794</v>
       </c>
       <c r="B242">
-        <v>0.43574221607363456</v>
+        <v>0.43574213312681315</v>
       </c>
       <c r="C242">
-        <v>0.55659886656654067</v>
+        <v>0.5565989517769242</v>
       </c>
       <c r="D242">
         <v>0.47547565205439535</v>
@@ -3474,13 +3478,13 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.18517013558942641</v>
+        <v>0.18516986962438245</v>
       </c>
       <c r="B243">
-        <v>0.43209448191738919</v>
+        <v>0.43209440914696318</v>
       </c>
       <c r="C243">
-        <v>0.56002809857766378</v>
+        <v>0.56002816844148018</v>
       </c>
       <c r="D243">
         <v>0.48773178154293684</v>
@@ -3488,13 +3492,13 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.18517946619347994</v>
+        <v>0.1851798370503541</v>
       </c>
       <c r="B244">
-        <v>0.43211054753855044</v>
+        <v>0.43211060942418605</v>
       </c>
       <c r="C244">
-        <v>0.5600119463350498</v>
+        <v>0.56001188955494918</v>
       </c>
       <c r="D244">
         <v>0.50046265773260146</v>
@@ -3502,13 +3506,13 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.18634722657821592</v>
+        <v>0.1863464457880083</v>
       </c>
       <c r="B245">
-        <v>0.43266291722009076</v>
+        <v>0.43266281099771758</v>
       </c>
       <c r="C245">
-        <v>0.55981784661788436</v>
+        <v>0.55981797047824067</v>
       </c>
       <c r="D245">
         <v>0.50840947995466101</v>
@@ -3516,13 +3520,13 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.18618894448583698</v>
+        <v>0.18618864401020055</v>
       </c>
       <c r="B246">
-        <v>0.4324813343903578</v>
+        <v>0.43248113632007901</v>
       </c>
       <c r="C246">
-        <v>0.55997884744866699</v>
+        <v>0.55997906995488134</v>
       </c>
       <c r="D246">
         <v>0.54171665217385001</v>
@@ -3530,13 +3534,13 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.18663828179909864</v>
+        <v>0.18663833411166963</v>
       </c>
       <c r="B247">
-        <v>0.43300177526750738</v>
+        <v>0.43300188519371274</v>
       </c>
       <c r="C247">
-        <v>0.55957390998166245</v>
+        <v>0.55957380608790386</v>
       </c>
       <c r="D247">
         <v>0.55112454817080925</v>
@@ -3544,13 +3548,13 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.18641722585471035</v>
+        <v>0.18641763870014222</v>
       </c>
       <c r="B248">
-        <v>0.43270537292045641</v>
+        <v>0.43270541239187099</v>
       </c>
       <c r="C248">
-        <v>0.55981128463597929</v>
+        <v>0.55981124225168444</v>
       </c>
       <c r="D248">
         <v>0.57497046240386374</v>
@@ -3558,13 +3562,13 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.18716298347791821</v>
+        <v>0.18716305407536837</v>
       </c>
       <c r="B249">
-        <v>0.43382613566962236</v>
+        <v>0.43382618328304412</v>
       </c>
       <c r="C249">
-        <v>0.55926644994039953</v>
+        <v>0.5592664125177208</v>
       </c>
       <c r="D249">
         <v>0.58136556639986714</v>
@@ -3572,13 +3576,13 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.18593712770589632</v>
+        <v>0.18593718877796034</v>
       </c>
       <c r="B250">
-        <v>0.43183950038119479</v>
+        <v>0.43183953816039428</v>
       </c>
       <c r="C250">
-        <v>0.5610695577490753</v>
+        <v>0.56106951808867411</v>
       </c>
       <c r="D250">
         <v>0.60103491555545607</v>
@@ -3586,13 +3590,13 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.18602269305388927</v>
+        <v>0.18602299588224286</v>
       </c>
       <c r="B251">
-        <v>0.43241237609370781</v>
+        <v>0.43241244766864789</v>
       </c>
       <c r="C251">
-        <v>0.56072062379942245</v>
+        <v>0.56072054155136608</v>
       </c>
       <c r="D251">
         <v>0.62592071519310122</v>
@@ -3600,13 +3604,13 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.18562487458027546</v>
+        <v>0.18562520431074342</v>
       </c>
       <c r="B252">
-        <v>0.43123844411828749</v>
+        <v>0.4312383519233885</v>
       </c>
       <c r="C252">
-        <v>0.56165676422688404</v>
+        <v>0.5616568438408206</v>
       </c>
       <c r="D252">
         <v>0.64842159761610685</v>
@@ -3614,13 +3618,13 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.18615485974887053</v>
+        <v>0.18615529138738171</v>
       </c>
       <c r="B253">
-        <v>0.43133050677458235</v>
+        <v>0.43133054995061354</v>
       </c>
       <c r="C253">
-        <v>0.56130616089863294</v>
+        <v>0.56130609213826566</v>
       </c>
       <c r="D253">
         <v>0.6749052181651144</v>
@@ -3628,13 +3632,13 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.18686563640264461</v>
+        <v>0.18686543181012369</v>
       </c>
       <c r="B254">
-        <v>0.43195128135259964</v>
+        <v>0.43195121442950407</v>
       </c>
       <c r="C254">
-        <v>0.5604939636527031</v>
+        <v>0.56049400671134764</v>
       </c>
       <c r="D254">
         <v>0.70107902621277018</v>
@@ -3642,13 +3646,13 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.18756344137398884</v>
+        <v>0.18756324550859896</v>
       </c>
       <c r="B255">
-        <v>0.43271165328323541</v>
+        <v>0.43271161001998909</v>
       </c>
       <c r="C255">
-        <v>0.5595490223208055</v>
+        <v>0.5595490915482364</v>
       </c>
       <c r="D255">
         <v>0.75790770050736311</v>
@@ -3656,13 +3660,13 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.18847439560732901</v>
+        <v>0.18847431905178605</v>
       </c>
       <c r="B256">
-        <v>0.43392898263681601</v>
+        <v>0.43392895780508794</v>
       </c>
       <c r="C256">
-        <v>0.55807372873576599</v>
+        <v>0.55807373747242184</v>
       </c>
       <c r="D256">
         <v>0.7539946152896021</v>
@@ -3670,13 +3674,13 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.18603117040521189</v>
+        <v>0.18603173850257354</v>
       </c>
       <c r="B257">
-        <v>0.42981758617718174</v>
+        <v>0.42981775502809294</v>
       </c>
       <c r="C257">
-        <v>0.56282987734034651</v>
+        <v>0.56282974073947689</v>
       </c>
       <c r="D257">
         <v>0.80426319428206028</v>
@@ -3684,13 +3688,13 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.18543787928500843</v>
+        <v>0.18543731401465613</v>
       </c>
       <c r="B258">
-        <v>0.42907608315177398</v>
+        <v>0.42907614555078111</v>
       </c>
       <c r="C258">
-        <v>0.56346379242183786</v>
+        <v>0.56346372150339963</v>
       </c>
       <c r="D258">
         <v>0.81465221973202107</v>
@@ -3698,13 +3702,13 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.18548854199003095</v>
+        <v>0.18548840362730359</v>
       </c>
       <c r="B259">
-        <v>0.42913527096846943</v>
+        <v>0.42913533970459561</v>
       </c>
       <c r="C259">
-        <v>0.56343584882639397</v>
+        <v>0.56343579310990899</v>
       </c>
       <c r="D259">
         <v>0.84755199245772306</v>
@@ -3712,13 +3716,13 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.18532031678200137</v>
+        <v>0.18532058504269405</v>
       </c>
       <c r="B260">
-        <v>0.42892529093529569</v>
+        <v>0.42892536100129069</v>
       </c>
       <c r="C260">
-        <v>0.56353636089997861</v>
+        <v>0.56353630771578134</v>
       </c>
       <c r="D260">
         <v>0.87332160273635606</v>
@@ -3726,13 +3730,13 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.18533908021688575</v>
+        <v>0.18533908335570765</v>
       </c>
       <c r="B261">
-        <v>0.42900332886389952</v>
+        <v>0.42900320990680918</v>
       </c>
       <c r="C261">
-        <v>0.5633270380726122</v>
+        <v>0.56332714985920374</v>
       </c>
       <c r="D261">
         <v>0.88058176049954429</v>
@@ -3740,13 +3744,13 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.18551985527012529</v>
+        <v>0.18551973961071394</v>
       </c>
       <c r="B262">
-        <v>0.42942478060730493</v>
+        <v>0.42942486457144108</v>
       </c>
       <c r="C262">
-        <v>0.56272575354713994</v>
+        <v>0.56272566523545453</v>
       </c>
       <c r="D262">
         <v>0.93609853116509623</v>
@@ -3754,13 +3758,13 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.18540313846741996</v>
+        <v>0.18540322735712569</v>
       </c>
       <c r="B263">
-        <v>0.42912086664333743</v>
+        <v>0.42912073620374469</v>
       </c>
       <c r="C263">
-        <v>0.56310629485982899</v>
+        <v>0.56310636763388311</v>
       </c>
       <c r="D263">
         <v>0.96180747256851351</v>
@@ -3768,13 +3772,13 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.18559804111390449</v>
+        <v>0.18559891464171205</v>
       </c>
       <c r="B264">
-        <v>0.42904292479224126</v>
+        <v>0.42904300018063785</v>
       </c>
       <c r="C264">
-        <v>0.56332179519648895</v>
+        <v>0.56332169588347103</v>
       </c>
       <c r="D264">
         <v>1.0015192497490242</v>
@@ -3782,13 +3786,13 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.18554097230192818</v>
+        <v>0.1855409116492619</v>
       </c>
       <c r="B265">
-        <v>0.42900416250017354</v>
+        <v>0.42900433313781522</v>
       </c>
       <c r="C265">
-        <v>0.5633442389622707</v>
+        <v>0.56334409067292857</v>
       </c>
       <c r="D265">
         <v>1.0259293511647429</v>
@@ -3796,13 +3800,13 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.18587131630092549</v>
+        <v>0.18587124122356791</v>
       </c>
       <c r="B266">
-        <v>0.42921087723348061</v>
+        <v>0.42921103027767576</v>
       </c>
       <c r="C266">
-        <v>0.56325267317176164</v>
+        <v>0.56325252938699144</v>
       </c>
       <c r="D266">
         <v>1.0795635468137323</v>
@@ -3810,13 +3814,13 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.18529501546979887</v>
+        <v>0.18529453717727495</v>
       </c>
       <c r="B267">
-        <v>0.42866220591294685</v>
+        <v>0.42866221314560748</v>
       </c>
       <c r="C267">
-        <v>0.56365871976336523</v>
+        <v>0.56365872361882763</v>
       </c>
       <c r="D267">
         <v>1.1036542808761496</v>
@@ -3824,13 +3828,13 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.18539544536519839</v>
+        <v>0.18539580773958941</v>
       </c>
       <c r="B268">
-        <v>0.428606345717429</v>
+        <v>0.42860629859413196</v>
       </c>
       <c r="C268">
-        <v>0.56382220211959988</v>
+        <v>0.56382224352223165</v>
       </c>
       <c r="D268">
         <v>1.132922291184038</v>
@@ -3838,13 +3842,13 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.18601573818606196</v>
+        <v>0.18601573468799032</v>
       </c>
       <c r="B269">
-        <v>0.42909186580777114</v>
+        <v>0.42909184075362783</v>
       </c>
       <c r="C269">
-        <v>0.56354745195842859</v>
+        <v>0.56354750224402483</v>
       </c>
       <c r="D269">
         <v>1.1743071896020207</v>
@@ -3852,13 +3856,13 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.18734157215272895</v>
+        <v>0.18734136391337822</v>
       </c>
       <c r="B270">
-        <v>0.43068138400043521</v>
+        <v>0.43068132663042868</v>
       </c>
       <c r="C270">
-        <v>0.5622140070234235</v>
+        <v>0.56221404224467941</v>
       </c>
       <c r="D270">
         <v>1.1436861188979546</v>
@@ -3866,13 +3870,13 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.18718818446394922</v>
+        <v>0.18718827083016987</v>
       </c>
       <c r="B271">
-        <v>0.43045712402615049</v>
+        <v>0.43045721276650112</v>
       </c>
       <c r="C271">
-        <v>0.56241469829425783</v>
+        <v>0.56241461036365548</v>
       </c>
       <c r="D271">
         <v>1.1819846022504874</v>
@@ -3880,13 +3884,13 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.18679129721027496</v>
+        <v>0.18679148163827139</v>
       </c>
       <c r="B272">
-        <v>0.42969794548617762</v>
+        <v>0.42969799079527843</v>
       </c>
       <c r="C272">
-        <v>0.56300891913316675</v>
+        <v>0.56300887976134362</v>
       </c>
       <c r="D272">
         <v>1.1677484013140098</v>
@@ -3894,13 +3898,13 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.18695255701568134</v>
+        <v>0.18695243159755356</v>
       </c>
       <c r="B273">
-        <v>0.42971366311493364</v>
+        <v>0.42971352137064212</v>
       </c>
       <c r="C273">
-        <v>0.56282447681493919</v>
+        <v>0.56282462211703621</v>
       </c>
       <c r="D273">
         <v>1.2356154546650993</v>
@@ -3908,13 +3912,13 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.18751139032190509</v>
+        <v>0.18751122861966502</v>
       </c>
       <c r="B274">
-        <v>0.43031351284410008</v>
+        <v>0.43031338084974219</v>
       </c>
       <c r="C274">
-        <v>0.56198452186050618</v>
+        <v>0.56198465304918399</v>
       </c>
       <c r="D274">
         <v>1.2323469176472581</v>
@@ -3922,13 +3926,13 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.18749047377644407</v>
+        <v>0.18749043578962679</v>
       </c>
       <c r="B275">
-        <v>0.43028363864953795</v>
+        <v>0.43028367930365924</v>
       </c>
       <c r="C275">
-        <v>0.56202294164395239</v>
+        <v>0.56202291572281038</v>
       </c>
       <c r="D275">
         <v>1.3064097330773385</v>
@@ -3936,13 +3940,13 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.18803387723453061</v>
+        <v>0.18803368050739716</v>
       </c>
       <c r="B276">
-        <v>0.43158635943412221</v>
+        <v>0.4315863856879299</v>
       </c>
       <c r="C276">
-        <v>0.56021396759858078</v>
+        <v>0.56021393788773577</v>
       </c>
       <c r="D276">
         <v>1.3565608148125219</v>
@@ -3950,13 +3954,13 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.18742709201751462</v>
+        <v>0.18742698427756904</v>
       </c>
       <c r="B277">
-        <v>0.43042736619852262</v>
+        <v>0.43042744335448369</v>
       </c>
       <c r="C277">
-        <v>0.56148230255189369</v>
+        <v>0.56148221556247913</v>
       </c>
       <c r="D277">
         <v>1.4481021919761889</v>
@@ -3964,13 +3968,13 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.1875500167335456</v>
+        <v>0.18754993120576996</v>
       </c>
       <c r="B278">
-        <v>0.42801894494745552</v>
+        <v>0.42801894862048989</v>
       </c>
       <c r="C278">
-        <v>0.56439710961185885</v>
+        <v>0.56439711827032657</v>
       </c>
       <c r="D278">
         <v>1.4653604808330583</v>
@@ -3978,13 +3982,13 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.18804007338349019</v>
+        <v>0.18804015325532195</v>
       </c>
       <c r="B279">
-        <v>0.42849728652775515</v>
+        <v>0.42849734732910505</v>
       </c>
       <c r="C279">
-        <v>0.56396306004867347</v>
+        <v>0.56396298974957526</v>
       </c>
       <c r="D279">
         <v>1.4904599804999872</v>
@@ -3992,13 +3996,13 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.18959143370129256</v>
+        <v>0.18959132212062083</v>
       </c>
       <c r="B280">
-        <v>0.43004436098344329</v>
+        <v>0.43004434217122639</v>
       </c>
       <c r="C280">
-        <v>0.5626294002975486</v>
+        <v>0.56262942421103979</v>
       </c>
       <c r="D280">
         <v>1.5609873212749847</v>
@@ -4006,13 +4010,13 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.18687511091353995</v>
+        <v>0.18687513234406647</v>
       </c>
       <c r="B281">
-        <v>0.42667406940118369</v>
+        <v>0.42667416689987897</v>
       </c>
       <c r="C281">
-        <v>0.56565705001803879</v>
+        <v>0.56565695224743706</v>
       </c>
       <c r="D281">
         <v>1.5629177133217855</v>
@@ -4020,13 +4024,13 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.18709065211326908</v>
+        <v>0.1870912089937504</v>
       </c>
       <c r="B282">
-        <v>0.42714650410640864</v>
+        <v>0.42714653576594636</v>
       </c>
       <c r="C282">
-        <v>0.56503198134132138</v>
+        <v>0.56503193031163479</v>
       </c>
       <c r="D282">
         <v>1.669764868327094</v>
@@ -4034,13 +4038,13 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.18713406311123781</v>
+        <v>0.18713440741947385</v>
       </c>
       <c r="B283">
-        <v>0.42724810367574478</v>
+        <v>0.427247948012422</v>
       </c>
       <c r="C283">
-        <v>0.56491197988230912</v>
+        <v>0.56491211799702212</v>
       </c>
       <c r="D283">
         <v>1.7441483870499528</v>
@@ -4048,13 +4052,13 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.18714329675057423</v>
+        <v>0.18714307740583205</v>
       </c>
       <c r="B284">
-        <v>0.42729112583887285</v>
+        <v>0.42729113120433149</v>
       </c>
       <c r="C284">
-        <v>0.56486018701312823</v>
+        <v>0.56486018951178918</v>
       </c>
       <c r="D284">
         <v>1.8203205352679264</v>
@@ -4062,13 +4066,13 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.18709286417364018</v>
+        <v>0.18709318024798124</v>
       </c>
       <c r="B285">
-        <v>0.42735738257274847</v>
+        <v>0.4273574459016598</v>
       </c>
       <c r="C285">
-        <v>0.56475975780585586</v>
+        <v>0.56475967492340973</v>
       </c>
       <c r="D285">
         <v>1.9078715461358171</v>
@@ -4076,13 +4080,13 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.18678183446605168</v>
+        <v>0.18678118948610395</v>
       </c>
       <c r="B286">
-        <v>0.42754657517611666</v>
+        <v>0.42754663938254789</v>
       </c>
       <c r="C286">
-        <v>0.56443275689186412</v>
+        <v>0.5644326962158851</v>
       </c>
       <c r="D286">
         <v>1.9724062265397846</v>
@@ -4090,13 +4094,13 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.18684327788645727</v>
+        <v>0.186843627618964</v>
       </c>
       <c r="B287">
-        <v>0.42739940220774453</v>
+        <v>0.42739920680190485</v>
       </c>
       <c r="C287">
-        <v>0.56462350200429789</v>
+        <v>0.56462368652325945</v>
       </c>
       <c r="D287">
         <v>2.0737012631300229</v>
@@ -4104,13 +4108,13 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.18824905541818551</v>
+        <v>0.18824881632398552</v>
       </c>
       <c r="B288">
-        <v>0.42719106643512128</v>
+        <v>0.42719098613295864</v>
       </c>
       <c r="C288">
-        <v>0.56516559032355007</v>
+        <v>0.56516568952685264</v>
       </c>
       <c r="D288">
         <v>2.1666636191217084</v>
@@ -4118,13 +4122,13 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.1895527298499381</v>
+        <v>0.18955288333399525</v>
       </c>
       <c r="B289">
-        <v>0.4283888894163323</v>
+        <v>0.42838891581695909</v>
       </c>
       <c r="C289">
-        <v>0.56407784780255776</v>
+        <v>0.5640778203328749</v>
       </c>
       <c r="D289">
         <v>2.1599198315280264</v>
@@ -4132,13 +4136,13 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.18834980487570624</v>
+        <v>0.18834934799337738</v>
       </c>
       <c r="B290">
-        <v>0.42714869262975802</v>
+        <v>0.42714860668534005</v>
       </c>
       <c r="C290">
-        <v>0.56519029469695836</v>
+        <v>0.56519041052983598</v>
       </c>
       <c r="D290">
         <v>2.2112325122328875</v>
@@ -4146,13 +4150,13 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.18988065033938015</v>
+        <v>0.18988059677754043</v>
       </c>
       <c r="B291">
-        <v>0.42798086413996794</v>
+        <v>0.42798077726165218</v>
       </c>
       <c r="C291">
-        <v>0.56488016566364097</v>
+        <v>0.56488024937618941</v>
       </c>
       <c r="D291">
         <v>2.2973939951975617</v>
@@ -4160,13 +4164,13 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.18602493923454047</v>
+        <v>0.18602487868433495</v>
       </c>
       <c r="B292">
-        <v>0.42287983791362665</v>
+        <v>0.42287989386537478</v>
       </c>
       <c r="C292">
-        <v>0.56961621259801665</v>
+        <v>0.56961615931194254</v>
       </c>
       <c r="D292">
         <v>2.3918672142315547</v>
@@ -4174,13 +4178,13 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.1857484069906192</v>
+        <v>0.18574878871371361</v>
       </c>
       <c r="B293">
-        <v>0.42239236546062076</v>
+        <v>0.42239222758758449</v>
       </c>
       <c r="C293">
-        <v>0.57033404507759433</v>
+        <v>0.57033417009274401</v>
       </c>
       <c r="D293">
         <v>2.4562368194685855</v>
@@ -4188,13 +4192,13 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.18599312605971635</v>
+        <v>0.18599237871879903</v>
       </c>
       <c r="B294">
-        <v>0.42270815394661448</v>
+        <v>0.42270808229095674</v>
       </c>
       <c r="C294">
-        <v>0.57010748143991963</v>
+        <v>0.57010761707083668</v>
       </c>
       <c r="D294">
         <v>2.5350137231580381</v>
@@ -4202,13 +4206,13 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.18676999266486541</v>
+        <v>0.18677007171215801</v>
       </c>
       <c r="B295">
-        <v>0.42387688804310264</v>
+        <v>0.4238769517407267</v>
       </c>
       <c r="C295">
-        <v>0.5692178806143402</v>
+        <v>0.56921779616101842</v>
       </c>
       <c r="D295">
         <v>2.6223082105165436</v>
@@ -4216,13 +4220,13 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.18582352938551261</v>
+        <v>0.18582397114111907</v>
       </c>
       <c r="B296">
-        <v>0.42226805500406361</v>
+        <v>0.42226806089186902</v>
       </c>
       <c r="C296">
-        <v>0.57063380043833212</v>
+        <v>0.57063378925425312</v>
       </c>
       <c r="D296">
         <v>2.6611925080367516</v>
@@ -4230,13 +4234,13 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.18589838541958315</v>
+        <v>0.18589835509406796</v>
       </c>
       <c r="B297">
-        <v>0.42215552817761209</v>
+        <v>0.42215545793952364</v>
       </c>
       <c r="C297">
-        <v>0.57061899615230638</v>
+        <v>0.57061907181201821</v>
       </c>
       <c r="D297">
         <v>2.7845005312581441</v>
@@ -4244,13 +4248,13 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.18649767852927945</v>
+        <v>0.18649778127702435</v>
       </c>
       <c r="B298">
-        <v>0.42257547172379478</v>
+        <v>0.42257544781644507</v>
       </c>
       <c r="C298">
-        <v>0.56989628121864866</v>
+        <v>0.56989629197403968</v>
       </c>
       <c r="D298">
         <v>2.9007942655474475</v>
@@ -4258,13 +4262,13 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.18716422253683107</v>
+        <v>0.1871642144898413</v>
       </c>
       <c r="B299">
-        <v>0.4234471422978579</v>
+        <v>0.42344733921889283</v>
       </c>
       <c r="C299">
-        <v>0.56887200497512791</v>
+        <v>0.56887181838879486</v>
       </c>
       <c r="D299">
         <v>3.0067341479144734</v>
@@ -4272,13 +4276,13 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.1861414851131197</v>
+        <v>0.18614157002780332</v>
       </c>
       <c r="B300">
-        <v>0.42174872702767052</v>
+        <v>0.42174859191106662</v>
       </c>
       <c r="C300">
-        <v>0.57086709725410301</v>
+        <v>0.57086722745128293</v>
       </c>
       <c r="D300">
         <v>3.0023978297028613</v>
@@ -4286,13 +4290,13 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.18540302640152612</v>
+        <v>0.18540311161145537</v>
       </c>
       <c r="B301">
-        <v>0.421060248875819</v>
+        <v>0.42106030809114858</v>
       </c>
       <c r="C301">
-        <v>0.57127527776328324</v>
+        <v>0.57127522598970204</v>
       </c>
       <c r="D301">
         <v>3.2917579171355968</v>
@@ -4300,13 +4304,13 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.18475210832610228</v>
+        <v>0.18475206281686127</v>
       </c>
       <c r="B302">
-        <v>0.41949480445023418</v>
+        <v>0.41949477073560687</v>
       </c>
       <c r="C302">
-        <v>0.57317382937598893</v>
+        <v>0.57317385346867211</v>
       </c>
       <c r="D302">
         <v>3.3907768603502562</v>
@@ -4314,13 +4318,13 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.18365773399012425</v>
+        <v>0.18365823156294395</v>
       </c>
       <c r="B303">
-        <v>0.41841382265061816</v>
+        <v>0.41841384494761308</v>
       </c>
       <c r="C303">
-        <v>0.57401858531828442</v>
+        <v>0.5740185561598562</v>
       </c>
       <c r="D303">
         <v>3.3031530006213954</v>
@@ -4328,13 +4332,13 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.1836866538505332</v>
+        <v>0.18368691372360205</v>
       </c>
       <c r="B304">
-        <v>0.41854047171554115</v>
+        <v>0.41854049372390945</v>
       </c>
       <c r="C304">
-        <v>0.57385577990820391</v>
+        <v>0.57385575921711096</v>
       </c>
       <c r="D304">
         <v>3.4859484473299065</v>
@@ -4342,13 +4346,13 @@
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.18361130404034179</v>
+        <v>0.18361189035583222</v>
       </c>
       <c r="B305">
-        <v>0.41887066101587889</v>
+        <v>0.41887085761674919</v>
       </c>
       <c r="C305">
-        <v>0.57338834255706406</v>
+        <v>0.57338812486773183</v>
       </c>
       <c r="D305">
         <v>3.6163732418885659</v>
@@ -4356,13 +4360,13 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.18361832811672638</v>
+        <v>0.18361795222279256</v>
       </c>
       <c r="B306">
-        <v>0.41831785590382309</v>
+        <v>0.4183178839661244</v>
       </c>
       <c r="C306">
-        <v>0.57407214877024471</v>
+        <v>0.57407213742301622</v>
       </c>
       <c r="D306">
         <v>3.6354159810619615</v>
@@ -4370,13 +4374,13 @@
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.1836884096568332</v>
+        <v>0.18368855416148566</v>
       </c>
       <c r="B307">
-        <v>0.41835083945052243</v>
+        <v>0.41835078061764241</v>
       </c>
       <c r="C307">
-        <v>0.574053173661488</v>
+        <v>0.57405321041595947</v>
       </c>
       <c r="D307">
         <v>3.7750198322134882</v>
@@ -4384,13 +4388,13 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.18481872031249336</v>
+        <v>0.1848182618591242</v>
       </c>
       <c r="B308">
-        <v>0.41875213890451546</v>
+        <v>0.41875207301619372</v>
       </c>
       <c r="C308">
-        <v>0.57389501558005596</v>
+        <v>0.57389507881197888</v>
       </c>
       <c r="D308">
         <v>3.7470474419206088</v>
@@ -4398,13 +4402,13 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.18511530726356171</v>
+        <v>0.18511521313526366</v>
       </c>
       <c r="B309">
-        <v>0.41904652440871426</v>
+        <v>0.41904665921778228</v>
       </c>
       <c r="C309">
-        <v>0.5736338701102266</v>
+        <v>0.57363375118031945</v>
       </c>
       <c r="D309">
         <v>3.8743790542080565</v>
@@ -4412,13 +4416,13 @@
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.18421343354805225</v>
+        <v>0.18421324510006984</v>
       </c>
       <c r="B310">
-        <v>0.41813277163855339</v>
+        <v>0.41813279411714255</v>
       </c>
       <c r="C310">
-        <v>0.57439543159391537</v>
+        <v>0.57439542570555646</v>
       </c>
       <c r="D310">
         <v>4.0543360691405184</v>
@@ -4426,13 +4430,13 @@
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.18389617693367766</v>
+        <v>0.18389608675987745</v>
       </c>
       <c r="B311">
-        <v>0.41827903485328666</v>
+        <v>0.41827888732342772</v>
       </c>
       <c r="C311">
-        <v>0.57397843849947039</v>
+        <v>0.57397858169237914</v>
       </c>
       <c r="D311">
         <v>4.2120195833156373</v>
@@ -4440,13 +4444,13 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.18310862751351037</v>
+        <v>0.18310893082341059</v>
       </c>
       <c r="B312">
-        <v>0.41590079455258933</v>
+        <v>0.41590076844403495</v>
       </c>
       <c r="C312">
-        <v>0.57672460856433627</v>
+        <v>0.57672462566830118</v>
       </c>
       <c r="D312">
         <v>4.2275663932048957</v>
@@ -4454,13 +4458,13 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.18276673956153755</v>
+        <v>0.1827667597805831</v>
       </c>
       <c r="B313">
-        <v>0.41562296814379474</v>
+        <v>0.41562296545972544</v>
       </c>
       <c r="C313">
-        <v>0.57694668757352041</v>
+        <v>0.5769466772418107</v>
       </c>
       <c r="D313">
         <v>4.3789396642656939</v>
@@ -4468,13 +4472,13 @@
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.18220841242289157</v>
+        <v>0.1822080079779955</v>
       </c>
       <c r="B314">
-        <v>0.41537006624891243</v>
+        <v>0.41537001014144576</v>
       </c>
       <c r="C314">
-        <v>0.57703392889909888</v>
+        <v>0.5770339936151504</v>
       </c>
       <c r="D314">
         <v>4.4884486553509388</v>
@@ -4482,13 +4486,13 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.18222390164321342</v>
+        <v>0.18222415292798771</v>
       </c>
       <c r="B315">
-        <v>0.41535332392304097</v>
+        <v>0.41535334845621313</v>
       </c>
       <c r="C315">
-        <v>0.57706160792938099</v>
+        <v>0.57706158835003352</v>
       </c>
       <c r="D315">
         <v>4.5930506655458636</v>
@@ -4496,13 +4500,13 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.18185256045859038</v>
+        <v>0.18185272737625785</v>
       </c>
       <c r="B316">
-        <v>0.4155641329673283</v>
+        <v>0.41556415799011792</v>
       </c>
       <c r="C316">
-        <v>0.57669458321825617</v>
+        <v>0.57669457446460815</v>
       </c>
       <c r="D316">
         <v>4.7452108883614672</v>
@@ -4510,13 +4514,13 @@
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.18167630718572353</v>
+        <v>0.18167651998740392</v>
       </c>
       <c r="B317">
-        <v>0.41690277832168099</v>
+        <v>0.41690276332979398</v>
       </c>
       <c r="C317">
-        <v>0.57508698868713659</v>
+        <v>0.5750869978453591</v>
       </c>
       <c r="D317">
         <v>4.811606515802425</v>
@@ -4524,13 +4528,13 @@
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.182066253203711</v>
+        <v>0.18206684064123488</v>
       </c>
       <c r="B318">
-        <v>0.41945247001395319</v>
+        <v>0.41945247030581506</v>
       </c>
       <c r="C318">
-        <v>0.57230297716445167</v>
+        <v>0.57230294100803814</v>
       </c>
       <c r="D318">
         <v>4.9682291158758174</v>
@@ -4538,13 +4542,13 @@
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.18185260107232257</v>
+        <v>0.18185204105591338</v>
       </c>
       <c r="B319">
-        <v>0.41558784339180632</v>
+        <v>0.41558777195324531</v>
       </c>
       <c r="C319">
-        <v>0.57643815671872167</v>
+        <v>0.576438253634315</v>
       </c>
       <c r="D319">
         <v>4.8542250126469417</v>
@@ -4552,13 +4556,13 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.17964408714445984</v>
+        <v>0.17964394022377755</v>
       </c>
       <c r="B320">
-        <v>0.41535731235202822</v>
+        <v>0.41535729238566288</v>
       </c>
       <c r="C320">
-        <v>0.5765053291768486</v>
+        <v>0.5765053545747606</v>
       </c>
       <c r="D320">
         <v>5.1941094248835062</v>
@@ -4566,13 +4570,13 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.1817101526140395</v>
+        <v>0.18170974935202786</v>
       </c>
       <c r="B321">
-        <v>0.41304646640358572</v>
+        <v>0.4130464262552157</v>
       </c>
       <c r="C321">
-        <v>0.57908623149796568</v>
+        <v>0.57908627233168797</v>
       </c>
       <c r="D321">
         <v>5.1727140789215591</v>
@@ -4580,13 +4584,13 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.17964215905253125</v>
+        <v>0.17964277434673362</v>
       </c>
       <c r="B322">
-        <v>0.41203090889358912</v>
+        <v>0.41203089221623312</v>
       </c>
       <c r="C322">
-        <v>0.58001187146388367</v>
+        <v>0.58001185408382672</v>
       </c>
       <c r="D322">
         <v>5.570978027908378</v>
@@ -4594,13 +4598,13 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.17747112597515166</v>
+        <v>0.17747094110054729</v>
       </c>
       <c r="B323">
-        <v>0.41210513337809118</v>
+        <v>0.41210511166388059</v>
       </c>
       <c r="C323">
-        <v>0.57977027680908533</v>
+        <v>0.57977029981551842</v>
       </c>
       <c r="D323">
         <v>5.935963568114393</v>
@@ -4608,13 +4612,13 @@
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.17624403889855858</v>
+        <v>0.17624427090500155</v>
       </c>
       <c r="B324">
-        <v>0.41382682193431947</v>
+        <v>0.41382671701550849</v>
       </c>
       <c r="C324">
-        <v>0.57788736004872365</v>
+        <v>0.57788744615319143</v>
       </c>
       <c r="D324">
         <v>6.2187807921456626</v>
@@ -4622,13 +4626,13 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.17706973414924043</v>
+        <v>0.17706946391319228</v>
       </c>
       <c r="B325">
-        <v>0.41224797029394705</v>
+        <v>0.41224786535729463</v>
       </c>
       <c r="C325">
-        <v>0.5795607962119248</v>
+        <v>0.57956091962305933</v>
       </c>
       <c r="D325">
         <v>6.435829208502339</v>
@@ -4636,13 +4640,13 @@
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.17805266050248972</v>
+        <v>0.17805255676390919</v>
       </c>
       <c r="B326">
-        <v>0.41216625900897919</v>
+        <v>0.4121662045434788</v>
       </c>
       <c r="C326">
-        <v>0.57967909147457652</v>
+        <v>0.57967915713753215</v>
       </c>
       <c r="D326">
         <v>6.4685115269204552</v>
@@ -4650,13 +4654,13 @@
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.17534653008023787</v>
+        <v>0.17534667714285873</v>
       </c>
       <c r="B327">
-        <v>0.41185461300727161</v>
+        <v>0.41185468927637964</v>
       </c>
       <c r="C327">
-        <v>0.57991180739934223</v>
+        <v>0.57991174343155383</v>
       </c>
       <c r="D327">
         <v>6.668554567505824</v>
@@ -4664,13 +4668,13 @@
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.17312779377374313</v>
+        <v>0.17312780512986894</v>
       </c>
       <c r="B328">
-        <v>0.41269885440695392</v>
+        <v>0.41269889764239409</v>
       </c>
       <c r="C328">
-        <v>0.57898054193884152</v>
+        <v>0.57898051938375883</v>
       </c>
       <c r="D328">
         <v>7.2986186786053908</v>
@@ -4678,13 +4682,13 @@
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.17086212730671338</v>
+        <v>0.17086191935310249</v>
       </c>
       <c r="B329">
-        <v>0.41436960088508523</v>
+        <v>0.41436958636001758</v>
       </c>
       <c r="C329">
-        <v>0.5772269991224358</v>
+        <v>0.57722701431970636</v>
       </c>
       <c r="D329">
         <v>7.616249199538613</v>
@@ -4692,13 +4696,13 @@
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.17083749418824001</v>
+        <v>0.17083746025367241</v>
       </c>
       <c r="B330">
-        <v>0.41447517293565717</v>
+        <v>0.4144751156045004</v>
       </c>
       <c r="C330">
-        <v>0.57712074495758003</v>
+        <v>0.57712079926347382</v>
       </c>
       <c r="D330">
         <v>8.0931459721103227</v>
@@ -4706,13 +4710,13 @@
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.17224829553141852</v>
+        <v>0.17224814241471789</v>
       </c>
       <c r="B331">
-        <v>0.41409048905484824</v>
+        <v>0.41409042954023911</v>
       </c>
       <c r="C331">
-        <v>0.57751825029444015</v>
+        <v>0.57751831142735299</v>
       </c>
       <c r="D331">
         <v>7.9673308593322272</v>
@@ -4720,13 +4724,13 @@
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.17142421162276231</v>
+        <v>0.17142452424265978</v>
       </c>
       <c r="B332">
-        <v>0.41415118795764266</v>
+        <v>0.41415102819892397</v>
       </c>
       <c r="C332">
-        <v>0.57745564337015687</v>
+        <v>0.57745577870019815</v>
       </c>
       <c r="D332">
         <v>8.3126408336852329</v>
@@ -4734,13 +4738,13 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.16738089043324236</v>
+        <v>0.16738081453389053</v>
       </c>
       <c r="B333">
-        <v>0.41431825205708928</v>
+        <v>0.41431826403426414</v>
       </c>
       <c r="C333">
-        <v>0.57728012090476921</v>
+        <v>0.57728011272303625</v>
       </c>
       <c r="D333">
         <v>8.6515632741307762</v>
@@ -4748,13 +4752,13 @@
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.16759713765195255</v>
+        <v>0.16759673356553906</v>
       </c>
       <c r="B334">
-        <v>0.41432507087329412</v>
+        <v>0.41432508383457112</v>
       </c>
       <c r="C334">
-        <v>0.57727428696880034</v>
+        <v>0.57727426642568069</v>
       </c>
       <c r="D334">
         <v>9.0585120498153877</v>
@@ -4762,13 +4766,13 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.16556542842962446</v>
+        <v>0.16556583094279834</v>
       </c>
       <c r="B335">
-        <v>0.41458145724730178</v>
+        <v>0.41458158856252497</v>
       </c>
       <c r="C335">
-        <v>0.57702493998230109</v>
+        <v>0.57702478751446484</v>
       </c>
       <c r="D335">
         <v>9.4624763099540417</v>
@@ -4776,13 +4780,13 @@
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.16532403356197956</v>
+        <v>0.16532426099046135</v>
       </c>
       <c r="B336">
-        <v>0.41467744598766637</v>
+        <v>0.41467756803586353</v>
       </c>
       <c r="C336">
-        <v>0.57693116252070875</v>
+        <v>0.57693103121027389</v>
       </c>
       <c r="D336">
         <v>9.5825025307747644</v>
@@ -4790,13 +4794,13 @@
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.16507015213904833</v>
+        <v>0.16507036556125812</v>
       </c>
       <c r="B337">
-        <v>0.41475143340317</v>
+        <v>0.41475148630836856</v>
       </c>
       <c r="C337">
-        <v>0.57686000830475859</v>
+        <v>0.57685995028046011</v>
       </c>
       <c r="D337">
         <v>9.790894957319356</v>
@@ -4804,13 +4808,13 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.16229726198390731</v>
+        <v>0.16229683108964843</v>
       </c>
       <c r="B338">
-        <v>0.4148403932146551</v>
+        <v>0.4148404261908985</v>
       </c>
       <c r="C338">
-        <v>0.57679434615279124</v>
+        <v>0.57679432216746251</v>
       </c>
       <c r="D338">
         <v>10.263345387657807</v>
@@ -4818,13 +4822,13 @@
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.15779643899494669</v>
+        <v>0.15779584900181978</v>
       </c>
       <c r="B339">
-        <v>0.41532697092867704</v>
+        <v>0.41532694542752568</v>
       </c>
       <c r="C339">
-        <v>0.57635029858021081</v>
+        <v>0.57635033268259028</v>
       </c>
       <c r="D339">
         <v>10.832058490034074</v>
@@ -4832,13 +4836,13 @@
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.15309191954485271</v>
+        <v>0.15309212612342704</v>
       </c>
       <c r="B340">
-        <v>0.41641129061089793</v>
+        <v>0.41641140229417345</v>
       </c>
       <c r="C340">
-        <v>0.575322652807154</v>
+        <v>0.57532253657674493</v>
       </c>
       <c r="D340">
         <v>11.040620326413014</v>
@@ -4846,13 +4850,13 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.14950549708045968</v>
+        <v>0.14950585717654052</v>
       </c>
       <c r="B341">
-        <v>0.41743199899847128</v>
+        <v>0.41743205311827858</v>
       </c>
       <c r="C341">
-        <v>0.57435836993282108</v>
+        <v>0.5743583029578001</v>
       </c>
       <c r="D341">
         <v>11.245030061846316</v>
@@ -4860,13 +4864,13 @@
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.15849448296097693</v>
+        <v>0.15849439888458922</v>
       </c>
       <c r="B342">
-        <v>0.4156133282684123</v>
+        <v>0.41561329345142234</v>
       </c>
       <c r="C342">
-        <v>0.57601412978828836</v>
+        <v>0.57601417457608217</v>
       </c>
       <c r="D342">
         <v>11.059217152536011</v>
@@ -4874,13 +4878,13 @@
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.16910833407491699</v>
+        <v>0.16910792108759221</v>
       </c>
       <c r="B343">
-        <v>0.4166464843601273</v>
+        <v>0.41664649549625199</v>
       </c>
       <c r="C343">
-        <v>0.57479748119503471</v>
+        <v>0.57479748341582648</v>
       </c>
       <c r="D343">
         <v>10.960963753400792</v>
@@ -4888,13 +4892,13 @@
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.16546456742348081</v>
+        <v>0.16546444809735394</v>
       </c>
       <c r="B344">
-        <v>0.41572356359533208</v>
+        <v>0.41572366027441154</v>
       </c>
       <c r="C344">
-        <v>0.57577544971681793</v>
+        <v>0.57577534430751032</v>
       </c>
       <c r="D344">
         <v>11.357014494262877</v>

--- a/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
+++ b/Prefered_PARX_model_forecast/Resultater_PAR/theta_est_T_PAR.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -50,11 +50,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -70,6 +72,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,4826 +86,4826 @@
   <dimension ref="A1:D344"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.28475820680256037</v>
+        <v>0.21697108219559677</v>
       </c>
       <c r="B1">
-        <v>0.50588788370564175</v>
+        <v>0.50940176163908246</v>
       </c>
       <c r="C1">
-        <v>0.44957447372757187</v>
+        <v>0.44569029863597837</v>
       </c>
       <c r="D1">
-        <v>0.0019303166017244952</v>
+        <v>1.7069579736570692</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.31958329768449895</v>
+        <v>0.26906172644274651</v>
       </c>
       <c r="B2">
-        <v>0.5082848415789547</v>
+        <v>0.51169066644440053</v>
       </c>
       <c r="C2">
-        <v>0.44569365554091672</v>
+        <v>0.44185377592201414</v>
       </c>
       <c r="D2">
-        <v>0.0018525851411818337</v>
+        <v>1.3344505046613013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.29980557759753029</v>
+        <v>0.24692058946061521</v>
       </c>
       <c r="B3">
-        <v>0.50331396975287923</v>
+        <v>0.50650937551500286</v>
       </c>
       <c r="C3">
-        <v>0.45153756094358671</v>
+        <v>0.44793093469044604</v>
       </c>
       <c r="D3">
-        <v>0.0019504175870769822</v>
+        <v>1.3864479254919631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.30013621982262528</v>
+        <v>0.24886774056493197</v>
       </c>
       <c r="B4">
-        <v>0.50404351371266942</v>
+        <v>0.50676329091721017</v>
       </c>
       <c r="C4">
-        <v>0.45078188123146512</v>
+        <v>0.4477793831483845</v>
       </c>
       <c r="D4">
-        <v>0.0020531200194328332</v>
+        <v>1.2748723672891007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.28977101255747151</v>
+        <v>0.24238604693391683</v>
       </c>
       <c r="B5">
-        <v>0.50350446398343784</v>
+        <v>0.50617938404711971</v>
       </c>
       <c r="C5">
-        <v>0.45170017662187878</v>
+        <v>0.44875670747327412</v>
       </c>
       <c r="D5">
-        <v>0.0021046929912118279</v>
+        <v>1.1719310062373105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.32253471665354227</v>
+        <v>0.27842988670484053</v>
       </c>
       <c r="B6">
-        <v>0.50503724181915521</v>
+        <v>0.50703740532551245</v>
       </c>
       <c r="C6">
-        <v>0.44895014725020149</v>
+        <v>0.44675436779364963</v>
       </c>
       <c r="D6">
-        <v>0.0020261016797287067</v>
+        <v>1.0796145133356361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.32682993436164776</v>
+        <v>0.28358831016675878</v>
       </c>
       <c r="B7">
-        <v>0.50676332271262392</v>
+        <v>0.50887126984121134</v>
       </c>
       <c r="C7">
-        <v>0.44703872598602978</v>
+        <v>0.44471947943956253</v>
       </c>
       <c r="D7">
-        <v>0.0020671647862954014</v>
+        <v>1.0678355879341781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.31409816065578322</v>
+        <v>0.2672544963146492</v>
       </c>
       <c r="B8">
-        <v>0.5037728116186041</v>
+        <v>0.50605107215880751</v>
       </c>
       <c r="C8">
-        <v>0.45042636488548354</v>
+        <v>0.44791468897882791</v>
       </c>
       <c r="D8">
-        <v>0.0020703055106140755</v>
+        <v>1.1640744615829424</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.31467959496139225</v>
+        <v>0.26842581759712092</v>
       </c>
       <c r="B9">
-        <v>0.50441343395338478</v>
+        <v>0.5067184072886376</v>
       </c>
       <c r="C9">
-        <v>0.44974883699310481</v>
+        <v>0.44719943382027416</v>
       </c>
       <c r="D9">
-        <v>0.002189956685509256</v>
+        <v>1.1620028233398165</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.30205446785145368</v>
+        <v>0.25367156364294202</v>
       </c>
       <c r="B10">
-        <v>0.50362925534907177</v>
+        <v>0.50580529636790861</v>
       </c>
       <c r="C10">
-        <v>0.45081647162308813</v>
+        <v>0.44840782685891928</v>
       </c>
       <c r="D10">
-        <v>0.0021056664402274066</v>
+        <v>1.2113925181970049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.32689146039329869</v>
+        <v>0.23658418225686317</v>
       </c>
       <c r="B11">
-        <v>0.50122077004618493</v>
+        <v>0.50641844647676282</v>
       </c>
       <c r="C11">
-        <v>0.45272751466716099</v>
+        <v>0.447055991424538</v>
       </c>
       <c r="D11">
-        <v>0.0020678977889632458</v>
+        <v>2.2175275591633103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.32549025368736151</v>
+        <v>0.23547578886744996</v>
       </c>
       <c r="B12">
-        <v>0.50109363308351507</v>
+        <v>0.50578200769664883</v>
       </c>
       <c r="C12">
-        <v>0.45289425427595509</v>
+        <v>0.44778745539199755</v>
       </c>
       <c r="D12">
-        <v>0.0021676604054980293</v>
+        <v>2.1734996767656702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.33602252430835089</v>
+        <v>0.24501667292239124</v>
       </c>
       <c r="B13">
-        <v>0.50391184838661141</v>
+        <v>0.50829693016118982</v>
       </c>
       <c r="C13">
-        <v>0.44981127959011019</v>
+        <v>0.44504875857326642</v>
       </c>
       <c r="D13">
-        <v>0.0020958958447611356</v>
+        <v>2.1858347855626414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.32018495914142181</v>
+        <v>0.23224664470717069</v>
       </c>
       <c r="B14">
-        <v>0.49914914579274439</v>
+        <v>0.5034100332924103</v>
       </c>
       <c r="C14">
-        <v>0.45489774417371465</v>
+        <v>0.45026871630752052</v>
       </c>
       <c r="D14">
-        <v>0.0021722937505592893</v>
+        <v>2.1044530184567063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.32213390858801361</v>
+        <v>0.23467553205417979</v>
       </c>
       <c r="B15">
-        <v>0.49950823577751113</v>
+        <v>0.5036834287421792</v>
       </c>
       <c r="C15">
-        <v>0.45452224301018557</v>
+        <v>0.4499898326884384</v>
       </c>
       <c r="D15">
-        <v>0.0022224981955536426</v>
+        <v>2.096385896048075</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.3140620287119345</v>
+        <v>0.22382186720237662</v>
       </c>
       <c r="B16">
-        <v>0.49920857562127779</v>
+        <v>0.50354833665012122</v>
       </c>
       <c r="C16">
-        <v>0.45487373324508235</v>
+        <v>0.4501467078101008</v>
       </c>
       <c r="D16">
-        <v>0.0022844404814150554</v>
+        <v>2.1785551855727632</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.30582368542382432</v>
+        <v>0.21102497353272878</v>
       </c>
       <c r="B17">
-        <v>0.50088916575396258</v>
+        <v>0.50528447611688521</v>
       </c>
       <c r="C17">
-        <v>0.45317436687100515</v>
+        <v>0.44836161291048932</v>
       </c>
       <c r="D17">
-        <v>0.0024609837295480113</v>
+        <v>2.3060787665580413</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.31099145688875224</v>
+        <v>0.20998817406807199</v>
       </c>
       <c r="B18">
-        <v>0.50028505764577458</v>
+        <v>0.50577166185949296</v>
       </c>
       <c r="C18">
-        <v>0.45370095155895512</v>
+        <v>0.44780104469063647</v>
       </c>
       <c r="D18">
-        <v>0.0025054146878680759</v>
+        <v>2.3795788795398356</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.30669483953511578</v>
+        <v>0.21146179035656179</v>
       </c>
       <c r="B19">
-        <v>0.50030029446530622</v>
+        <v>0.50552198957578043</v>
       </c>
       <c r="C19">
-        <v>0.45380749111955454</v>
+        <v>0.44823147464379531</v>
       </c>
       <c r="D19">
-        <v>0.0024988439809880297</v>
+        <v>2.1976211520720188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.30398928947244547</v>
+        <v>0.2103295984496531</v>
       </c>
       <c r="B20">
-        <v>0.50064757624833833</v>
+        <v>0.50598335266530048</v>
       </c>
       <c r="C20">
-        <v>0.45352847457214152</v>
+        <v>0.44783585348387589</v>
       </c>
       <c r="D20">
-        <v>0.0025543777993440151</v>
+        <v>2.1483471598554473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.30884450197263719</v>
+        <v>0.21535631526861043</v>
       </c>
       <c r="B21">
-        <v>0.50148019825536605</v>
+        <v>0.50663014820575436</v>
       </c>
       <c r="C21">
-        <v>0.45252147342808841</v>
+        <v>0.44703429505535008</v>
       </c>
       <c r="D21">
-        <v>0.0025600918690897199</v>
+        <v>2.1431433543275702</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.32445512008291888</v>
+        <v>0.23587392574062913</v>
       </c>
       <c r="B22">
-        <v>0.50456185538758036</v>
+        <v>0.50959432520493952</v>
       </c>
       <c r="C22">
-        <v>0.448863158042415</v>
+        <v>0.44349582961433143</v>
       </c>
       <c r="D22">
-        <v>0.0025477479870579614</v>
+        <v>2.0447236134968332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.30563494866831376</v>
+        <v>0.21188564180869809</v>
       </c>
       <c r="B23">
-        <v>0.49893856617866872</v>
+        <v>0.50403385604541229</v>
       </c>
       <c r="C23">
-        <v>0.45515370055175403</v>
+        <v>0.44971528424751367</v>
       </c>
       <c r="D23">
-        <v>0.0026379502153566045</v>
+        <v>2.1711976139946425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.31312175549900867</v>
+        <v>0.22449403411400892</v>
       </c>
       <c r="B24">
-        <v>0.49878873366948318</v>
+        <v>0.50373347594791262</v>
       </c>
       <c r="C24">
-        <v>0.45517374690756457</v>
+        <v>0.44988280934017366</v>
       </c>
       <c r="D24">
-        <v>0.0026354402180550451</v>
+        <v>2.0713130012019456</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.33419599335162115</v>
+        <v>0.21722893057218476</v>
       </c>
       <c r="B25">
-        <v>0.50323781387690636</v>
+        <v>0.50887558704801961</v>
       </c>
       <c r="C25">
-        <v>0.45007977939765881</v>
+        <v>0.44403217336233347</v>
       </c>
       <c r="D25">
-        <v>0.0025702072108605796</v>
+        <v>2.6655583389388364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.30631875026875782</v>
+        <v>0.21082958718353106</v>
       </c>
       <c r="B26">
-        <v>0.49226960910186368</v>
+        <v>0.49742778879991484</v>
       </c>
       <c r="C26">
-        <v>0.46192131454162272</v>
+        <v>0.45640059645618991</v>
       </c>
       <c r="D26">
-        <v>0.0028653860632957225</v>
+        <v>2.1471792025345038</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.31392863170549984</v>
+        <v>0.21101065404748967</v>
       </c>
       <c r="B27">
-        <v>0.48930969755648013</v>
+        <v>0.4940095651674894</v>
       </c>
       <c r="C27">
-        <v>0.46504164000227166</v>
+        <v>0.46008288563988153</v>
       </c>
       <c r="D27">
-        <v>0.0029348282381402666</v>
+        <v>2.2732070340704786</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.32406090780021141</v>
+        <v>0.2212920652860729</v>
       </c>
       <c r="B28">
-        <v>0.49171523756886021</v>
+        <v>0.4960984311927541</v>
       </c>
       <c r="C28">
-        <v>0.46238860189392178</v>
+        <v>0.45779586586543874</v>
       </c>
       <c r="D28">
-        <v>0.0028738507363787308</v>
+        <v>2.2616336831962713</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.31961750324211224</v>
+        <v>0.21626057505379556</v>
       </c>
       <c r="B29">
-        <v>0.49048704093364109</v>
+        <v>0.49507150314261539</v>
       </c>
       <c r="C29">
-        <v>0.46370442931560146</v>
+        <v>0.45889029436098061</v>
       </c>
       <c r="D29">
-        <v>0.0029447303661885977</v>
+        <v>2.286931139464313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.31093340332856573</v>
+        <v>0.20369445957019663</v>
       </c>
       <c r="B30">
-        <v>0.48941613025073843</v>
+        <v>0.49416341488911342</v>
       </c>
       <c r="C30">
-        <v>0.46477604933091404</v>
+        <v>0.45977666571448123</v>
       </c>
       <c r="D30">
-        <v>0.0031393708297721016</v>
+        <v>2.3883059127736144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.31030035241186776</v>
+        <v>0.20317153522980971</v>
       </c>
       <c r="B31">
-        <v>0.49010713867313477</v>
+        <v>0.49474268307531227</v>
       </c>
       <c r="C31">
-        <v>0.46403566951884995</v>
+        <v>0.45915486166655128</v>
       </c>
       <c r="D31">
-        <v>0.0031476174921940482</v>
+        <v>2.4002096937302131</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.30567362330113407</v>
+        <v>0.21482716570178251</v>
       </c>
       <c r="B32">
-        <v>0.49069240976643114</v>
+        <v>0.49425730422775643</v>
       </c>
       <c r="C32">
-        <v>0.46345672419728468</v>
+        <v>0.45977885269090196</v>
       </c>
       <c r="D32">
-        <v>0.0032503349966982731</v>
+        <v>1.9595828222346521</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.30282932614451813</v>
+        <v>0.21577180845344934</v>
       </c>
       <c r="B33">
-        <v>0.49144903494367675</v>
+        <v>0.49523116954675461</v>
       </c>
       <c r="C33">
-        <v>0.46271164496744571</v>
+        <v>0.45879083053196085</v>
       </c>
       <c r="D33">
-        <v>0.0033271543266461881</v>
+        <v>1.8668588262442598</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.32636251540488082</v>
+        <v>0.23380429535885988</v>
       </c>
       <c r="B34">
-        <v>0.49100455436903534</v>
+        <v>0.49349375906433873</v>
       </c>
       <c r="C34">
-        <v>0.46259613859527776</v>
+        <v>0.46018106805018022</v>
       </c>
       <c r="D34">
-        <v>0.0033285461390549537</v>
+        <v>1.9338474746634986</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.3007056779862915</v>
+        <v>0.2049764263672253</v>
       </c>
       <c r="B35">
-        <v>0.48129644559590373</v>
+        <v>0.48413952694355455</v>
       </c>
       <c r="C35">
-        <v>0.47324162927915647</v>
+        <v>0.47042645204760553</v>
       </c>
       <c r="D35">
-        <v>0.0035000013387103848</v>
+        <v>2.0155976781920466</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.30283240119700633</v>
+        <v>0.20920744261225818</v>
       </c>
       <c r="B36">
-        <v>0.48120082184114982</v>
+        <v>0.48378551679775278</v>
       </c>
       <c r="C36">
-        <v>0.47331791905810083</v>
+        <v>0.47077370576149086</v>
       </c>
       <c r="D36">
-        <v>0.0036153192719578496</v>
+        <v>1.9794268299910578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.28930317840997294</v>
+        <v>0.18816651778411539</v>
       </c>
       <c r="B37">
-        <v>0.48093301093919244</v>
+        <v>0.48347222718623784</v>
       </c>
       <c r="C37">
-        <v>0.47390082743892709</v>
+        <v>0.47140400532073162</v>
       </c>
       <c r="D37">
-        <v>0.0037559202827612296</v>
+        <v>2.151936890728086</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.29184475536588983</v>
+        <v>0.19450119963223494</v>
       </c>
       <c r="B38">
-        <v>0.48074104285316915</v>
+        <v>0.48298107345881669</v>
       </c>
       <c r="C38">
-        <v>0.47402445586538899</v>
+        <v>0.47179646568841033</v>
       </c>
       <c r="D38">
-        <v>0.0039587041678574228</v>
+        <v>2.0939147790778256</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.31265442113169201</v>
+        <v>0.17863834734750059</v>
       </c>
       <c r="B39">
-        <v>0.48185961662547938</v>
+        <v>0.48484530620149663</v>
       </c>
       <c r="C39">
-        <v>0.47206437550568497</v>
+        <v>0.46938152536026129</v>
       </c>
       <c r="D39">
-        <v>0.003890245059089048</v>
+        <v>2.7230858435435388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.29095710350895237</v>
+        <v>0.17341728671030737</v>
       </c>
       <c r="B40">
-        <v>0.47531119752043471</v>
+        <v>0.47917732575647654</v>
       </c>
       <c r="C40">
-        <v>0.47956460903862458</v>
+        <v>0.47583195271135481</v>
       </c>
       <c r="D40">
-        <v>0.0041037247078193227</v>
+        <v>2.3898932532414019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.3020916086648554</v>
+        <v>0.17814970896587087</v>
       </c>
       <c r="B41">
-        <v>0.47428789630815099</v>
+        <v>0.47728475324695113</v>
       </c>
       <c r="C41">
-        <v>0.4802814155313308</v>
+        <v>0.47760537996113311</v>
       </c>
       <c r="D41">
-        <v>0.0040133457834014398</v>
+        <v>2.4734920602591974</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.30190025545272581</v>
+        <v>0.17832967343616099</v>
       </c>
       <c r="B42">
-        <v>0.47453014742262062</v>
+        <v>0.4776247093841543</v>
       </c>
       <c r="C42">
-        <v>0.48003969658144019</v>
+        <v>0.477247932367939</v>
       </c>
       <c r="D42">
-        <v>0.0042582508814000301</v>
+        <v>2.4743808155948162</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.32195148820382469</v>
+        <v>0.19927357781418231</v>
       </c>
       <c r="B43">
-        <v>0.4783317276185422</v>
+        <v>0.48128420387765203</v>
       </c>
       <c r="C43">
-        <v>0.47555118089266546</v>
+        <v>0.47293183369944281</v>
       </c>
       <c r="D43">
-        <v>0.0040818660997528457</v>
+        <v>2.4527749963395169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.35009087868502858</v>
+        <v>0.23434599374430828</v>
       </c>
       <c r="B44">
-        <v>0.48967684649462495</v>
+        <v>0.49325176147261907</v>
       </c>
       <c r="C44">
-        <v>0.46323145460410986</v>
+        <v>0.45991709999065317</v>
       </c>
       <c r="D44">
-        <v>0.0040158817447295738</v>
+        <v>2.334089043005513</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.34981429146839482</v>
+        <v>0.23438421764872069</v>
       </c>
       <c r="B45">
-        <v>0.48957624252823639</v>
+        <v>0.4933387885373024</v>
       </c>
       <c r="C45">
-        <v>0.46333374074887002</v>
+        <v>0.45982285760392438</v>
       </c>
       <c r="D45">
-        <v>0.0041444981627984977</v>
+        <v>2.3345730644008178</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.34545077621731624</v>
+        <v>0.24881930800909463</v>
       </c>
       <c r="B46">
-        <v>0.48755088456136275</v>
+        <v>0.48964848304988468</v>
       </c>
       <c r="C46">
-        <v>0.4652539806198529</v>
+        <v>0.46339951810387409</v>
       </c>
       <c r="D46">
-        <v>0.004289714958654856</v>
+        <v>1.8801056610131508</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.34321991663068135</v>
+        <v>0.25445746298049765</v>
       </c>
       <c r="B47">
-        <v>0.48740935401068364</v>
+        <v>0.48989503236065324</v>
       </c>
       <c r="C47">
-        <v>0.46509060991145718</v>
+        <v>0.46271065311582166</v>
       </c>
       <c r="D47">
-        <v>0.0044118855992886941</v>
+        <v>1.727539359604088</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.34926386002921539</v>
+        <v>0.25066643822523565</v>
       </c>
       <c r="B48">
-        <v>0.48559407770300456</v>
+        <v>0.48659187665544934</v>
       </c>
       <c r="C48">
-        <v>0.46802342360083427</v>
+        <v>0.46735341403409592</v>
       </c>
       <c r="D48">
-        <v>0.0046513110021978886</v>
+        <v>1.8710820191315833</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.35902430536225705</v>
+        <v>0.25453259630196734</v>
       </c>
       <c r="B49">
-        <v>0.49111445089233635</v>
+        <v>0.49142132525815685</v>
       </c>
       <c r="C49">
-        <v>0.46263475415578503</v>
+        <v>0.46270738809914086</v>
       </c>
       <c r="D49">
-        <v>0.0046692508221427243</v>
+        <v>1.9670651776014232</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.35739821062099425</v>
+        <v>0.25300200201734169</v>
       </c>
       <c r="B50">
-        <v>0.49001542196265641</v>
+        <v>0.49039080296104542</v>
       </c>
       <c r="C50">
-        <v>0.46367596931595367</v>
+        <v>0.46367366568407853</v>
       </c>
       <c r="D50">
-        <v>0.0048709137396487044</v>
+        <v>1.9672594195712194</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.36253137075683262</v>
+        <v>0.26111731093941315</v>
       </c>
       <c r="B51">
-        <v>0.49323375044392348</v>
+        <v>0.49351770540688283</v>
       </c>
       <c r="C51">
-        <v>0.46143286584007892</v>
+        <v>0.46157121762007181</v>
       </c>
       <c r="D51">
-        <v>0.0050301195850902536</v>
+        <v>1.9032121644685724</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.35726579045852147</v>
+        <v>0.25368705527778507</v>
       </c>
       <c r="B52">
-        <v>0.48872361158258409</v>
+        <v>0.48903078488236618</v>
       </c>
       <c r="C52">
-        <v>0.46548097596340293</v>
+        <v>0.46562680222187675</v>
       </c>
       <c r="D52">
-        <v>0.005128486808625766</v>
+        <v>1.9467264359833198</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.35717595388169487</v>
+        <v>0.25171636058544417</v>
       </c>
       <c r="B53">
-        <v>0.48872044015415639</v>
+        <v>0.48904283486776312</v>
       </c>
       <c r="C53">
-        <v>0.46581352193404374</v>
+        <v>0.4657378417420131</v>
       </c>
       <c r="D53">
-        <v>0.0050560080184244545</v>
+        <v>1.9864880473807205</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.3576933265766471</v>
+        <v>0.24965625141044223</v>
       </c>
       <c r="B54">
-        <v>0.48922826347389375</v>
+        <v>0.48925797525228437</v>
       </c>
       <c r="C54">
-        <v>0.46570570520143595</v>
+        <v>0.46588067133184902</v>
       </c>
       <c r="D54">
-        <v>0.0050942240637688232</v>
+        <v>2.0307773538619478</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.36140118899197055</v>
+        <v>0.24918158443104874</v>
       </c>
       <c r="B55">
-        <v>0.49300282154441866</v>
+        <v>0.49211794769885359</v>
       </c>
       <c r="C55">
-        <v>0.46354799877896269</v>
+        <v>0.46473495955448657</v>
       </c>
       <c r="D55">
-        <v>0.0052489994188681588</v>
+        <v>2.0879599150032422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.35706271508711179</v>
+        <v>0.24412562310750649</v>
       </c>
       <c r="B56">
-        <v>0.48840451825288234</v>
+        <v>0.4876805343082819</v>
       </c>
       <c r="C56">
-        <v>0.46768899926936341</v>
+        <v>0.46871556015770705</v>
       </c>
       <c r="D56">
-        <v>0.0053819825225623541</v>
+        <v>2.1061990331679215</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.35713104454910333</v>
+        <v>0.24398155103431779</v>
       </c>
       <c r="B57">
-        <v>0.48828230449227372</v>
+        <v>0.48758559277043279</v>
       </c>
       <c r="C57">
-        <v>0.46768709122622604</v>
+        <v>0.46872205121983879</v>
       </c>
       <c r="D57">
-        <v>0.0055852938670635077</v>
+        <v>2.1099907189298492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.35349909113665728</v>
+        <v>0.24732656450767357</v>
       </c>
       <c r="B58">
-        <v>0.48853856730337869</v>
+        <v>0.48799659362209119</v>
       </c>
       <c r="C58">
-        <v>0.47010882631923434</v>
+        <v>0.47104143877854138</v>
       </c>
       <c r="D58">
-        <v>0.0057527513074812986</v>
+        <v>1.9699697840546759</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.35355963933532331</v>
+        <v>0.24774521950860331</v>
       </c>
       <c r="B59">
-        <v>0.48871232145093163</v>
+        <v>0.48835663938693707</v>
       </c>
       <c r="C59">
-        <v>0.46999351927161309</v>
+        <v>0.47075842344657254</v>
       </c>
       <c r="D59">
-        <v>0.0059829906233196941</v>
+        <v>1.9658948683867006</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.35340664859251941</v>
+        <v>0.24341194448349157</v>
       </c>
       <c r="B60">
-        <v>0.48999280796097033</v>
+        <v>0.4891860719733172</v>
       </c>
       <c r="C60">
-        <v>0.46929383129887919</v>
+        <v>0.47032279450297104</v>
       </c>
       <c r="D60">
-        <v>0.0059796319965163209</v>
+        <v>2.0516229369535104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.35374004806668319</v>
+        <v>0.25123577335409913</v>
       </c>
       <c r="B61">
-        <v>0.4870368013682298</v>
+        <v>0.48645814951755184</v>
       </c>
       <c r="C61">
-        <v>0.47105012990360012</v>
+        <v>0.4717512892122338</v>
       </c>
       <c r="D61">
-        <v>0.0060955709389977119</v>
+        <v>1.9099083768218397</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.34471300344096883</v>
+        <v>0.23843030553951805</v>
       </c>
       <c r="B62">
-        <v>0.48431510814464784</v>
+        <v>0.48296295061870886</v>
       </c>
       <c r="C62">
-        <v>0.47631736002376163</v>
+        <v>0.47785171210960026</v>
       </c>
       <c r="D62">
-        <v>0.0064513613237169309</v>
+        <v>1.9654850909527595</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.34483668629162528</v>
+        <v>0.23944307730884307</v>
       </c>
       <c r="B63">
-        <v>0.48810643497539219</v>
+        <v>0.48659920268953627</v>
       </c>
       <c r="C63">
-        <v>0.4738450316052622</v>
+        <v>0.47557571353719857</v>
       </c>
       <c r="D63">
-        <v>0.0063967244210158267</v>
+        <v>1.9422072328283142</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.34383783121456551</v>
+        <v>0.23678712916716477</v>
       </c>
       <c r="B64">
-        <v>0.48429029008792362</v>
+        <v>0.48284125122069704</v>
       </c>
       <c r="C64">
-        <v>0.47681675175589555</v>
+        <v>0.47852073288429037</v>
       </c>
       <c r="D64">
-        <v>0.0065956460317120437</v>
+        <v>1.9741643393648369</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.35058085898212471</v>
+        <v>0.23964862727482542</v>
       </c>
       <c r="B65">
-        <v>0.48415401190157287</v>
+        <v>0.48262515246297066</v>
       </c>
       <c r="C65">
-        <v>0.47470097133843464</v>
+        <v>0.47653180004511458</v>
       </c>
       <c r="D65">
-        <v>0.0067848812660890219</v>
+        <v>2.0473500247745577</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.34362922590900985</v>
+        <v>0.23459986457815568</v>
       </c>
       <c r="B66">
-        <v>0.48076351963993608</v>
+        <v>0.47906961381955593</v>
       </c>
       <c r="C66">
-        <v>0.47948254459194389</v>
+        <v>0.48155544891858632</v>
       </c>
       <c r="D66">
-        <v>0.0070013376981391262</v>
+        <v>2.0015585873841704</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.34082782414939367</v>
+        <v>0.22399005762208571</v>
       </c>
       <c r="B67">
-        <v>0.48063719978944869</v>
+        <v>0.47884388954509643</v>
       </c>
       <c r="C67">
-        <v>0.48070638341990651</v>
+        <v>0.48259807754214235</v>
       </c>
       <c r="D67">
-        <v>0.0073366528727100413</v>
+        <v>2.1731829748667546</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.34135157193706872</v>
+        <v>0.22913361825819994</v>
       </c>
       <c r="B68">
-        <v>0.47855271034756097</v>
+        <v>0.47707757024597797</v>
       </c>
       <c r="C68">
-        <v>0.4818008035944023</v>
+        <v>0.48329656507822893</v>
       </c>
       <c r="D68">
-        <v>0.0073390688183941578</v>
+        <v>2.0898616881964593</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.33732198258930368</v>
+        <v>0.22405710661285397</v>
       </c>
       <c r="B69">
-        <v>0.47730840793954443</v>
+        <v>0.4754716255182746</v>
       </c>
       <c r="C69">
-        <v>0.48423550265292958</v>
+        <v>0.48612532937776137</v>
       </c>
       <c r="D69">
-        <v>0.0075174320631178626</v>
+        <v>2.1012263313513402</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.33596062663362303</v>
+        <v>0.22399830951999972</v>
       </c>
       <c r="B70">
-        <v>0.47884904639649073</v>
+        <v>0.47687728948687375</v>
       </c>
       <c r="C70">
-        <v>0.48389184201570834</v>
+        <v>0.48596924423449533</v>
       </c>
       <c r="D70">
-        <v>0.0077488297733762828</v>
+        <v>2.0691397344298044</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.33566256764985586</v>
+        <v>0.22335147344711279</v>
       </c>
       <c r="B71">
-        <v>0.47807840511670585</v>
+        <v>0.47620045777364833</v>
       </c>
       <c r="C71">
-        <v>0.48450279480201952</v>
+        <v>0.48651868234901657</v>
       </c>
       <c r="D71">
-        <v>0.0078164987427366741</v>
+        <v>2.0761399883674536</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.33897961759437262</v>
+        <v>0.22210806605420666</v>
       </c>
       <c r="B72">
-        <v>0.47601055314436858</v>
+        <v>0.47395715930595073</v>
       </c>
       <c r="C72">
-        <v>0.48468204212895016</v>
+        <v>0.48692533296332474</v>
       </c>
       <c r="D72">
-        <v>0.0082708223598152841</v>
+        <v>2.161365114416602</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.3289204808257345</v>
+        <v>0.216074432306394</v>
       </c>
       <c r="B73">
-        <v>0.47086116316717058</v>
+        <v>0.468747889294444</v>
       </c>
       <c r="C73">
-        <v>0.49198153338078404</v>
+        <v>0.49436091466183862</v>
       </c>
       <c r="D73">
-        <v>0.0082226581700276073</v>
+        <v>2.0750067363818459</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.3264496785547259</v>
+        <v>0.17871666072189946</v>
       </c>
       <c r="B74">
-        <v>0.4746683111446709</v>
+        <v>0.47145485888534683</v>
       </c>
       <c r="C74">
-        <v>0.49079781053442439</v>
+        <v>0.4936585842031686</v>
       </c>
       <c r="D74">
-        <v>0.0085396129443851103</v>
+        <v>2.8125384547501784</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.31865436547310272</v>
+        <v>0.1869288324023228</v>
       </c>
       <c r="B75">
-        <v>0.4604039229233825</v>
+        <v>0.45824403597556107</v>
       </c>
       <c r="C75">
-        <v>0.50332055603644932</v>
+        <v>0.50509280990847572</v>
       </c>
       <c r="D75">
-        <v>0.0089332282194245546</v>
+        <v>2.4980068903272787</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.31923728402690432</v>
+        <v>0.18821281298908821</v>
       </c>
       <c r="B76">
-        <v>0.46060674139201502</v>
+        <v>0.45864896241551162</v>
       </c>
       <c r="C76">
-        <v>0.5029730434273697</v>
+        <v>0.50447757407723359</v>
       </c>
       <c r="D76">
-        <v>0.0091208541568220686</v>
+        <v>2.4913089120913257</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.32606226865104054</v>
+        <v>0.19533866062228919</v>
       </c>
       <c r="B77">
-        <v>0.46296524074348422</v>
+        <v>0.46171566500261513</v>
       </c>
       <c r="C77">
-        <v>0.49868636794898513</v>
+        <v>0.49939134403900864</v>
       </c>
       <c r="D77">
-        <v>0.0093977582257286658</v>
+        <v>2.5065915377799217</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.32178188065601471</v>
+        <v>0.19169949723989116</v>
       </c>
       <c r="B78">
-        <v>0.46011025447168064</v>
+        <v>0.45843133693153948</v>
       </c>
       <c r="C78">
-        <v>0.5024261825072287</v>
+        <v>0.50366841119472205</v>
       </c>
       <c r="D78">
-        <v>0.0090418243348662757</v>
+        <v>2.478384682865522</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.32114098727447804</v>
+        <v>0.19203749054654121</v>
       </c>
       <c r="B79">
-        <v>0.45986588731753453</v>
+        <v>0.45814356057688838</v>
       </c>
       <c r="C79">
-        <v>0.50301258484492017</v>
+        <v>0.50436272064158993</v>
       </c>
       <c r="D79">
-        <v>0.0094167529994190306</v>
+        <v>2.4549356738176384</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.32112728219988318</v>
+        <v>0.1921921147334375</v>
       </c>
       <c r="B80">
-        <v>0.45985070268720757</v>
+        <v>0.45817603540322954</v>
       </c>
       <c r="C80">
-        <v>0.50302671263356524</v>
+        <v>0.5043764062213929</v>
       </c>
       <c r="D80">
-        <v>0.0098000010950383253</v>
+        <v>2.4514144758552163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.32031175885948721</v>
+        <v>0.16772999185534004</v>
       </c>
       <c r="B81">
-        <v>0.46088087179368181</v>
+        <v>0.45908860972809301</v>
       </c>
       <c r="C81">
-        <v>0.50395807658884362</v>
+        <v>0.50486639427941049</v>
       </c>
       <c r="D81">
-        <v>0.01013707248439662</v>
+        <v>2.9694608841042549</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.3206640264639522</v>
+        <v>0.16755660293983776</v>
       </c>
       <c r="B82">
-        <v>0.46137648860945851</v>
+        <v>0.45917705535138659</v>
       </c>
       <c r="C82">
-        <v>0.50353922278937524</v>
+        <v>0.50481386483853452</v>
       </c>
       <c r="D82">
-        <v>0.010401056870354882</v>
+        <v>2.9737392046610163</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.3210995451688502</v>
+        <v>0.16744770340590259</v>
       </c>
       <c r="B83">
-        <v>0.46331503560007575</v>
+        <v>0.46084948665061531</v>
       </c>
       <c r="C83">
-        <v>0.502207730145253</v>
+        <v>0.50376979596194305</v>
       </c>
       <c r="D83">
-        <v>0.010533988338037759</v>
+        <v>2.9785227927011988</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.32104054174370183</v>
+        <v>0.16774600302261058</v>
       </c>
       <c r="B84">
-        <v>0.46388253526383982</v>
+        <v>0.46148989112920258</v>
       </c>
       <c r="C84">
-        <v>0.50185965150892331</v>
+        <v>0.50338674869517952</v>
       </c>
       <c r="D84">
-        <v>0.010962180332876312</v>
+        <v>2.9702652394709692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.32067245284914969</v>
+        <v>0.16787834077610328</v>
       </c>
       <c r="B85">
-        <v>0.46412177169008995</v>
+        <v>0.46184797560596602</v>
       </c>
       <c r="C85">
-        <v>0.50182396768906323</v>
+        <v>0.50328820388630002</v>
       </c>
       <c r="D85">
-        <v>0.011545850059010574</v>
+        <v>2.9586382618925824</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.32230629758957924</v>
+        <v>0.16677927615665245</v>
       </c>
       <c r="B86">
-        <v>0.46250040565012657</v>
+        <v>0.4601410712037145</v>
       </c>
       <c r="C86">
-        <v>0.50241776708763941</v>
+        <v>0.50401581381382921</v>
       </c>
       <c r="D86">
-        <v>0.011934301244104576</v>
+        <v>3.0107508510346181</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.31541510416210838</v>
+        <v>0.15985803960929204</v>
       </c>
       <c r="B87">
-        <v>0.46034064546399761</v>
+        <v>0.45813353250988764</v>
       </c>
       <c r="C87">
-        <v>0.50632782311039215</v>
+        <v>0.50774070925217329</v>
       </c>
       <c r="D87">
-        <v>0.012022551876111249</v>
+        <v>3.0171209667323722</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.31448717740755855</v>
+        <v>0.15133494683248466</v>
       </c>
       <c r="B88">
-        <v>0.46218210410828942</v>
+        <v>0.45902296214022509</v>
       </c>
       <c r="C88">
-        <v>0.50537582426243011</v>
+        <v>0.5072798409437238</v>
       </c>
       <c r="D88">
-        <v>0.012263720225156181</v>
+        <v>3.1921337049680725</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.31446139113253402</v>
+        <v>0.15548384729806797</v>
       </c>
       <c r="B89">
-        <v>0.46027548630878629</v>
+        <v>0.45728287708594328</v>
       </c>
       <c r="C89">
-        <v>0.50676361821538241</v>
+        <v>0.50840605112073334</v>
       </c>
       <c r="D89">
-        <v>0.014226724544382919</v>
+        <v>3.1122999074796778</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.31111484620738911</v>
+        <v>0.14854273964740966</v>
       </c>
       <c r="B90">
-        <v>0.4603785423237009</v>
+        <v>0.45668499058975354</v>
       </c>
       <c r="C90">
-        <v>0.50773246107591608</v>
+        <v>0.50997203186049489</v>
       </c>
       <c r="D90">
-        <v>0.014372913981182669</v>
+        <v>3.1820474089631285</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.31214744253468424</v>
+        <v>0.15180815509673762</v>
       </c>
       <c r="B91">
-        <v>0.45863061435791808</v>
+        <v>0.45528436706791531</v>
       </c>
       <c r="C91">
-        <v>0.50871337760493418</v>
+        <v>0.5105507025651812</v>
       </c>
       <c r="D91">
-        <v>0.013566827992554478</v>
+        <v>3.1446309409249</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.30572298027249778</v>
+        <v>0.14375334716754862</v>
       </c>
       <c r="B92">
-        <v>0.45763953128565943</v>
+        <v>0.45361405518116715</v>
       </c>
       <c r="C92">
-        <v>0.51142082457542926</v>
+        <v>0.5139777715421775</v>
       </c>
       <c r="D92">
-        <v>0.013578252155855104</v>
+        <v>3.1626154389502679</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.30568396775487133</v>
+        <v>0.14350917941669744</v>
       </c>
       <c r="B93">
-        <v>0.45705460904445055</v>
+        <v>0.4531189987066514</v>
       </c>
       <c r="C93">
-        <v>0.51186975719109074</v>
+        <v>0.51436767830200447</v>
       </c>
       <c r="D93">
-        <v>0.013769502067007717</v>
+        <v>3.1662218736354766</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.30272405853749768</v>
+        <v>0.13831177201607697</v>
       </c>
       <c r="B94">
-        <v>0.45773786669757305</v>
+        <v>0.45359055225842582</v>
       </c>
       <c r="C94">
-        <v>0.51221537313594956</v>
+        <v>0.5147916169775224</v>
       </c>
       <c r="D94">
-        <v>0.014037046668676285</v>
+        <v>3.2210632241719495</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.29998397941878302</v>
+        <v>0.12439889762581122</v>
       </c>
       <c r="B95">
-        <v>0.46076909680282047</v>
+        <v>0.45525250463123906</v>
       </c>
       <c r="C95">
-        <v>0.51066254475449635</v>
+        <v>0.51405255160127827</v>
       </c>
       <c r="D95">
-        <v>0.014851238134655893</v>
+        <v>3.4820423285560129</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.29894221361465823</v>
+        <v>0.11425949146193867</v>
       </c>
       <c r="B96">
-        <v>0.46537671895452898</v>
+        <v>0.45769439827026137</v>
       </c>
       <c r="C96">
-        <v>0.50732044279206501</v>
+        <v>0.5124683091468788</v>
       </c>
       <c r="D96">
-        <v>0.015031321943202653</v>
+        <v>3.6759929228073447</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>0.29863102671226577</v>
+        <v>0.11440452778776429</v>
       </c>
       <c r="B97">
-        <v>0.46466028099607265</v>
+        <v>0.45676209572813231</v>
       </c>
       <c r="C97">
-        <v>0.50796996663528016</v>
+        <v>0.5132635632613779</v>
       </c>
       <c r="D97">
-        <v>0.015539888003981824</v>
+        <v>3.6682231670046197</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>0.29382008141738558</v>
+        <v>0.10877928851365409</v>
       </c>
       <c r="B98">
-        <v>0.46655423003957386</v>
+        <v>0.45793278525870446</v>
       </c>
       <c r="C98">
-        <v>0.50755877197756771</v>
+        <v>0.51363228434810915</v>
       </c>
       <c r="D98">
-        <v>0.015697105040626193</v>
+        <v>3.6689671522632419</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.29328305347163797</v>
+        <v>0.10814056207725929</v>
       </c>
       <c r="B99">
-        <v>0.46629589312742209</v>
+        <v>0.45778733226365431</v>
       </c>
       <c r="C99">
-        <v>0.50789074379286658</v>
+        <v>0.51391975804006751</v>
       </c>
       <c r="D99">
-        <v>0.016999052162938455</v>
+        <v>3.6666829905063767</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.28717918865944736</v>
+        <v>0.10456354579219559</v>
       </c>
       <c r="B100">
-        <v>0.46777231327909413</v>
+        <v>0.45945330710376314</v>
       </c>
       <c r="C100">
-        <v>0.50803327049730118</v>
+        <v>0.51400685850308314</v>
       </c>
       <c r="D100">
-        <v>0.017404721451429638</v>
+        <v>3.6055087637467342</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.28541617389434076</v>
+        <v>0.10367736909505973</v>
       </c>
       <c r="B101">
-        <v>0.46842940532640009</v>
+        <v>0.46041960811415777</v>
       </c>
       <c r="C101">
-        <v>0.50787097464996955</v>
+        <v>0.51362921877365819</v>
       </c>
       <c r="D101">
-        <v>0.017566982458159453</v>
+        <v>3.584001996251152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.28227206100477303</v>
+        <v>0.099313492553851621</v>
       </c>
       <c r="B102">
-        <v>0.4691662231354729</v>
+        <v>0.46043431479608254</v>
       </c>
       <c r="C102">
-        <v>0.50792674449315567</v>
+        <v>0.51396697023931259</v>
       </c>
       <c r="D102">
-        <v>0.017918939227606488</v>
+        <v>3.6432348079886432</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>0.27923459527887545</v>
+        <v>0.095071446746354413</v>
       </c>
       <c r="B103">
-        <v>0.46973718890187022</v>
+        <v>0.46036902765779514</v>
       </c>
       <c r="C103">
-        <v>0.50808623387869978</v>
+        <v>0.51451967411209765</v>
       </c>
       <c r="D103">
-        <v>0.018908640223075139</v>
+        <v>3.6839473775648157</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>0.26867198790478947</v>
+        <v>0.082039195231224313</v>
       </c>
       <c r="B104">
-        <v>0.47282914434722106</v>
+        <v>0.46224504875045458</v>
       </c>
       <c r="C104">
-        <v>0.50768919584614924</v>
+        <v>0.51528918813696278</v>
       </c>
       <c r="D104">
-        <v>0.020567319520412568</v>
+        <v>3.7254795788471329</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.26671778901747106</v>
+        <v>0.080458352351477122</v>
       </c>
       <c r="B105">
-        <v>0.47417940713351692</v>
+        <v>0.46367320564562869</v>
       </c>
       <c r="C105">
-        <v>0.50694526893308434</v>
+        <v>0.514538737468483</v>
       </c>
       <c r="D105">
-        <v>0.021219148927052473</v>
+        <v>3.7125902815699479</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.27502242912983932</v>
+        <v>0.084050981374742331</v>
       </c>
       <c r="B106">
-        <v>0.46850760240078232</v>
+        <v>0.45787909211508337</v>
       </c>
       <c r="C106">
-        <v>0.51010633258351357</v>
+        <v>0.51788737828521059</v>
       </c>
       <c r="D106">
-        <v>0.024229285897468551</v>
+        <v>3.7985677165227543</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.28934341619678278</v>
+        <v>0.094651044848477181</v>
       </c>
       <c r="B107">
-        <v>0.47137777444850459</v>
+        <v>0.46044790837764971</v>
       </c>
       <c r="C107">
-        <v>0.50482839049646233</v>
+        <v>0.51299386587393481</v>
       </c>
       <c r="D107">
-        <v>0.02433728056576373</v>
+        <v>3.8611038808945444</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>0.27813233150976174</v>
+        <v>0.084591718228053253</v>
       </c>
       <c r="B108">
-        <v>0.46720983870424421</v>
+        <v>0.45599710419767842</v>
       </c>
       <c r="C108">
-        <v>0.51062418905851659</v>
+        <v>0.51922672062076924</v>
       </c>
       <c r="D108">
-        <v>0.026484106675816677</v>
+        <v>3.8170873290044085</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.25539966912075279</v>
+        <v>0.040675679436190534</v>
       </c>
       <c r="B109">
-        <v>0.46496093970454067</v>
+        <v>0.45270550564209888</v>
       </c>
       <c r="C109">
-        <v>0.51725675090998624</v>
+        <v>0.52533834650917055</v>
       </c>
       <c r="D109">
-        <v>0.030090617113987916</v>
+        <v>4.4374697364067979</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.2566611010503681</v>
+        <v>0.045577304185279666</v>
       </c>
       <c r="B110">
-        <v>0.45943388096534771</v>
+        <v>0.44745237859658604</v>
       </c>
       <c r="C110">
-        <v>0.52166788958557053</v>
+        <v>0.52946542560151</v>
       </c>
       <c r="D110">
-        <v>0.030018617166151021</v>
+        <v>4.3577963083870497</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.24838075650496788</v>
+        <v>0.036016836642221266</v>
       </c>
       <c r="B111">
-        <v>0.45938961674685047</v>
+        <v>0.44653377881826856</v>
       </c>
       <c r="C111">
-        <v>0.52337081284931253</v>
+        <v>0.53202435345937538</v>
       </c>
       <c r="D111">
-        <v>0.029587798681071906</v>
+        <v>4.3756058729967569</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.25429506513099415</v>
+        <v>0.039990977579302929</v>
       </c>
       <c r="B112">
-        <v>0.45593854395133815</v>
+        <v>0.44344985944246723</v>
       </c>
       <c r="C112">
-        <v>0.52512853048643693</v>
+        <v>0.53343873784862161</v>
       </c>
       <c r="D112">
-        <v>0.029883409636378755</v>
+        <v>4.4174634789818557</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.25363728385083906</v>
+        <v>0.038745881249049208</v>
       </c>
       <c r="B113">
-        <v>0.45544995641707892</v>
+        <v>0.44278434465050187</v>
       </c>
       <c r="C113">
-        <v>0.52567417728601029</v>
+        <v>0.53427352504371883</v>
       </c>
       <c r="D113">
-        <v>0.031064416702601422</v>
+        <v>4.4151324183833109</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.25803211993400504</v>
+        <v>0.041027233754767516</v>
       </c>
       <c r="B114">
-        <v>0.45557125450613423</v>
+        <v>0.44273873952787035</v>
       </c>
       <c r="C114">
-        <v>0.52467944288452029</v>
+        <v>0.53354667626170293</v>
       </c>
       <c r="D114">
-        <v>0.03175400882185106</v>
+        <v>4.4465663788570335</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.26239661844351553</v>
+        <v>0.043233592662925598</v>
       </c>
       <c r="B115">
-        <v>0.45621141174580626</v>
+        <v>0.44308713760788637</v>
       </c>
       <c r="C115">
-        <v>0.52323871598911387</v>
+        <v>0.53251244728049196</v>
       </c>
       <c r="D115">
-        <v>0.03089276192268749</v>
+        <v>4.4760045342085526</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.24194201988695488</v>
+        <v>0.0087240717924884151</v>
       </c>
       <c r="B116">
-        <v>0.45054216591838286</v>
+        <v>0.43778252859799677</v>
       </c>
       <c r="C116">
-        <v>0.53232353673973776</v>
+        <v>0.53969786076280857</v>
       </c>
       <c r="D116">
-        <v>0.032288425571660763</v>
+        <v>4.9676060623133598</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.23336805062086469</v>
+        <v>1.4254185558289551e-12</v>
       </c>
       <c r="B117">
-        <v>0.45955095778758376</v>
+        <v>0.44432732396949531</v>
       </c>
       <c r="C117">
-        <v>0.52651528446799323</v>
+        <v>0.53503934964392164</v>
       </c>
       <c r="D117">
-        <v>0.033073147058403758</v>
+        <v>5.2341594463996293</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>0.23262371421006733</v>
+        <v>1.4572290966177283e-12</v>
       </c>
       <c r="B118">
-        <v>0.45498479309895412</v>
+        <v>0.44005256044684732</v>
       </c>
       <c r="C118">
-        <v>0.53054916180047618</v>
+        <v>0.53877233276787562</v>
       </c>
       <c r="D118">
-        <v>0.03336612909046946</v>
+        <v>5.2246784136622368</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.23563165929708282</v>
+        <v>1.478156577603754e-12</v>
       </c>
       <c r="B119">
-        <v>0.4526786244786889</v>
+        <v>0.43782253322195991</v>
       </c>
       <c r="C119">
-        <v>0.53194319510965737</v>
+        <v>0.54021513119444087</v>
       </c>
       <c r="D119">
-        <v>0.035351710621376382</v>
+        <v>5.2555407052730096</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.23782242474956569</v>
+        <v>1.5648071945758359e-12</v>
       </c>
       <c r="B120">
-        <v>0.45230557642879365</v>
+        <v>0.43727979656297489</v>
       </c>
       <c r="C120">
-        <v>0.53183827992066501</v>
+        <v>0.54042628175310869</v>
       </c>
       <c r="D120">
-        <v>0.035581596466337809</v>
+        <v>5.274842102386879</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.24908486974821276</v>
+        <v>1.6246182393716044e-12</v>
       </c>
       <c r="B121">
-        <v>0.45344225767278712</v>
+        <v>0.43732782476420906</v>
       </c>
       <c r="C121">
-        <v>0.52867594659516093</v>
+        <v>0.53869513670428271</v>
       </c>
       <c r="D121">
-        <v>0.035171502946376651</v>
+        <v>5.3959970702501003</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.24489315071862905</v>
+        <v>1.6776826106327241e-12</v>
       </c>
       <c r="B122">
-        <v>0.45165440977596238</v>
+        <v>0.43588965122078882</v>
       </c>
       <c r="C122">
-        <v>0.53103111368694988</v>
+        <v>0.54057561487950567</v>
       </c>
       <c r="D122">
-        <v>0.037184062394308839</v>
+        <v>5.3660891692193999</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.23442999116352856</v>
+        <v>1.7738905705887718e-12</v>
       </c>
       <c r="B123">
-        <v>0.44932071606627499</v>
+        <v>0.43525930939474028</v>
       </c>
       <c r="C123">
-        <v>0.53513349368094187</v>
+        <v>0.54168538399721322</v>
       </c>
       <c r="D123">
-        <v>0.038591257038557439</v>
+        <v>5.4540141623113811</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.23583700169051078</v>
+        <v>1.8283057238036342e-12</v>
       </c>
       <c r="B124">
-        <v>0.44810799389753159</v>
+        <v>0.43350416290076238</v>
       </c>
       <c r="C124">
-        <v>0.53588042377357814</v>
+        <v>0.54306369648351105</v>
       </c>
       <c r="D124">
-        <v>0.03886136964332184</v>
+        <v>5.4045308913029162</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.23015179073657063</v>
+        <v>1.917231161140671e-12</v>
       </c>
       <c r="B125">
-        <v>0.44760739378374453</v>
+        <v>0.43292903745407241</v>
       </c>
       <c r="C125">
-        <v>0.53745138335426168</v>
+        <v>0.5443547090626738</v>
       </c>
       <c r="D125">
-        <v>0.040778193016258388</v>
+        <v>5.3935180474787749</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.22694653849384194</v>
+        <v>1.9929467721988559e-12</v>
       </c>
       <c r="B126">
-        <v>0.44814522445493538</v>
+        <v>0.43347315844632178</v>
       </c>
       <c r="C126">
-        <v>0.53763268874320658</v>
+        <v>0.54449855417250159</v>
       </c>
       <c r="D126">
-        <v>0.042511289349774599</v>
+        <v>5.3621406357236232</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>0.23414079900551946</v>
+        <v>1.9806002236958787e-12</v>
       </c>
       <c r="B127">
-        <v>0.44396331054787913</v>
+        <v>0.42921856688430865</v>
       </c>
       <c r="C127">
-        <v>0.53979363716055273</v>
+        <v>0.5468347344828175</v>
       </c>
       <c r="D127">
-        <v>0.040212513118863751</v>
+        <v>5.471754926475989</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.24214014147690086</v>
+        <v>2.0839385872751867e-12</v>
       </c>
       <c r="B128">
-        <v>0.44645948854041628</v>
+        <v>0.43076123307435993</v>
       </c>
       <c r="C128">
-        <v>0.53605939794284097</v>
+        <v>0.54432268702872255</v>
       </c>
       <c r="D128">
-        <v>0.042108877197128962</v>
+        <v>5.5508907376833294</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>0.24215571207078851</v>
+        <v>2.1899482684071336e-12</v>
       </c>
       <c r="B129">
-        <v>0.44627644773166292</v>
+        <v>0.43031698128444379</v>
       </c>
       <c r="C129">
-        <v>0.536210127764981</v>
+        <v>0.54482213801116053</v>
       </c>
       <c r="D129">
-        <v>0.043868352428152763</v>
+        <v>5.5452505482862904</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>0.23037803822554048</v>
+        <v>2.1792526712107421e-12</v>
       </c>
       <c r="B130">
-        <v>0.44240953129678806</v>
+        <v>0.42930484077367953</v>
       </c>
       <c r="C130">
-        <v>0.54198323259392378</v>
+        <v>0.54598540117669225</v>
       </c>
       <c r="D130">
-        <v>0.04709903170629641</v>
+        <v>5.7121247533870037</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.22544994248471492</v>
+        <v>2.2672629423442882e-12</v>
       </c>
       <c r="B131">
-        <v>0.44497220031574425</v>
+        <v>0.43111045029428152</v>
       </c>
       <c r="C131">
-        <v>0.5408727340058076</v>
+        <v>0.54482996603556377</v>
       </c>
       <c r="D131">
-        <v>0.047478523134406418</v>
+        <v>5.8005748199920717</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.22336608798691823</v>
+        <v>2.3754459667692654e-12</v>
       </c>
       <c r="B132">
-        <v>0.44987146230611513</v>
+        <v>0.43498934068860479</v>
       </c>
       <c r="C132">
-        <v>0.53714857065214594</v>
+        <v>0.54182500180489601</v>
       </c>
       <c r="D132">
-        <v>0.046257019626460505</v>
+        <v>5.8315228039420548</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.22215623243527055</v>
+        <v>2.4251487178944314e-12</v>
       </c>
       <c r="B133">
-        <v>0.45277000913903731</v>
+        <v>0.43753230400140081</v>
       </c>
       <c r="C133">
-        <v>0.53491215687504123</v>
+        <v>0.5398303337885465</v>
       </c>
       <c r="D133">
-        <v>0.046309724541609934</v>
+        <v>5.8376711423266778</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.22041780339041692</v>
+        <v>2.5502263347771553e-12</v>
       </c>
       <c r="B134">
-        <v>0.45428590302342103</v>
+        <v>0.43933783274493138</v>
       </c>
       <c r="C134">
-        <v>0.53394205142535967</v>
+        <v>0.53864044182826809</v>
       </c>
       <c r="D134">
-        <v>0.047798836928561961</v>
+        <v>5.812109307084242</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.21441067332202243</v>
+        <v>2.7939466247742814e-12</v>
       </c>
       <c r="B135">
-        <v>0.45842822115612691</v>
+        <v>0.44444948623419334</v>
       </c>
       <c r="C135">
-        <v>0.53150197472120753</v>
+        <v>0.53543906452003354</v>
       </c>
       <c r="D135">
-        <v>0.048757230060037272</v>
+        <v>5.6987177612452617</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.21127859264189211</v>
+        <v>2.9029634491254806e-12</v>
       </c>
       <c r="B136">
-        <v>0.4630773319465617</v>
+        <v>0.4499701160236243</v>
       </c>
       <c r="C136">
-        <v>0.5280594391337512</v>
+        <v>0.53106124367763696</v>
       </c>
       <c r="D136">
-        <v>0.049171914560866774</v>
+        <v>5.6783751400395897</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.2030584532910312</v>
+        <v>2.7158745446901459e-12</v>
       </c>
       <c r="B137">
-        <v>0.47500638043990334</v>
+        <v>0.46157328533034503</v>
       </c>
       <c r="C137">
-        <v>0.51922306219709213</v>
+        <v>0.51995088147671553</v>
       </c>
       <c r="D137">
-        <v>0.050336421869005353</v>
+        <v>6.1103584747619584</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.20265003468169832</v>
+        <v>2.7272335501704892e-12</v>
       </c>
       <c r="B138">
-        <v>0.46433537275385245</v>
+        <v>0.44912575314465497</v>
       </c>
       <c r="C138">
-        <v>0.52856522727350064</v>
+        <v>0.53165704618687715</v>
       </c>
       <c r="D138">
-        <v>0.047336204570331226</v>
+        <v>5.8687573086450797</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.19690501152795378</v>
+        <v>2.7967391045046676e-12</v>
       </c>
       <c r="B139">
-        <v>0.46426913445640777</v>
+        <v>0.44880902368267678</v>
       </c>
       <c r="C139">
-        <v>0.52960783168191339</v>
+        <v>0.5325545471569797</v>
       </c>
       <c r="D139">
-        <v>0.048282251706224188</v>
+        <v>5.8677737370671954</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.17902323387169411</v>
+        <v>2.8816037090756709e-12</v>
       </c>
       <c r="B140">
-        <v>0.46818769925984194</v>
+        <v>0.45266909932820348</v>
       </c>
       <c r="C140">
-        <v>0.52925838764250543</v>
+        <v>0.53196490678738351</v>
       </c>
       <c r="D140">
-        <v>0.052191756976296681</v>
+        <v>5.7162304951611498</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.17602464118982292</v>
+        <v>2.9219800443700153e-12</v>
       </c>
       <c r="B141">
-        <v>0.47220769182864047</v>
+        <v>0.45785993183086399</v>
       </c>
       <c r="C141">
-        <v>0.52624939491511891</v>
+        <v>0.52807463651757947</v>
       </c>
       <c r="D141">
-        <v>0.053544540684338143</v>
+        <v>5.6455130399035394</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.1771232838057181</v>
+        <v>2.9570707582541426e-12</v>
       </c>
       <c r="B142">
-        <v>0.46933618373132763</v>
+        <v>0.45572825377797216</v>
       </c>
       <c r="C142">
-        <v>0.52857579103138708</v>
+        <v>0.52986220753507729</v>
       </c>
       <c r="D142">
-        <v>0.053463178992096801</v>
+        <v>5.6638690576588084</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.16610797158775398</v>
+        <v>3.0379446392095369e-12</v>
       </c>
       <c r="B143">
-        <v>0.47010700267745298</v>
+        <v>0.45849098635660057</v>
       </c>
       <c r="C143">
-        <v>0.52972495228618943</v>
+        <v>0.5292515446750814</v>
       </c>
       <c r="D143">
-        <v>0.056287385996254928</v>
+        <v>5.5026040204168076</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>0.1501445361469238</v>
+        <v>2.9304141623790986e-12</v>
       </c>
       <c r="B144">
-        <v>0.47693398299371648</v>
+        <v>0.46724741682702409</v>
       </c>
       <c r="C144">
-        <v>0.52638534948056126</v>
+        <v>0.5213439719170716</v>
       </c>
       <c r="D144">
-        <v>0.061088949518380099</v>
+        <v>5.8669939977429983</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.14072511601383006</v>
+        <v>2.8160400445584305e-12</v>
       </c>
       <c r="B145">
-        <v>0.49261604976132961</v>
+        <v>0.48137203762744901</v>
       </c>
       <c r="C145">
-        <v>0.5142296180199416</v>
+        <v>0.50888220200084755</v>
       </c>
       <c r="D145">
-        <v>0.06511906975066406</v>
+        <v>6.1555794115877305</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.13822080311677704</v>
+        <v>2.7842667550115383e-12</v>
       </c>
       <c r="B146">
-        <v>0.4978255406848151</v>
+        <v>0.4860127989448475</v>
       </c>
       <c r="C146">
-        <v>0.51008534277780782</v>
+        <v>0.50507997159616647</v>
       </c>
       <c r="D146">
-        <v>0.066396364994348839</v>
+        <v>6.174353239912941</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.133638749090529</v>
+        <v>2.7882885924116143e-12</v>
       </c>
       <c r="B147">
-        <v>0.50035955108151087</v>
+        <v>0.48917315302634373</v>
       </c>
       <c r="C147">
-        <v>0.50860386122626045</v>
+        <v>0.50299701511394379</v>
       </c>
       <c r="D147">
-        <v>0.069459195052741507</v>
+        <v>6.142453080609207</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.13002414081339661</v>
+        <v>2.8334478203201657e-12</v>
       </c>
       <c r="B148">
-        <v>0.50056694595471263</v>
+        <v>0.49059339475294744</v>
       </c>
       <c r="C148">
-        <v>0.50899200510439391</v>
+        <v>0.50250130431299367</v>
       </c>
       <c r="D148">
-        <v>0.070663108389086557</v>
+        <v>6.0826778121564784</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.12610590800438415</v>
+        <v>3.0852083106748791e-12</v>
       </c>
       <c r="B149">
-        <v>0.50017309342648364</v>
+        <v>0.49157059871828229</v>
       </c>
       <c r="C149">
-        <v>0.50995105375896754</v>
+        <v>0.50254678659633578</v>
       </c>
       <c r="D149">
-        <v>0.069762098342227713</v>
+        <v>6.0021956409540165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.13904742881302104</v>
+        <v>3.3497041112116445e-12</v>
       </c>
       <c r="B150">
-        <v>0.49637788902086599</v>
+        <v>0.48589574522204965</v>
       </c>
       <c r="C150">
-        <v>0.51121685288151797</v>
+        <v>0.50605602129523974</v>
       </c>
       <c r="D150">
-        <v>0.065374392557326091</v>
+        <v>6.1228090457242708</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.10094151163772802</v>
+        <v>3.3510198283301511e-12</v>
       </c>
       <c r="B151">
-        <v>0.48766780671330162</v>
+        <v>0.48488848809264967</v>
       </c>
       <c r="C151">
-        <v>0.5249073108948964</v>
+        <v>0.50817325283505699</v>
       </c>
       <c r="D151">
-        <v>0.074088364015969521</v>
+        <v>6.5584890994552989</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.10674429986047189</v>
+        <v>3.337289164941368e-12</v>
       </c>
       <c r="B152">
-        <v>0.48228888227852512</v>
+        <v>0.47868934057088697</v>
       </c>
       <c r="C152">
-        <v>0.52870829889368587</v>
+        <v>0.51306229539670245</v>
       </c>
       <c r="D152">
-        <v>0.073198696817531966</v>
+        <v>6.516982136978986</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>0.10947281976889478</v>
+        <v>3.3104323304216986e-12</v>
       </c>
       <c r="B153">
-        <v>0.48124948771894843</v>
+        <v>0.47750579236493096</v>
       </c>
       <c r="C153">
-        <v>0.52918360377335849</v>
+        <v>0.51392776846859733</v>
       </c>
       <c r="D153">
-        <v>0.074696921478204448</v>
+        <v>6.530262233959915</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.13234556213100657</v>
+        <v>3.3715751956373765e-12</v>
       </c>
       <c r="B154">
-        <v>0.48249159552769472</v>
+        <v>0.47696664556683255</v>
       </c>
       <c r="C154">
-        <v>0.52448969876504103</v>
+        <v>0.5113003738041324</v>
       </c>
       <c r="D154">
-        <v>0.069974877458740217</v>
+        <v>6.7884717545388078</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.10566637541250883</v>
+        <v>3.7327312217693608e-12</v>
       </c>
       <c r="B155">
-        <v>0.47222040049191732</v>
+        <v>0.46750802784637707</v>
       </c>
       <c r="C155">
-        <v>0.53775824163434049</v>
+        <v>0.52443268861776748</v>
       </c>
       <c r="D155">
-        <v>0.079488597644026424</v>
+        <v>6.3984252458952584</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.11106648399606464</v>
+        <v>3.4823161088634364e-12</v>
       </c>
       <c r="B156">
-        <v>0.47081056103153113</v>
+        <v>0.46468105645806995</v>
       </c>
       <c r="C156">
-        <v>0.53814485658166122</v>
+        <v>0.52643709899648528</v>
       </c>
       <c r="D156">
-        <v>0.075361743551672009</v>
+        <v>6.3927477009629694</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.11883540186670777</v>
+        <v>3.6335601672588805e-12</v>
       </c>
       <c r="B157">
-        <v>0.47089134608329358</v>
+        <v>0.46368453741802773</v>
       </c>
       <c r="C157">
-        <v>0.53684289972702937</v>
+        <v>0.52646431374464198</v>
       </c>
       <c r="D157">
-        <v>0.072437906905791022</v>
+        <v>6.4426679141678189</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.075622632714279145</v>
+        <v>3.5515204635472051e-12</v>
       </c>
       <c r="B158">
-        <v>0.46011937657302315</v>
+        <v>0.46136094871749456</v>
       </c>
       <c r="C158">
-        <v>0.55324461188061258</v>
+        <v>0.5303505920217928</v>
       </c>
       <c r="D158">
-        <v>0.097238846921827937</v>
+        <v>7.0287367609547093</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.082513244037938596</v>
+        <v>3.2877806622271648e-12</v>
       </c>
       <c r="B159">
-        <v>0.4488220787913364</v>
+        <v>0.44769517100675499</v>
       </c>
       <c r="C159">
-        <v>0.56221477103310236</v>
+        <v>0.54239729464347097</v>
       </c>
       <c r="D159">
-        <v>0.098022778000715877</v>
+        <v>6.8153891032711797</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.10145441373376157</v>
+        <v>3.4512873302229783e-12</v>
       </c>
       <c r="B160">
-        <v>0.44931503961824537</v>
+        <v>0.44758863712809827</v>
       </c>
       <c r="C160">
-        <v>0.55880232928204376</v>
+        <v>0.54033398705223035</v>
       </c>
       <c r="D160">
-        <v>0.091306989362565649</v>
+        <v>6.7426332614912692</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.12194465190691162</v>
+        <v>3.5334011012584395e-12</v>
       </c>
       <c r="B161">
-        <v>0.45643796487296495</v>
+        <v>0.45430516420119327</v>
       </c>
       <c r="C161">
-        <v>0.54924198377549172</v>
+        <v>0.53142492189538004</v>
       </c>
       <c r="D161">
-        <v>0.097533518518814102</v>
+        <v>6.9057232278717668</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.10995128527885967</v>
+        <v>3.5717492895366394e-12</v>
       </c>
       <c r="B162">
-        <v>0.4504731220973151</v>
+        <v>0.44688682833081039</v>
       </c>
       <c r="C162">
-        <v>0.55643389282014277</v>
+        <v>0.54057868085816951</v>
       </c>
       <c r="D162">
-        <v>0.096217105682114903</v>
+        <v>6.7158217459923009</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.11210771162657046</v>
+        <v>3.8796775886782975e-12</v>
       </c>
       <c r="B163">
-        <v>0.45021114092470105</v>
+        <v>0.44604138235263446</v>
       </c>
       <c r="C163">
-        <v>0.55632038882341339</v>
+        <v>0.54109018081723359</v>
       </c>
       <c r="D163">
-        <v>0.099055203180380441</v>
+        <v>6.6313914138728576</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.12591825704467169</v>
+        <v>4.0676078746858384e-12</v>
       </c>
       <c r="B164">
-        <v>0.4519827558004923</v>
+        <v>0.44726257188453672</v>
       </c>
       <c r="C164">
-        <v>0.55256381711616576</v>
+        <v>0.5381857518219717</v>
       </c>
       <c r="D164">
-        <v>0.097272317553682139</v>
+        <v>6.6682775133429804</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.10749032854583565</v>
+        <v>3.5020649704904906e-12</v>
       </c>
       <c r="B165">
-        <v>0.44439769472371454</v>
+        <v>0.44311962502175073</v>
       </c>
       <c r="C165">
-        <v>0.56223967668842012</v>
+        <v>0.54266971784724449</v>
       </c>
       <c r="D165">
-        <v>0.1078599114531083</v>
+        <v>6.8667348460174171</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.12205035045079625</v>
+        <v>3.6877378765798505e-12</v>
       </c>
       <c r="B166">
-        <v>0.44187325134583166</v>
+        <v>0.44092851812803013</v>
       </c>
       <c r="C166">
-        <v>0.56219737512876145</v>
+        <v>0.54279017882056002</v>
       </c>
       <c r="D166">
-        <v>0.096878252691113442</v>
+        <v>6.820880296565254</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.12120774327840013</v>
+        <v>3.9105604186271878e-12</v>
       </c>
       <c r="B167">
-        <v>0.44111062352989944</v>
+        <v>0.43943728176980734</v>
       </c>
       <c r="C167">
-        <v>0.56300634059353694</v>
+        <v>0.54450919448429203</v>
       </c>
       <c r="D167">
-        <v>0.10280334340847548</v>
+        <v>6.7976058272616955</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.11525175582596212</v>
+        <v>4.026356850104077e-12</v>
       </c>
       <c r="B168">
-        <v>0.43906348817002455</v>
+        <v>0.43679442315977002</v>
       </c>
       <c r="C168">
-        <v>0.56577811189133009</v>
+        <v>0.54836673832660754</v>
       </c>
       <c r="D168">
-        <v>0.10531693195727962</v>
+        <v>6.6668124862972942</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>0.12149744443255948</v>
+        <v>4.0155727332367321e-12</v>
       </c>
       <c r="B169">
-        <v>0.43848830667614319</v>
+        <v>0.43577991368665808</v>
       </c>
       <c r="C169">
-        <v>0.56529429980659951</v>
+        <v>0.54837280451645909</v>
       </c>
       <c r="D169">
-        <v>0.10174393785716943</v>
+        <v>6.7723912735016398</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.12796811416962151</v>
+        <v>4.1826286302171452e-12</v>
       </c>
       <c r="B170">
-        <v>0.43959376385451193</v>
+        <v>0.43583494911341064</v>
       </c>
       <c r="C170">
-        <v>0.56327030975857406</v>
+        <v>0.54754566462979115</v>
       </c>
       <c r="D170">
-        <v>0.10087020388963683</v>
+        <v>6.8635473512434526</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.13514728060289632</v>
+        <v>4.3372482381693342e-12</v>
       </c>
       <c r="B171">
-        <v>0.44151236197297578</v>
+        <v>0.4362518366559085</v>
       </c>
       <c r="C171">
-        <v>0.56040394255115611</v>
+        <v>0.54633547508489255</v>
       </c>
       <c r="D171">
-        <v>0.095632515045021807</v>
+        <v>6.962132041447938</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.130470823027139</v>
+        <v>4.4977445968522361e-12</v>
       </c>
       <c r="B172">
-        <v>0.43939926958278969</v>
+        <v>0.435407860128184</v>
       </c>
       <c r="C172">
-        <v>0.56303811606746323</v>
+        <v>0.54729015082418819</v>
       </c>
       <c r="D172">
-        <v>0.1005174929630636</v>
+        <v>6.9832912694115095</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.1392042067248099</v>
+        <v>4.71810298665427e-12</v>
       </c>
       <c r="B173">
-        <v>0.4400716099128289</v>
+        <v>0.43507926809853259</v>
       </c>
       <c r="C173">
-        <v>0.56102426383961534</v>
+        <v>0.54642859364799756</v>
       </c>
       <c r="D173">
-        <v>0.097161192937438176</v>
+        <v>7.0158092307617927</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.14077329143770026</v>
+        <v>4.8039157429150672e-12</v>
       </c>
       <c r="B174">
-        <v>0.44037188541789651</v>
+        <v>0.43480162295263697</v>
       </c>
       <c r="C174">
-        <v>0.56049677250577912</v>
+        <v>0.54662992273856525</v>
       </c>
       <c r="D174">
-        <v>0.10131395297127473</v>
+        <v>7.0210909690355621</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>0.15004728227575917</v>
+        <v>4.925001268961206e-12</v>
       </c>
       <c r="B175">
-        <v>0.44281773717145007</v>
+        <v>0.43586943234116399</v>
       </c>
       <c r="C175">
-        <v>0.55679716174079674</v>
+        <v>0.54493480587353793</v>
       </c>
       <c r="D175">
-        <v>0.09459784346938413</v>
+        <v>6.8562592669862052</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.14989078313524387</v>
+        <v>5.2058289909877792e-12</v>
       </c>
       <c r="B176">
-        <v>0.44251025880385925</v>
+        <v>0.4355825654205846</v>
       </c>
       <c r="C176">
-        <v>0.55709242576249085</v>
+        <v>0.54519114540409319</v>
       </c>
       <c r="D176">
-        <v>0.095217658516588977</v>
+        <v>6.8562192018517516</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.15889282018592249</v>
+        <v>5.3007702686892016e-12</v>
       </c>
       <c r="B177">
-        <v>0.4450033583139873</v>
+        <v>0.43785477013680202</v>
       </c>
       <c r="C177">
-        <v>0.553370017785629</v>
+        <v>0.54165445849737637</v>
       </c>
       <c r="D177">
-        <v>0.097386122435738035</v>
+        <v>6.9667365390993403</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>0.16438345342414173</v>
+        <v>5.6452028944335263e-12</v>
       </c>
       <c r="B178">
-        <v>0.44747872046339393</v>
+        <v>0.43947916793242353</v>
       </c>
       <c r="C178">
-        <v>0.55024338159165243</v>
+        <v>0.53944492891094287</v>
       </c>
       <c r="D178">
-        <v>0.098070796636289356</v>
+        <v>7.0349556498266352</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.1433228638194628</v>
+        <v>5.5849224140749609e-12</v>
       </c>
       <c r="B179">
-        <v>0.43698320111712324</v>
+        <v>0.43429113888933984</v>
       </c>
       <c r="C179">
-        <v>0.56317324134104574</v>
+        <v>0.54479191575661856</v>
       </c>
       <c r="D179">
-        <v>0.10666597809604751</v>
+        <v>7.44121937782743</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.1428694172665925</v>
+        <v>5.8115845249728274e-12</v>
       </c>
       <c r="B180">
-        <v>0.43699883425007774</v>
+        <v>0.43319507038974103</v>
       </c>
       <c r="C180">
-        <v>0.56323368313951472</v>
+        <v>0.54583950293541983</v>
       </c>
       <c r="D180">
-        <v>0.11131191149982642</v>
+        <v>7.4120832844501594</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.15038991077284786</v>
+        <v>6.199034034937798e-12</v>
       </c>
       <c r="B181">
-        <v>0.43173022197124267</v>
+        <v>0.42904521748980523</v>
       </c>
       <c r="C181">
-        <v>0.5666350169315596</v>
+        <v>0.54827561691983018</v>
       </c>
       <c r="D181">
-        <v>0.11624639137904376</v>
+        <v>7.409209024859182</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.14941819329831621</v>
+        <v>6.4737690719665817e-12</v>
       </c>
       <c r="B182">
-        <v>0.43106713320328904</v>
+        <v>0.42866533205978724</v>
       </c>
       <c r="C182">
-        <v>0.56738797289537291</v>
+        <v>0.54866352221851777</v>
       </c>
       <c r="D182">
-        <v>0.12069797473376241</v>
+        <v>7.4081667736295627</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.15209048746904788</v>
+        <v>6.513767425688e-12</v>
       </c>
       <c r="B183">
-        <v>0.43173797259492341</v>
+        <v>0.42932520400545171</v>
       </c>
       <c r="C183">
-        <v>0.56632385685814368</v>
+        <v>0.54763789096904603</v>
       </c>
       <c r="D183">
-        <v>0.12336646491443409</v>
+        <v>7.4361547152451468</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.16232977797627662</v>
+        <v>7.4106562535706908e-12</v>
       </c>
       <c r="B184">
-        <v>0.43508487799662204</v>
+        <v>0.43269069148273365</v>
       </c>
       <c r="C184">
-        <v>0.56155107482171285</v>
+        <v>0.54256214362356459</v>
       </c>
       <c r="D184">
-        <v>0.12154670024408695</v>
+        <v>7.6287102096622794</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.17002710943927818</v>
+        <v>7.5923678549010547e-12</v>
       </c>
       <c r="B185">
-        <v>0.43986760962441751</v>
+        <v>0.43632988529091221</v>
       </c>
       <c r="C185">
-        <v>0.55594193276572512</v>
+        <v>0.53803712359348721</v>
       </c>
       <c r="D185">
-        <v>0.12363400115397497</v>
+        <v>7.7521629098806297</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.16661872283772197</v>
+        <v>7.8264398874114568e-12</v>
       </c>
       <c r="B186">
-        <v>0.43752884789005497</v>
+        <v>0.43694845835812041</v>
       </c>
       <c r="C186">
-        <v>0.55863109297430413</v>
+        <v>0.53757560751830846</v>
       </c>
       <c r="D186">
-        <v>0.12639998362488272</v>
+        <v>7.6460985009612905</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.17346743759857502</v>
+        <v>7.998547342480411e-12</v>
       </c>
       <c r="B187">
-        <v>0.43986327595842156</v>
+        <v>0.44041897936452362</v>
       </c>
       <c r="C187">
-        <v>0.55525196344273009</v>
+        <v>0.5336732429360076</v>
       </c>
       <c r="D187">
-        <v>0.12565042830222992</v>
+        <v>7.4664742607631611</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.17478456674844398</v>
+        <v>8.2265702895253306e-12</v>
       </c>
       <c r="B188">
-        <v>0.4406604070340211</v>
+        <v>0.44159931707939165</v>
       </c>
       <c r="C188">
-        <v>0.55429255004344824</v>
+        <v>0.53232001659549044</v>
       </c>
       <c r="D188">
-        <v>0.13082007504042306</v>
+        <v>7.4745213112737634</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>0.17801370128640995</v>
+        <v>8.6140715391148391e-12</v>
       </c>
       <c r="B189">
-        <v>0.44234105048402078</v>
+        <v>0.44398697231943424</v>
       </c>
       <c r="C189">
-        <v>0.55215569431467737</v>
+        <v>0.52986267833787948</v>
       </c>
       <c r="D189">
-        <v>0.13783349250411717</v>
+        <v>7.3291742654676968</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>0.18091644094052858</v>
+        <v>8.8581016651111941e-12</v>
       </c>
       <c r="B190">
-        <v>0.44401030838363237</v>
+        <v>0.44648004433845345</v>
       </c>
       <c r="C190">
-        <v>0.55007899264535276</v>
+        <v>0.52699362863998267</v>
       </c>
       <c r="D190">
-        <v>0.14035448448652471</v>
+        <v>7.3274168923391318</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.18969044224931816</v>
+        <v>8.9763430575413409e-12</v>
       </c>
       <c r="B191">
-        <v>0.44941763601726148</v>
+        <v>0.45340292734499349</v>
       </c>
       <c r="C191">
-        <v>0.54342268644986413</v>
+        <v>0.51858488879521714</v>
       </c>
       <c r="D191">
-        <v>0.14338884254106304</v>
+        <v>7.4616600587219155</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>0.18988454909060176</v>
+        <v>9.627426904657241e-12</v>
       </c>
       <c r="B192">
-        <v>0.44958863913394159</v>
+        <v>0.45236261829622382</v>
       </c>
       <c r="C192">
-        <v>0.54323012745369637</v>
+        <v>0.51976510489892547</v>
       </c>
       <c r="D192">
-        <v>0.14507816631919424</v>
+        <v>7.4419740954859677</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>0.1876490502198245</v>
+        <v>1.0042333000816016e-11</v>
       </c>
       <c r="B193">
-        <v>0.44771335704518256</v>
+        <v>0.45267183692960533</v>
       </c>
       <c r="C193">
-        <v>0.54542393742204665</v>
+        <v>0.51990128100571376</v>
       </c>
       <c r="D193">
-        <v>0.14744173034706695</v>
+        <v>7.2548007207145471</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.18876275214996965</v>
+        <v>1.0297122987110656e-11</v>
       </c>
       <c r="B194">
-        <v>0.44800343095612322</v>
+        <v>0.45411303620307175</v>
       </c>
       <c r="C194">
-        <v>0.54477951908921873</v>
+        <v>0.51858530440479111</v>
       </c>
       <c r="D194">
-        <v>0.15423826509505364</v>
+        <v>7.0693481879268276</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>0.19056589707766694</v>
+        <v>1.0588989197299141e-11</v>
       </c>
       <c r="B195">
-        <v>0.44927725578961408</v>
+        <v>0.45699432862947531</v>
       </c>
       <c r="C195">
-        <v>0.54311124595063531</v>
+        <v>0.51535991169388118</v>
       </c>
       <c r="D195">
-        <v>0.15245531980255794</v>
+        <v>7.0485187064230344</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>0.19173260818359031</v>
+        <v>1.0953334896793154e-11</v>
       </c>
       <c r="B196">
-        <v>0.45036648832211584</v>
+        <v>0.45913377133493211</v>
       </c>
       <c r="C196">
-        <v>0.54180448838124884</v>
+        <v>0.51397873006676387</v>
       </c>
       <c r="D196">
-        <v>0.15469575149454959</v>
+        <v>6.6954232967493787</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.19068088447782003</v>
+        <v>1.1497083521156817e-11</v>
       </c>
       <c r="B197">
-        <v>0.44928818495525219</v>
+        <v>0.45838759335319235</v>
       </c>
       <c r="C197">
-        <v>0.54311337875240073</v>
+        <v>0.51473595067112321</v>
       </c>
       <c r="D197">
-        <v>0.15792552803568247</v>
+        <v>6.7169040937218156</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.19127190956321763</v>
+        <v>1.1653800752910527e-11</v>
       </c>
       <c r="B198">
-        <v>0.44930121026525782</v>
+        <v>0.46073761539255403</v>
       </c>
       <c r="C198">
-        <v>0.54244811532849624</v>
+        <v>0.51175108151209614</v>
       </c>
       <c r="D198">
-        <v>0.16415532522151666</v>
+        <v>6.6961037695084924</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.19108807739036412</v>
+        <v>1.1905302907875946e-11</v>
       </c>
       <c r="B199">
-        <v>0.44905976813269438</v>
+        <v>0.45995488728845652</v>
       </c>
       <c r="C199">
-        <v>0.54272506790261543</v>
+        <v>0.51264518809297144</v>
       </c>
       <c r="D199">
-        <v>0.16375136416942834</v>
+        <v>6.6843025483976657</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.19057239477425675</v>
+        <v>1.2384029294273207e-11</v>
       </c>
       <c r="B200">
-        <v>0.44815524059093498</v>
+        <v>0.45959811488607799</v>
       </c>
       <c r="C200">
-        <v>0.543870947824587</v>
+        <v>0.51368960214920578</v>
       </c>
       <c r="D200">
-        <v>0.16900268577188754</v>
+        <v>6.4406842893398082</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.19117726517056821</v>
+        <v>1.2191746560252568e-11</v>
       </c>
       <c r="B201">
-        <v>0.44863767694956763</v>
+        <v>0.45932238772261097</v>
       </c>
       <c r="C201">
-        <v>0.54369904266489755</v>
+        <v>0.51384681741850113</v>
       </c>
       <c r="D201">
-        <v>0.17208371944184123</v>
+        <v>6.5121873262300367</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.19125619935346458</v>
+        <v>1.2753570765332865e-11</v>
       </c>
       <c r="B202">
-        <v>0.44873688526716976</v>
+        <v>0.459111075058104</v>
       </c>
       <c r="C202">
-        <v>0.54361634010920612</v>
+        <v>0.51409384863205176</v>
       </c>
       <c r="D202">
-        <v>0.17702329315330129</v>
+        <v>6.4690990507010442</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>0.18998539321535982</v>
+        <v>1.1721262242774225e-11</v>
       </c>
       <c r="B203">
-        <v>0.44694994307728997</v>
+        <v>0.45682585079706339</v>
       </c>
       <c r="C203">
-        <v>0.54493022568125571</v>
+        <v>0.5179107029042177</v>
       </c>
       <c r="D203">
-        <v>0.17834256205973859</v>
+        <v>5.8443425130894333</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>0.19113646899339976</v>
+        <v>1.2137011081038597e-11</v>
       </c>
       <c r="B204">
-        <v>0.44866832981607974</v>
+        <v>0.46115514223776261</v>
       </c>
       <c r="C204">
-        <v>0.54285357719496397</v>
+        <v>0.51359491191225493</v>
       </c>
       <c r="D204">
-        <v>0.18601235280689973</v>
+        <v>5.7184460948317497</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.18987247574218963</v>
+        <v>1.2725450582268266e-11</v>
       </c>
       <c r="B205">
-        <v>0.44639806187949427</v>
+        <v>0.45766131526116954</v>
       </c>
       <c r="C205">
-        <v>0.545441112667994</v>
+        <v>0.51736048984649607</v>
       </c>
       <c r="D205">
-        <v>0.1895401905676744</v>
+        <v>5.7201563221997613</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>0.18917105650227464</v>
+        <v>1.3209863187842158e-11</v>
       </c>
       <c r="B206">
-        <v>0.44622082323547785</v>
+        <v>0.45855956061714759</v>
       </c>
       <c r="C206">
-        <v>0.54530696325647099</v>
+        <v>0.51604215163286093</v>
       </c>
       <c r="D206">
-        <v>0.20153852936225167</v>
+        <v>5.7394082159191244</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.1892203655934083</v>
+        <v>1.3686387939548365e-11</v>
       </c>
       <c r="B207">
-        <v>0.44636196379307247</v>
+        <v>0.45821280777646589</v>
       </c>
       <c r="C207">
-        <v>0.54514481927252134</v>
+        <v>0.51768779396105913</v>
       </c>
       <c r="D207">
-        <v>0.20479079951551718</v>
+        <v>5.3095717820953325</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.18895521007046798</v>
+        <v>1.3964735140598227e-11</v>
       </c>
       <c r="B208">
-        <v>0.44708534774411385</v>
+        <v>0.46037099679926041</v>
       </c>
       <c r="C208">
-        <v>0.54417711286655368</v>
+        <v>0.5159358410026561</v>
       </c>
       <c r="D208">
-        <v>0.20511535760325675</v>
+        <v>5.1000055141923362</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.18899029001032677</v>
+        <v>1.4575553541982374e-11</v>
       </c>
       <c r="B209">
-        <v>0.44723638021048323</v>
+        <v>0.46124742327832124</v>
       </c>
       <c r="C209">
-        <v>0.54400966283732011</v>
+        <v>0.51504286657767151</v>
       </c>
       <c r="D209">
-        <v>0.21611152893111701</v>
+        <v>5.0836265331370676</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>0.18996879257755353</v>
+        <v>1.4525943963748808e-11</v>
       </c>
       <c r="B210">
-        <v>0.44612663189885238</v>
+        <v>0.46117455653850353</v>
       </c>
       <c r="C210">
-        <v>0.54544658092942377</v>
+        <v>0.51478999043790796</v>
       </c>
       <c r="D210">
-        <v>0.21773451508462352</v>
+        <v>5.1967828061258583</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.19154094259622104</v>
+        <v>1.5354543537170197e-11</v>
       </c>
       <c r="B211">
-        <v>0.44717241993885765</v>
+        <v>0.46132339101863018</v>
       </c>
       <c r="C211">
-        <v>0.54454734588191755</v>
+        <v>0.51459706113734394</v>
       </c>
       <c r="D211">
-        <v>0.21897558785261018</v>
+        <v>5.231388083896289</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.19020610557065484</v>
+        <v>1.5423377645734905e-11</v>
       </c>
       <c r="B212">
-        <v>0.44611529297462971</v>
+        <v>0.46092931370172857</v>
       </c>
       <c r="C212">
-        <v>0.54547545130290898</v>
+        <v>0.51487122757250481</v>
       </c>
       <c r="D212">
-        <v>0.21690854237999102</v>
+        <v>5.2082732365394984</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>0.18904814170105155</v>
+        <v>1.578538868636076e-11</v>
       </c>
       <c r="B213">
-        <v>0.44583074802024875</v>
+        <v>0.46178298747109059</v>
       </c>
       <c r="C213">
-        <v>0.54550515965753232</v>
+        <v>0.51364175057661121</v>
       </c>
       <c r="D213">
-        <v>0.22282638350812781</v>
+        <v>5.2270517359011626</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.18922287677550659</v>
+        <v>1.7003048203473895e-11</v>
       </c>
       <c r="B214">
-        <v>0.44492995097346671</v>
+        <v>0.46119966948674235</v>
       </c>
       <c r="C214">
-        <v>0.54660203460223833</v>
+        <v>0.51495800613025389</v>
       </c>
       <c r="D214">
-        <v>0.22276586868712239</v>
+        <v>5.0045857276163295</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.18898457661241566</v>
+        <v>1.7496836812161349e-11</v>
       </c>
       <c r="B215">
-        <v>0.44487599498104913</v>
+        <v>0.46146708236528572</v>
       </c>
       <c r="C215">
-        <v>0.54661572122202007</v>
+        <v>0.5149722339979661</v>
       </c>
       <c r="D215">
-        <v>0.23486029174294334</v>
+        <v>4.8823817341731264</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.19033104596928732</v>
+        <v>1.7257858546186365e-11</v>
       </c>
       <c r="B216">
-        <v>0.44507599944496762</v>
+        <v>0.4603570541422316</v>
       </c>
       <c r="C216">
-        <v>0.54666575566557096</v>
+        <v>0.51613569226702827</v>
       </c>
       <c r="D216">
-        <v>0.24557363761770024</v>
+        <v>4.9284811664542989</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>0.19213695902872663</v>
+        <v>1.8829608701994369e-11</v>
       </c>
       <c r="B217">
-        <v>0.44645927509584921</v>
+        <v>0.46020113585193734</v>
       </c>
       <c r="C217">
-        <v>0.54546643289260033</v>
+        <v>0.51635029950005584</v>
       </c>
       <c r="D217">
-        <v>0.25262374923192643</v>
+        <v>4.9085734114157455</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.19079474897459894</v>
+        <v>2.1126936077352129e-11</v>
       </c>
       <c r="B218">
-        <v>0.44520777985255006</v>
+        <v>0.45936443544755784</v>
       </c>
       <c r="C218">
-        <v>0.54657991197071742</v>
+        <v>0.51730103770941205</v>
       </c>
       <c r="D218">
-        <v>0.25345999887240434</v>
+        <v>4.8095796137662044</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.19061812600000033</v>
+        <v>2.2290723388749554e-11</v>
       </c>
       <c r="B219">
-        <v>0.44514398369170294</v>
+        <v>0.45969872812521118</v>
       </c>
       <c r="C219">
-        <v>0.54659187177931845</v>
+        <v>0.51689889880962248</v>
       </c>
       <c r="D219">
-        <v>0.25317921503685525</v>
+        <v>4.8036349084867771</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>0.1900702640581334</v>
+        <v>2.2773896774735258e-11</v>
       </c>
       <c r="B220">
-        <v>0.44511226649913188</v>
+        <v>0.46055331118301474</v>
       </c>
       <c r="C220">
-        <v>0.54641574572626739</v>
+        <v>0.5157549148191336</v>
       </c>
       <c r="D220">
-        <v>0.25306783181932252</v>
+        <v>4.8173087448393508</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.19009128692924707</v>
+        <v>2.2485113685829005e-11</v>
       </c>
       <c r="B221">
-        <v>0.44516845364436103</v>
+        <v>0.45947399515823267</v>
       </c>
       <c r="C221">
-        <v>0.54635410289360486</v>
+        <v>0.51801370663122026</v>
       </c>
       <c r="D221">
-        <v>0.26441538784074736</v>
+        <v>4.4637219555289125</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.19115451034044864</v>
+        <v>2.2195638573619014e-11</v>
       </c>
       <c r="B222">
-        <v>0.44441941661479528</v>
+        <v>0.4581113322675196</v>
       </c>
       <c r="C222">
-        <v>0.54753687128394679</v>
+        <v>0.51905142902886825</v>
       </c>
       <c r="D222">
-        <v>0.26824709716999262</v>
+        <v>4.6155636943099028</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.19046096024778431</v>
+        <v>2.330060159149998e-11</v>
       </c>
       <c r="B223">
-        <v>0.44378127298473691</v>
+        <v>0.45768871164415947</v>
       </c>
       <c r="C223">
-        <v>0.54810579065750897</v>
+        <v>0.51943877354208434</v>
       </c>
       <c r="D223">
-        <v>0.27617907579185874</v>
+        <v>4.5872940173554984</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>0.19043160502219683</v>
+        <v>2.3914795025782244e-11</v>
       </c>
       <c r="B224">
-        <v>0.44377089845314949</v>
+        <v>0.45686053513161284</v>
       </c>
       <c r="C224">
-        <v>0.5481078503093636</v>
+        <v>0.52068331700732695</v>
       </c>
       <c r="D224">
-        <v>0.29370315694897325</v>
+        <v>4.4396876949577573</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.18965913262288553</v>
+        <v>2.4788827882987578e-11</v>
       </c>
       <c r="B225">
-        <v>0.44335397354606682</v>
+        <v>0.45744381109380655</v>
       </c>
       <c r="C225">
-        <v>0.54831574128963634</v>
+        <v>0.52012900530275197</v>
       </c>
       <c r="D225">
-        <v>0.29999788185507814</v>
+        <v>4.3570573384002893</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.18992309696069792</v>
+        <v>2.441146453372633e-11</v>
       </c>
       <c r="B226">
-        <v>0.44191676863234131</v>
+        <v>0.4536974337220569</v>
       </c>
       <c r="C226">
-        <v>0.5502702627435998</v>
+        <v>0.52435498078207399</v>
       </c>
       <c r="D226">
-        <v>0.2894889425418381</v>
+        <v>4.3710741644715272</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.18726517695731656</v>
+        <v>2.4092520449645337e-11</v>
       </c>
       <c r="B227">
-        <v>0.43914367470442162</v>
+        <v>0.45134800771419947</v>
       </c>
       <c r="C227">
-        <v>0.55273567635650833</v>
+        <v>0.52653409920777727</v>
       </c>
       <c r="D227">
-        <v>0.28887792888370128</v>
+        <v>4.3090004452891666</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.18719912793077517</v>
+        <v>2.4975888196387659e-11</v>
       </c>
       <c r="B228">
-        <v>0.43952684904048228</v>
+        <v>0.45017595723628001</v>
       </c>
       <c r="C228">
-        <v>0.55217654405170291</v>
+        <v>0.52897590739581546</v>
       </c>
       <c r="D228">
-        <v>0.30186747584467938</v>
+        <v>3.9261099666429513</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>0.18712591501245113</v>
+        <v>2.5008110955358624e-11</v>
       </c>
       <c r="B229">
-        <v>0.43838944180831718</v>
+        <v>0.4491344662214482</v>
       </c>
       <c r="C229">
-        <v>0.55359824533280733</v>
+        <v>0.52989954502408676</v>
       </c>
       <c r="D229">
-        <v>0.30471324579722531</v>
+        <v>3.9898711800536568</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.1873418583336145</v>
+        <v>2.6066144627222663e-11</v>
       </c>
       <c r="B230">
-        <v>0.43854644359975731</v>
+        <v>0.44915105774556591</v>
       </c>
       <c r="C230">
-        <v>0.55347878970490438</v>
+        <v>0.52988259710328178</v>
       </c>
       <c r="D230">
-        <v>0.30884685393378714</v>
+        <v>3.9897359650779181</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.18730548361816288</v>
+        <v>2.6861148524404855e-11</v>
       </c>
       <c r="B231">
-        <v>0.43853092476358085</v>
+        <v>0.44852534526231086</v>
       </c>
       <c r="C231">
-        <v>0.55348464632073913</v>
+        <v>0.53078200484170979</v>
       </c>
       <c r="D231">
-        <v>0.33064677018654359</v>
+        <v>3.8902353583125788</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.18570774917455632</v>
+        <v>2.7854548956738837e-11</v>
       </c>
       <c r="B232">
-        <v>0.43765934131428036</v>
+        <v>0.44914083676468575</v>
       </c>
       <c r="C232">
-        <v>0.55391791215996866</v>
+        <v>0.53014703317328671</v>
       </c>
       <c r="D232">
-        <v>0.348723525337717</v>
+        <v>3.769323342911358</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>0.18490402238154202</v>
+        <v>2.9249018076020009e-11</v>
       </c>
       <c r="B233">
-        <v>0.43521570092536016</v>
+        <v>0.44555706281789387</v>
       </c>
       <c r="C233">
-        <v>0.55667814441208374</v>
+        <v>0.53405502317304565</v>
       </c>
       <c r="D233">
-        <v>0.34850525134315635</v>
+        <v>3.7646488739605544</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>0.18465279291200687</v>
+        <v>2.996109280671448e-11</v>
       </c>
       <c r="B234">
-        <v>0.43514519987477129</v>
+        <v>0.44561676179458443</v>
       </c>
       <c r="C234">
-        <v>0.55669549435749321</v>
+        <v>0.53393343511306735</v>
       </c>
       <c r="D234">
-        <v>0.36110639070204087</v>
+        <v>3.7628238454584366</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.18455380491997847</v>
+        <v>3.0952270391241759e-11</v>
       </c>
       <c r="B235">
-        <v>0.43516851769676224</v>
+        <v>0.44428989088744875</v>
       </c>
       <c r="C235">
-        <v>0.55664261246445323</v>
+        <v>0.53603807631493383</v>
       </c>
       <c r="D235">
-        <v>0.37489182486647432</v>
+        <v>3.5405819828025118</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.18580187207848012</v>
+        <v>3.1136593364970439e-11</v>
       </c>
       <c r="B236">
-        <v>0.43515629895210917</v>
+        <v>0.44381325201669719</v>
       </c>
       <c r="C236">
-        <v>0.55696772831076347</v>
+        <v>0.53631643512876725</v>
       </c>
       <c r="D236">
-        <v>0.38488120695326716</v>
+        <v>3.6362513907016512</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.18538534696448297</v>
+        <v>3.2128187114044978e-11</v>
       </c>
       <c r="B237">
-        <v>0.43479722170262791</v>
+        <v>0.44352926118839986</v>
       </c>
       <c r="C237">
-        <v>0.55728115771641995</v>
+        <v>0.53656939143183446</v>
       </c>
       <c r="D237">
-        <v>0.39743235318006437</v>
+        <v>3.6211592087065525</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.18492980972192999</v>
+        <v>3.3849143167489974e-11</v>
       </c>
       <c r="B238">
-        <v>0.434504211634961</v>
+        <v>0.44291528137610753</v>
       </c>
       <c r="C238">
-        <v>0.55748467965739767</v>
+        <v>0.53740139413452781</v>
       </c>
       <c r="D238">
-        <v>0.40036138792835924</v>
+        <v>3.5281555862196972</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.18403178197612499</v>
+        <v>3.4758844115709097e-11</v>
       </c>
       <c r="B239">
-        <v>0.43444588287088426</v>
+        <v>0.44389074964065439</v>
       </c>
       <c r="C239">
-        <v>0.55722265299038565</v>
+        <v>0.53629760213771904</v>
       </c>
       <c r="D239">
-        <v>0.43627645601107762</v>
+        <v>3.470008101102565</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.18416905946830173</v>
+        <v>3.6552866714970621e-11</v>
       </c>
       <c r="B240">
-        <v>0.43508211128150093</v>
+        <v>0.44483988982873862</v>
       </c>
       <c r="C240">
-        <v>0.55649631217362316</v>
+        <v>0.53523961243017004</v>
       </c>
       <c r="D240">
-        <v>0.45873365326333426</v>
+        <v>3.4734825701668446</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.18446176833157349</v>
+        <v>3.6959253755597083e-11</v>
       </c>
       <c r="B241">
-        <v>0.43337885403351495</v>
+        <v>0.44261116356325964</v>
       </c>
       <c r="C241">
-        <v>0.55851108257846771</v>
+        <v>0.5377931626206629</v>
       </c>
       <c r="D241">
-        <v>0.46875671386872603</v>
+        <v>3.4749939178870113</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.18851960728622794</v>
+        <v>3.5126058188656205e-11</v>
       </c>
       <c r="B242">
-        <v>0.43574213312681315</v>
+        <v>0.44557391256025641</v>
       </c>
       <c r="C242">
-        <v>0.5565989517769242</v>
+        <v>0.53382336400396802</v>
       </c>
       <c r="D242">
-        <v>0.47547565205439535</v>
+        <v>3.7550604546525168</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>0.18516986962438245</v>
+        <v>3.8037474707256188e-11</v>
       </c>
       <c r="B243">
-        <v>0.43209440914696318</v>
+        <v>0.44167396366238498</v>
       </c>
       <c r="C243">
-        <v>0.56002816844148018</v>
+        <v>0.53801213061364417</v>
       </c>
       <c r="D243">
-        <v>0.48773178154293684</v>
+        <v>3.6063891270162327</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>0.1851798370503541</v>
+        <v>3.9271167892881836e-11</v>
       </c>
       <c r="B244">
-        <v>0.43211060942418605</v>
+        <v>0.44175408601435762</v>
       </c>
       <c r="C244">
-        <v>0.56001188955494918</v>
+        <v>0.53791345919529499</v>
       </c>
       <c r="D244">
-        <v>0.50046265773260146</v>
+        <v>3.6032416570607442</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.1863464457880083</v>
+        <v>4.0404028131039771e-11</v>
       </c>
       <c r="B245">
-        <v>0.43266281099771758</v>
+        <v>0.44189425683737676</v>
       </c>
       <c r="C245">
-        <v>0.55981797047824067</v>
+        <v>0.53768338511571545</v>
       </c>
       <c r="D245">
-        <v>0.50840947995466101</v>
+        <v>3.6876770975507291</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.18618864401020055</v>
+        <v>4.3413234462519281e-11</v>
       </c>
       <c r="B246">
-        <v>0.43248113632007901</v>
+        <v>0.44163631497976386</v>
       </c>
       <c r="C246">
-        <v>0.55997906995488134</v>
+        <v>0.53791241303449033</v>
       </c>
       <c r="D246">
-        <v>0.54171665217385001</v>
+        <v>3.6826123463972342</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>0.18663833411166963</v>
+        <v>4.5741578350362897e-11</v>
       </c>
       <c r="B247">
-        <v>0.43300188519371274</v>
+        <v>0.44187877779656998</v>
       </c>
       <c r="C247">
-        <v>0.55957380608790386</v>
+        <v>0.53782885772414479</v>
       </c>
       <c r="D247">
-        <v>0.55112454817080925</v>
+        <v>3.6796786600020939</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>0.18641763870014222</v>
+        <v>4.8423747714255612e-11</v>
       </c>
       <c r="B248">
-        <v>0.43270541239187099</v>
+        <v>0.44169902632445657</v>
       </c>
       <c r="C248">
-        <v>0.55981124225168444</v>
+        <v>0.53794590313125934</v>
       </c>
       <c r="D248">
-        <v>0.57497046240386374</v>
+        <v>3.6807485332675567</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>0.18716305407536837</v>
+        <v>4.6582420385693211e-11</v>
       </c>
       <c r="B249">
-        <v>0.43382618328304412</v>
+        <v>0.44382273464909433</v>
       </c>
       <c r="C249">
-        <v>0.5592664125177208</v>
+        <v>0.53501971559659833</v>
       </c>
       <c r="D249">
-        <v>0.58136556639986714</v>
+        <v>3.910040908628273</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>0.18593718877796034</v>
+        <v>4.7235970428194196e-11</v>
       </c>
       <c r="B250">
-        <v>0.43183953816039428</v>
+        <v>0.44094044104206215</v>
       </c>
       <c r="C250">
-        <v>0.56106951808867411</v>
+        <v>0.53820315809515917</v>
       </c>
       <c r="D250">
-        <v>0.60103491555545607</v>
+        <v>3.7726056613515149</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.18602299588224286</v>
+        <v>4.9067853238495506e-11</v>
       </c>
       <c r="B251">
-        <v>0.43241244766864789</v>
+        <v>0.44079133202277576</v>
       </c>
       <c r="C251">
-        <v>0.56072054155136608</v>
+        <v>0.53843049683548716</v>
       </c>
       <c r="D251">
-        <v>0.62592071519310122</v>
+        <v>3.7927648793137547</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.18562520431074342</v>
+        <v>5.2045271902738347e-11</v>
       </c>
       <c r="B252">
-        <v>0.4312383519233885</v>
+        <v>0.44032007235877763</v>
       </c>
       <c r="C252">
-        <v>0.5616568438408206</v>
+        <v>0.53864338154287117</v>
       </c>
       <c r="D252">
-        <v>0.64842159761610685</v>
+        <v>3.7902862247660147</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>0.18615529138738171</v>
+        <v>5.3557231047349781e-11</v>
       </c>
       <c r="B253">
-        <v>0.43133054995061354</v>
+        <v>0.44096562628735264</v>
       </c>
       <c r="C253">
-        <v>0.56130609213826566</v>
+        <v>0.53766604289311726</v>
       </c>
       <c r="D253">
-        <v>0.6749052181651144</v>
+        <v>3.8100343017493632</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>0.18686543181012369</v>
+        <v>5.5891685213844106e-11</v>
       </c>
       <c r="B254">
-        <v>0.43195121442950407</v>
+        <v>0.44169120450231542</v>
       </c>
       <c r="C254">
-        <v>0.56049400671134764</v>
+        <v>0.53678990275848837</v>
       </c>
       <c r="D254">
-        <v>0.70107902621277018</v>
+        <v>3.7988450855091873</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.18756324550859896</v>
+        <v>5.8706957813666851e-11</v>
       </c>
       <c r="B255">
-        <v>0.43271161001998909</v>
+        <v>0.44208258136532114</v>
       </c>
       <c r="C255">
-        <v>0.5595490915482364</v>
+        <v>0.53675835629667068</v>
       </c>
       <c r="D255">
-        <v>0.75790770050736311</v>
+        <v>3.6632678749845513</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.18847431905178605</v>
+        <v>6.0413694490453675e-11</v>
       </c>
       <c r="B256">
-        <v>0.43392895780508794</v>
+        <v>0.44371277118556418</v>
       </c>
       <c r="C256">
-        <v>0.55807373747242184</v>
+        <v>0.53533193711958338</v>
       </c>
       <c r="D256">
-        <v>0.7539946152896021</v>
+        <v>3.5534659260674166</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>0.18603173850257354</v>
+        <v>6.4340273026432637e-11</v>
       </c>
       <c r="B257">
-        <v>0.42981775502809294</v>
+        <v>0.4415321461112659</v>
       </c>
       <c r="C257">
-        <v>0.56282974073947689</v>
+        <v>0.53693682245561203</v>
       </c>
       <c r="D257">
-        <v>0.80426319428206028</v>
+        <v>3.7457889704101901</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>0.18543731401465613</v>
+        <v>6.7008718896257386e-11</v>
       </c>
       <c r="B258">
-        <v>0.42907614555078111</v>
+        <v>0.44084527108489874</v>
       </c>
       <c r="C258">
-        <v>0.56346372150339963</v>
+        <v>0.53762673546994222</v>
       </c>
       <c r="D258">
-        <v>0.81465221973202107</v>
+        <v>3.7048818467515687</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>0.18548840362730359</v>
+        <v>7.0030182177708321e-11</v>
       </c>
       <c r="B259">
-        <v>0.42913533970459561</v>
+        <v>0.44082931772719847</v>
       </c>
       <c r="C259">
-        <v>0.56343579310990899</v>
+        <v>0.5376518048159995</v>
       </c>
       <c r="D259">
-        <v>0.84755199245772306</v>
+        <v>3.6925170493651422</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>0.18532058504269405</v>
+        <v>7.2376771393381344e-11</v>
       </c>
       <c r="B260">
-        <v>0.42892536100129069</v>
+        <v>0.44097004907848603</v>
       </c>
       <c r="C260">
-        <v>0.56353630771578134</v>
+        <v>0.53740425148154269</v>
       </c>
       <c r="D260">
-        <v>0.87332160273635606</v>
+        <v>3.684814584566305</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.18533908335570765</v>
+        <v>7.6819021954727892e-11</v>
       </c>
       <c r="B261">
-        <v>0.42900320990680918</v>
+        <v>0.44138874534289874</v>
       </c>
       <c r="C261">
-        <v>0.56332714985920374</v>
+        <v>0.53682165318116581</v>
       </c>
       <c r="D261">
-        <v>0.88058176049954429</v>
+        <v>3.691590635609677</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.18551973961071394</v>
+        <v>8.0229745403751838e-11</v>
       </c>
       <c r="B262">
-        <v>0.42942486457144108</v>
+        <v>0.44206433442479881</v>
       </c>
       <c r="C262">
-        <v>0.56272566523545453</v>
+        <v>0.53591383639777979</v>
       </c>
       <c r="D262">
-        <v>0.93609853116509623</v>
+        <v>3.7040414022022441</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>0.18540322735712569</v>
+        <v>8.216511990744689e-11</v>
       </c>
       <c r="B263">
-        <v>0.42912073620374469</v>
+        <v>0.4419363046493085</v>
       </c>
       <c r="C263">
-        <v>0.56310636763388311</v>
+        <v>0.53626379938637081</v>
       </c>
       <c r="D263">
-        <v>0.96180747256851351</v>
+        <v>3.6403018097250675</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>0.18559891464171205</v>
+        <v>8.9042767179254315e-11</v>
       </c>
       <c r="B264">
-        <v>0.42904300018063785</v>
+        <v>0.44183586751842313</v>
       </c>
       <c r="C264">
-        <v>0.56332169588347103</v>
+        <v>0.53634953545884367</v>
       </c>
       <c r="D264">
-        <v>1.0015192497490242</v>
+        <v>3.6559430325163822</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.1855409116492619</v>
+        <v>9.4907235512248964e-11</v>
       </c>
       <c r="B265">
-        <v>0.42900433313781522</v>
+        <v>0.44184227839451451</v>
       </c>
       <c r="C265">
-        <v>0.56334409067292857</v>
+        <v>0.53631425085448103</v>
       </c>
       <c r="D265">
-        <v>1.0259293511647429</v>
+        <v>3.6530460795033126</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.18587124122356791</v>
+        <v>1.0027951431716629e-10</v>
       </c>
       <c r="B266">
-        <v>0.42921103027767576</v>
+        <v>0.44192159007742354</v>
       </c>
       <c r="C266">
-        <v>0.56325252938699144</v>
+        <v>0.53622674003392368</v>
       </c>
       <c r="D266">
-        <v>1.0795635468137323</v>
+        <v>3.6654304576840206</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>0.18529453717727495</v>
+        <v>1.0647071840163086e-10</v>
       </c>
       <c r="B267">
-        <v>0.42866221314560748</v>
+        <v>0.441661419336561</v>
       </c>
       <c r="C267">
-        <v>0.56365872361882763</v>
+        <v>0.53635447088300514</v>
       </c>
       <c r="D267">
-        <v>1.1036542808761496</v>
+        <v>3.6548157264009085</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>0.18539580773958941</v>
+        <v>1.231186876699331e-10</v>
       </c>
       <c r="B268">
-        <v>0.42860629859413196</v>
+        <v>0.44129431297018751</v>
       </c>
       <c r="C268">
-        <v>0.56382224352223165</v>
+        <v>0.53689435913249528</v>
       </c>
       <c r="D268">
-        <v>1.132922291184038</v>
+        <v>3.6473647030420477</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>0.18601573468799032</v>
+        <v>1.2992154292457232e-10</v>
       </c>
       <c r="B269">
-        <v>0.42909184075362783</v>
+        <v>0.44169623950876796</v>
       </c>
       <c r="C269">
-        <v>0.56354750224402483</v>
+        <v>0.53665355737606535</v>
       </c>
       <c r="D269">
-        <v>1.1743071896020207</v>
+        <v>3.6598936179412918</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>0.18734136391337822</v>
+        <v>1.3226043733513404e-10</v>
       </c>
       <c r="B270">
-        <v>0.43068132663042868</v>
+        <v>0.44260781808177874</v>
       </c>
       <c r="C270">
-        <v>0.56221404224467941</v>
+        <v>0.53554743603799559</v>
       </c>
       <c r="D270">
-        <v>1.1436861188979546</v>
+        <v>3.7162472613988276</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.18718827083016987</v>
+        <v>1.3698653512231673e-10</v>
       </c>
       <c r="B271">
-        <v>0.43045721276650112</v>
+        <v>0.44193301664086265</v>
       </c>
       <c r="C271">
-        <v>0.56241461036365548</v>
+        <v>0.53623834691384942</v>
       </c>
       <c r="D271">
-        <v>1.1819846022504874</v>
+        <v>3.6918365383490084</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.18679148163827139</v>
+        <v>1.4561258360691836e-10</v>
       </c>
       <c r="B272">
-        <v>0.42969799079527843</v>
+        <v>0.44165648953869252</v>
       </c>
       <c r="C272">
-        <v>0.56300887976134362</v>
+        <v>0.53635366285263608</v>
       </c>
       <c r="D272">
-        <v>1.1677484013140098</v>
+        <v>3.6831199984959082</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>0.18695243159755356</v>
+        <v>1.5724333284739709e-10</v>
       </c>
       <c r="B273">
-        <v>0.42971352137064212</v>
+        <v>0.44130468048747257</v>
       </c>
       <c r="C273">
-        <v>0.56282462211703621</v>
+        <v>0.53697291630414246</v>
       </c>
       <c r="D273">
-        <v>1.2356154546650993</v>
+        <v>3.5767297397320257</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>0.18751122861966502</v>
+        <v>1.7168409180221006e-10</v>
       </c>
       <c r="B274">
-        <v>0.43031338084974219</v>
+        <v>0.4426533488676706</v>
       </c>
       <c r="C274">
-        <v>0.56198465304918399</v>
+        <v>0.53549623938695923</v>
       </c>
       <c r="D274">
-        <v>1.2323469176472581</v>
+        <v>3.5475462907791466</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.18749043578962679</v>
+        <v>1.7752784979228664e-10</v>
       </c>
       <c r="B275">
-        <v>0.43028367930365924</v>
+        <v>0.4426061281903006</v>
       </c>
       <c r="C275">
-        <v>0.56202291572281038</v>
+        <v>0.53555237637800945</v>
       </c>
       <c r="D275">
-        <v>1.3064097330773385</v>
+        <v>3.547319052054652</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>0.18803368050739716</v>
+        <v>1.9016876379506764e-10</v>
       </c>
       <c r="B276">
-        <v>0.4315863856879299</v>
+        <v>0.44419549536685432</v>
       </c>
       <c r="C276">
-        <v>0.56021393788773577</v>
+        <v>0.53368980903782404</v>
       </c>
       <c r="D276">
-        <v>1.3565608148125219</v>
+        <v>3.4965347091474945</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>0.18742698427756904</v>
+        <v>2.036177473648729e-10</v>
       </c>
       <c r="B277">
-        <v>0.43042744335448369</v>
+        <v>0.4447124757379069</v>
       </c>
       <c r="C277">
-        <v>0.56148221556247913</v>
+        <v>0.53329998297094461</v>
       </c>
       <c r="D277">
-        <v>1.4481021919761889</v>
+        <v>3.4611409580107599</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>0.18754993120576996</v>
+        <v>2.1426556335645803e-10</v>
       </c>
       <c r="B278">
-        <v>0.42801894862048989</v>
+        <v>0.44200419732522339</v>
       </c>
       <c r="C278">
-        <v>0.56439711827032657</v>
+        <v>0.53592955324700831</v>
       </c>
       <c r="D278">
-        <v>1.4653604808330583</v>
+        <v>3.5596951390748255</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>0.18804015325532195</v>
+        <v>2.2696818299777236e-10</v>
       </c>
       <c r="B279">
-        <v>0.42849734732910505</v>
+        <v>0.44207231105140365</v>
       </c>
       <c r="C279">
-        <v>0.56396298974957526</v>
+        <v>0.53586226818882843</v>
       </c>
       <c r="D279">
-        <v>1.4904599804999872</v>
+        <v>3.5614936054524162</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>0.18959132212062083</v>
+        <v>2.3517034686982509e-10</v>
       </c>
       <c r="B280">
-        <v>0.43004434217122639</v>
+        <v>0.44272363042779223</v>
       </c>
       <c r="C280">
-        <v>0.56262942421103979</v>
+        <v>0.53505429406242588</v>
       </c>
       <c r="D280">
-        <v>1.5609873212749847</v>
+        <v>3.6058174405985643</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.18687513234406647</v>
+        <v>2.5008505606245524e-10</v>
       </c>
       <c r="B281">
-        <v>0.42667416689987897</v>
+        <v>0.44011233781550085</v>
       </c>
       <c r="C281">
-        <v>0.56565695224743706</v>
+        <v>0.537719045892322</v>
       </c>
       <c r="D281">
-        <v>1.5629177133217855</v>
+        <v>3.5035232756950037</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.1870912089937504</v>
+        <v>2.6609947688872892e-10</v>
       </c>
       <c r="B282">
-        <v>0.42714653576594636</v>
+        <v>0.44131065132700814</v>
       </c>
       <c r="C282">
-        <v>0.56503193031163479</v>
+        <v>0.53634410501248297</v>
       </c>
       <c r="D282">
-        <v>1.669764868327094</v>
+        <v>3.504827337930613</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>0.18713440741947385</v>
+        <v>2.8843782882913984e-10</v>
       </c>
       <c r="B283">
-        <v>0.427247948012422</v>
+        <v>0.44172105414124607</v>
       </c>
       <c r="C283">
-        <v>0.56491211799702212</v>
+        <v>0.53593816482198464</v>
       </c>
       <c r="D283">
-        <v>1.7441483870499528</v>
+        <v>3.4889911592136587</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>0.18714307740583205</v>
+        <v>3.1185829669913424e-10</v>
       </c>
       <c r="B284">
-        <v>0.42729113120433149</v>
+        <v>0.44158923553852453</v>
       </c>
       <c r="C284">
-        <v>0.56486018951178918</v>
+        <v>0.53640693851278209</v>
       </c>
       <c r="D284">
-        <v>1.8203205352679264</v>
+        <v>3.3988125564025875</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.18709318024798124</v>
+        <v>3.038604655033705e-10</v>
       </c>
       <c r="B285">
-        <v>0.4273574459016598</v>
+        <v>0.44198069800811191</v>
       </c>
       <c r="C285">
-        <v>0.56475967492340973</v>
+        <v>0.5360317125895101</v>
       </c>
       <c r="D285">
-        <v>1.9078715461358171</v>
+        <v>3.3769271121398559</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.18678118948610395</v>
+        <v>3.2178501609575629e-10</v>
       </c>
       <c r="B286">
-        <v>0.42754663938254789</v>
+        <v>0.44241570138332292</v>
       </c>
       <c r="C286">
-        <v>0.5644326962158851</v>
+        <v>0.53574612548345679</v>
       </c>
       <c r="D286">
-        <v>1.9724062265397846</v>
+        <v>3.308488964217656</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>0.186843627618964</v>
+        <v>3.5352188401702546e-10</v>
       </c>
       <c r="B287">
-        <v>0.42739920680190485</v>
+        <v>0.44253682810558864</v>
       </c>
       <c r="C287">
-        <v>0.56462368652325945</v>
+        <v>0.53589162354858666</v>
       </c>
       <c r="D287">
-        <v>2.0737012631300229</v>
+        <v>3.2416665142550456</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>0.18824881632398552</v>
+        <v>3.7064492018603367e-10</v>
       </c>
       <c r="B288">
-        <v>0.42719098613295864</v>
+        <v>0.44140141606863037</v>
       </c>
       <c r="C288">
-        <v>0.56516568952685264</v>
+        <v>0.53692510456074038</v>
       </c>
       <c r="D288">
-        <v>2.1666636191217084</v>
+        <v>3.3143500643549886</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>0.18955288333399525</v>
+        <v>3.846410331305184e-10</v>
       </c>
       <c r="B289">
-        <v>0.42838891581695909</v>
+        <v>0.44194390426838026</v>
       </c>
       <c r="C289">
-        <v>0.5640778203328749</v>
+        <v>0.5364452357403684</v>
       </c>
       <c r="D289">
-        <v>2.1599198315280264</v>
+        <v>3.3259578210770062</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>0.18834934799337738</v>
+        <v>4.0370927836553107e-10</v>
       </c>
       <c r="B290">
-        <v>0.42714860668534005</v>
+        <v>0.44049628446199723</v>
       </c>
       <c r="C290">
-        <v>0.56519041052983598</v>
+        <v>0.53793066920618027</v>
       </c>
       <c r="D290">
-        <v>2.2112325122328875</v>
+        <v>3.2794050980905358</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.18988059677754043</v>
+        <v>4.5128068657650514e-10</v>
       </c>
       <c r="B291">
-        <v>0.42798077726165218</v>
+        <v>0.44207678420119489</v>
       </c>
       <c r="C291">
-        <v>0.56488024937618941</v>
+        <v>0.53554440465736208</v>
       </c>
       <c r="D291">
-        <v>2.2973939951975617</v>
+        <v>3.4830340557065989</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.18602487868433495</v>
+        <v>5.0085521338424314e-10</v>
       </c>
       <c r="B292">
-        <v>0.42287989386537478</v>
+        <v>0.43745855525884503</v>
       </c>
       <c r="C292">
-        <v>0.56961615931194254</v>
+        <v>0.54034995484252579</v>
       </c>
       <c r="D292">
-        <v>2.3918672142315547</v>
+        <v>3.3512665759231242</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>0.18574878871371361</v>
+        <v>5.3795036408026063e-10</v>
       </c>
       <c r="B293">
-        <v>0.42239222758758449</v>
+        <v>0.43703663865979431</v>
       </c>
       <c r="C293">
-        <v>0.57033417009274401</v>
+        <v>0.54070528473439317</v>
       </c>
       <c r="D293">
-        <v>2.4562368194685855</v>
+        <v>3.3837601262113397</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>0.18599237871879903</v>
+        <v>5.7038867719379685e-10</v>
       </c>
       <c r="B294">
-        <v>0.42270808229095674</v>
+        <v>0.43703740939628771</v>
       </c>
       <c r="C294">
-        <v>0.57010761707083668</v>
+        <v>0.54073466828286043</v>
       </c>
       <c r="D294">
-        <v>2.5350137231580381</v>
+        <v>3.3892616382552521</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.18677007171215801</v>
+        <v>6.0556555684418497e-10</v>
       </c>
       <c r="B295">
-        <v>0.4238769517407267</v>
+        <v>0.43728113134866847</v>
       </c>
       <c r="C295">
-        <v>0.56921779616101842</v>
+        <v>0.54082859831338226</v>
       </c>
       <c r="D295">
-        <v>2.6223082105165436</v>
+        <v>3.3869819011085487</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.18582397114111907</v>
+        <v>6.5264059987502523e-10</v>
       </c>
       <c r="B296">
-        <v>0.42226806089186902</v>
+        <v>0.43616143262779689</v>
       </c>
       <c r="C296">
-        <v>0.57063378925425312</v>
+        <v>0.54169248799393654</v>
       </c>
       <c r="D296">
-        <v>2.6611925080367516</v>
+        <v>3.3932851039420391</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>0.18589835509406796</v>
+        <v>6.929031999362511e-10</v>
       </c>
       <c r="B297">
-        <v>0.42215545793952364</v>
+        <v>0.43574411408386132</v>
       </c>
       <c r="C297">
-        <v>0.57061907181201821</v>
+        <v>0.54212228081746983</v>
       </c>
       <c r="D297">
-        <v>2.7845005312581441</v>
+        <v>3.3575968412603308</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>0.18649778127702435</v>
+        <v>7.6187767705609963e-10</v>
       </c>
       <c r="B298">
-        <v>0.42257544781644507</v>
+        <v>0.43526643616322086</v>
       </c>
       <c r="C298">
-        <v>0.56989629197403968</v>
+        <v>0.54306143736899093</v>
       </c>
       <c r="D298">
-        <v>2.9007942655474475</v>
+        <v>3.2094557237425034</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>0.1871642144898413</v>
+        <v>8.2103914947496999e-10</v>
       </c>
       <c r="B299">
-        <v>0.42344733921889283</v>
+        <v>0.43678789064848983</v>
       </c>
       <c r="C299">
-        <v>0.56887181838879486</v>
+        <v>0.54146042487242818</v>
       </c>
       <c r="D299">
-        <v>3.0067341479144734</v>
+        <v>3.1911726177284203</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>0.18614157002780332</v>
+        <v>9.1809255796491847e-10</v>
       </c>
       <c r="B300">
-        <v>0.42174859191106662</v>
+        <v>0.43427947138098022</v>
       </c>
       <c r="C300">
-        <v>0.57086722745128293</v>
+        <v>0.54429878299081369</v>
       </c>
       <c r="D300">
-        <v>3.0023978297028613</v>
+        <v>3.1831256111694231</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.18540311161145537</v>
+        <v>1.0186932424190763e-09</v>
       </c>
       <c r="B301">
-        <v>0.42106030809114858</v>
+        <v>0.43234050972168797</v>
       </c>
       <c r="C301">
-        <v>0.57127522598970204</v>
+        <v>0.54672685179633418</v>
       </c>
       <c r="D301">
-        <v>3.2917579171355968</v>
+        <v>3.03267709625894</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.18475206281686127</v>
+        <v>1.2223864047930026e-09</v>
       </c>
       <c r="B302">
-        <v>0.41949477073560687</v>
+        <v>0.43045618488148024</v>
       </c>
       <c r="C302">
-        <v>0.57317385346867211</v>
+        <v>0.54871570789234436</v>
       </c>
       <c r="D302">
-        <v>3.3907768603502562</v>
+        <v>3.0629412718722144</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>0.18365823156294395</v>
+        <v>1.2842421420578042e-09</v>
       </c>
       <c r="B303">
-        <v>0.41841384494761308</v>
+        <v>0.42992292795605636</v>
       </c>
       <c r="C303">
-        <v>0.5740185561598562</v>
+        <v>0.54900593968433786</v>
       </c>
       <c r="D303">
-        <v>3.3031530006213954</v>
+        <v>3.0547325806021037</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>0.18368691372360205</v>
+        <v>1.3971979437670202e-09</v>
       </c>
       <c r="B304">
-        <v>0.41854049372390945</v>
+        <v>0.43017293338574508</v>
       </c>
       <c r="C304">
-        <v>0.57385575921711096</v>
+        <v>0.54875450976487627</v>
       </c>
       <c r="D304">
-        <v>3.4859484473299065</v>
+        <v>3.0406781214834826</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.18361189035583222</v>
+        <v>1.5263965013906372e-09</v>
       </c>
       <c r="B305">
-        <v>0.41887085761674919</v>
+        <v>0.43055641236452835</v>
       </c>
       <c r="C305">
-        <v>0.57338812486773183</v>
+        <v>0.54840505480346924</v>
       </c>
       <c r="D305">
-        <v>3.6163732418885659</v>
+        <v>3.0022275125484112</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.18361795222279256</v>
+        <v>1.6198724889438531e-09</v>
       </c>
       <c r="B306">
-        <v>0.4183178839661244</v>
+        <v>0.43043470945404405</v>
       </c>
       <c r="C306">
-        <v>0.57407213742301622</v>
+        <v>0.54848466641502147</v>
       </c>
       <c r="D306">
-        <v>3.6354159810619615</v>
+        <v>3.0169889685124756</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>0.18368855416148566</v>
+        <v>1.7390903930842448e-09</v>
       </c>
       <c r="B307">
-        <v>0.41835078061764241</v>
+        <v>0.43046152157505391</v>
       </c>
       <c r="C307">
-        <v>0.57405321041595947</v>
+        <v>0.54845268571196337</v>
       </c>
       <c r="D307">
-        <v>3.7750198322134882</v>
+        <v>3.0152810319226373</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>0.1848182618591242</v>
+        <v>1.820494950572149e-09</v>
       </c>
       <c r="B308">
-        <v>0.41875207301619372</v>
+        <v>0.43105580891037421</v>
       </c>
       <c r="C308">
-        <v>0.57389507881197888</v>
+        <v>0.5475729596674398</v>
       </c>
       <c r="D308">
-        <v>3.7470474419206088</v>
+        <v>3.0812240835464175</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>0.18511521313526366</v>
+        <v>1.959452391541875e-09</v>
       </c>
       <c r="B309">
-        <v>0.41904665921778228</v>
+        <v>0.43092277717154848</v>
       </c>
       <c r="C309">
-        <v>0.57363375118031945</v>
+        <v>0.54771780251878077</v>
       </c>
       <c r="D309">
-        <v>3.8743790542080565</v>
+        <v>3.0746333328674655</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>0.18421324510006984</v>
+        <v>2.068191456863997e-09</v>
       </c>
       <c r="B310">
-        <v>0.41813279411714255</v>
+        <v>0.43058172695012203</v>
       </c>
       <c r="C310">
-        <v>0.57439542570555646</v>
+        <v>0.54792671675345961</v>
       </c>
       <c r="D310">
-        <v>4.0543360691405184</v>
+        <v>3.0619062584507497</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.18389608675987745</v>
+        <v>2.2531436515019555e-09</v>
       </c>
       <c r="B311">
-        <v>0.41827888732342772</v>
+        <v>0.43067927422971314</v>
       </c>
       <c r="C311">
-        <v>0.57397858169237914</v>
+        <v>0.54804455558003318</v>
       </c>
       <c r="D311">
-        <v>4.2120195833156373</v>
+        <v>2.9685174615145753</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.18310893082341059</v>
+        <v>2.3122304527465731e-09</v>
       </c>
       <c r="B312">
-        <v>0.41590076844403495</v>
+        <v>0.4293871552921763</v>
       </c>
       <c r="C312">
-        <v>0.57672462566830118</v>
+        <v>0.54904203180322209</v>
       </c>
       <c r="D312">
-        <v>4.2275663932048957</v>
+        <v>3.054166295235671</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>0.1827667597805831</v>
+        <v>2.4383020075900045e-09</v>
       </c>
       <c r="B313">
-        <v>0.41562296545972544</v>
+        <v>0.42915827599502127</v>
       </c>
       <c r="C313">
-        <v>0.5769466772418107</v>
+        <v>0.54926245472861224</v>
       </c>
       <c r="D313">
-        <v>4.3789396642656939</v>
+        <v>3.0370476244755125</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>0.1822080079779955</v>
+        <v>2.640935837512772e-09</v>
       </c>
       <c r="B314">
-        <v>0.41537001014144576</v>
+        <v>0.42925649003090066</v>
       </c>
       <c r="C314">
-        <v>0.5770339936151504</v>
+        <v>0.54910715150445333</v>
       </c>
       <c r="D314">
-        <v>4.4884486553509388</v>
+        <v>3.0095039599375086</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.18222415292798771</v>
+        <v>2.8879290052223693e-09</v>
       </c>
       <c r="B315">
-        <v>0.41535334845621313</v>
+        <v>0.42914007424148032</v>
       </c>
       <c r="C315">
-        <v>0.57706158835003352</v>
+        <v>0.54954194435923087</v>
       </c>
       <c r="D315">
-        <v>4.5930506655458636</v>
+        <v>2.9378867527275472</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.18185272737625785</v>
+        <v>3.048211180574403e-09</v>
       </c>
       <c r="B316">
-        <v>0.41556415799011792</v>
+        <v>0.42989674980555137</v>
       </c>
       <c r="C316">
-        <v>0.57669457446460815</v>
+        <v>0.5488706016758268</v>
       </c>
       <c r="D316">
-        <v>4.7452108883614672</v>
+        <v>2.8868138487250197</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>0.18167651998740392</v>
+        <v>3.2385225414614807e-09</v>
       </c>
       <c r="B317">
-        <v>0.41690276332979398</v>
+        <v>0.43255424498535072</v>
       </c>
       <c r="C317">
-        <v>0.5750869978453591</v>
+        <v>0.54595159839940732</v>
       </c>
       <c r="D317">
-        <v>4.811606515802425</v>
+        <v>2.8788171440541448</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>0.18206684064123488</v>
+        <v>3.363785663344769e-09</v>
       </c>
       <c r="B318">
-        <v>0.41945247030581506</v>
+        <v>0.43527101159130016</v>
       </c>
       <c r="C318">
-        <v>0.57230294100803814</v>
+        <v>0.5435783670241271</v>
       </c>
       <c r="D318">
-        <v>4.9682291158758174</v>
+        <v>2.7779044433128268</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>0.18185204105591338</v>
+        <v>3.6165605792268002e-09</v>
       </c>
       <c r="B319">
-        <v>0.41558777195324531</v>
+        <v>0.43300668597409886</v>
       </c>
       <c r="C319">
-        <v>0.576438253634315</v>
+        <v>0.54558686135183487</v>
       </c>
       <c r="D319">
-        <v>4.8542250126469417</v>
+        <v>2.8466116710447511</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>0.17964394022377755</v>
+        <v>3.9490362928005693e-09</v>
       </c>
       <c r="B320">
-        <v>0.41535729238566288</v>
+        <v>0.43326957859743764</v>
       </c>
       <c r="C320">
-        <v>0.5765053545747606</v>
+        <v>0.54533188338226368</v>
       </c>
       <c r="D320">
-        <v>5.1941094248835062</v>
+        <v>2.8027022922249039</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.18170974935202786</v>
+        <v>4.8495575810744509e-09</v>
       </c>
       <c r="B321">
-        <v>0.4130464262552157</v>
+        <v>0.42982264726665326</v>
       </c>
       <c r="C321">
-        <v>0.57908627233168797</v>
+        <v>0.54906457332193492</v>
       </c>
       <c r="D321">
-        <v>5.1727140789215591</v>
+        <v>2.812071999330346</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.17964277434673362</v>
+        <v>5.2680292095574754e-09</v>
       </c>
       <c r="B322">
-        <v>0.41203089221623312</v>
+        <v>0.42676451465678872</v>
       </c>
       <c r="C322">
-        <v>0.58001185408382672</v>
+        <v>0.55289682230350279</v>
       </c>
       <c r="D322">
-        <v>5.570978027908378</v>
+        <v>2.6529064672203244</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>0.17747094110054729</v>
+        <v>5.6201706950975535e-09</v>
       </c>
       <c r="B323">
-        <v>0.41210511166388059</v>
+        <v>0.42732499664988155</v>
       </c>
       <c r="C323">
-        <v>0.57977029981551842</v>
+        <v>0.55252089145480199</v>
       </c>
       <c r="D323">
-        <v>5.935963568114393</v>
+        <v>2.5805680067180994</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>0.17624427090500155</v>
+        <v>6.2016027829534237e-09</v>
       </c>
       <c r="B324">
-        <v>0.41382671701550849</v>
+        <v>0.43014628169068342</v>
       </c>
       <c r="C324">
-        <v>0.57788744615319143</v>
+        <v>0.54951732744630566</v>
       </c>
       <c r="D324">
-        <v>6.2187807921456626</v>
+        <v>2.5741800875905572</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.17706946391319228</v>
+        <v>6.6947492544974116e-09</v>
       </c>
       <c r="B325">
-        <v>0.41224786535729463</v>
+        <v>0.42942451449276015</v>
       </c>
       <c r="C325">
-        <v>0.57956091962305933</v>
+        <v>0.55015260800039523</v>
       </c>
       <c r="D325">
-        <v>6.435829208502339</v>
+        <v>2.597816193821139</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.17805255676390919</v>
+        <v>7.1163116076225197e-09</v>
       </c>
       <c r="B326">
-        <v>0.4121662045434788</v>
+        <v>0.4294648483428532</v>
       </c>
       <c r="C326">
-        <v>0.57967915713753215</v>
+        <v>0.55009709822273933</v>
       </c>
       <c r="D326">
-        <v>6.4685115269204552</v>
+        <v>2.6017038174264355</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>0.17534667714285873</v>
+        <v>7.6857100775799002e-09</v>
       </c>
       <c r="B327">
-        <v>0.41185468927637964</v>
+        <v>0.42952027584042107</v>
       </c>
       <c r="C327">
-        <v>0.57991174343155383</v>
+        <v>0.55004642118750469</v>
       </c>
       <c r="D327">
-        <v>6.668554567505824</v>
+        <v>2.5722029983485744</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>0.17312780512986894</v>
+        <v>8.4086545667877374e-09</v>
       </c>
       <c r="B328">
-        <v>0.41269889764239409</v>
+        <v>0.4309783710633821</v>
       </c>
       <c r="C328">
-        <v>0.57898051938375883</v>
+        <v>0.5484541441463372</v>
       </c>
       <c r="D328">
-        <v>7.2986186786053908</v>
+        <v>2.566713957799148</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>0.17086191935310249</v>
+        <v>9.3045600274496329e-09</v>
       </c>
       <c r="B329">
-        <v>0.41436958636001758</v>
+        <v>0.43224806147332256</v>
       </c>
       <c r="C329">
-        <v>0.57722701431970636</v>
+        <v>0.5475823855552796</v>
       </c>
       <c r="D329">
-        <v>7.616249199538613</v>
+        <v>2.4768811343770745</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>0.17083746025367241</v>
+        <v>9.6380417247277191e-09</v>
       </c>
       <c r="B330">
-        <v>0.4144751156045004</v>
+        <v>0.43263111485729577</v>
       </c>
       <c r="C330">
-        <v>0.57712079926347382</v>
+        <v>0.54719866781776272</v>
       </c>
       <c r="D330">
-        <v>8.0931459721103227</v>
+        <v>2.4743374961742686</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.17224814241471789</v>
+        <v>1.0251994554949719e-08</v>
       </c>
       <c r="B331">
-        <v>0.41409042954023911</v>
+        <v>0.43203287169955124</v>
       </c>
       <c r="C331">
-        <v>0.57751831142735299</v>
+        <v>0.54784775725013557</v>
       </c>
       <c r="D331">
-        <v>7.9673308593322272</v>
+        <v>2.4757040455323369</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.17142452424265978</v>
+        <v>1.1281529636102478e-08</v>
       </c>
       <c r="B332">
-        <v>0.41415102819892397</v>
+        <v>0.43170042711346152</v>
       </c>
       <c r="C332">
-        <v>0.57745577870019815</v>
+        <v>0.54838063452724839</v>
       </c>
       <c r="D332">
-        <v>8.3126408336852329</v>
+        <v>2.4349945073462531</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>0.16738081453389053</v>
+        <v>1.2133768958992194e-08</v>
       </c>
       <c r="B333">
-        <v>0.41431826403426414</v>
+        <v>0.43184774434731282</v>
       </c>
       <c r="C333">
-        <v>0.57728011272303625</v>
+        <v>0.54843288361785614</v>
       </c>
       <c r="D333">
-        <v>8.6515632741307762</v>
+        <v>2.3814339373663058</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>0.16759673356553906</v>
+        <v>0.075020942537551025</v>
       </c>
       <c r="B334">
-        <v>0.41432508383457112</v>
+        <v>0.43374702800786025</v>
       </c>
       <c r="C334">
-        <v>0.57727426642568069</v>
+        <v>0.54493928077871567</v>
       </c>
       <c r="D334">
-        <v>9.0585120498153877</v>
+        <v>2.2810405255145292</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.16556583094279834</v>
+        <v>0.073144319864789406</v>
       </c>
       <c r="B335">
-        <v>0.41458158856252497</v>
+        <v>0.43408663887219423</v>
       </c>
       <c r="C335">
-        <v>0.57702478751446484</v>
+        <v>0.5446401420289374</v>
       </c>
       <c r="D335">
-        <v>9.4624763099540417</v>
+        <v>2.2734743462036584</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.16532426099046135</v>
+        <v>0.07396661552153784</v>
       </c>
       <c r="B336">
-        <v>0.41467756803586353</v>
+        <v>0.43329641509350586</v>
       </c>
       <c r="C336">
-        <v>0.57693103121027389</v>
+        <v>0.54603433454685224</v>
       </c>
       <c r="D336">
-        <v>9.5825025307747644</v>
+        <v>2.1684280019006201</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>0.16507036556125812</v>
+        <v>0.07348460992993619</v>
       </c>
       <c r="B337">
-        <v>0.41475148630836856</v>
+        <v>0.43341621446171164</v>
       </c>
       <c r="C337">
-        <v>0.57685995028046011</v>
+        <v>0.54606396122526613</v>
       </c>
       <c r="D337">
-        <v>9.790894957319356</v>
+        <v>2.1420176240260043</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>0.16229683108964843</v>
+        <v>0.071361621574135864</v>
       </c>
       <c r="B338">
-        <v>0.4148404261908985</v>
+        <v>0.43382634943817955</v>
       </c>
       <c r="C338">
-        <v>0.57679432216746251</v>
+        <v>0.54575703411820664</v>
       </c>
       <c r="D338">
-        <v>10.263345387657807</v>
+        <v>2.1244131261975658</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>0.15779584900181978</v>
+        <v>0.068716308870688247</v>
       </c>
       <c r="B339">
-        <v>0.41532694542752568</v>
+        <v>0.43430285215451653</v>
       </c>
       <c r="C339">
-        <v>0.57635033268259028</v>
+        <v>0.5456055975948545</v>
       </c>
       <c r="D339">
-        <v>10.832058490034074</v>
+        <v>2.0706870168638543</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>0.15309212612342704</v>
+        <v>0.066858010103964471</v>
       </c>
       <c r="B340">
-        <v>0.41641140229417345</v>
+        <v>0.43509726086983452</v>
       </c>
       <c r="C340">
-        <v>0.57532253657674493</v>
+        <v>0.54533924241938403</v>
       </c>
       <c r="D340">
-        <v>11.040620326413014</v>
+        <v>1.9845558700110986</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.14950585717654052</v>
+        <v>0.064022852072285849</v>
       </c>
       <c r="B341">
-        <v>0.41743205311827858</v>
+        <v>0.43654174261049894</v>
       </c>
       <c r="C341">
-        <v>0.5743583029578001</v>
+        <v>0.5440451697124663</v>
       </c>
       <c r="D341">
-        <v>11.245030061846316</v>
+        <v>1.9652081370850092</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.15849439888458922</v>
+        <v>0.066610691616440759</v>
       </c>
       <c r="B342">
-        <v>0.41561329345142234</v>
+        <v>0.43592765668079542</v>
       </c>
       <c r="C342">
-        <v>0.57601417457608217</v>
+        <v>0.54421503490569267</v>
       </c>
       <c r="D342">
-        <v>11.059217152536011</v>
+        <v>2.0295919098047732</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>0.16910792108759221</v>
+        <v>0.066083851745643699</v>
       </c>
       <c r="B343">
-        <v>0.41664649549625199</v>
+        <v>0.43699201178900904</v>
       </c>
       <c r="C343">
-        <v>0.57479748341582648</v>
+        <v>0.54273190956368833</v>
       </c>
       <c r="D343">
-        <v>10.960963753400792</v>
+        <v>2.0979254047230746</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>0.16546444809735394</v>
+        <v>0.06446058167109571</v>
       </c>
       <c r="B344">
-        <v>0.41572366027441154</v>
+        <v>0.43538076921106272</v>
       </c>
       <c r="C344">
-        <v>0.57577534430751032</v>
+        <v>0.54483300279156088</v>
       </c>
       <c r="D344">
-        <v>11.357014494262877</v>
+        <v>2.0196199854935313</v>
       </c>
     </row>
   </sheetData>
